--- a/migforecasting/clustering/for paper/input for paper.xlsx
+++ b/migforecasting/clustering/for paper/input for paper.xlsx
@@ -416,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P61"/>
+  <dimension ref="A1:P91"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S10" sqref="S10"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="W14" sqref="W14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -493,49 +493,49 @@
         <v>17275</v>
       </c>
       <c r="B2" s="2">
-        <v>3065.78</v>
+        <v>5648.5582401918809</v>
       </c>
       <c r="C2" s="2">
-        <v>21679.803337394831</v>
+        <v>20815.4167831292</v>
       </c>
       <c r="D2" s="2">
-        <v>9990.9274654330093</v>
+        <v>19721.961700869851</v>
       </c>
       <c r="E2" s="2">
-        <v>580.08536423274654</v>
+        <v>881.00766886934832</v>
       </c>
       <c r="F2" s="2">
-        <v>1056927.9355371816</v>
+        <v>1094086.860592877</v>
       </c>
       <c r="G2" s="2">
-        <v>39.836295399999258</v>
+        <v>39.4</v>
       </c>
       <c r="H2" s="2">
-        <v>52.28189156677908</v>
+        <v>125.6772308691166</v>
       </c>
       <c r="I2" s="2">
-        <v>9.8294841543144535</v>
+        <v>77.805859831260051</v>
       </c>
       <c r="J2" s="2">
-        <v>338.98346838031421</v>
+        <v>657.77532591485419</v>
       </c>
       <c r="K2" s="2">
-        <v>35709.008909223878</v>
+        <v>101102.97564972581</v>
       </c>
       <c r="L2" s="2">
-        <v>73632.724884151248</v>
+        <v>120574.1931586198</v>
       </c>
       <c r="M2" s="2">
-        <v>744853.96513498458</v>
+        <v>4717355.206267274</v>
       </c>
       <c r="N2" s="2">
-        <v>23.518145468272934</v>
+        <v>35.752251160859089</v>
       </c>
       <c r="O2" s="2">
-        <v>1087.841454077746</v>
+        <v>1599.139320430128</v>
       </c>
       <c r="P2" s="2">
-        <v>356159.95995556167</v>
+        <v>5013077.512856801</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
@@ -543,49 +543,49 @@
         <v>65842</v>
       </c>
       <c r="B3" s="2">
-        <v>13832.84</v>
+        <v>10892</v>
       </c>
       <c r="C3" s="2">
-        <v>23969.885793246038</v>
+        <v>21988.19528</v>
       </c>
       <c r="D3" s="2">
-        <v>46136.882675321423</v>
+        <v>37427.899999999987</v>
       </c>
       <c r="E3" s="2">
-        <v>988.83749852333153</v>
+        <v>881.00766886934832</v>
       </c>
       <c r="F3" s="2">
-        <v>4090470.24755956</v>
+        <v>2824760.72811</v>
       </c>
       <c r="G3" s="2">
-        <v>25.276837182740646</v>
+        <v>30.831632653061199</v>
       </c>
       <c r="H3" s="2">
-        <v>91.783765195012165</v>
+        <v>125.6772308691166</v>
       </c>
       <c r="I3" s="2">
-        <v>298.5705811873018</v>
+        <v>242.99999999999901</v>
       </c>
       <c r="J3" s="2">
-        <v>722.15238716924478</v>
+        <v>657.77532591485419</v>
       </c>
       <c r="K3" s="2">
-        <v>1066337.8382213118</v>
+        <v>959880.00000000023</v>
       </c>
       <c r="L3" s="2">
-        <v>395500.44770277175</v>
+        <v>322825.61999999988</v>
       </c>
       <c r="M3" s="2">
-        <v>17132037.645676285</v>
+        <v>12665201.631200001</v>
       </c>
       <c r="N3" s="2">
-        <v>26.585729659786789</v>
+        <v>35.752251160859089</v>
       </c>
       <c r="O3" s="2">
-        <v>3662.5528871433626</v>
+        <v>3185</v>
       </c>
       <c r="P3" s="2">
-        <v>18702978.115983784</v>
+        <v>12405299.012639999</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
@@ -593,49 +593,49 @@
         <v>110482</v>
       </c>
       <c r="B4" s="2">
-        <v>23757.889999999996</v>
+        <v>18707</v>
       </c>
       <c r="C4" s="2">
-        <v>23374.655086082195</v>
+        <v>21442.174780000001</v>
       </c>
       <c r="D4" s="2">
-        <v>87752.516275045637</v>
+        <v>71187.999999999971</v>
       </c>
       <c r="E4" s="2">
-        <v>3755.8691620892382</v>
+        <v>3068.9999999999991</v>
       </c>
       <c r="F4" s="2">
-        <v>2076660.1605172826</v>
+        <v>1434081.5877</v>
       </c>
       <c r="G4" s="2">
-        <v>25.175729834009683</v>
+        <v>30.831632653061199</v>
       </c>
       <c r="H4" s="2">
-        <v>242.82034083237392</v>
+        <v>208.99999999999861</v>
       </c>
       <c r="I4" s="2">
-        <v>307.17137982232691</v>
+        <v>249.99999999999889</v>
       </c>
       <c r="J4" s="2">
-        <v>868.06713037909356</v>
+        <v>760.29999999999905</v>
       </c>
       <c r="K4" s="2">
-        <v>91892.042028160213</v>
+        <v>101102.97564972581</v>
       </c>
       <c r="L4" s="2">
-        <v>404333.93767816876</v>
+        <v>330035.92</v>
       </c>
       <c r="M4" s="2">
-        <v>15529696.715903692</v>
+        <v>11480639.036999989</v>
       </c>
       <c r="N4" s="2">
-        <v>30.675841915138577</v>
+        <v>35.752251160859089</v>
       </c>
       <c r="O4" s="2">
-        <v>5484.0548567619135</v>
+        <v>4768.9999999999991</v>
       </c>
       <c r="P4" s="2">
-        <v>23228394.098859005</v>
+        <v>15406913.946690001</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
@@ -643,49 +643,49 @@
         <v>18562</v>
       </c>
       <c r="B5" s="2">
-        <v>4691.380000000001</v>
+        <v>5648.5582401918809</v>
       </c>
       <c r="C5" s="2">
-        <v>23669.21548370285</v>
+        <v>21712.38264</v>
       </c>
       <c r="D5" s="2">
-        <v>10065.874830010225</v>
+        <v>19721.961700869851</v>
       </c>
       <c r="E5" s="2">
-        <v>695.12339005105468</v>
+        <v>881.00766886934832</v>
       </c>
       <c r="F5" s="2">
-        <v>693877.79925142787</v>
+        <v>1094086.860592877</v>
       </c>
       <c r="G5" s="2">
-        <v>38.623007215227709</v>
+        <v>38.200000000000003</v>
       </c>
       <c r="H5" s="2">
-        <v>110.37288219653362</v>
+        <v>125.6772308691166</v>
       </c>
       <c r="I5" s="2">
-        <v>51.60479181015095</v>
+        <v>77.805859831260051</v>
       </c>
       <c r="J5" s="2">
-        <v>635.26575212801254</v>
+        <v>657.77532591485419</v>
       </c>
       <c r="K5" s="2">
-        <v>16451.428351689148</v>
+        <v>101102.97564972581</v>
       </c>
       <c r="L5" s="2">
-        <v>44614.97432854872</v>
+        <v>120574.1931586198</v>
       </c>
       <c r="M5" s="2">
-        <v>6720399.1433862001</v>
+        <v>4968189.5378400004</v>
       </c>
       <c r="N5" s="2">
-        <v>24.540673532110869</v>
+        <v>35.752251160859089</v>
       </c>
       <c r="O5" s="2">
-        <v>1102.7906495354739</v>
+        <v>1599.139320430128</v>
       </c>
       <c r="P5" s="2">
-        <v>2603925.131103361</v>
+        <v>5013077.512856801</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
@@ -693,49 +693,49 @@
         <v>28673</v>
       </c>
       <c r="B6" s="2">
-        <v>5350.51</v>
+        <v>5648.5582401918809</v>
       </c>
       <c r="C6" s="2">
-        <v>20405.00153078483</v>
+        <v>20815.4167831292</v>
       </c>
       <c r="D6" s="2">
-        <v>19361.073799269216</v>
+        <v>19721.961700869851</v>
       </c>
       <c r="E6" s="2">
-        <v>1451.437219367167</v>
+        <v>1185.9999999999991</v>
       </c>
       <c r="F6" s="2">
-        <v>1321871.3168206764</v>
+        <v>1094086.860592877</v>
       </c>
       <c r="G6" s="2">
-        <v>36.904182286801344</v>
+        <v>36.5</v>
       </c>
       <c r="H6" s="2">
-        <v>125.47653976026976</v>
+        <v>125.6772308691166</v>
       </c>
       <c r="I6" s="2">
-        <v>113.03906777461636</v>
+        <v>91.999999999999645</v>
       </c>
       <c r="J6" s="2">
-        <v>997.42660147201968</v>
+        <v>873.59999999999934</v>
       </c>
       <c r="K6" s="2">
-        <v>141732.90454409877</v>
+        <v>127583</v>
       </c>
       <c r="L6" s="2">
-        <v>69713.060492630117</v>
+        <v>120574.1931586198</v>
       </c>
       <c r="M6" s="2">
-        <v>7462886.8332526349</v>
+        <v>5517088.4192999983</v>
       </c>
       <c r="N6" s="2">
-        <v>39.878594489680175</v>
+        <v>38.999999999999908</v>
       </c>
       <c r="O6" s="2">
-        <v>1279.8811188039447</v>
+        <v>1599.139320430128</v>
       </c>
       <c r="P6" s="2">
-        <v>9261078.9064769875</v>
+        <v>6142682.3205399979</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
@@ -743,49 +743,49 @@
         <v>28434</v>
       </c>
       <c r="B7" s="2">
-        <v>5839.5</v>
+        <v>10206.306899606619</v>
       </c>
       <c r="C7" s="2">
-        <v>20773.66617</v>
+        <v>24430.417592114401</v>
       </c>
       <c r="D7" s="2">
-        <v>29854.288992554695</v>
+        <v>45468.347505469341</v>
       </c>
       <c r="E7" s="2">
-        <v>1344.8309380053936</v>
+        <v>1645.6410443006489</v>
       </c>
       <c r="F7" s="2">
-        <v>2063160.5890038323</v>
+        <v>2362294.7641864121</v>
       </c>
       <c r="G7" s="2">
-        <v>22.6</v>
+        <v>27.620294559099399</v>
       </c>
       <c r="H7" s="2">
-        <v>72.999999999999545</v>
+        <v>122.673448310382</v>
       </c>
       <c r="I7" s="2">
-        <v>119.25618355303567</v>
+        <v>166.46398701290829</v>
       </c>
       <c r="J7" s="2">
-        <v>350.99999999999966</v>
+        <v>384.78892776104192</v>
       </c>
       <c r="K7" s="2">
-        <v>10711.999999999955</v>
+        <v>28977.998578687861</v>
       </c>
       <c r="L7" s="2">
-        <v>8164.1690086360904</v>
+        <v>24766.251315762191</v>
       </c>
       <c r="M7" s="2">
-        <v>54366.531525845545</v>
+        <v>827690.06333850382</v>
       </c>
       <c r="N7" s="2">
-        <v>1.9999999999999927</v>
+        <v>21.095615783084529</v>
       </c>
       <c r="O7" s="2">
-        <v>1690.0045188387674</v>
+        <v>2896.8590066809602</v>
       </c>
       <c r="P7" s="2">
-        <v>6244959.3830651175</v>
+        <v>8379778.1909793671</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
@@ -793,49 +793,49 @@
         <v>139565</v>
       </c>
       <c r="B8" s="2">
-        <v>24867.599999999991</v>
+        <v>24379.999999999989</v>
       </c>
       <c r="C8" s="2">
-        <v>19874.44096</v>
+        <v>24430.417592114401</v>
       </c>
       <c r="D8" s="2">
-        <v>230273.10161526751</v>
+        <v>207240.7</v>
       </c>
       <c r="E8" s="2">
-        <v>2249.447432275208</v>
+        <v>1859.999999999998</v>
       </c>
       <c r="F8" s="2">
-        <v>7304500.1920620315</v>
+        <v>5926777.3109299988</v>
       </c>
       <c r="G8" s="2">
-        <v>21.6</v>
+        <v>27.620294559099399</v>
       </c>
       <c r="H8" s="2">
         <v>311.9999999999979</v>
       </c>
       <c r="I8" s="2">
-        <v>404.84335995635797</v>
+        <v>386.99999999999841</v>
       </c>
       <c r="J8" s="2">
         <v>962.79999999999893</v>
       </c>
       <c r="K8" s="2">
-        <v>8125.9999999999918</v>
+        <v>28977.998578687861</v>
       </c>
       <c r="L8" s="2">
-        <v>52239.728775468961</v>
+        <v>44861.889999999948</v>
       </c>
       <c r="M8" s="2">
-        <v>216908.59262118847</v>
+        <v>827690.06333850382</v>
       </c>
       <c r="N8" s="2">
         <v>33.999999999999922</v>
       </c>
       <c r="O8" s="2">
-        <v>6527.0940903729661</v>
+        <v>6249</v>
       </c>
       <c r="P8" s="2">
-        <v>17700089.625400923</v>
+        <v>15178335.903369989</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
@@ -843,49 +843,49 @@
         <v>19887.999999999989</v>
       </c>
       <c r="B9" s="2">
-        <v>4571.6399999999985</v>
+        <v>10206.306899606619</v>
       </c>
       <c r="C9" s="2">
         <v>37917.462079999998</v>
       </c>
       <c r="D9" s="2">
-        <v>16177.064092220677</v>
+        <v>45468.347505469341</v>
       </c>
       <c r="E9" s="2">
-        <v>737.72200735907359</v>
+        <v>1645.6410443006489</v>
       </c>
       <c r="F9" s="2">
-        <v>1580784.1474639561</v>
+        <v>2362294.7641864121</v>
       </c>
       <c r="G9" s="2">
         <v>29.1</v>
       </c>
       <c r="H9" s="2">
-        <v>67.999999999999545</v>
+        <v>122.673448310382</v>
       </c>
       <c r="I9" s="2">
-        <v>120.30229042630789</v>
+        <v>166.46398701290829</v>
       </c>
       <c r="J9" s="2">
-        <v>358.69999999999959</v>
+        <v>384.78892776104192</v>
       </c>
       <c r="K9" s="2">
-        <v>4886.9999999999818</v>
+        <v>28977.998578687861</v>
       </c>
       <c r="L9" s="2">
-        <v>9316.2358979556921</v>
+        <v>24766.251315762191</v>
       </c>
       <c r="M9" s="2">
-        <v>865834.67027747876</v>
+        <v>827690.06333850382</v>
       </c>
       <c r="N9" s="2">
-        <v>14.999999999999956</v>
+        <v>21.095615783084529</v>
       </c>
       <c r="O9" s="2">
-        <v>1143.7298814143694</v>
+        <v>2896.8590066809602</v>
       </c>
       <c r="P9" s="2">
-        <v>5837841.9366662949</v>
+        <v>8379778.1909793671</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
@@ -893,49 +893,49 @@
         <v>65776</v>
       </c>
       <c r="B10" s="2">
-        <v>15178.62</v>
+        <v>14881</v>
       </c>
       <c r="C10" s="2">
         <v>35840.741759999997</v>
       </c>
       <c r="D10" s="2">
-        <v>58054.759577604673</v>
+        <v>52247.999999999993</v>
       </c>
       <c r="E10" s="2">
-        <v>2649.7523247930017</v>
+        <v>2190.9999999999991</v>
       </c>
       <c r="F10" s="2">
-        <v>3377660.5517561701</v>
+        <v>2740590.23832</v>
       </c>
       <c r="G10" s="2">
-        <v>22.8</v>
+        <v>27.620294559099399</v>
       </c>
       <c r="H10" s="2">
-        <v>240.99999999999852</v>
+        <v>240.99999999999849</v>
       </c>
       <c r="I10" s="2">
-        <v>203.99084028808733</v>
+        <v>194.9999999999992</v>
       </c>
       <c r="J10" s="2">
-        <v>225.39999999999938</v>
+        <v>384.78892776104192</v>
       </c>
       <c r="K10" s="2">
-        <v>2243.9999999999036</v>
+        <v>28977.998578687861</v>
       </c>
       <c r="L10" s="2">
-        <v>13298.13054705717</v>
+        <v>24766.251315762191</v>
       </c>
       <c r="M10" s="2">
-        <v>184575.09986104607</v>
+        <v>827690.06333850382</v>
       </c>
       <c r="N10" s="2">
-        <v>5.9999999999999716</v>
+        <v>21.095615783084529</v>
       </c>
       <c r="O10" s="2">
-        <v>3448.9461812148397</v>
+        <v>3302</v>
       </c>
       <c r="P10" s="2">
-        <v>9740873.2307771854</v>
+        <v>8379778.1909793671</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
@@ -943,49 +943,49 @@
         <v>108665</v>
       </c>
       <c r="B11" s="2">
-        <v>17782.680000000004</v>
+        <v>17434</v>
       </c>
       <c r="C11" s="2">
-        <v>19751.678240000001</v>
+        <v>24430.417592114401</v>
       </c>
       <c r="D11" s="2">
-        <v>80578.646260303038</v>
+        <v>72518.999999999985</v>
       </c>
       <c r="E11" s="2">
-        <v>2207.1191203775575</v>
+        <v>1825</v>
       </c>
       <c r="F11" s="2">
-        <v>8035015.1850104388</v>
+        <v>6519507.7608800009</v>
       </c>
       <c r="G11" s="2">
-        <v>26.6</v>
+        <v>27.620294559099399</v>
       </c>
       <c r="H11" s="2">
         <v>270.99999999999818</v>
       </c>
       <c r="I11" s="2">
-        <v>306.50931386876721</v>
+        <v>292.99999999999892</v>
       </c>
       <c r="J11" s="2">
-        <v>225.39999999999932</v>
+        <v>384.78892776104192</v>
       </c>
       <c r="K11" s="2">
-        <v>2036.9999999998449</v>
+        <v>28977.998578687861</v>
       </c>
       <c r="L11" s="2">
-        <v>29538.77332959717</v>
+        <v>25366.999999999989</v>
       </c>
       <c r="M11" s="2">
-        <v>267802.97913148615</v>
+        <v>827690.06333850382</v>
       </c>
       <c r="N11" s="2">
         <v>33.999999999999908</v>
       </c>
       <c r="O11" s="2">
-        <v>5967.2409246760681</v>
+        <v>5712.9999999999991</v>
       </c>
       <c r="P11" s="2">
-        <v>14464008.469065005</v>
+        <v>12403303.24303</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
@@ -993,49 +993,49 @@
         <v>9622.9999999999964</v>
       </c>
       <c r="B12" s="2">
-        <v>1207.9999999999993</v>
+        <v>2088.3249137487501</v>
       </c>
       <c r="C12" s="2">
-        <v>17258.655753586329</v>
+        <v>19210.228831246099</v>
       </c>
       <c r="D12" s="2">
-        <v>3746.5999999999967</v>
+        <v>7762.6753209116032</v>
       </c>
       <c r="E12" s="2">
-        <v>44.99999999999995</v>
+        <v>281.9402175474014</v>
       </c>
       <c r="F12" s="2">
-        <v>84821.616612874292</v>
+        <v>374829.37895564421</v>
       </c>
       <c r="G12" s="2">
-        <v>33.14783941551179</v>
+        <v>35.438037383177502</v>
       </c>
       <c r="H12" s="2">
-        <v>32.999999999999773</v>
+        <v>54.072514242661697</v>
       </c>
       <c r="I12" s="2">
-        <v>9.9999999999999485</v>
+        <v>28.221234650144272</v>
       </c>
       <c r="J12" s="2">
-        <v>220.54621652251558</v>
+        <v>479.14656225630722</v>
       </c>
       <c r="K12" s="2">
-        <v>22989.999999999982</v>
+        <v>32749.978346102071</v>
       </c>
       <c r="L12" s="2">
-        <v>7716.2901723415644</v>
+        <v>14259.056285147481</v>
       </c>
       <c r="M12" s="2">
-        <v>633508.48902710096</v>
+        <v>1321756.1130112109</v>
       </c>
       <c r="N12" s="2">
-        <v>14.999999999999956</v>
+        <v>22.70687713300876</v>
       </c>
       <c r="O12" s="2">
         <v>672.99999999999989</v>
       </c>
       <c r="P12" s="2">
-        <v>286032.99613732687</v>
+        <v>1212990.425859435</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
@@ -1046,46 +1046,46 @@
         <v>2386</v>
       </c>
       <c r="C13" s="2">
-        <v>16883.121971367545</v>
+        <v>19210.228831246099</v>
       </c>
       <c r="D13" s="2">
-        <v>10592.199999999999</v>
+        <v>10592.2</v>
       </c>
       <c r="E13" s="2">
         <v>377.99999999999972</v>
       </c>
       <c r="F13" s="2">
-        <v>426219.52494578558</v>
+        <v>398404.10684000002</v>
       </c>
       <c r="G13" s="2">
-        <v>29.073188058787746</v>
+        <v>35.438037383177502</v>
       </c>
       <c r="H13" s="2">
-        <v>27.999999999999833</v>
+        <v>54.072514242661697</v>
       </c>
       <c r="I13" s="2">
-        <v>22.999999999999915</v>
+        <v>28.221234650144272</v>
       </c>
       <c r="J13" s="2">
-        <v>831.72090129253809</v>
+        <v>800.99999999999955</v>
       </c>
       <c r="K13" s="2">
-        <v>112136.99999999997</v>
+        <v>112137</v>
       </c>
       <c r="L13" s="2">
-        <v>9526.584408588913</v>
+        <v>14259.056285147481</v>
       </c>
       <c r="M13" s="2">
-        <v>1663767.7267059332</v>
+        <v>1610842.1836000001</v>
       </c>
       <c r="N13" s="2">
-        <v>21.999999999999957</v>
+        <v>22.70687713300876</v>
       </c>
       <c r="O13" s="2">
         <v>624.00000000000011</v>
       </c>
       <c r="P13" s="2">
-        <v>1832988.2302829542</v>
+        <v>1492496.0792400001</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
@@ -1096,19 +1096,19 @@
         <v>6906.9999999999973</v>
       </c>
       <c r="C14" s="2">
-        <v>16785.724278174286</v>
+        <v>19210.228831246099</v>
       </c>
       <c r="D14" s="2">
-        <v>45679.399999999994</v>
+        <v>45679.399999999987</v>
       </c>
       <c r="E14" s="2">
         <v>943.99999999999955</v>
       </c>
       <c r="F14" s="2">
-        <v>1215303.8837618858</v>
+        <v>1135992.2059200001</v>
       </c>
       <c r="G14" s="2">
-        <v>25.218788126751495</v>
+        <v>35.438037383177502</v>
       </c>
       <c r="H14" s="2">
         <v>86.999999999999389</v>
@@ -1117,25 +1117,25 @@
         <v>196.9999999999992</v>
       </c>
       <c r="J14" s="2">
-        <v>2545.0036567640586</v>
+        <v>2450.9999999999991</v>
       </c>
       <c r="K14" s="2">
-        <v>49269.999999999935</v>
+        <v>49269.999999999927</v>
       </c>
       <c r="L14" s="2">
-        <v>10795.143423886177</v>
+        <v>14259.056285147481</v>
       </c>
       <c r="M14" s="2">
-        <v>860264.7351061966</v>
+        <v>1321756.1130112109</v>
       </c>
       <c r="N14" s="2">
         <v>26.99999999999994</v>
       </c>
       <c r="O14" s="2">
-        <v>1959.9999999999998</v>
+        <v>1960</v>
       </c>
       <c r="P14" s="2">
-        <v>2408571.3178105522</v>
+        <v>1961160.027659998</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
@@ -1146,46 +1146,46 @@
         <v>4568.9999999999982</v>
       </c>
       <c r="C15" s="2">
-        <v>22221.419357870833</v>
+        <v>21418.87329</v>
       </c>
       <c r="D15" s="2">
-        <v>4933.5999999999949</v>
+        <v>7762.6753209116032</v>
       </c>
       <c r="E15" s="2">
-        <v>130.99999999999977</v>
+        <v>281.9402175474014</v>
       </c>
       <c r="F15" s="2">
-        <v>153719.09000888685</v>
+        <v>374829.37895564421</v>
       </c>
       <c r="G15" s="2">
-        <v>24.558033852688137</v>
+        <v>35.438037383177502</v>
       </c>
       <c r="H15" s="2">
         <v>103.9999999999993</v>
       </c>
       <c r="I15" s="2">
-        <v>2.9999999999999765</v>
+        <v>28.221234650144272</v>
       </c>
       <c r="J15" s="2">
-        <v>329.15795968755845</v>
+        <v>479.14656225630722</v>
       </c>
       <c r="K15" s="2">
-        <v>106497.99999999996</v>
+        <v>106498</v>
       </c>
       <c r="L15" s="2">
-        <v>19721.666163920327</v>
+        <v>19137.909999999989</v>
       </c>
       <c r="M15" s="2">
-        <v>3540502.3070698176</v>
+        <v>3427876.6054999982</v>
       </c>
       <c r="N15" s="2">
-        <v>50.999999999999886</v>
+        <v>50.999999999999893</v>
       </c>
       <c r="O15" s="2">
-        <v>1217.9999999999995</v>
+        <v>1218</v>
       </c>
       <c r="P15" s="2">
-        <v>4328559.1604477121</v>
+        <v>3524494.8488999992</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
@@ -1196,46 +1196,46 @@
         <v>2093.9999999999991</v>
       </c>
       <c r="C16" s="2">
-        <v>17591.166459640302</v>
+        <v>19210.228831246099</v>
       </c>
       <c r="D16" s="2">
-        <v>7192.4999999999927</v>
+        <v>7762.6753209116032</v>
       </c>
       <c r="E16" s="2">
-        <v>449.99999999999943</v>
+        <v>449.99999999999937</v>
       </c>
       <c r="F16" s="2">
-        <v>319049.36629622732</v>
+        <v>374829.37895564421</v>
       </c>
       <c r="G16" s="2">
-        <v>33.070751416871069</v>
+        <v>35.438037383177502</v>
       </c>
       <c r="H16" s="2">
         <v>59.999999999999581</v>
       </c>
       <c r="I16" s="2">
-        <v>14.999999999999922</v>
+        <v>28.221234650144272</v>
       </c>
       <c r="J16" s="2">
-        <v>672.64519332996974</v>
+        <v>647.79999999999916</v>
       </c>
       <c r="K16" s="2">
-        <v>25719.999999999982</v>
+        <v>32749.978346102071</v>
       </c>
       <c r="L16" s="2">
-        <v>21438.730829234901</v>
+        <v>20804.14999999998</v>
       </c>
       <c r="M16" s="2">
-        <v>1584006.3709418301</v>
+        <v>1533618.0888999989</v>
       </c>
       <c r="N16" s="2">
-        <v>21.999999999999932</v>
+        <v>22.70687713300876</v>
       </c>
       <c r="O16" s="2">
         <v>676.99999999999955</v>
       </c>
       <c r="P16" s="2">
-        <v>2294824.0449553295</v>
+        <v>1868542.2159599981</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
@@ -1243,49 +1243,49 @@
         <v>4183.9999999999918</v>
       </c>
       <c r="B17" s="2">
-        <v>1057.2599999999979</v>
+        <v>5714.5080545330657</v>
       </c>
       <c r="C17" s="2">
-        <v>20226.367727107965</v>
+        <v>20427.341848341399</v>
       </c>
       <c r="D17" s="2">
-        <v>2381.0656795158275</v>
+        <v>18620.078602856651</v>
       </c>
       <c r="E17" s="2">
-        <v>113.42499495170337</v>
+        <v>713.92266024672676</v>
       </c>
       <c r="F17" s="2">
-        <v>81501.246245260627</v>
+        <v>795019.6038440204</v>
       </c>
       <c r="G17" s="2">
-        <v>36.102330543942813</v>
+        <v>35.799999999999997</v>
       </c>
       <c r="H17" s="2">
-        <v>15.982526713303701</v>
+        <v>121.2195445843775</v>
       </c>
       <c r="I17" s="2">
-        <v>2.5736340998794454</v>
+        <v>82.574144705994001</v>
       </c>
       <c r="J17" s="2">
-        <v>109.9937054332045</v>
+        <v>675.1104937785783</v>
       </c>
       <c r="K17" s="2">
-        <v>44335.913688073495</v>
+        <v>390629.37411319528</v>
       </c>
       <c r="L17" s="2">
-        <v>2003.2628205799081</v>
+        <v>50169.914191199998</v>
       </c>
       <c r="M17" s="2">
-        <v>1077875.2283725089</v>
+        <v>5170690.3577637998</v>
       </c>
       <c r="N17" s="2">
-        <v>11.577914620948475</v>
+        <v>37.037791832750607</v>
       </c>
       <c r="O17" s="2">
-        <v>315.84662311287593</v>
+        <v>1578.0387530220919</v>
       </c>
       <c r="P17" s="2">
-        <v>1122077.8321941854</v>
+        <v>5162046.5029202029</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
@@ -1293,49 +1293,49 @@
         <v>95828.000000000015</v>
       </c>
       <c r="B18" s="2">
-        <v>18008.259999999998</v>
+        <v>13439</v>
       </c>
       <c r="C18" s="2">
-        <v>22455.614878771485</v>
+        <v>21170.54232</v>
       </c>
       <c r="D18" s="2">
-        <v>92694.324653006508</v>
+        <v>70891.10000000002</v>
       </c>
       <c r="E18" s="2">
-        <v>2987.3308045404933</v>
+        <v>2106.9999999999991</v>
       </c>
       <c r="F18" s="2">
-        <v>4123326.2785686189</v>
+        <v>2932758.8092800002</v>
       </c>
       <c r="G18" s="2">
-        <v>27.42970365349845</v>
+        <v>28.859170731707302</v>
       </c>
       <c r="H18" s="2">
-        <v>238.50847556776347</v>
+        <v>193.99999999999881</v>
       </c>
       <c r="I18" s="2">
-        <v>285.67338508661948</v>
+        <v>221.99999999999909</v>
       </c>
       <c r="J18" s="2">
-        <v>1071.6954272613598</v>
+        <v>793.09999999999945</v>
       </c>
       <c r="K18" s="2">
-        <v>1592537.543345849</v>
+        <v>1149829</v>
       </c>
       <c r="L18" s="2">
-        <v>117295.81425731478</v>
+        <v>72866.099999999977</v>
       </c>
       <c r="M18" s="2">
-        <v>12574233.283892285</v>
+        <v>9782808.4583999943</v>
       </c>
       <c r="N18" s="2">
-        <v>31.260369476560907</v>
+        <v>37.037791832750607</v>
       </c>
       <c r="O18" s="2">
-        <v>4873.0621851700944</v>
+        <v>3888</v>
       </c>
       <c r="P18" s="2">
-        <v>14264173.483645547</v>
+        <v>9535558.9931999948</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
@@ -1343,49 +1343,49 @@
         <v>17569.999999999989</v>
       </c>
       <c r="B19" s="2">
-        <v>2529.9199999999983</v>
+        <v>5714.5080545330657</v>
       </c>
       <c r="C19" s="2">
-        <v>19492.420354584516</v>
+        <v>20427.341848341399</v>
       </c>
       <c r="D19" s="2">
-        <v>11096.210636742033</v>
+        <v>18620.078602856651</v>
       </c>
       <c r="E19" s="2">
-        <v>333.18592267062911</v>
+        <v>713.92266024672676</v>
       </c>
       <c r="F19" s="2">
-        <v>480263.66540990554</v>
+        <v>795019.6038440204</v>
       </c>
       <c r="G19" s="2">
-        <v>26.522103164963575</v>
+        <v>28.859170731707302</v>
       </c>
       <c r="H19" s="2">
-        <v>191.79032055964473</v>
+        <v>155.99999999999889</v>
       </c>
       <c r="I19" s="2">
-        <v>73.348571846564397</v>
+        <v>82.574144705994001</v>
       </c>
       <c r="J19" s="2">
-        <v>526.1861043696548</v>
+        <v>675.1104937785783</v>
       </c>
       <c r="K19" s="2">
-        <v>253392.39889601793</v>
+        <v>390629.37411319528</v>
       </c>
       <c r="L19" s="2">
-        <v>30747.732458975683</v>
+        <v>50169.914191199998</v>
       </c>
       <c r="M19" s="2">
-        <v>3041350.6148838014</v>
+        <v>5170690.3577637998</v>
       </c>
       <c r="N19" s="2">
-        <v>28.944786552371227</v>
+        <v>37.037791832750607</v>
       </c>
       <c r="O19" s="2">
-        <v>991.40745588208404</v>
+        <v>1578.0387530220919</v>
       </c>
       <c r="P19" s="2">
-        <v>482329.48363598721</v>
+        <v>5162046.5029202029</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
@@ -1393,49 +1393,49 @@
         <v>120926</v>
       </c>
       <c r="B20" s="2">
-        <v>26850.919999999995</v>
+        <v>20038</v>
       </c>
       <c r="C20" s="2">
-        <v>26679.61717489058</v>
+        <v>25152.816680000011</v>
       </c>
       <c r="D20" s="2">
-        <v>95336.24843414966</v>
+        <v>72911.599999999991</v>
       </c>
       <c r="E20" s="2">
-        <v>3615.4217140855512</v>
+        <v>2549.9999999999982</v>
       </c>
       <c r="F20" s="2">
-        <v>6626984.6553996988</v>
+        <v>4713511.9352799999</v>
       </c>
       <c r="G20" s="2">
-        <v>30.152505119103076</v>
+        <v>29.9</v>
       </c>
       <c r="H20" s="2">
-        <v>240.96732583134855</v>
+        <v>195.99999999999869</v>
       </c>
       <c r="I20" s="2">
-        <v>320.41744543499203</v>
+        <v>248.99999999999889</v>
       </c>
       <c r="J20" s="2">
-        <v>1517.7509820955217</v>
+        <v>1123.199999999998</v>
       </c>
       <c r="K20" s="2">
-        <v>1751784.5110765442</v>
+        <v>1264806.9999999991</v>
       </c>
       <c r="L20" s="2">
-        <v>167909.13172030606</v>
+        <v>104307.93</v>
       </c>
       <c r="M20" s="2">
-        <v>2846566.7104680962</v>
+        <v>5170690.3577637998</v>
       </c>
       <c r="N20" s="2">
-        <v>40.522701173319724</v>
+        <v>37.037791832750607</v>
       </c>
       <c r="O20" s="2">
-        <v>7907.4458143616584</v>
+        <v>6308.9999999999991</v>
       </c>
       <c r="P20" s="2">
-        <v>40371896.324514598</v>
+        <v>26988496.705479991</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
@@ -1443,49 +1443,49 @@
         <v>50473.999999999993</v>
       </c>
       <c r="B21" s="2">
-        <v>11632.539999999997</v>
+        <v>8680.9999999999982</v>
       </c>
       <c r="C21" s="2">
-        <v>20574.743082475143</v>
+        <v>20427.341848341399</v>
       </c>
       <c r="D21" s="2">
-        <v>43065.645861595542</v>
+        <v>32935.899999999987</v>
       </c>
       <c r="E21" s="2">
-        <v>2373.418019364397</v>
+        <v>1673.999999999998</v>
       </c>
       <c r="F21" s="2">
-        <v>1870945.4971052352</v>
+        <v>1330729.4930400001</v>
       </c>
       <c r="G21" s="2">
-        <v>25.311969180250408</v>
+        <v>28.859170731707302</v>
       </c>
       <c r="H21" s="2">
-        <v>195.47859595502251</v>
+        <v>158.99999999999889</v>
       </c>
       <c r="I21" s="2">
-        <v>238.06115423884944</v>
+        <v>184.9999999999992</v>
       </c>
       <c r="J21" s="2">
-        <v>521.86202749758786</v>
+        <v>675.1104937785783</v>
       </c>
       <c r="K21" s="2">
-        <v>1123141.3928940871</v>
+        <v>810919.99999999977</v>
       </c>
       <c r="L21" s="2">
-        <v>294093.9076134772</v>
+        <v>182696</v>
       </c>
       <c r="M21" s="2">
-        <v>7094269.7219382674</v>
+        <v>5519372.8535999991</v>
       </c>
       <c r="N21" s="2">
-        <v>45.153867021699128</v>
+        <v>38.999999999999908</v>
       </c>
       <c r="O21" s="2">
-        <v>3133.3990388182192</v>
+        <v>2500</v>
       </c>
       <c r="P21" s="2">
-        <v>5608681.5484265415</v>
+        <v>5162046.5029202029</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
@@ -1493,49 +1493,49 @@
         <v>47578.999999999993</v>
       </c>
       <c r="B22" s="2">
-        <v>11983.019999999999</v>
+        <v>11634</v>
       </c>
       <c r="C22" s="2">
-        <v>25430.158580461106</v>
+        <v>29031.0083701363</v>
       </c>
       <c r="D22" s="2">
-        <v>45721.641100095774</v>
+        <v>38299.681634895933</v>
       </c>
       <c r="E22" s="2">
-        <v>1078.2639907286032</v>
+        <v>1288.588016602401</v>
       </c>
       <c r="F22" s="2">
-        <v>1929096.1699928325</v>
+        <v>2114276.5499864169</v>
       </c>
       <c r="G22" s="2">
-        <v>24.20423743534403</v>
+        <v>27.965422727272699</v>
       </c>
       <c r="H22" s="2">
-        <v>69.999999999999503</v>
+        <v>123.30669105307349</v>
       </c>
       <c r="I22" s="2">
-        <v>197.21727965783901</v>
+        <v>171.99999999999929</v>
       </c>
       <c r="J22" s="2">
-        <v>201.0999999999998</v>
+        <v>515.09434074171179</v>
       </c>
       <c r="K22" s="2">
-        <v>14598.999999999955</v>
+        <v>49395.306275683972</v>
       </c>
       <c r="L22" s="2">
-        <v>23998.867850818726</v>
+        <v>37819.7689054316</v>
       </c>
       <c r="M22" s="2">
-        <v>286065.10401343706</v>
+        <v>1725327.0647264121</v>
       </c>
       <c r="N22" s="2">
-        <v>10.999999999999968</v>
+        <v>25.90492510159179</v>
       </c>
       <c r="O22" s="2">
-        <v>2873.3721036438064</v>
+        <v>2915.7617682164901</v>
       </c>
       <c r="P22" s="2">
-        <v>36698725.509738542</v>
+        <v>32418265.199999992</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
@@ -1543,49 +1543,49 @@
         <v>28553</v>
       </c>
       <c r="B23" s="2">
-        <v>7144.079999999999</v>
+        <v>11428.022546365821</v>
       </c>
       <c r="C23" s="2">
-        <v>35250.545648341838</v>
+        <v>34591.617420000002</v>
       </c>
       <c r="D23" s="2">
-        <v>16196.061133388332</v>
+        <v>38299.681634895933</v>
       </c>
       <c r="E23" s="2">
-        <v>593.70486697514832</v>
+        <v>1288.588016602401</v>
       </c>
       <c r="F23" s="2">
-        <v>198628.86628169011</v>
+        <v>2114276.5499864169</v>
       </c>
       <c r="G23" s="2">
-        <v>23.586256905079928</v>
+        <v>27.965422727272699</v>
       </c>
       <c r="H23" s="2">
-        <v>76.999999999999531</v>
+        <v>123.30669105307349</v>
       </c>
       <c r="I23" s="2">
-        <v>143.32651137924353</v>
+        <v>132.03295622095121</v>
       </c>
       <c r="J23" s="2">
-        <v>169.2999999999999</v>
+        <v>515.09434074171179</v>
       </c>
       <c r="K23" s="2">
-        <v>19625.999999999978</v>
+        <v>49395.306275683972</v>
       </c>
       <c r="L23" s="2">
-        <v>14867.205704713007</v>
+        <v>37819.7689054316</v>
       </c>
       <c r="M23" s="2">
-        <v>527779.81315317133</v>
+        <v>1725327.0647264121</v>
       </c>
       <c r="N23" s="2">
-        <v>11.999999999999972</v>
+        <v>25.90492510159179</v>
       </c>
       <c r="O23" s="2">
-        <v>2163.9493344461398</v>
+        <v>2915.7617682164901</v>
       </c>
       <c r="P23" s="2">
-        <v>15073222.510616535</v>
+        <v>25333054.934995431</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
@@ -1593,49 +1593,49 @@
         <v>79746</v>
       </c>
       <c r="B24" s="2">
-        <v>17348.29</v>
+        <v>16843</v>
       </c>
       <c r="C24" s="2">
-        <v>36013.090284106096</v>
+        <v>35339.908029999999</v>
       </c>
       <c r="D24" s="2">
-        <v>89235.335521758054</v>
+        <v>73491.599999999991</v>
       </c>
       <c r="E24" s="2">
-        <v>3173.6223798307956</v>
+        <v>2645.9999999999991</v>
       </c>
       <c r="F24" s="2">
-        <v>2866020.8550127735</v>
+        <v>2114276.5499864169</v>
       </c>
       <c r="G24" s="2">
-        <v>25.33720174082822</v>
+        <v>27.965422727272699</v>
       </c>
       <c r="H24" s="2">
-        <v>164.99999999999895</v>
+        <v>164.99999999999889</v>
       </c>
       <c r="I24" s="2">
-        <v>267.16061721090983</v>
+        <v>232.99999999999901</v>
       </c>
       <c r="J24" s="2">
-        <v>188.49999999999935</v>
+        <v>515.09434074171179</v>
       </c>
       <c r="K24" s="2">
-        <v>1592.9999999998829</v>
+        <v>49395.306275683972</v>
       </c>
       <c r="L24" s="2">
-        <v>33756.391905464778</v>
+        <v>37819.7689054316</v>
       </c>
       <c r="M24" s="2">
-        <v>385565.28476867708</v>
+        <v>1725327.0647264121</v>
       </c>
       <c r="N24" s="2">
-        <v>7.9999999999999671</v>
+        <v>25.90492510159179</v>
       </c>
       <c r="O24" s="2">
-        <v>5809.7107252637397</v>
+        <v>5536</v>
       </c>
       <c r="P24" s="2">
-        <v>42433907.62955901</v>
+        <v>37484508.028549999</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
@@ -1643,49 +1643,49 @@
         <v>57687</v>
       </c>
       <c r="B25" s="2">
-        <v>11630.76</v>
+        <v>11428.022546365821</v>
       </c>
       <c r="C25" s="2">
-        <v>24299.842428383665</v>
+        <v>29031.0083701363</v>
       </c>
       <c r="D25" s="2">
-        <v>40497.559605764291</v>
+        <v>38299.681634895933</v>
       </c>
       <c r="E25" s="2">
-        <v>1516.0463673870463</v>
+        <v>1288.588016602401</v>
       </c>
       <c r="F25" s="2">
-        <v>2451468.3725845898</v>
+        <v>2114276.5499864169</v>
       </c>
       <c r="G25" s="2">
-        <v>30.291345658445444</v>
+        <v>29.41</v>
       </c>
       <c r="H25" s="2">
-        <v>70.999999999999531</v>
+        <v>123.30669105307349</v>
       </c>
       <c r="I25" s="2">
-        <v>264.86739302884195</v>
+        <v>230.99999999999901</v>
       </c>
       <c r="J25" s="2">
-        <v>233.29999999999964</v>
+        <v>515.09434074171179</v>
       </c>
       <c r="K25" s="2">
-        <v>383.99999999993003</v>
+        <v>49395.306275683972</v>
       </c>
       <c r="L25" s="2">
-        <v>54613.648153300077</v>
+        <v>37867.999999999993</v>
       </c>
       <c r="M25" s="2">
-        <v>397106.55893314036</v>
+        <v>1725327.0647264121</v>
       </c>
       <c r="N25" s="2">
-        <v>0.99999999999999423</v>
+        <v>25.90492510159179</v>
       </c>
       <c r="O25" s="2">
-        <v>2546.9956521342292</v>
+        <v>2915.7617682164901</v>
       </c>
       <c r="P25" s="2">
-        <v>36383677.220934838</v>
+        <v>32139963.46512001</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
@@ -1693,49 +1693,49 @@
         <v>141368</v>
       </c>
       <c r="B26" s="2">
-        <v>34543.11</v>
+        <v>33537</v>
       </c>
       <c r="C26" s="2">
-        <v>27642.948561951056</v>
+        <v>29031.0083701363</v>
       </c>
       <c r="D26" s="2">
-        <v>70667.89302949344</v>
+        <v>58200</v>
       </c>
       <c r="E26" s="2">
-        <v>3450.6846510858627</v>
+        <v>2876.9999999999968</v>
       </c>
       <c r="F26" s="2">
-        <v>15056552.97599566</v>
+        <v>10541809.012150001</v>
       </c>
       <c r="G26" s="2">
-        <v>32.340981083821383</v>
+        <v>31.4</v>
       </c>
       <c r="H26" s="2">
-        <v>306.99999999999795</v>
+        <v>306.99999999999801</v>
       </c>
       <c r="I26" s="2">
-        <v>228.17580611575562</v>
+        <v>198.9999999999992</v>
       </c>
       <c r="J26" s="2">
-        <v>474.69999999999879</v>
+        <v>515.09434074171179</v>
       </c>
       <c r="K26" s="2">
         <v>595570.99999999977</v>
       </c>
       <c r="L26" s="2">
-        <v>86202.901620042059</v>
+        <v>59771.349999999991</v>
       </c>
       <c r="M26" s="2">
-        <v>2008583.4240983608</v>
+        <v>1725327.0647264121</v>
       </c>
       <c r="N26" s="2">
         <v>90.999999999999801</v>
       </c>
       <c r="O26" s="2">
-        <v>9834.3206659043535</v>
+        <v>9371</v>
       </c>
       <c r="P26" s="2">
-        <v>89911704.287623957</v>
+        <v>79424596.731749997</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
@@ -1743,49 +1743,49 @@
         <v>23671.999999999989</v>
       </c>
       <c r="B27" s="2">
-        <v>3158.3999999999987</v>
+        <v>5316.1026797151171</v>
       </c>
       <c r="C27" s="2">
-        <v>17851.005113971656</v>
+        <v>20804.770158470299</v>
       </c>
       <c r="D27" s="2">
-        <v>19208.304094964893</v>
+        <v>18102.33886557139</v>
       </c>
       <c r="E27" s="2">
-        <v>451.32048764165734</v>
+        <v>692.21862862467367</v>
       </c>
       <c r="F27" s="2">
-        <v>755007.55980432429</v>
+        <v>786293.0504705467</v>
       </c>
       <c r="G27" s="2">
         <v>28</v>
       </c>
       <c r="H27" s="2">
-        <v>69.903067955958988</v>
+        <v>90.463582676213051</v>
       </c>
       <c r="I27" s="2">
-        <v>70.789182904792597</v>
+        <v>70.480699544079414</v>
       </c>
       <c r="J27" s="2">
-        <v>419.02042306815559</v>
+        <v>497.85288158683818</v>
       </c>
       <c r="K27" s="2">
-        <v>42544.905231337492</v>
+        <v>61373.672326328422</v>
       </c>
       <c r="L27" s="2">
-        <v>12579.477799160772</v>
+        <v>29602.9087374105</v>
       </c>
       <c r="M27" s="2">
-        <v>4394157.9441938587</v>
+        <v>3234408.7671999992</v>
       </c>
       <c r="N27" s="2">
-        <v>17.99999999999995</v>
+        <v>28.514194264827129</v>
       </c>
       <c r="O27" s="2">
-        <v>801.10415672385136</v>
+        <v>1635.6427628317319</v>
       </c>
       <c r="P27" s="2">
-        <v>1155335.2855618461</v>
+        <v>3002048.203665785</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
@@ -1793,49 +1793,49 @@
         <v>116468</v>
       </c>
       <c r="B28" s="2">
-        <v>23787.680000000004</v>
+        <v>21239</v>
       </c>
       <c r="C28" s="2">
-        <v>24015.332144548502</v>
+        <v>23604.910929999998</v>
       </c>
       <c r="D28" s="2">
-        <v>75741.100743844116</v>
+        <v>64664.399999999987</v>
       </c>
       <c r="E28" s="2">
-        <v>2701.4197487945912</v>
+        <v>2077</v>
       </c>
       <c r="F28" s="2">
-        <v>6157047.3815629296</v>
+        <v>4676977.1911799992</v>
       </c>
       <c r="G28" s="2">
         <v>30.2</v>
       </c>
       <c r="H28" s="2">
-        <v>323.70497622682552</v>
+        <v>300.99999999999812</v>
       </c>
       <c r="I28" s="2">
-        <v>358.66519338428265</v>
+        <v>303.99999999999869</v>
       </c>
       <c r="J28" s="2">
-        <v>858.63583686488971</v>
+        <v>783.79999999999882</v>
       </c>
       <c r="K28" s="2">
-        <v>217415.84252314031</v>
+        <v>202571</v>
       </c>
       <c r="L28" s="2">
-        <v>117995.28296850856</v>
+        <v>87368.909999999974</v>
       </c>
       <c r="M28" s="2">
-        <v>11423806.789907886</v>
+        <v>8408723.8795999978</v>
       </c>
       <c r="N28" s="2">
         <v>34.999999999999901</v>
       </c>
       <c r="O28" s="2">
-        <v>4841.0347833164842</v>
+        <v>4502</v>
       </c>
       <c r="P28" s="2">
-        <v>27065491.890230715</v>
+        <v>19397519.885310002</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
@@ -1843,49 +1843,49 @@
         <v>64841.999999999993</v>
       </c>
       <c r="B29" s="2">
-        <v>16832.479999999996</v>
+        <v>15029</v>
       </c>
       <c r="C29" s="2">
-        <v>26319.181705669933</v>
+        <v>25869.387780000001</v>
       </c>
       <c r="D29" s="2">
-        <v>20187.858263132799</v>
+        <v>18102.33886557139</v>
       </c>
       <c r="E29" s="2">
-        <v>1461.9142020438699</v>
+        <v>1123.9999999999991</v>
       </c>
       <c r="F29" s="2">
-        <v>1140065.0140690142</v>
+        <v>866008.93850999954</v>
       </c>
       <c r="G29" s="2">
-        <v>23.8</v>
+        <v>26.112401315789398</v>
       </c>
       <c r="H29" s="2">
-        <v>134.42897683838268</v>
+        <v>124.9999999999992</v>
       </c>
       <c r="I29" s="2">
-        <v>230.064844440576</v>
+        <v>194.99999999999909</v>
       </c>
       <c r="J29" s="2">
-        <v>257.87557539933033</v>
+        <v>497.85288158683818</v>
       </c>
       <c r="K29" s="2">
-        <v>2327.949027416018</v>
+        <v>61373.672326328422</v>
       </c>
       <c r="L29" s="2">
-        <v>30304.86742077177</v>
+        <v>29602.9087374105</v>
       </c>
       <c r="M29" s="2">
-        <v>352889.09448255628</v>
+        <v>2185490.0203954638</v>
       </c>
       <c r="N29" s="2">
-        <v>11.999999999999948</v>
+        <v>28.514194264827129</v>
       </c>
       <c r="O29" s="2">
-        <v>3452.8126808594466</v>
+        <v>3211</v>
       </c>
       <c r="P29" s="2">
-        <v>13159071.296912728</v>
+        <v>9430951.7147999946</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
@@ -1893,49 +1893,49 @@
         <v>64100</v>
       </c>
       <c r="B30" s="2">
-        <v>10295.040000000001</v>
+        <v>9192</v>
       </c>
       <c r="C30" s="2">
-        <v>21573.720880582281</v>
+        <v>21205.026720000002</v>
       </c>
       <c r="D30" s="2">
-        <v>70270.683684162912</v>
+        <v>59994</v>
       </c>
       <c r="E30" s="2">
-        <v>1356.5627337471146</v>
+        <v>1042.9999999999991</v>
       </c>
       <c r="F30" s="2">
-        <v>1572642.0396001372</v>
+        <v>1194600.348719999</v>
       </c>
       <c r="G30" s="2">
-        <v>24.81</v>
+        <v>26.112401315789398</v>
       </c>
       <c r="H30" s="2">
-        <v>151.63588587369571</v>
+        <v>140.99999999999909</v>
       </c>
       <c r="I30" s="2">
-        <v>109.72323350242851</v>
+        <v>92.999999999999559</v>
       </c>
       <c r="J30" s="2">
-        <v>617.41153056526139</v>
+        <v>563.59999999999923</v>
       </c>
       <c r="K30" s="2">
-        <v>38526.536785673379</v>
+        <v>61373.672326328422</v>
       </c>
       <c r="L30" s="2">
-        <v>77864.650048687123</v>
+        <v>57654.419999999991</v>
       </c>
       <c r="M30" s="2">
-        <v>11237072.288961096</v>
+        <v>8271274.1760000018</v>
       </c>
       <c r="N30" s="2">
         <v>36.999999999999908</v>
       </c>
       <c r="O30" s="2">
-        <v>3322.7004621163783</v>
+        <v>3090</v>
       </c>
       <c r="P30" s="2">
-        <v>9808902.6612626221</v>
+        <v>7029925.2345599988</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
@@ -1943,319 +1943,319 @@
         <v>105038</v>
       </c>
       <c r="B31" s="2">
-        <v>12815.04</v>
+        <v>11442</v>
       </c>
       <c r="C31" s="2">
-        <v>18535.079522489126</v>
+        <v>20804.770158470299</v>
       </c>
       <c r="D31" s="2">
-        <v>81313.186226097343</v>
+        <v>69421.599999999991</v>
       </c>
       <c r="E31" s="2">
-        <v>104.05083288568417</v>
+        <v>692.21862862467367</v>
       </c>
       <c r="F31" s="2">
-        <v>4462143.4689371828</v>
+        <v>3389505.0557000008</v>
       </c>
       <c r="G31" s="2">
-        <v>21.85</v>
+        <v>26.112401315789398</v>
       </c>
       <c r="H31" s="2">
-        <v>177.44624942666516</v>
+        <v>164.99999999999889</v>
       </c>
       <c r="I31" s="2">
-        <v>293.77510905488947</v>
+        <v>248.99999999999901</v>
       </c>
       <c r="J31" s="2">
-        <v>404.34101478289182</v>
+        <v>497.85288158683818</v>
       </c>
       <c r="K31" s="2">
-        <v>19594.912583464229</v>
+        <v>61373.672326328422</v>
       </c>
       <c r="L31" s="2">
-        <v>78047.756378671838</v>
+        <v>57789.999999999949</v>
       </c>
       <c r="M31" s="2">
-        <v>708166.29511669534</v>
+        <v>2185490.0203954638</v>
       </c>
       <c r="N31" s="2">
-        <v>5.9999999999999627</v>
+        <v>28.514194264827129</v>
       </c>
       <c r="O31" s="2">
-        <v>3659.2717386996883</v>
+        <v>3403</v>
       </c>
       <c r="P31" s="2">
-        <v>8288037.572059215</v>
+        <v>5939939.1027599983</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A32" s="4">
+      <c r="A32" s="2">
         <v>17275</v>
       </c>
-      <c r="B32" s="5">
-        <v>2414</v>
-      </c>
-      <c r="C32" s="5">
-        <v>19887.443500000001</v>
-      </c>
-      <c r="D32" s="5">
-        <v>8104.9999999999982</v>
-      </c>
-      <c r="E32" s="5">
-        <v>473.99999999999983</v>
-      </c>
-      <c r="F32" s="5">
-        <v>729883.93608999986</v>
-      </c>
-      <c r="G32" s="5">
-        <v>39.4</v>
-      </c>
-      <c r="H32" s="5">
-        <v>44.999999999999716</v>
-      </c>
-      <c r="I32" s="5">
-        <v>7.99999999999996</v>
-      </c>
-      <c r="J32" s="5">
-        <v>296.89999999999964</v>
-      </c>
-      <c r="K32" s="5">
-        <v>32143.999999999978</v>
-      </c>
-      <c r="L32" s="5">
-        <v>60102.41</v>
-      </c>
-      <c r="M32" s="5">
-        <v>550648.19779999938</v>
-      </c>
-      <c r="N32" s="5">
-        <v>22.999999999999957</v>
-      </c>
-      <c r="O32" s="5">
-        <v>946</v>
-      </c>
-      <c r="P32" s="5">
-        <v>236233.5437799996</v>
+      <c r="B32" s="2">
+        <v>3065.78</v>
+      </c>
+      <c r="C32" s="2">
+        <v>21679.803337394831</v>
+      </c>
+      <c r="D32" s="2">
+        <v>9990.9274654330093</v>
+      </c>
+      <c r="E32" s="2">
+        <v>580.08536423274654</v>
+      </c>
+      <c r="F32" s="2">
+        <v>1056927.9355371816</v>
+      </c>
+      <c r="G32" s="2">
+        <v>39.836295399999258</v>
+      </c>
+      <c r="H32" s="2">
+        <v>52.28189156677908</v>
+      </c>
+      <c r="I32" s="2">
+        <v>9.8294841543144535</v>
+      </c>
+      <c r="J32" s="2">
+        <v>338.98346838031421</v>
+      </c>
+      <c r="K32" s="2">
+        <v>35709.008909223878</v>
+      </c>
+      <c r="L32" s="2">
+        <v>73632.724884151248</v>
+      </c>
+      <c r="M32" s="2">
+        <v>744853.96513498458</v>
+      </c>
+      <c r="N32" s="2">
+        <v>23.518145468272934</v>
+      </c>
+      <c r="O32" s="2">
+        <v>1087.841454077746</v>
+      </c>
+      <c r="P32" s="2">
+        <v>356159.95995556167</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A33" s="3">
+      <c r="A33" s="2">
         <v>65842</v>
       </c>
       <c r="B33" s="2">
-        <v>10892</v>
+        <v>13832.84</v>
       </c>
       <c r="C33" s="2">
-        <v>21988.19528</v>
+        <v>23969.885793246038</v>
       </c>
       <c r="D33" s="2">
-        <v>37427.899999999994</v>
+        <v>46136.882675321423</v>
       </c>
       <c r="E33" s="2">
-        <v>807.99999999999966</v>
+        <v>988.83749852333153</v>
       </c>
       <c r="F33" s="2">
-        <v>2824760.7281099996</v>
+        <v>4090470.24755956</v>
       </c>
       <c r="G33" s="2">
-        <v>25</v>
+        <v>25.276837182740646</v>
       </c>
       <c r="H33" s="2">
-        <v>78.999999999999503</v>
+        <v>91.783765195012165</v>
       </c>
       <c r="I33" s="2">
-        <v>242.99999999999901</v>
+        <v>298.5705811873018</v>
       </c>
       <c r="J33" s="2">
-        <v>632.49999999999932</v>
+        <v>722.15238716924478</v>
       </c>
       <c r="K33" s="2">
-        <v>959880.00000000023</v>
+        <v>1066337.8382213118</v>
       </c>
       <c r="L33" s="2">
-        <v>322825.61999999994</v>
+        <v>395500.44770277175</v>
       </c>
       <c r="M33" s="2">
-        <v>12665201.631199995</v>
+        <v>17132037.645676285</v>
       </c>
       <c r="N33" s="2">
-        <v>25.999999999999947</v>
+        <v>26.585729659786789</v>
       </c>
       <c r="O33" s="2">
-        <v>3185</v>
+        <v>3662.5528871433626</v>
       </c>
       <c r="P33" s="2">
-        <v>12405299.012639996</v>
+        <v>18702978.115983784</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A34" s="3">
+      <c r="A34" s="2">
         <v>110482</v>
       </c>
       <c r="B34" s="2">
-        <v>18706.999999999996</v>
+        <v>23757.889999999996</v>
       </c>
       <c r="C34" s="2">
-        <v>21442.174780000001</v>
+        <v>23374.655086082195</v>
       </c>
       <c r="D34" s="2">
-        <v>71187.999999999971</v>
+        <v>87752.516275045637</v>
       </c>
       <c r="E34" s="2">
-        <v>3068.9999999999986</v>
+        <v>3755.8691620892382</v>
       </c>
       <c r="F34" s="2">
-        <v>1434081.5877000005</v>
+        <v>2076660.1605172826</v>
       </c>
       <c r="G34" s="2">
-        <v>24.9</v>
+        <v>25.175729834009683</v>
       </c>
       <c r="H34" s="2">
-        <v>208.99999999999864</v>
+        <v>242.82034083237392</v>
       </c>
       <c r="I34" s="2">
-        <v>249.99999999999895</v>
+        <v>307.17137982232691</v>
       </c>
       <c r="J34" s="2">
-        <v>760.29999999999905</v>
+        <v>868.06713037909356</v>
       </c>
       <c r="K34" s="2">
-        <v>82717.999999999985</v>
+        <v>91892.042028160213</v>
       </c>
       <c r="L34" s="2">
-        <v>330035.92</v>
+        <v>404333.93767816876</v>
       </c>
       <c r="M34" s="2">
-        <v>11480639.036999995</v>
+        <v>15529696.715903692</v>
       </c>
       <c r="N34" s="2">
-        <v>29.999999999999915</v>
+        <v>30.675841915138577</v>
       </c>
       <c r="O34" s="2">
-        <v>4768.9999999999991</v>
+        <v>5484.0548567619135</v>
       </c>
       <c r="P34" s="2">
-        <v>15406913.946689995</v>
+        <v>23228394.098859005</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A35" s="3">
+      <c r="A35" s="2">
         <v>18562</v>
       </c>
       <c r="B35" s="2">
-        <v>3694.0000000000009</v>
+        <v>4691.380000000001</v>
       </c>
       <c r="C35" s="2">
-        <v>21712.38264</v>
+        <v>23669.21548370285</v>
       </c>
       <c r="D35" s="2">
-        <v>8165.7999999999993</v>
+        <v>10065.874830010225</v>
       </c>
       <c r="E35" s="2">
-        <v>567.99999999999966</v>
+        <v>695.12339005105468</v>
       </c>
       <c r="F35" s="2">
-        <v>479171.98727999994</v>
+        <v>693877.79925142787</v>
       </c>
       <c r="G35" s="2">
-        <v>38.200000000000003</v>
+        <v>38.623007215227709</v>
       </c>
       <c r="H35" s="2">
-        <v>94.999999999999403</v>
+        <v>110.37288219653362</v>
       </c>
       <c r="I35" s="2">
-        <v>41.999999999999844</v>
+        <v>51.60479181015095</v>
       </c>
       <c r="J35" s="2">
-        <v>556.39999999999964</v>
+        <v>635.26575212801254</v>
       </c>
       <c r="K35" s="2">
-        <v>14808.999999999978</v>
+        <v>16451.428351689148</v>
       </c>
       <c r="L35" s="2">
-        <v>36416.79</v>
+        <v>44614.97432854872</v>
       </c>
       <c r="M35" s="2">
-        <v>4968189.5378400004</v>
+        <v>6720399.1433862001</v>
       </c>
       <c r="N35" s="2">
-        <v>23.99999999999994</v>
+        <v>24.540673532110869</v>
       </c>
       <c r="O35" s="2">
-        <v>958.99999999999977</v>
+        <v>1102.7906495354739</v>
       </c>
       <c r="P35" s="2">
-        <v>1727129.7467999991</v>
+        <v>2603925.131103361</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A36" s="3">
+      <c r="A36" s="2">
         <v>28673</v>
       </c>
       <c r="B36" s="2">
-        <v>4213</v>
+        <v>5350.51</v>
       </c>
       <c r="C36" s="2">
-        <v>18718.034879999999</v>
+        <v>20405.00153078483</v>
       </c>
       <c r="D36" s="2">
-        <v>15706.399999999994</v>
+        <v>19361.073799269216</v>
       </c>
       <c r="E36" s="2">
-        <v>1185.9999999999993</v>
+        <v>1451.437219367167</v>
       </c>
       <c r="F36" s="2">
-        <v>912846.19063000008</v>
+        <v>1321871.3168206764</v>
       </c>
       <c r="G36" s="2">
-        <v>36.5</v>
+        <v>36.904182286801344</v>
       </c>
       <c r="H36" s="2">
-        <v>107.99999999999929</v>
+        <v>125.47653976026976</v>
       </c>
       <c r="I36" s="2">
-        <v>91.999999999999645</v>
+        <v>113.03906777461636</v>
       </c>
       <c r="J36" s="2">
-        <v>873.59999999999934</v>
+        <v>997.42660147201968</v>
       </c>
       <c r="K36" s="2">
-        <v>127582.99999999996</v>
+        <v>141732.90454409877</v>
       </c>
       <c r="L36" s="2">
-        <v>56902.999999999993</v>
+        <v>69713.060492630117</v>
       </c>
       <c r="M36" s="2">
-        <v>5517088.4192999983</v>
+        <v>7462886.8332526349</v>
       </c>
       <c r="N36" s="2">
-        <v>38.999999999999915</v>
+        <v>39.878594489680175</v>
       </c>
       <c r="O36" s="2">
-        <v>1113.0000000000002</v>
+        <v>1279.8811188039447</v>
       </c>
       <c r="P36" s="2">
-        <v>6142682.3205399979</v>
+        <v>9261078.9064769875</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A37" s="3">
+      <c r="A37" s="2">
         <v>28434</v>
       </c>
       <c r="B37" s="2">
-        <v>5725</v>
+        <v>5839.5</v>
       </c>
       <c r="C37" s="2">
         <v>20773.66617</v>
       </c>
       <c r="D37" s="2">
-        <v>26868.199999999993</v>
+        <v>29854.288992554695</v>
       </c>
       <c r="E37" s="2">
-        <v>1111.9999999999993</v>
+        <v>1344.8309380053936</v>
       </c>
       <c r="F37" s="2">
-        <v>1674021.9106300003</v>
+        <v>2063160.5890038323</v>
       </c>
       <c r="G37" s="2">
         <v>22.6</v>
@@ -2264,7 +2264,7 @@
         <v>72.999999999999545</v>
       </c>
       <c r="I37" s="2">
-        <v>113.99999999999952</v>
+        <v>119.25618355303567</v>
       </c>
       <c r="J37" s="2">
         <v>350.99999999999966</v>
@@ -2273,39 +2273,39 @@
         <v>10711.999999999955</v>
       </c>
       <c r="L37" s="2">
-        <v>7011.1399999999894</v>
+        <v>8164.1690086360904</v>
       </c>
       <c r="M37" s="2">
-        <v>49916.868199999284</v>
+        <v>54366.531525845545</v>
       </c>
       <c r="N37" s="2">
         <v>1.9999999999999927</v>
       </c>
       <c r="O37" s="2">
-        <v>1617.9999999999998</v>
+        <v>1690.0045188387674</v>
       </c>
       <c r="P37" s="2">
-        <v>5355232.274249997</v>
+        <v>6244959.3830651175</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A38" s="3">
+      <c r="A38" s="2">
         <v>139565</v>
       </c>
       <c r="B38" s="2">
-        <v>24379.999999999993</v>
+        <v>24867.599999999991</v>
       </c>
       <c r="C38" s="2">
         <v>19874.44096</v>
       </c>
       <c r="D38" s="2">
-        <v>207240.69999999998</v>
+        <v>230273.10161526751</v>
       </c>
       <c r="E38" s="2">
-        <v>1859.9999999999984</v>
+        <v>2249.447432275208</v>
       </c>
       <c r="F38" s="2">
-        <v>5926777.3109299988</v>
+        <v>7304500.1920620315</v>
       </c>
       <c r="G38" s="2">
         <v>21.6</v>
@@ -2314,7 +2314,7 @@
         <v>311.9999999999979</v>
       </c>
       <c r="I38" s="2">
-        <v>386.99999999999841</v>
+        <v>404.84335995635797</v>
       </c>
       <c r="J38" s="2">
         <v>962.79999999999893</v>
@@ -2323,39 +2323,39 @@
         <v>8125.9999999999918</v>
       </c>
       <c r="L38" s="2">
-        <v>44861.889999999948</v>
+        <v>52239.728775468961</v>
       </c>
       <c r="M38" s="2">
-        <v>199155.57099999874</v>
+        <v>216908.59262118847</v>
       </c>
       <c r="N38" s="2">
         <v>33.999999999999922</v>
       </c>
       <c r="O38" s="2">
-        <v>6249</v>
+        <v>6527.0940903729661</v>
       </c>
       <c r="P38" s="2">
-        <v>15178335.903369986</v>
+        <v>17700089.625400923</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A39" s="3">
+      <c r="A39" s="2">
         <v>19887.999999999989</v>
       </c>
       <c r="B39" s="2">
-        <v>4481.9999999999982</v>
+        <v>4571.6399999999985</v>
       </c>
       <c r="C39" s="2">
         <v>37917.462079999998</v>
       </c>
       <c r="D39" s="2">
-        <v>14558.999999999989</v>
+        <v>16177.064092220677</v>
       </c>
       <c r="E39" s="2">
-        <v>609.99999999999943</v>
+        <v>737.72200735907359</v>
       </c>
       <c r="F39" s="2">
-        <v>1282627.8831299993</v>
+        <v>1580784.1474639561</v>
       </c>
       <c r="G39" s="2">
         <v>29.1</v>
@@ -2364,7 +2364,7 @@
         <v>67.999999999999545</v>
       </c>
       <c r="I39" s="2">
-        <v>114.99999999999949</v>
+        <v>120.30229042630789</v>
       </c>
       <c r="J39" s="2">
         <v>358.69999999999959</v>
@@ -2373,39 +2373,39 @@
         <v>4886.9999999999818</v>
       </c>
       <c r="L39" s="2">
-        <v>8000.4999999999918</v>
+        <v>9316.2358979556921</v>
       </c>
       <c r="M39" s="2">
-        <v>794969.88139999914</v>
+        <v>865834.67027747876</v>
       </c>
       <c r="N39" s="2">
         <v>14.999999999999956</v>
       </c>
       <c r="O39" s="2">
-        <v>1094.9999999999995</v>
+        <v>1143.7298814143694</v>
       </c>
       <c r="P39" s="2">
-        <v>5006117.3553799978</v>
+        <v>5837841.9366662949</v>
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A40" s="3">
+      <c r="A40" s="2">
         <v>65776</v>
       </c>
       <c r="B40" s="2">
-        <v>14881</v>
+        <v>15178.62</v>
       </c>
       <c r="C40" s="2">
         <v>35840.741759999997</v>
       </c>
       <c r="D40" s="2">
-        <v>52247.999999999993</v>
+        <v>58054.759577604673</v>
       </c>
       <c r="E40" s="2">
-        <v>2190.9999999999991</v>
+        <v>2649.7523247930017</v>
       </c>
       <c r="F40" s="2">
-        <v>2740590.23832</v>
+        <v>3377660.5517561701</v>
       </c>
       <c r="G40" s="2">
         <v>22.8</v>
@@ -2414,7 +2414,7 @@
         <v>240.99999999999852</v>
       </c>
       <c r="I40" s="2">
-        <v>194.99999999999918</v>
+        <v>203.99084028808733</v>
       </c>
       <c r="J40" s="2">
         <v>225.39999999999938</v>
@@ -2423,39 +2423,39 @@
         <v>2243.9999999999036</v>
       </c>
       <c r="L40" s="2">
-        <v>11420.029999999982</v>
+        <v>13298.13054705717</v>
       </c>
       <c r="M40" s="2">
-        <v>169468.43350463765</v>
+        <v>184575.09986104607</v>
       </c>
       <c r="N40" s="2">
         <v>5.9999999999999716</v>
       </c>
       <c r="O40" s="2">
-        <v>3302</v>
+        <v>3448.9461812148397</v>
       </c>
       <c r="P40" s="2">
-        <v>8353078.9401600007</v>
+        <v>9740873.2307771854</v>
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A41" s="3">
+      <c r="A41" s="2">
         <v>108665</v>
       </c>
       <c r="B41" s="2">
-        <v>17434.000000000004</v>
+        <v>17782.680000000004</v>
       </c>
       <c r="C41" s="2">
         <v>19751.678240000001</v>
       </c>
       <c r="D41" s="2">
-        <v>72518.999999999985</v>
+        <v>80578.646260303038</v>
       </c>
       <c r="E41" s="2">
-        <v>1824.9999999999995</v>
+        <v>2207.1191203775575</v>
       </c>
       <c r="F41" s="2">
-        <v>6519507.7608800009</v>
+        <v>8035015.1850104388</v>
       </c>
       <c r="G41" s="2">
         <v>26.6</v>
@@ -2464,7 +2464,7 @@
         <v>270.99999999999818</v>
       </c>
       <c r="I41" s="2">
-        <v>292.99999999999886</v>
+        <v>306.50931386876721</v>
       </c>
       <c r="J41" s="2">
         <v>225.39999999999932</v>
@@ -2473,30 +2473,30 @@
         <v>2036.9999999998449</v>
       </c>
       <c r="L41" s="2">
-        <v>25366.999999999985</v>
+        <v>29538.77332959717</v>
       </c>
       <c r="M41" s="2">
-        <v>245884.47409999909</v>
+        <v>267802.97913148615</v>
       </c>
       <c r="N41" s="2">
         <v>33.999999999999908</v>
       </c>
       <c r="O41" s="2">
-        <v>5712.9999999999991</v>
+        <v>5967.2409246760681</v>
       </c>
       <c r="P41" s="2">
-        <v>12403303.24303</v>
+        <v>14464008.469065005</v>
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A42" s="3">
+      <c r="A42" s="2">
         <v>9622.9999999999964</v>
       </c>
       <c r="B42" s="2">
         <v>1207.9999999999993</v>
       </c>
       <c r="C42" s="2">
-        <v>16635.344249999991</v>
+        <v>17258.655753586329</v>
       </c>
       <c r="D42" s="2">
         <v>3746.5999999999967</v>
@@ -2505,10 +2505,10 @@
         <v>44.99999999999995</v>
       </c>
       <c r="F42" s="2">
-        <v>79286.091859999928</v>
+        <v>84821.616612874292</v>
       </c>
       <c r="G42" s="2">
-        <v>30.1</v>
+        <v>33.14783941551179</v>
       </c>
       <c r="H42" s="2">
         <v>32.999999999999773</v>
@@ -2517,16 +2517,16 @@
         <v>9.9999999999999485</v>
       </c>
       <c r="J42" s="2">
-        <v>212.39999999999975</v>
+        <v>220.54621652251558</v>
       </c>
       <c r="K42" s="2">
         <v>22989.999999999982</v>
       </c>
       <c r="L42" s="2">
-        <v>7487.889999999994</v>
+        <v>7716.2901723415644</v>
       </c>
       <c r="M42" s="2">
-        <v>613356.16829999944</v>
+        <v>633508.48902710096</v>
       </c>
       <c r="N42" s="2">
         <v>14.999999999999956</v>
@@ -2535,18 +2535,18 @@
         <v>672.99999999999989</v>
       </c>
       <c r="P42" s="2">
-        <v>232900.09079999954</v>
+        <v>286032.99613732687</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A43" s="3">
+      <c r="A43" s="2">
         <v>16685</v>
       </c>
       <c r="B43" s="2">
         <v>2386</v>
       </c>
       <c r="C43" s="2">
-        <v>16273.3732</v>
+        <v>16883.121971367545</v>
       </c>
       <c r="D43" s="2">
         <v>10592.199999999999</v>
@@ -2555,10 +2555,10 @@
         <v>377.99999999999972</v>
       </c>
       <c r="F43" s="2">
-        <v>398404.10683999996</v>
+        <v>426219.52494578558</v>
       </c>
       <c r="G43" s="2">
-        <v>26.4</v>
+        <v>29.073188058787746</v>
       </c>
       <c r="H43" s="2">
         <v>27.999999999999833</v>
@@ -2567,16 +2567,16 @@
         <v>22.999999999999915</v>
       </c>
       <c r="J43" s="2">
-        <v>800.99999999999955</v>
+        <v>831.72090129253809</v>
       </c>
       <c r="K43" s="2">
         <v>112136.99999999997</v>
       </c>
       <c r="L43" s="2">
-        <v>9244.5999999999931</v>
+        <v>9526.584408588913</v>
       </c>
       <c r="M43" s="2">
-        <v>1610842.1835999999</v>
+        <v>1663767.7267059332</v>
       </c>
       <c r="N43" s="2">
         <v>21.999999999999957</v>
@@ -2585,18 +2585,18 @@
         <v>624.00000000000011</v>
       </c>
       <c r="P43" s="2">
-        <v>1492496.0792400001</v>
+        <v>1832988.2302829542</v>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A44" s="3">
+      <c r="A44" s="2">
         <v>40956</v>
       </c>
       <c r="B44" s="2">
         <v>6906.9999999999973</v>
       </c>
       <c r="C44" s="2">
-        <v>16179.493109999999</v>
+        <v>16785.724278174286</v>
       </c>
       <c r="D44" s="2">
         <v>45679.399999999994</v>
@@ -2605,10 +2605,10 @@
         <v>943.99999999999955</v>
       </c>
       <c r="F44" s="2">
-        <v>1135992.2059199996</v>
+        <v>1215303.8837618858</v>
       </c>
       <c r="G44" s="2">
-        <v>22.9</v>
+        <v>25.218788126751495</v>
       </c>
       <c r="H44" s="2">
         <v>86.999999999999389</v>
@@ -2617,16 +2617,16 @@
         <v>196.9999999999992</v>
       </c>
       <c r="J44" s="2">
-        <v>2450.9999999999986</v>
+        <v>2545.0036567640586</v>
       </c>
       <c r="K44" s="2">
         <v>49269.999999999935</v>
       </c>
       <c r="L44" s="2">
-        <v>10475.609999999997</v>
+        <v>10795.143423886177</v>
       </c>
       <c r="M44" s="2">
-        <v>832899.14939999871</v>
+        <v>860264.7351061966</v>
       </c>
       <c r="N44" s="2">
         <v>26.99999999999994</v>
@@ -2635,18 +2635,18 @@
         <v>1959.9999999999998</v>
       </c>
       <c r="P44" s="2">
-        <v>1961160.027659998</v>
+        <v>2408571.3178105522</v>
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A45" s="3">
+      <c r="A45" s="2">
         <v>24184.999999999989</v>
       </c>
       <c r="B45" s="2">
         <v>4568.9999999999982</v>
       </c>
       <c r="C45" s="2">
-        <v>21418.87329</v>
+        <v>22221.419357870833</v>
       </c>
       <c r="D45" s="2">
         <v>4933.5999999999949</v>
@@ -2655,10 +2655,10 @@
         <v>130.99999999999977</v>
       </c>
       <c r="F45" s="2">
-        <v>143687.26248999985</v>
+        <v>153719.09000888685</v>
       </c>
       <c r="G45" s="2">
-        <v>22.3</v>
+        <v>24.558033852688137</v>
       </c>
       <c r="H45" s="2">
         <v>103.9999999999993</v>
@@ -2667,16 +2667,16 @@
         <v>2.9999999999999765</v>
       </c>
       <c r="J45" s="2">
-        <v>316.99999999999955</v>
+        <v>329.15795968755845</v>
       </c>
       <c r="K45" s="2">
         <v>106497.99999999996</v>
       </c>
       <c r="L45" s="2">
-        <v>19137.909999999989</v>
+        <v>19721.666163920327</v>
       </c>
       <c r="M45" s="2">
-        <v>3427876.6054999977</v>
+        <v>3540502.3070698176</v>
       </c>
       <c r="N45" s="2">
         <v>50.999999999999886</v>
@@ -2685,18 +2685,18 @@
         <v>1217.9999999999995</v>
       </c>
       <c r="P45" s="2">
-        <v>3524494.8488999987</v>
+        <v>4328559.1604477121</v>
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A46" s="3">
+      <c r="A46" s="2">
         <v>12565.999999999991</v>
       </c>
       <c r="B46" s="2">
         <v>2093.9999999999991</v>
       </c>
       <c r="C46" s="2">
-        <v>16955.84604</v>
+        <v>17591.166459640302</v>
       </c>
       <c r="D46" s="2">
         <v>7192.4999999999927</v>
@@ -2705,10 +2705,10 @@
         <v>449.99999999999943</v>
       </c>
       <c r="F46" s="2">
-        <v>298227.95619999972</v>
+        <v>319049.36629622732</v>
       </c>
       <c r="G46" s="2">
-        <v>30.03</v>
+        <v>33.070751416871069</v>
       </c>
       <c r="H46" s="2">
         <v>59.999999999999581</v>
@@ -2717,16 +2717,16 @@
         <v>14.999999999999922</v>
       </c>
       <c r="J46" s="2">
-        <v>647.79999999999916</v>
+        <v>672.64519332996974</v>
       </c>
       <c r="K46" s="2">
         <v>25719.999999999982</v>
       </c>
       <c r="L46" s="2">
-        <v>20804.14999999998</v>
+        <v>21438.730829234901</v>
       </c>
       <c r="M46" s="2">
-        <v>1533618.0888999989</v>
+        <v>1584006.3709418301</v>
       </c>
       <c r="N46" s="2">
         <v>21.999999999999932</v>
@@ -2735,286 +2735,286 @@
         <v>676.99999999999955</v>
       </c>
       <c r="P46" s="2">
-        <v>1868542.2159599983</v>
+        <v>2294824.0449553295</v>
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A47" s="3">
+      <c r="A47" s="2">
         <v>4183.9999999999918</v>
       </c>
       <c r="B47" s="2">
-        <v>788.99999999999841</v>
+        <v>1057.2599999999979</v>
       </c>
       <c r="C47" s="2">
-        <v>19068.8688</v>
+        <v>20226.367727107965</v>
       </c>
       <c r="D47" s="2">
-        <v>1820.9999999999964</v>
+        <v>2381.0656795158275</v>
       </c>
       <c r="E47" s="2">
-        <v>79.999999999999787</v>
+        <v>113.42499495170337</v>
       </c>
       <c r="F47" s="2">
-        <v>57968.611199999868</v>
+        <v>81501.246245260627</v>
       </c>
       <c r="G47" s="2">
-        <v>35.799999999999997</v>
+        <v>36.102330543942813</v>
       </c>
       <c r="H47" s="2">
-        <v>12.999999999999892</v>
+        <v>15.982526713303701</v>
       </c>
       <c r="I47" s="2">
-        <v>1.9999999999999847</v>
+        <v>2.5736340998794454</v>
       </c>
       <c r="J47" s="2">
-        <v>81.399999999999764</v>
+        <v>109.9937054332045</v>
       </c>
       <c r="K47" s="2">
-        <v>32010.999999999935</v>
+        <v>44335.913688073495</v>
       </c>
       <c r="L47" s="2">
-        <v>1244.4599999999969</v>
+        <v>2003.2628205799081</v>
       </c>
       <c r="M47" s="2">
-        <v>838591.639199998</v>
+        <v>1077875.2283725089</v>
       </c>
       <c r="N47" s="2">
-        <v>9.9999999999999591</v>
+        <v>11.577914620948475</v>
       </c>
       <c r="O47" s="2">
-        <v>251.99999999999952</v>
+        <v>315.84662311287593</v>
       </c>
       <c r="P47" s="2">
-        <v>750105.80711999815</v>
+        <v>1122077.8321941854</v>
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A48" s="3">
+      <c r="A48" s="2">
         <v>95828.000000000015</v>
       </c>
       <c r="B48" s="2">
-        <v>13438.999999999998</v>
+        <v>18008.259999999998</v>
       </c>
       <c r="C48" s="2">
-        <v>21170.54232</v>
+        <v>22455.614878771485</v>
       </c>
       <c r="D48" s="2">
-        <v>70891.10000000002</v>
+        <v>92694.324653006508</v>
       </c>
       <c r="E48" s="2">
-        <v>2106.9999999999986</v>
+        <v>2987.3308045404933</v>
       </c>
       <c r="F48" s="2">
-        <v>2932758.8092799997</v>
+        <v>4123326.2785686189</v>
       </c>
       <c r="G48" s="2">
-        <v>27.2</v>
+        <v>27.42970365349845</v>
       </c>
       <c r="H48" s="2">
-        <v>193.99999999999883</v>
+        <v>238.50847556776347</v>
       </c>
       <c r="I48" s="2">
-        <v>221.99999999999912</v>
+        <v>285.67338508661948</v>
       </c>
       <c r="J48" s="2">
-        <v>793.09999999999945</v>
+        <v>1071.6954272613598</v>
       </c>
       <c r="K48" s="2">
-        <v>1149829.0000000002</v>
+        <v>1592537.543345849</v>
       </c>
       <c r="L48" s="2">
-        <v>72866.099999999977</v>
+        <v>117295.81425731478</v>
       </c>
       <c r="M48" s="2">
-        <v>9782808.4583999943</v>
+        <v>12574233.283892285</v>
       </c>
       <c r="N48" s="2">
-        <v>26.999999999999911</v>
+        <v>31.260369476560907</v>
       </c>
       <c r="O48" s="2">
-        <v>3887.9999999999995</v>
+        <v>4873.0621851700944</v>
       </c>
       <c r="P48" s="2">
-        <v>9535558.9931999948</v>
+        <v>14264173.483645547</v>
       </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A49" s="3">
+      <c r="A49" s="2">
         <v>17569.999999999989</v>
       </c>
       <c r="B49" s="2">
-        <v>1887.9999999999989</v>
+        <v>2529.9199999999983</v>
       </c>
       <c r="C49" s="2">
-        <v>18376.923200000001</v>
+        <v>19492.420354584516</v>
       </c>
       <c r="D49" s="2">
-        <v>8486.1999999999953</v>
+        <v>11096.210636742033</v>
       </c>
       <c r="E49" s="2">
-        <v>234.99999999999972</v>
+        <v>333.18592267062911</v>
       </c>
       <c r="F49" s="2">
-        <v>341592.53969999967</v>
+        <v>480263.66540990554</v>
       </c>
       <c r="G49" s="2">
-        <v>26.3</v>
+        <v>26.522103164963575</v>
       </c>
       <c r="H49" s="2">
-        <v>155.99999999999895</v>
+        <v>191.79032055964473</v>
       </c>
       <c r="I49" s="2">
-        <v>56.999999999999723</v>
+        <v>73.348571846564397</v>
       </c>
       <c r="J49" s="2">
-        <v>389.39999999999952</v>
+        <v>526.1861043696548</v>
       </c>
       <c r="K49" s="2">
-        <v>182951.9999999998</v>
+        <v>253392.39889601793</v>
       </c>
       <c r="L49" s="2">
-        <v>19100.999999999978</v>
+        <v>30747.732458975683</v>
       </c>
       <c r="M49" s="2">
-        <v>2366184.0724999984</v>
+        <v>3041350.6148838014</v>
       </c>
       <c r="N49" s="2">
-        <v>24.999999999999932</v>
+        <v>28.944786552371227</v>
       </c>
       <c r="O49" s="2">
-        <v>790.99999999999943</v>
+        <v>991.40745588208404</v>
       </c>
       <c r="P49" s="2">
-        <v>322435.87408999965</v>
+        <v>482329.48363598721</v>
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A50" s="3">
+      <c r="A50" s="2">
         <v>120926</v>
       </c>
       <c r="B50" s="2">
-        <v>20037.999999999996</v>
+        <v>26850.919999999995</v>
       </c>
       <c r="C50" s="2">
-        <v>25152.816680000011</v>
+        <v>26679.61717489058</v>
       </c>
       <c r="D50" s="2">
-        <v>72911.599999999991</v>
+        <v>95336.24843414966</v>
       </c>
       <c r="E50" s="2">
-        <v>2549.9999999999977</v>
+        <v>3615.4217140855512</v>
       </c>
       <c r="F50" s="2">
-        <v>4713511.9352799999</v>
+        <v>6626984.6553996988</v>
       </c>
       <c r="G50" s="2">
-        <v>29.9</v>
+        <v>30.152505119103076</v>
       </c>
       <c r="H50" s="2">
-        <v>195.99999999999872</v>
+        <v>240.96732583134855</v>
       </c>
       <c r="I50" s="2">
-        <v>248.99999999999895</v>
+        <v>320.41744543499203</v>
       </c>
       <c r="J50" s="2">
-        <v>1123.1999999999985</v>
+        <v>1517.7509820955217</v>
       </c>
       <c r="K50" s="2">
-        <v>1264806.9999999993</v>
+        <v>1751784.5110765442</v>
       </c>
       <c r="L50" s="2">
-        <v>104307.92999999998</v>
+        <v>167909.13172030606</v>
       </c>
       <c r="M50" s="2">
-        <v>2214641.3434399972</v>
+        <v>2846566.7104680962</v>
       </c>
       <c r="N50" s="2">
-        <v>34.999999999999915</v>
+        <v>40.522701173319724</v>
       </c>
       <c r="O50" s="2">
-        <v>6308.9999999999991</v>
+        <v>7907.4458143616584</v>
       </c>
       <c r="P50" s="2">
-        <v>26988496.705479994</v>
+        <v>40371896.324514598</v>
       </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A51" s="3">
+      <c r="A51" s="2">
         <v>50473.999999999993</v>
       </c>
       <c r="B51" s="2">
-        <v>8680.9999999999982</v>
+        <v>11632.539999999997</v>
       </c>
       <c r="C51" s="2">
-        <v>19397.3076</v>
+        <v>20574.743082475143</v>
       </c>
       <c r="D51" s="2">
-        <v>32935.899999999994</v>
+        <v>43065.645861595542</v>
       </c>
       <c r="E51" s="2">
-        <v>1673.9999999999982</v>
+        <v>2373.418019364397</v>
       </c>
       <c r="F51" s="2">
-        <v>1330729.4930399999</v>
+        <v>1870945.4971052352</v>
       </c>
       <c r="G51" s="2">
-        <v>25.1</v>
+        <v>25.311969180250408</v>
       </c>
       <c r="H51" s="2">
-        <v>158.99999999999895</v>
+        <v>195.47859595502251</v>
       </c>
       <c r="I51" s="2">
-        <v>184.99999999999918</v>
+        <v>238.06115423884944</v>
       </c>
       <c r="J51" s="2">
-        <v>386.19999999999953</v>
+        <v>521.86202749758786</v>
       </c>
       <c r="K51" s="2">
-        <v>810919.99999999977</v>
+        <v>1123141.3928940871</v>
       </c>
       <c r="L51" s="2">
-        <v>182696</v>
+        <v>294093.9076134772</v>
       </c>
       <c r="M51" s="2">
-        <v>5519372.8535999991</v>
+        <v>7094269.7219382674</v>
       </c>
       <c r="N51" s="2">
-        <v>38.999999999999908</v>
+        <v>45.153867021699128</v>
       </c>
       <c r="O51" s="2">
-        <v>2499.9999999999995</v>
+        <v>3133.3990388182192</v>
       </c>
       <c r="P51" s="2">
-        <v>3749387.5015199976</v>
+        <v>5608681.5484265415</v>
       </c>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A52" s="3">
+      <c r="A52" s="2">
         <v>47578.999999999993</v>
       </c>
       <c r="B52" s="2">
-        <v>11633.999999999998</v>
+        <v>11983.019999999999</v>
       </c>
       <c r="C52" s="2">
-        <v>24954.799999999999</v>
+        <v>25430.158580461106</v>
       </c>
       <c r="D52" s="2">
-        <v>37654.999999999985</v>
+        <v>45721.641100095774</v>
       </c>
       <c r="E52" s="2">
-        <v>898.99999999999943</v>
+        <v>1078.2639907286032</v>
       </c>
       <c r="F52" s="2">
-        <v>1350652</v>
+        <v>1929096.1699928325</v>
       </c>
       <c r="G52" s="2">
-        <v>23.5</v>
+        <v>24.20423743534403</v>
       </c>
       <c r="H52" s="2">
         <v>69.999999999999503</v>
       </c>
       <c r="I52" s="2">
-        <v>171.99999999999929</v>
+        <v>197.21727965783901</v>
       </c>
       <c r="J52" s="2">
         <v>201.0999999999998</v>
@@ -3023,48 +3023,48 @@
         <v>14598.999999999955</v>
       </c>
       <c r="L52" s="2">
-        <v>16640.329999999991</v>
+        <v>23998.867850818726</v>
       </c>
       <c r="M52" s="2">
-        <v>232538.99999999936</v>
+        <v>286065.10401343706</v>
       </c>
       <c r="N52" s="2">
         <v>10.999999999999968</v>
       </c>
       <c r="O52" s="2">
-        <v>2737.9999999999991</v>
+        <v>2873.3721036438064</v>
       </c>
       <c r="P52" s="2">
-        <v>32418265.199999992</v>
+        <v>36698725.509738542</v>
       </c>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A53" s="3">
+      <c r="A53" s="2">
         <v>28553</v>
       </c>
       <c r="B53" s="2">
-        <v>6935.9999999999991</v>
+        <v>7144.079999999999</v>
       </c>
       <c r="C53" s="2">
-        <v>34591.617420000002</v>
+        <v>35250.545648341838</v>
       </c>
       <c r="D53" s="2">
-        <v>13338.599999999997</v>
+        <v>16196.061133388332</v>
       </c>
       <c r="E53" s="2">
-        <v>494.99999999999943</v>
+        <v>593.70486697514832</v>
       </c>
       <c r="F53" s="2">
-        <v>139069.51849999998</v>
+        <v>198628.86628169011</v>
       </c>
       <c r="G53" s="2">
-        <v>22.9</v>
+        <v>23.586256905079928</v>
       </c>
       <c r="H53" s="2">
         <v>76.999999999999531</v>
       </c>
       <c r="I53" s="2">
-        <v>124.99999999999952</v>
+        <v>143.32651137924353</v>
       </c>
       <c r="J53" s="2">
         <v>169.2999999999999</v>
@@ -3073,48 +3073,48 @@
         <v>19625.999999999978</v>
       </c>
       <c r="L53" s="2">
-        <v>10308.619999999997</v>
+        <v>14867.205704713007</v>
       </c>
       <c r="M53" s="2">
-        <v>429026.07919999963</v>
+        <v>527779.81315317133</v>
       </c>
       <c r="N53" s="2">
         <v>11.999999999999972</v>
       </c>
       <c r="O53" s="2">
-        <v>2062</v>
+        <v>2163.9493344461398</v>
       </c>
       <c r="P53" s="2">
-        <v>13315114.298400002</v>
+        <v>15073222.510616535</v>
       </c>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A54" s="3">
+      <c r="A54" s="2">
         <v>79746</v>
       </c>
       <c r="B54" s="2">
-        <v>16843</v>
+        <v>17348.29</v>
       </c>
       <c r="C54" s="2">
-        <v>35339.908029999999</v>
+        <v>36013.090284106096</v>
       </c>
       <c r="D54" s="2">
-        <v>73491.599999999991</v>
+        <v>89235.335521758054</v>
       </c>
       <c r="E54" s="2">
-        <v>2645.9999999999991</v>
+        <v>3173.6223798307956</v>
       </c>
       <c r="F54" s="2">
-        <v>2006637.54357</v>
+        <v>2866020.8550127735</v>
       </c>
       <c r="G54" s="2">
-        <v>24.6</v>
+        <v>25.33720174082822</v>
       </c>
       <c r="H54" s="2">
         <v>164.99999999999895</v>
       </c>
       <c r="I54" s="2">
-        <v>232.99999999999903</v>
+        <v>267.16061721090983</v>
       </c>
       <c r="J54" s="2">
         <v>188.49999999999935</v>
@@ -3123,48 +3123,48 @@
         <v>1592.9999999998829</v>
       </c>
       <c r="L54" s="2">
-        <v>23405.999999999971</v>
+        <v>33756.391905464778</v>
       </c>
       <c r="M54" s="2">
-        <v>313421.54109999974</v>
+        <v>385565.28476867708</v>
       </c>
       <c r="N54" s="2">
         <v>7.9999999999999671</v>
       </c>
       <c r="O54" s="2">
-        <v>5536</v>
+        <v>5809.7107252637397</v>
       </c>
       <c r="P54" s="2">
-        <v>37484508.028549999</v>
+        <v>42433907.62955901</v>
       </c>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A55" s="3">
+      <c r="A55" s="2">
         <v>57687</v>
       </c>
       <c r="B55" s="2">
-        <v>11292</v>
+        <v>11630.76</v>
       </c>
       <c r="C55" s="2">
-        <v>23845.612519999999</v>
+        <v>24299.842428383665</v>
       </c>
       <c r="D55" s="2">
-        <v>33352.599999999984</v>
+        <v>40497.559605764291</v>
       </c>
       <c r="E55" s="2">
-        <v>1263.9999999999993</v>
+        <v>1516.0463673870463</v>
       </c>
       <c r="F55" s="2">
-        <v>1716389.6294400003</v>
+        <v>2451468.3725845898</v>
       </c>
       <c r="G55" s="2">
-        <v>29.41</v>
+        <v>30.291345658445444</v>
       </c>
       <c r="H55" s="2">
         <v>70.999999999999531</v>
       </c>
       <c r="I55" s="2">
-        <v>230.99999999999903</v>
+        <v>264.86739302884195</v>
       </c>
       <c r="J55" s="2">
         <v>233.29999999999964</v>
@@ -3173,48 +3173,48 @@
         <v>383.99999999993003</v>
       </c>
       <c r="L55" s="2">
-        <v>37867.999999999993</v>
+        <v>54613.648153300077</v>
       </c>
       <c r="M55" s="2">
-        <v>322803.30879999872</v>
+        <v>397106.55893314036</v>
       </c>
       <c r="N55" s="2">
         <v>0.99999999999999423</v>
       </c>
       <c r="O55" s="2">
-        <v>2426.9999999999995</v>
+        <v>2546.9956521342292</v>
       </c>
       <c r="P55" s="2">
-        <v>32139963.465120006</v>
+        <v>36383677.220934838</v>
       </c>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A56" s="3">
+      <c r="A56" s="2">
         <v>141368</v>
       </c>
       <c r="B56" s="2">
-        <v>33537</v>
+        <v>34543.11</v>
       </c>
       <c r="C56" s="2">
-        <v>27126.22694</v>
+        <v>27642.948561951056</v>
       </c>
       <c r="D56" s="2">
-        <v>58200</v>
+        <v>70667.89302949344</v>
       </c>
       <c r="E56" s="2">
-        <v>2876.9999999999973</v>
+        <v>3450.6846510858627</v>
       </c>
       <c r="F56" s="2">
-        <v>10541809.012150001</v>
+        <v>15056552.97599566</v>
       </c>
       <c r="G56" s="2">
-        <v>31.4</v>
+        <v>32.340981083821383</v>
       </c>
       <c r="H56" s="2">
         <v>306.99999999999795</v>
       </c>
       <c r="I56" s="2">
-        <v>198.99999999999918</v>
+        <v>228.17580611575562</v>
       </c>
       <c r="J56" s="2">
         <v>474.69999999999879</v>
@@ -3223,268 +3223,1768 @@
         <v>595570.99999999977</v>
       </c>
       <c r="L56" s="2">
-        <v>59771.349999999991</v>
+        <v>86202.901620042059</v>
       </c>
       <c r="M56" s="2">
-        <v>1632754.1328999992</v>
+        <v>2008583.4240983608</v>
       </c>
       <c r="N56" s="2">
         <v>90.999999999999801</v>
       </c>
       <c r="O56" s="2">
-        <v>9371</v>
+        <v>9834.3206659043535</v>
       </c>
       <c r="P56" s="2">
-        <v>79424596.731749997</v>
+        <v>89911704.287623957</v>
       </c>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A57" s="3">
+      <c r="A57" s="2">
         <v>23671.999999999989</v>
       </c>
       <c r="B57" s="2">
-        <v>2819.9999999999991</v>
+        <v>3158.3999999999987</v>
       </c>
       <c r="C57" s="2">
-        <v>17545.93204</v>
+        <v>17851.005113971656</v>
       </c>
       <c r="D57" s="2">
-        <v>16399.19999999999</v>
+        <v>19208.304094964893</v>
       </c>
       <c r="E57" s="2">
-        <v>346.9999999999996</v>
+        <v>451.32048764165734</v>
       </c>
       <c r="F57" s="2">
-        <v>573514.04293999961</v>
+        <v>755007.55980432429</v>
       </c>
       <c r="G57" s="2">
         <v>28</v>
       </c>
       <c r="H57" s="2">
-        <v>64.999999999999574</v>
+        <v>69.903067955958988</v>
       </c>
       <c r="I57" s="2">
-        <v>59.999999999999716</v>
+        <v>70.789182904792597</v>
       </c>
       <c r="J57" s="2">
-        <v>382.49999999999949</v>
+        <v>419.02042306815559</v>
       </c>
       <c r="K57" s="2">
-        <v>39639.999999999935</v>
+        <v>42544.905231337492</v>
       </c>
       <c r="L57" s="2">
-        <v>9314.3999999999924</v>
+        <v>12579.477799160772</v>
       </c>
       <c r="M57" s="2">
-        <v>3234408.7671999987</v>
+        <v>4394157.9441938587</v>
       </c>
       <c r="N57" s="2">
         <v>17.99999999999995</v>
       </c>
       <c r="O57" s="2">
-        <v>744.99999999999955</v>
+        <v>801.10415672385136</v>
       </c>
       <c r="P57" s="2">
-        <v>828015.21829999832</v>
+        <v>1155335.2855618461</v>
       </c>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A58" s="3">
+      <c r="A58" s="2">
         <v>116468</v>
       </c>
       <c r="B58" s="2">
-        <v>21239.000000000004</v>
+        <v>23787.680000000004</v>
       </c>
       <c r="C58" s="2">
-        <v>23604.910929999998</v>
+        <v>24015.332144548502</v>
       </c>
       <c r="D58" s="2">
-        <v>64664.399999999987</v>
+        <v>75741.100743844116</v>
       </c>
       <c r="E58" s="2">
-        <v>2076.9999999999995</v>
+        <v>2701.4197487945912</v>
       </c>
       <c r="F58" s="2">
-        <v>4676977.1911799992</v>
+        <v>6157047.3815629296</v>
       </c>
       <c r="G58" s="2">
         <v>30.2</v>
       </c>
       <c r="H58" s="2">
-        <v>300.99999999999807</v>
+        <v>323.70497622682552</v>
       </c>
       <c r="I58" s="2">
-        <v>303.99999999999869</v>
+        <v>358.66519338428265</v>
       </c>
       <c r="J58" s="2">
-        <v>783.79999999999882</v>
+        <v>858.63583686488971</v>
       </c>
       <c r="K58" s="2">
-        <v>202571.00000000003</v>
+        <v>217415.84252314031</v>
       </c>
       <c r="L58" s="2">
-        <v>87368.909999999974</v>
+        <v>117995.28296850856</v>
       </c>
       <c r="M58" s="2">
-        <v>8408723.8795999978</v>
+        <v>11423806.789907886</v>
       </c>
       <c r="N58" s="2">
         <v>34.999999999999901</v>
       </c>
       <c r="O58" s="2">
-        <v>4502</v>
+        <v>4841.0347833164842</v>
       </c>
       <c r="P58" s="2">
-        <v>19397519.885310002</v>
+        <v>27065491.890230715</v>
       </c>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A59" s="3">
+      <c r="A59" s="2">
         <v>64841.999999999993</v>
       </c>
       <c r="B59" s="2">
-        <v>15028.999999999996</v>
+        <v>16832.479999999996</v>
       </c>
       <c r="C59" s="2">
-        <v>25869.387780000001</v>
+        <v>26319.181705669933</v>
       </c>
       <c r="D59" s="2">
-        <v>17235.499999999989</v>
+        <v>20187.858263132799</v>
       </c>
       <c r="E59" s="2">
-        <v>1123.9999999999986</v>
+        <v>1461.9142020438699</v>
       </c>
       <c r="F59" s="2">
-        <v>866008.93850999954</v>
+        <v>1140065.0140690142</v>
       </c>
       <c r="G59" s="2">
         <v>23.8</v>
       </c>
       <c r="H59" s="2">
-        <v>124.99999999999919</v>
+        <v>134.42897683838268</v>
       </c>
       <c r="I59" s="2">
-        <v>194.99999999999915</v>
+        <v>230.064844440576</v>
       </c>
       <c r="J59" s="2">
-        <v>235.39999999999975</v>
+        <v>257.87557539933033</v>
       </c>
       <c r="K59" s="2">
-        <v>2168.999999999995</v>
+        <v>2327.949027416018</v>
       </c>
       <c r="L59" s="2">
-        <v>22439.059999999987</v>
+        <v>30304.86742077177</v>
       </c>
       <c r="M59" s="2">
-        <v>259751.15039999882</v>
+        <v>352889.09448255628</v>
       </c>
       <c r="N59" s="2">
         <v>11.999999999999948</v>
       </c>
       <c r="O59" s="2">
-        <v>3210.9999999999995</v>
+        <v>3452.8126808594466</v>
       </c>
       <c r="P59" s="2">
-        <v>9430951.7147999946</v>
+        <v>13159071.296912728</v>
       </c>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A60" s="3">
+      <c r="A60" s="2">
         <v>64100</v>
       </c>
       <c r="B60" s="2">
-        <v>9192</v>
+        <v>10295.040000000001</v>
       </c>
       <c r="C60" s="2">
-        <v>21205.026720000002</v>
+        <v>21573.720880582281</v>
       </c>
       <c r="D60" s="2">
-        <v>59994</v>
+        <v>70270.683684162912</v>
       </c>
       <c r="E60" s="2">
-        <v>1042.9999999999993</v>
+        <v>1356.5627337471146</v>
       </c>
       <c r="F60" s="2">
-        <v>1194600.3487199994</v>
+        <v>1572642.0396001372</v>
       </c>
       <c r="G60" s="2">
         <v>24.81</v>
       </c>
       <c r="H60" s="2">
-        <v>140.99999999999912</v>
+        <v>151.63588587369571</v>
       </c>
       <c r="I60" s="2">
-        <v>92.999999999999559</v>
+        <v>109.72323350242851</v>
       </c>
       <c r="J60" s="2">
-        <v>563.59999999999923</v>
+        <v>617.41153056526139</v>
       </c>
       <c r="K60" s="2">
-        <v>35895.999999999993</v>
+        <v>38526.536785673379</v>
       </c>
       <c r="L60" s="2">
-        <v>57654.419999999991</v>
+        <v>77864.650048687123</v>
       </c>
       <c r="M60" s="2">
-        <v>8271274.1760000018</v>
+        <v>11237072.288961096</v>
       </c>
       <c r="N60" s="2">
         <v>36.999999999999908</v>
       </c>
       <c r="O60" s="2">
-        <v>3089.9999999999995</v>
+        <v>3322.7004621163783</v>
       </c>
       <c r="P60" s="2">
-        <v>7029925.2345599988</v>
+        <v>9808902.6612626221</v>
       </c>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A61" s="3">
+      <c r="A61" s="2">
         <v>105038</v>
       </c>
       <c r="B61" s="2">
-        <v>11442</v>
+        <v>12815.04</v>
       </c>
       <c r="C61" s="2">
-        <v>18218.315640000001</v>
+        <v>18535.079522489126</v>
       </c>
       <c r="D61" s="2">
-        <v>69421.599999999991</v>
+        <v>81313.186226097343</v>
       </c>
       <c r="E61" s="2">
-        <v>79.999999999999517</v>
+        <v>104.05083288568417</v>
       </c>
       <c r="F61" s="2">
-        <v>3389505.0557000008</v>
+        <v>4462143.4689371828</v>
       </c>
       <c r="G61" s="2">
         <v>21.85</v>
       </c>
       <c r="H61" s="2">
-        <v>164.99999999999895</v>
+        <v>177.44624942666516</v>
       </c>
       <c r="I61" s="2">
-        <v>248.99999999999898</v>
+        <v>293.77510905488947</v>
       </c>
       <c r="J61" s="2">
-        <v>369.09999999999923</v>
+        <v>404.34101478289182</v>
       </c>
       <c r="K61" s="2">
-        <v>18256.999999999818</v>
+        <v>19594.912583464229</v>
       </c>
       <c r="L61" s="2">
-        <v>57789.999999999949</v>
+        <v>78047.756378671838</v>
       </c>
       <c r="M61" s="2">
-        <v>521260.11459999764</v>
+        <v>708166.29511669534</v>
       </c>
       <c r="N61" s="2">
         <v>5.9999999999999627</v>
       </c>
       <c r="O61" s="2">
+        <v>3659.2717386996883</v>
+      </c>
+      <c r="P61" s="2">
+        <v>8288037.572059215</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A62" s="4">
+        <v>17275</v>
+      </c>
+      <c r="B62" s="5">
+        <v>2414</v>
+      </c>
+      <c r="C62" s="5">
+        <v>19887.443500000001</v>
+      </c>
+      <c r="D62" s="5">
+        <v>8104.9999999999982</v>
+      </c>
+      <c r="E62" s="5">
+        <v>473.99999999999983</v>
+      </c>
+      <c r="F62" s="5">
+        <v>729883.93608999986</v>
+      </c>
+      <c r="G62" s="5">
+        <v>39.4</v>
+      </c>
+      <c r="H62" s="5">
+        <v>44.999999999999716</v>
+      </c>
+      <c r="I62" s="5">
+        <v>7.99999999999996</v>
+      </c>
+      <c r="J62" s="5">
+        <v>296.89999999999964</v>
+      </c>
+      <c r="K62" s="5">
+        <v>32143.999999999978</v>
+      </c>
+      <c r="L62" s="5">
+        <v>60102.41</v>
+      </c>
+      <c r="M62" s="5">
+        <v>550648.19779999938</v>
+      </c>
+      <c r="N62" s="5">
+        <v>22.999999999999957</v>
+      </c>
+      <c r="O62" s="5">
+        <v>946</v>
+      </c>
+      <c r="P62" s="5">
+        <v>236233.5437799996</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A63" s="3">
+        <v>65842</v>
+      </c>
+      <c r="B63" s="2">
+        <v>10892</v>
+      </c>
+      <c r="C63" s="2">
+        <v>21988.19528</v>
+      </c>
+      <c r="D63" s="2">
+        <v>37427.899999999994</v>
+      </c>
+      <c r="E63" s="2">
+        <v>807.99999999999966</v>
+      </c>
+      <c r="F63" s="2">
+        <v>2824760.7281099996</v>
+      </c>
+      <c r="G63" s="2">
+        <v>25</v>
+      </c>
+      <c r="H63" s="2">
+        <v>78.999999999999503</v>
+      </c>
+      <c r="I63" s="2">
+        <v>242.99999999999901</v>
+      </c>
+      <c r="J63" s="2">
+        <v>632.49999999999932</v>
+      </c>
+      <c r="K63" s="2">
+        <v>959880.00000000023</v>
+      </c>
+      <c r="L63" s="2">
+        <v>322825.61999999994</v>
+      </c>
+      <c r="M63" s="2">
+        <v>12665201.631199995</v>
+      </c>
+      <c r="N63" s="2">
+        <v>25.999999999999947</v>
+      </c>
+      <c r="O63" s="2">
+        <v>3185</v>
+      </c>
+      <c r="P63" s="2">
+        <v>12405299.012639996</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A64" s="3">
+        <v>110482</v>
+      </c>
+      <c r="B64" s="2">
+        <v>18706.999999999996</v>
+      </c>
+      <c r="C64" s="2">
+        <v>21442.174780000001</v>
+      </c>
+      <c r="D64" s="2">
+        <v>71187.999999999971</v>
+      </c>
+      <c r="E64" s="2">
+        <v>3068.9999999999986</v>
+      </c>
+      <c r="F64" s="2">
+        <v>1434081.5877000005</v>
+      </c>
+      <c r="G64" s="2">
+        <v>24.9</v>
+      </c>
+      <c r="H64" s="2">
+        <v>208.99999999999864</v>
+      </c>
+      <c r="I64" s="2">
+        <v>249.99999999999895</v>
+      </c>
+      <c r="J64" s="2">
+        <v>760.29999999999905</v>
+      </c>
+      <c r="K64" s="2">
+        <v>82717.999999999985</v>
+      </c>
+      <c r="L64" s="2">
+        <v>330035.92</v>
+      </c>
+      <c r="M64" s="2">
+        <v>11480639.036999995</v>
+      </c>
+      <c r="N64" s="2">
+        <v>29.999999999999915</v>
+      </c>
+      <c r="O64" s="2">
+        <v>4768.9999999999991</v>
+      </c>
+      <c r="P64" s="2">
+        <v>15406913.946689995</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A65" s="3">
+        <v>18562</v>
+      </c>
+      <c r="B65" s="2">
+        <v>3694.0000000000009</v>
+      </c>
+      <c r="C65" s="2">
+        <v>21712.38264</v>
+      </c>
+      <c r="D65" s="2">
+        <v>8165.7999999999993</v>
+      </c>
+      <c r="E65" s="2">
+        <v>567.99999999999966</v>
+      </c>
+      <c r="F65" s="2">
+        <v>479171.98727999994</v>
+      </c>
+      <c r="G65" s="2">
+        <v>38.200000000000003</v>
+      </c>
+      <c r="H65" s="2">
+        <v>94.999999999999403</v>
+      </c>
+      <c r="I65" s="2">
+        <v>41.999999999999844</v>
+      </c>
+      <c r="J65" s="2">
+        <v>556.39999999999964</v>
+      </c>
+      <c r="K65" s="2">
+        <v>14808.999999999978</v>
+      </c>
+      <c r="L65" s="2">
+        <v>36416.79</v>
+      </c>
+      <c r="M65" s="2">
+        <v>4968189.5378400004</v>
+      </c>
+      <c r="N65" s="2">
+        <v>23.99999999999994</v>
+      </c>
+      <c r="O65" s="2">
+        <v>958.99999999999977</v>
+      </c>
+      <c r="P65" s="2">
+        <v>1727129.7467999991</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A66" s="3">
+        <v>28673</v>
+      </c>
+      <c r="B66" s="2">
+        <v>4213</v>
+      </c>
+      <c r="C66" s="2">
+        <v>18718.034879999999</v>
+      </c>
+      <c r="D66" s="2">
+        <v>15706.399999999994</v>
+      </c>
+      <c r="E66" s="2">
+        <v>1185.9999999999993</v>
+      </c>
+      <c r="F66" s="2">
+        <v>912846.19063000008</v>
+      </c>
+      <c r="G66" s="2">
+        <v>36.5</v>
+      </c>
+      <c r="H66" s="2">
+        <v>107.99999999999929</v>
+      </c>
+      <c r="I66" s="2">
+        <v>91.999999999999645</v>
+      </c>
+      <c r="J66" s="2">
+        <v>873.59999999999934</v>
+      </c>
+      <c r="K66" s="2">
+        <v>127582.99999999996</v>
+      </c>
+      <c r="L66" s="2">
+        <v>56902.999999999993</v>
+      </c>
+      <c r="M66" s="2">
+        <v>5517088.4192999983</v>
+      </c>
+      <c r="N66" s="2">
+        <v>38.999999999999915</v>
+      </c>
+      <c r="O66" s="2">
+        <v>1113.0000000000002</v>
+      </c>
+      <c r="P66" s="2">
+        <v>6142682.3205399979</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A67" s="3">
+        <v>28434</v>
+      </c>
+      <c r="B67" s="2">
+        <v>5725</v>
+      </c>
+      <c r="C67" s="2">
+        <v>20773.66617</v>
+      </c>
+      <c r="D67" s="2">
+        <v>26868.199999999993</v>
+      </c>
+      <c r="E67" s="2">
+        <v>1111.9999999999993</v>
+      </c>
+      <c r="F67" s="2">
+        <v>1674021.9106300003</v>
+      </c>
+      <c r="G67" s="2">
+        <v>22.6</v>
+      </c>
+      <c r="H67" s="2">
+        <v>72.999999999999545</v>
+      </c>
+      <c r="I67" s="2">
+        <v>113.99999999999952</v>
+      </c>
+      <c r="J67" s="2">
+        <v>350.99999999999966</v>
+      </c>
+      <c r="K67" s="2">
+        <v>10711.999999999955</v>
+      </c>
+      <c r="L67" s="2">
+        <v>7011.1399999999894</v>
+      </c>
+      <c r="M67" s="2">
+        <v>49916.868199999284</v>
+      </c>
+      <c r="N67" s="2">
+        <v>1.9999999999999927</v>
+      </c>
+      <c r="O67" s="2">
+        <v>1617.9999999999998</v>
+      </c>
+      <c r="P67" s="2">
+        <v>5355232.274249997</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A68" s="3">
+        <v>139565</v>
+      </c>
+      <c r="B68" s="2">
+        <v>24379.999999999993</v>
+      </c>
+      <c r="C68" s="2">
+        <v>19874.44096</v>
+      </c>
+      <c r="D68" s="2">
+        <v>207240.69999999998</v>
+      </c>
+      <c r="E68" s="2">
+        <v>1859.9999999999984</v>
+      </c>
+      <c r="F68" s="2">
+        <v>5926777.3109299988</v>
+      </c>
+      <c r="G68" s="2">
+        <v>21.6</v>
+      </c>
+      <c r="H68" s="2">
+        <v>311.9999999999979</v>
+      </c>
+      <c r="I68" s="2">
+        <v>386.99999999999841</v>
+      </c>
+      <c r="J68" s="2">
+        <v>962.79999999999893</v>
+      </c>
+      <c r="K68" s="2">
+        <v>8125.9999999999918</v>
+      </c>
+      <c r="L68" s="2">
+        <v>44861.889999999948</v>
+      </c>
+      <c r="M68" s="2">
+        <v>199155.57099999874</v>
+      </c>
+      <c r="N68" s="2">
+        <v>33.999999999999922</v>
+      </c>
+      <c r="O68" s="2">
+        <v>6249</v>
+      </c>
+      <c r="P68" s="2">
+        <v>15178335.903369986</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A69" s="3">
+        <v>19887.999999999989</v>
+      </c>
+      <c r="B69" s="2">
+        <v>4481.9999999999982</v>
+      </c>
+      <c r="C69" s="2">
+        <v>37917.462079999998</v>
+      </c>
+      <c r="D69" s="2">
+        <v>14558.999999999989</v>
+      </c>
+      <c r="E69" s="2">
+        <v>609.99999999999943</v>
+      </c>
+      <c r="F69" s="2">
+        <v>1282627.8831299993</v>
+      </c>
+      <c r="G69" s="2">
+        <v>29.1</v>
+      </c>
+      <c r="H69" s="2">
+        <v>67.999999999999545</v>
+      </c>
+      <c r="I69" s="2">
+        <v>114.99999999999949</v>
+      </c>
+      <c r="J69" s="2">
+        <v>358.69999999999959</v>
+      </c>
+      <c r="K69" s="2">
+        <v>4886.9999999999818</v>
+      </c>
+      <c r="L69" s="2">
+        <v>8000.4999999999918</v>
+      </c>
+      <c r="M69" s="2">
+        <v>794969.88139999914</v>
+      </c>
+      <c r="N69" s="2">
+        <v>14.999999999999956</v>
+      </c>
+      <c r="O69" s="2">
+        <v>1094.9999999999995</v>
+      </c>
+      <c r="P69" s="2">
+        <v>5006117.3553799978</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A70" s="3">
+        <v>65776</v>
+      </c>
+      <c r="B70" s="2">
+        <v>14881</v>
+      </c>
+      <c r="C70" s="2">
+        <v>35840.741759999997</v>
+      </c>
+      <c r="D70" s="2">
+        <v>52247.999999999993</v>
+      </c>
+      <c r="E70" s="2">
+        <v>2190.9999999999991</v>
+      </c>
+      <c r="F70" s="2">
+        <v>2740590.23832</v>
+      </c>
+      <c r="G70" s="2">
+        <v>22.8</v>
+      </c>
+      <c r="H70" s="2">
+        <v>240.99999999999852</v>
+      </c>
+      <c r="I70" s="2">
+        <v>194.99999999999918</v>
+      </c>
+      <c r="J70" s="2">
+        <v>225.39999999999938</v>
+      </c>
+      <c r="K70" s="2">
+        <v>2243.9999999999036</v>
+      </c>
+      <c r="L70" s="2">
+        <v>11420.029999999982</v>
+      </c>
+      <c r="M70" s="2">
+        <v>169468.43350463765</v>
+      </c>
+      <c r="N70" s="2">
+        <v>5.9999999999999716</v>
+      </c>
+      <c r="O70" s="2">
+        <v>3302</v>
+      </c>
+      <c r="P70" s="2">
+        <v>8353078.9401600007</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A71" s="3">
+        <v>108665</v>
+      </c>
+      <c r="B71" s="2">
+        <v>17434.000000000004</v>
+      </c>
+      <c r="C71" s="2">
+        <v>19751.678240000001</v>
+      </c>
+      <c r="D71" s="2">
+        <v>72518.999999999985</v>
+      </c>
+      <c r="E71" s="2">
+        <v>1824.9999999999995</v>
+      </c>
+      <c r="F71" s="2">
+        <v>6519507.7608800009</v>
+      </c>
+      <c r="G71" s="2">
+        <v>26.6</v>
+      </c>
+      <c r="H71" s="2">
+        <v>270.99999999999818</v>
+      </c>
+      <c r="I71" s="2">
+        <v>292.99999999999886</v>
+      </c>
+      <c r="J71" s="2">
+        <v>225.39999999999932</v>
+      </c>
+      <c r="K71" s="2">
+        <v>2036.9999999998449</v>
+      </c>
+      <c r="L71" s="2">
+        <v>25366.999999999985</v>
+      </c>
+      <c r="M71" s="2">
+        <v>245884.47409999909</v>
+      </c>
+      <c r="N71" s="2">
+        <v>33.999999999999908</v>
+      </c>
+      <c r="O71" s="2">
+        <v>5712.9999999999991</v>
+      </c>
+      <c r="P71" s="2">
+        <v>12403303.24303</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A72" s="3">
+        <v>9622.9999999999964</v>
+      </c>
+      <c r="B72" s="2">
+        <v>1207.9999999999993</v>
+      </c>
+      <c r="C72" s="2">
+        <v>16635.344249999991</v>
+      </c>
+      <c r="D72" s="2">
+        <v>3746.5999999999967</v>
+      </c>
+      <c r="E72" s="2">
+        <v>44.99999999999995</v>
+      </c>
+      <c r="F72" s="2">
+        <v>79286.091859999928</v>
+      </c>
+      <c r="G72" s="2">
+        <v>30.1</v>
+      </c>
+      <c r="H72" s="2">
+        <v>32.999999999999773</v>
+      </c>
+      <c r="I72" s="2">
+        <v>9.9999999999999485</v>
+      </c>
+      <c r="J72" s="2">
+        <v>212.39999999999975</v>
+      </c>
+      <c r="K72" s="2">
+        <v>22989.999999999982</v>
+      </c>
+      <c r="L72" s="2">
+        <v>7487.889999999994</v>
+      </c>
+      <c r="M72" s="2">
+        <v>613356.16829999944</v>
+      </c>
+      <c r="N72" s="2">
+        <v>14.999999999999956</v>
+      </c>
+      <c r="O72" s="2">
+        <v>672.99999999999989</v>
+      </c>
+      <c r="P72" s="2">
+        <v>232900.09079999954</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A73" s="3">
+        <v>16685</v>
+      </c>
+      <c r="B73" s="2">
+        <v>2386</v>
+      </c>
+      <c r="C73" s="2">
+        <v>16273.3732</v>
+      </c>
+      <c r="D73" s="2">
+        <v>10592.199999999999</v>
+      </c>
+      <c r="E73" s="2">
+        <v>377.99999999999972</v>
+      </c>
+      <c r="F73" s="2">
+        <v>398404.10683999996</v>
+      </c>
+      <c r="G73" s="2">
+        <v>26.4</v>
+      </c>
+      <c r="H73" s="2">
+        <v>27.999999999999833</v>
+      </c>
+      <c r="I73" s="2">
+        <v>22.999999999999915</v>
+      </c>
+      <c r="J73" s="2">
+        <v>800.99999999999955</v>
+      </c>
+      <c r="K73" s="2">
+        <v>112136.99999999997</v>
+      </c>
+      <c r="L73" s="2">
+        <v>9244.5999999999931</v>
+      </c>
+      <c r="M73" s="2">
+        <v>1610842.1835999999</v>
+      </c>
+      <c r="N73" s="2">
+        <v>21.999999999999957</v>
+      </c>
+      <c r="O73" s="2">
+        <v>624.00000000000011</v>
+      </c>
+      <c r="P73" s="2">
+        <v>1492496.0792400001</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A74" s="3">
+        <v>40956</v>
+      </c>
+      <c r="B74" s="2">
+        <v>6906.9999999999973</v>
+      </c>
+      <c r="C74" s="2">
+        <v>16179.493109999999</v>
+      </c>
+      <c r="D74" s="2">
+        <v>45679.399999999994</v>
+      </c>
+      <c r="E74" s="2">
+        <v>943.99999999999955</v>
+      </c>
+      <c r="F74" s="2">
+        <v>1135992.2059199996</v>
+      </c>
+      <c r="G74" s="2">
+        <v>22.9</v>
+      </c>
+      <c r="H74" s="2">
+        <v>86.999999999999389</v>
+      </c>
+      <c r="I74" s="2">
+        <v>196.9999999999992</v>
+      </c>
+      <c r="J74" s="2">
+        <v>2450.9999999999986</v>
+      </c>
+      <c r="K74" s="2">
+        <v>49269.999999999935</v>
+      </c>
+      <c r="L74" s="2">
+        <v>10475.609999999997</v>
+      </c>
+      <c r="M74" s="2">
+        <v>832899.14939999871</v>
+      </c>
+      <c r="N74" s="2">
+        <v>26.99999999999994</v>
+      </c>
+      <c r="O74" s="2">
+        <v>1959.9999999999998</v>
+      </c>
+      <c r="P74" s="2">
+        <v>1961160.027659998</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A75" s="3">
+        <v>24184.999999999989</v>
+      </c>
+      <c r="B75" s="2">
+        <v>4568.9999999999982</v>
+      </c>
+      <c r="C75" s="2">
+        <v>21418.87329</v>
+      </c>
+      <c r="D75" s="2">
+        <v>4933.5999999999949</v>
+      </c>
+      <c r="E75" s="2">
+        <v>130.99999999999977</v>
+      </c>
+      <c r="F75" s="2">
+        <v>143687.26248999985</v>
+      </c>
+      <c r="G75" s="2">
+        <v>22.3</v>
+      </c>
+      <c r="H75" s="2">
+        <v>103.9999999999993</v>
+      </c>
+      <c r="I75" s="2">
+        <v>2.9999999999999765</v>
+      </c>
+      <c r="J75" s="2">
+        <v>316.99999999999955</v>
+      </c>
+      <c r="K75" s="2">
+        <v>106497.99999999996</v>
+      </c>
+      <c r="L75" s="2">
+        <v>19137.909999999989</v>
+      </c>
+      <c r="M75" s="2">
+        <v>3427876.6054999977</v>
+      </c>
+      <c r="N75" s="2">
+        <v>50.999999999999886</v>
+      </c>
+      <c r="O75" s="2">
+        <v>1217.9999999999995</v>
+      </c>
+      <c r="P75" s="2">
+        <v>3524494.8488999987</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A76" s="3">
+        <v>12565.999999999991</v>
+      </c>
+      <c r="B76" s="2">
+        <v>2093.9999999999991</v>
+      </c>
+      <c r="C76" s="2">
+        <v>16955.84604</v>
+      </c>
+      <c r="D76" s="2">
+        <v>7192.4999999999927</v>
+      </c>
+      <c r="E76" s="2">
+        <v>449.99999999999943</v>
+      </c>
+      <c r="F76" s="2">
+        <v>298227.95619999972</v>
+      </c>
+      <c r="G76" s="2">
+        <v>30.03</v>
+      </c>
+      <c r="H76" s="2">
+        <v>59.999999999999581</v>
+      </c>
+      <c r="I76" s="2">
+        <v>14.999999999999922</v>
+      </c>
+      <c r="J76" s="2">
+        <v>647.79999999999916</v>
+      </c>
+      <c r="K76" s="2">
+        <v>25719.999999999982</v>
+      </c>
+      <c r="L76" s="2">
+        <v>20804.14999999998</v>
+      </c>
+      <c r="M76" s="2">
+        <v>1533618.0888999989</v>
+      </c>
+      <c r="N76" s="2">
+        <v>21.999999999999932</v>
+      </c>
+      <c r="O76" s="2">
+        <v>676.99999999999955</v>
+      </c>
+      <c r="P76" s="2">
+        <v>1868542.2159599983</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A77" s="3">
+        <v>4183.9999999999918</v>
+      </c>
+      <c r="B77" s="2">
+        <v>788.99999999999841</v>
+      </c>
+      <c r="C77" s="2">
+        <v>19068.8688</v>
+      </c>
+      <c r="D77" s="2">
+        <v>1820.9999999999964</v>
+      </c>
+      <c r="E77" s="2">
+        <v>79.999999999999787</v>
+      </c>
+      <c r="F77" s="2">
+        <v>57968.611199999868</v>
+      </c>
+      <c r="G77" s="2">
+        <v>35.799999999999997</v>
+      </c>
+      <c r="H77" s="2">
+        <v>12.999999999999892</v>
+      </c>
+      <c r="I77" s="2">
+        <v>1.9999999999999847</v>
+      </c>
+      <c r="J77" s="2">
+        <v>81.399999999999764</v>
+      </c>
+      <c r="K77" s="2">
+        <v>32010.999999999935</v>
+      </c>
+      <c r="L77" s="2">
+        <v>1244.4599999999969</v>
+      </c>
+      <c r="M77" s="2">
+        <v>838591.639199998</v>
+      </c>
+      <c r="N77" s="2">
+        <v>9.9999999999999591</v>
+      </c>
+      <c r="O77" s="2">
+        <v>251.99999999999952</v>
+      </c>
+      <c r="P77" s="2">
+        <v>750105.80711999815</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A78" s="3">
+        <v>95828.000000000015</v>
+      </c>
+      <c r="B78" s="2">
+        <v>13438.999999999998</v>
+      </c>
+      <c r="C78" s="2">
+        <v>21170.54232</v>
+      </c>
+      <c r="D78" s="2">
+        <v>70891.10000000002</v>
+      </c>
+      <c r="E78" s="2">
+        <v>2106.9999999999986</v>
+      </c>
+      <c r="F78" s="2">
+        <v>2932758.8092799997</v>
+      </c>
+      <c r="G78" s="2">
+        <v>27.2</v>
+      </c>
+      <c r="H78" s="2">
+        <v>193.99999999999883</v>
+      </c>
+      <c r="I78" s="2">
+        <v>221.99999999999912</v>
+      </c>
+      <c r="J78" s="2">
+        <v>793.09999999999945</v>
+      </c>
+      <c r="K78" s="2">
+        <v>1149829.0000000002</v>
+      </c>
+      <c r="L78" s="2">
+        <v>72866.099999999977</v>
+      </c>
+      <c r="M78" s="2">
+        <v>9782808.4583999943</v>
+      </c>
+      <c r="N78" s="2">
+        <v>26.999999999999911</v>
+      </c>
+      <c r="O78" s="2">
+        <v>3887.9999999999995</v>
+      </c>
+      <c r="P78" s="2">
+        <v>9535558.9931999948</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A79" s="3">
+        <v>17569.999999999989</v>
+      </c>
+      <c r="B79" s="2">
+        <v>1887.9999999999989</v>
+      </c>
+      <c r="C79" s="2">
+        <v>18376.923200000001</v>
+      </c>
+      <c r="D79" s="2">
+        <v>8486.1999999999953</v>
+      </c>
+      <c r="E79" s="2">
+        <v>234.99999999999972</v>
+      </c>
+      <c r="F79" s="2">
+        <v>341592.53969999967</v>
+      </c>
+      <c r="G79" s="2">
+        <v>26.3</v>
+      </c>
+      <c r="H79" s="2">
+        <v>155.99999999999895</v>
+      </c>
+      <c r="I79" s="2">
+        <v>56.999999999999723</v>
+      </c>
+      <c r="J79" s="2">
+        <v>389.39999999999952</v>
+      </c>
+      <c r="K79" s="2">
+        <v>182951.9999999998</v>
+      </c>
+      <c r="L79" s="2">
+        <v>19100.999999999978</v>
+      </c>
+      <c r="M79" s="2">
+        <v>2366184.0724999984</v>
+      </c>
+      <c r="N79" s="2">
+        <v>24.999999999999932</v>
+      </c>
+      <c r="O79" s="2">
+        <v>790.99999999999943</v>
+      </c>
+      <c r="P79" s="2">
+        <v>322435.87408999965</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A80" s="3">
+        <v>120926</v>
+      </c>
+      <c r="B80" s="2">
+        <v>20037.999999999996</v>
+      </c>
+      <c r="C80" s="2">
+        <v>25152.816680000011</v>
+      </c>
+      <c r="D80" s="2">
+        <v>72911.599999999991</v>
+      </c>
+      <c r="E80" s="2">
+        <v>2549.9999999999977</v>
+      </c>
+      <c r="F80" s="2">
+        <v>4713511.9352799999</v>
+      </c>
+      <c r="G80" s="2">
+        <v>29.9</v>
+      </c>
+      <c r="H80" s="2">
+        <v>195.99999999999872</v>
+      </c>
+      <c r="I80" s="2">
+        <v>248.99999999999895</v>
+      </c>
+      <c r="J80" s="2">
+        <v>1123.1999999999985</v>
+      </c>
+      <c r="K80" s="2">
+        <v>1264806.9999999993</v>
+      </c>
+      <c r="L80" s="2">
+        <v>104307.92999999998</v>
+      </c>
+      <c r="M80" s="2">
+        <v>2214641.3434399972</v>
+      </c>
+      <c r="N80" s="2">
+        <v>34.999999999999915</v>
+      </c>
+      <c r="O80" s="2">
+        <v>6308.9999999999991</v>
+      </c>
+      <c r="P80" s="2">
+        <v>26988496.705479994</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A81" s="3">
+        <v>50473.999999999993</v>
+      </c>
+      <c r="B81" s="2">
+        <v>8680.9999999999982</v>
+      </c>
+      <c r="C81" s="2">
+        <v>19397.3076</v>
+      </c>
+      <c r="D81" s="2">
+        <v>32935.899999999994</v>
+      </c>
+      <c r="E81" s="2">
+        <v>1673.9999999999982</v>
+      </c>
+      <c r="F81" s="2">
+        <v>1330729.4930399999</v>
+      </c>
+      <c r="G81" s="2">
+        <v>25.1</v>
+      </c>
+      <c r="H81" s="2">
+        <v>158.99999999999895</v>
+      </c>
+      <c r="I81" s="2">
+        <v>184.99999999999918</v>
+      </c>
+      <c r="J81" s="2">
+        <v>386.19999999999953</v>
+      </c>
+      <c r="K81" s="2">
+        <v>810919.99999999977</v>
+      </c>
+      <c r="L81" s="2">
+        <v>182696</v>
+      </c>
+      <c r="M81" s="2">
+        <v>5519372.8535999991</v>
+      </c>
+      <c r="N81" s="2">
+        <v>38.999999999999908</v>
+      </c>
+      <c r="O81" s="2">
+        <v>2499.9999999999995</v>
+      </c>
+      <c r="P81" s="2">
+        <v>3749387.5015199976</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A82" s="3">
+        <v>47578.999999999993</v>
+      </c>
+      <c r="B82" s="2">
+        <v>11633.999999999998</v>
+      </c>
+      <c r="C82" s="2">
+        <v>24954.799999999999</v>
+      </c>
+      <c r="D82" s="2">
+        <v>37654.999999999985</v>
+      </c>
+      <c r="E82" s="2">
+        <v>898.99999999999943</v>
+      </c>
+      <c r="F82" s="2">
+        <v>1350652</v>
+      </c>
+      <c r="G82" s="2">
+        <v>23.5</v>
+      </c>
+      <c r="H82" s="2">
+        <v>69.999999999999503</v>
+      </c>
+      <c r="I82" s="2">
+        <v>171.99999999999929</v>
+      </c>
+      <c r="J82" s="2">
+        <v>201.0999999999998</v>
+      </c>
+      <c r="K82" s="2">
+        <v>14598.999999999955</v>
+      </c>
+      <c r="L82" s="2">
+        <v>16640.329999999991</v>
+      </c>
+      <c r="M82" s="2">
+        <v>232538.99999999936</v>
+      </c>
+      <c r="N82" s="2">
+        <v>10.999999999999968</v>
+      </c>
+      <c r="O82" s="2">
+        <v>2737.9999999999991</v>
+      </c>
+      <c r="P82" s="2">
+        <v>32418265.199999992</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A83" s="3">
+        <v>28553</v>
+      </c>
+      <c r="B83" s="2">
+        <v>6935.9999999999991</v>
+      </c>
+      <c r="C83" s="2">
+        <v>34591.617420000002</v>
+      </c>
+      <c r="D83" s="2">
+        <v>13338.599999999997</v>
+      </c>
+      <c r="E83" s="2">
+        <v>494.99999999999943</v>
+      </c>
+      <c r="F83" s="2">
+        <v>139069.51849999998</v>
+      </c>
+      <c r="G83" s="2">
+        <v>22.9</v>
+      </c>
+      <c r="H83" s="2">
+        <v>76.999999999999531</v>
+      </c>
+      <c r="I83" s="2">
+        <v>124.99999999999952</v>
+      </c>
+      <c r="J83" s="2">
+        <v>169.2999999999999</v>
+      </c>
+      <c r="K83" s="2">
+        <v>19625.999999999978</v>
+      </c>
+      <c r="L83" s="2">
+        <v>10308.619999999997</v>
+      </c>
+      <c r="M83" s="2">
+        <v>429026.07919999963</v>
+      </c>
+      <c r="N83" s="2">
+        <v>11.999999999999972</v>
+      </c>
+      <c r="O83" s="2">
+        <v>2062</v>
+      </c>
+      <c r="P83" s="2">
+        <v>13315114.298400002</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A84" s="3">
+        <v>79746</v>
+      </c>
+      <c r="B84" s="2">
+        <v>16843</v>
+      </c>
+      <c r="C84" s="2">
+        <v>35339.908029999999</v>
+      </c>
+      <c r="D84" s="2">
+        <v>73491.599999999991</v>
+      </c>
+      <c r="E84" s="2">
+        <v>2645.9999999999991</v>
+      </c>
+      <c r="F84" s="2">
+        <v>2006637.54357</v>
+      </c>
+      <c r="G84" s="2">
+        <v>24.6</v>
+      </c>
+      <c r="H84" s="2">
+        <v>164.99999999999895</v>
+      </c>
+      <c r="I84" s="2">
+        <v>232.99999999999903</v>
+      </c>
+      <c r="J84" s="2">
+        <v>188.49999999999935</v>
+      </c>
+      <c r="K84" s="2">
+        <v>1592.9999999998829</v>
+      </c>
+      <c r="L84" s="2">
+        <v>23405.999999999971</v>
+      </c>
+      <c r="M84" s="2">
+        <v>313421.54109999974</v>
+      </c>
+      <c r="N84" s="2">
+        <v>7.9999999999999671</v>
+      </c>
+      <c r="O84" s="2">
+        <v>5536</v>
+      </c>
+      <c r="P84" s="2">
+        <v>37484508.028549999</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A85" s="3">
+        <v>57687</v>
+      </c>
+      <c r="B85" s="2">
+        <v>11292</v>
+      </c>
+      <c r="C85" s="2">
+        <v>23845.612519999999</v>
+      </c>
+      <c r="D85" s="2">
+        <v>33352.599999999984</v>
+      </c>
+      <c r="E85" s="2">
+        <v>1263.9999999999993</v>
+      </c>
+      <c r="F85" s="2">
+        <v>1716389.6294400003</v>
+      </c>
+      <c r="G85" s="2">
+        <v>29.41</v>
+      </c>
+      <c r="H85" s="2">
+        <v>70.999999999999531</v>
+      </c>
+      <c r="I85" s="2">
+        <v>230.99999999999903</v>
+      </c>
+      <c r="J85" s="2">
+        <v>233.29999999999964</v>
+      </c>
+      <c r="K85" s="2">
+        <v>383.99999999993003</v>
+      </c>
+      <c r="L85" s="2">
+        <v>37867.999999999993</v>
+      </c>
+      <c r="M85" s="2">
+        <v>322803.30879999872</v>
+      </c>
+      <c r="N85" s="2">
+        <v>0.99999999999999423</v>
+      </c>
+      <c r="O85" s="2">
+        <v>2426.9999999999995</v>
+      </c>
+      <c r="P85" s="2">
+        <v>32139963.465120006</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A86" s="3">
+        <v>141368</v>
+      </c>
+      <c r="B86" s="2">
+        <v>33537</v>
+      </c>
+      <c r="C86" s="2">
+        <v>27126.22694</v>
+      </c>
+      <c r="D86" s="2">
+        <v>58200</v>
+      </c>
+      <c r="E86" s="2">
+        <v>2876.9999999999973</v>
+      </c>
+      <c r="F86" s="2">
+        <v>10541809.012150001</v>
+      </c>
+      <c r="G86" s="2">
+        <v>31.4</v>
+      </c>
+      <c r="H86" s="2">
+        <v>306.99999999999795</v>
+      </c>
+      <c r="I86" s="2">
+        <v>198.99999999999918</v>
+      </c>
+      <c r="J86" s="2">
+        <v>474.69999999999879</v>
+      </c>
+      <c r="K86" s="2">
+        <v>595570.99999999977</v>
+      </c>
+      <c r="L86" s="2">
+        <v>59771.349999999991</v>
+      </c>
+      <c r="M86" s="2">
+        <v>1632754.1328999992</v>
+      </c>
+      <c r="N86" s="2">
+        <v>90.999999999999801</v>
+      </c>
+      <c r="O86" s="2">
+        <v>9371</v>
+      </c>
+      <c r="P86" s="2">
+        <v>79424596.731749997</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A87" s="3">
+        <v>23671.999999999989</v>
+      </c>
+      <c r="B87" s="2">
+        <v>2819.9999999999991</v>
+      </c>
+      <c r="C87" s="2">
+        <v>17545.93204</v>
+      </c>
+      <c r="D87" s="2">
+        <v>16399.19999999999</v>
+      </c>
+      <c r="E87" s="2">
+        <v>346.9999999999996</v>
+      </c>
+      <c r="F87" s="2">
+        <v>573514.04293999961</v>
+      </c>
+      <c r="G87" s="2">
+        <v>28</v>
+      </c>
+      <c r="H87" s="2">
+        <v>64.999999999999574</v>
+      </c>
+      <c r="I87" s="2">
+        <v>59.999999999999716</v>
+      </c>
+      <c r="J87" s="2">
+        <v>382.49999999999949</v>
+      </c>
+      <c r="K87" s="2">
+        <v>39639.999999999935</v>
+      </c>
+      <c r="L87" s="2">
+        <v>9314.3999999999924</v>
+      </c>
+      <c r="M87" s="2">
+        <v>3234408.7671999987</v>
+      </c>
+      <c r="N87" s="2">
+        <v>17.99999999999995</v>
+      </c>
+      <c r="O87" s="2">
+        <v>744.99999999999955</v>
+      </c>
+      <c r="P87" s="2">
+        <v>828015.21829999832</v>
+      </c>
+    </row>
+    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A88" s="3">
+        <v>116468</v>
+      </c>
+      <c r="B88" s="2">
+        <v>21239.000000000004</v>
+      </c>
+      <c r="C88" s="2">
+        <v>23604.910929999998</v>
+      </c>
+      <c r="D88" s="2">
+        <v>64664.399999999987</v>
+      </c>
+      <c r="E88" s="2">
+        <v>2076.9999999999995</v>
+      </c>
+      <c r="F88" s="2">
+        <v>4676977.1911799992</v>
+      </c>
+      <c r="G88" s="2">
+        <v>30.2</v>
+      </c>
+      <c r="H88" s="2">
+        <v>300.99999999999807</v>
+      </c>
+      <c r="I88" s="2">
+        <v>303.99999999999869</v>
+      </c>
+      <c r="J88" s="2">
+        <v>783.79999999999882</v>
+      </c>
+      <c r="K88" s="2">
+        <v>202571.00000000003</v>
+      </c>
+      <c r="L88" s="2">
+        <v>87368.909999999974</v>
+      </c>
+      <c r="M88" s="2">
+        <v>8408723.8795999978</v>
+      </c>
+      <c r="N88" s="2">
+        <v>34.999999999999901</v>
+      </c>
+      <c r="O88" s="2">
+        <v>4502</v>
+      </c>
+      <c r="P88" s="2">
+        <v>19397519.885310002</v>
+      </c>
+    </row>
+    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A89" s="3">
+        <v>64841.999999999993</v>
+      </c>
+      <c r="B89" s="2">
+        <v>15028.999999999996</v>
+      </c>
+      <c r="C89" s="2">
+        <v>25869.387780000001</v>
+      </c>
+      <c r="D89" s="2">
+        <v>17235.499999999989</v>
+      </c>
+      <c r="E89" s="2">
+        <v>1123.9999999999986</v>
+      </c>
+      <c r="F89" s="2">
+        <v>866008.93850999954</v>
+      </c>
+      <c r="G89" s="2">
+        <v>23.8</v>
+      </c>
+      <c r="H89" s="2">
+        <v>124.99999999999919</v>
+      </c>
+      <c r="I89" s="2">
+        <v>194.99999999999915</v>
+      </c>
+      <c r="J89" s="2">
+        <v>235.39999999999975</v>
+      </c>
+      <c r="K89" s="2">
+        <v>2168.999999999995</v>
+      </c>
+      <c r="L89" s="2">
+        <v>22439.059999999987</v>
+      </c>
+      <c r="M89" s="2">
+        <v>259751.15039999882</v>
+      </c>
+      <c r="N89" s="2">
+        <v>11.999999999999948</v>
+      </c>
+      <c r="O89" s="2">
+        <v>3210.9999999999995</v>
+      </c>
+      <c r="P89" s="2">
+        <v>9430951.7147999946</v>
+      </c>
+    </row>
+    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A90" s="3">
+        <v>64100</v>
+      </c>
+      <c r="B90" s="2">
+        <v>9192</v>
+      </c>
+      <c r="C90" s="2">
+        <v>21205.026720000002</v>
+      </c>
+      <c r="D90" s="2">
+        <v>59994</v>
+      </c>
+      <c r="E90" s="2">
+        <v>1042.9999999999993</v>
+      </c>
+      <c r="F90" s="2">
+        <v>1194600.3487199994</v>
+      </c>
+      <c r="G90" s="2">
+        <v>24.81</v>
+      </c>
+      <c r="H90" s="2">
+        <v>140.99999999999912</v>
+      </c>
+      <c r="I90" s="2">
+        <v>92.999999999999559</v>
+      </c>
+      <c r="J90" s="2">
+        <v>563.59999999999923</v>
+      </c>
+      <c r="K90" s="2">
+        <v>35895.999999999993</v>
+      </c>
+      <c r="L90" s="2">
+        <v>57654.419999999991</v>
+      </c>
+      <c r="M90" s="2">
+        <v>8271274.1760000018</v>
+      </c>
+      <c r="N90" s="2">
+        <v>36.999999999999908</v>
+      </c>
+      <c r="O90" s="2">
+        <v>3089.9999999999995</v>
+      </c>
+      <c r="P90" s="2">
+        <v>7029925.2345599988</v>
+      </c>
+    </row>
+    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A91" s="3">
+        <v>105038</v>
+      </c>
+      <c r="B91" s="2">
+        <v>11442</v>
+      </c>
+      <c r="C91" s="2">
+        <v>18218.315640000001</v>
+      </c>
+      <c r="D91" s="2">
+        <v>69421.599999999991</v>
+      </c>
+      <c r="E91" s="2">
+        <v>79.999999999999517</v>
+      </c>
+      <c r="F91" s="2">
+        <v>3389505.0557000008</v>
+      </c>
+      <c r="G91" s="2">
+        <v>21.85</v>
+      </c>
+      <c r="H91" s="2">
+        <v>164.99999999999895</v>
+      </c>
+      <c r="I91" s="2">
+        <v>248.99999999999898</v>
+      </c>
+      <c r="J91" s="2">
+        <v>369.09999999999923</v>
+      </c>
+      <c r="K91" s="2">
+        <v>18256.999999999818</v>
+      </c>
+      <c r="L91" s="2">
+        <v>57789.999999999949</v>
+      </c>
+      <c r="M91" s="2">
+        <v>521260.11459999764</v>
+      </c>
+      <c r="N91" s="2">
+        <v>5.9999999999999627</v>
+      </c>
+      <c r="O91" s="2">
         <v>3403</v>
       </c>
-      <c r="P61" s="2">
+      <c r="P91" s="2">
         <v>5939939.1027599983</v>
       </c>
     </row>

--- a/migforecasting/clustering/for paper/input for paper.xlsx
+++ b/migforecasting/clustering/for paper/input for paper.xlsx
@@ -119,7 +119,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -134,6 +134,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -418,8 +421,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P91"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="W14" sqref="W14"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R12" sqref="R12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -493,49 +496,49 @@
         <v>17275</v>
       </c>
       <c r="B2" s="2">
-        <v>5648.5582401918809</v>
+        <v>2414</v>
       </c>
       <c r="C2" s="2">
-        <v>20815.4167831292</v>
+        <v>19887.443500000001</v>
       </c>
       <c r="D2" s="2">
-        <v>19721.961700869851</v>
+        <v>8104.9999999999982</v>
       </c>
       <c r="E2" s="2">
-        <v>881.00766886934832</v>
+        <v>473.99999999999983</v>
       </c>
       <c r="F2" s="2">
-        <v>1094086.860592877</v>
+        <v>729883.93608999986</v>
       </c>
       <c r="G2" s="2">
         <v>39.4</v>
       </c>
       <c r="H2" s="2">
-        <v>125.6772308691166</v>
+        <v>44.999999999999716</v>
       </c>
       <c r="I2" s="2">
-        <v>77.805859831260051</v>
+        <v>7.99999999999996</v>
       </c>
       <c r="J2" s="2">
-        <v>657.77532591485419</v>
+        <v>296.89999999999964</v>
       </c>
       <c r="K2" s="2">
-        <v>101102.97564972581</v>
+        <v>32143.999999999978</v>
       </c>
       <c r="L2" s="2">
-        <v>120574.1931586198</v>
+        <v>60102.41</v>
       </c>
       <c r="M2" s="2">
-        <v>4717355.206267274</v>
+        <v>550648.19779999938</v>
       </c>
       <c r="N2" s="2">
-        <v>35.752251160859089</v>
+        <v>22.999999999999957</v>
       </c>
       <c r="O2" s="2">
-        <v>1599.139320430128</v>
+        <v>946</v>
       </c>
       <c r="P2" s="2">
-        <v>5013077.512856801</v>
+        <v>236233.54378000001</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
@@ -549,37 +552,37 @@
         <v>21988.19528</v>
       </c>
       <c r="D3" s="2">
-        <v>37427.899999999987</v>
+        <v>37427.899999999994</v>
       </c>
       <c r="E3" s="2">
-        <v>881.00766886934832</v>
+        <v>807.99999999999966</v>
       </c>
       <c r="F3" s="2">
-        <v>2824760.72811</v>
+        <v>2824760.7281099996</v>
       </c>
       <c r="G3" s="2">
-        <v>30.831632653061199</v>
+        <v>25</v>
       </c>
       <c r="H3" s="2">
-        <v>125.6772308691166</v>
+        <v>78.999999999999503</v>
       </c>
       <c r="I3" s="2">
         <v>242.99999999999901</v>
       </c>
       <c r="J3" s="2">
-        <v>657.77532591485419</v>
+        <v>632.49999999999932</v>
       </c>
       <c r="K3" s="2">
         <v>959880.00000000023</v>
       </c>
       <c r="L3" s="2">
-        <v>322825.61999999988</v>
+        <v>322825.61999999994</v>
       </c>
       <c r="M3" s="2">
-        <v>12665201.631200001</v>
+        <v>12665201.631199995</v>
       </c>
       <c r="N3" s="2">
-        <v>35.752251160859089</v>
+        <v>25.999999999999947</v>
       </c>
       <c r="O3" s="2">
         <v>3185</v>
@@ -590,52 +593,52 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <v>110482</v>
+        <v>34498.999999999993</v>
       </c>
       <c r="B4" s="2">
-        <v>18707</v>
-      </c>
-      <c r="C4" s="2">
-        <v>21442.174780000001</v>
+        <v>7235.9999999999973</v>
+      </c>
+      <c r="C4" s="6">
+        <v>18166.422620000001</v>
       </c>
       <c r="D4" s="2">
-        <v>71187.999999999971</v>
+        <v>15435.899999999992</v>
       </c>
       <c r="E4" s="2">
-        <v>3068.9999999999991</v>
+        <v>2286.9999999999986</v>
       </c>
       <c r="F4" s="2">
-        <v>1434081.5877</v>
-      </c>
-      <c r="G4" s="2">
-        <v>30.831632653061199</v>
+        <v>1199846.2190299996</v>
+      </c>
+      <c r="G4" s="6">
+        <v>30.3</v>
       </c>
       <c r="H4" s="2">
-        <v>208.99999999999861</v>
+        <v>113.99999999999925</v>
       </c>
       <c r="I4" s="2">
-        <v>249.99999999999889</v>
+        <v>57.999999999999737</v>
       </c>
       <c r="J4" s="2">
-        <v>760.29999999999905</v>
+        <v>664.79999999999927</v>
       </c>
       <c r="K4" s="2">
-        <v>101102.97564972581</v>
+        <v>208310</v>
       </c>
       <c r="L4" s="2">
-        <v>330035.92</v>
+        <v>59763.609999999986</v>
       </c>
       <c r="M4" s="2">
-        <v>11480639.036999989</v>
+        <v>1881565.3498999991</v>
       </c>
       <c r="N4" s="2">
-        <v>35.752251160859089</v>
+        <v>40.999999999999908</v>
       </c>
       <c r="O4" s="2">
-        <v>4768.9999999999991</v>
+        <v>2013.9999999999993</v>
       </c>
       <c r="P4" s="2">
-        <v>15406913.946690001</v>
+        <v>3889344.5399099961</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
@@ -643,49 +646,49 @@
         <v>18562</v>
       </c>
       <c r="B5" s="2">
-        <v>5648.5582401918809</v>
+        <v>3694.0000000000009</v>
       </c>
       <c r="C5" s="2">
         <v>21712.38264</v>
       </c>
       <c r="D5" s="2">
-        <v>19721.961700869851</v>
+        <v>8165.7999999999993</v>
       </c>
       <c r="E5" s="2">
-        <v>881.00766886934832</v>
+        <v>567.99999999999966</v>
       </c>
       <c r="F5" s="2">
-        <v>1094086.860592877</v>
+        <v>479171.98727999994</v>
       </c>
       <c r="G5" s="2">
         <v>38.200000000000003</v>
       </c>
       <c r="H5" s="2">
-        <v>125.6772308691166</v>
+        <v>94.999999999999403</v>
       </c>
       <c r="I5" s="2">
-        <v>77.805859831260051</v>
+        <v>41.999999999999844</v>
       </c>
       <c r="J5" s="2">
-        <v>657.77532591485419</v>
+        <v>556.39999999999964</v>
       </c>
       <c r="K5" s="2">
-        <v>101102.97564972581</v>
+        <v>14808.999999999978</v>
       </c>
       <c r="L5" s="2">
-        <v>120574.1931586198</v>
+        <v>36416.79</v>
       </c>
       <c r="M5" s="2">
         <v>4968189.5378400004</v>
       </c>
       <c r="N5" s="2">
-        <v>35.752251160859089</v>
+        <v>23.99999999999994</v>
       </c>
       <c r="O5" s="2">
-        <v>1599.139320430128</v>
+        <v>958.99999999999977</v>
       </c>
       <c r="P5" s="2">
-        <v>5013077.512856801</v>
+        <v>1727129.7467999991</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
@@ -693,25 +696,25 @@
         <v>28673</v>
       </c>
       <c r="B6" s="2">
-        <v>5648.5582401918809</v>
+        <v>4213</v>
       </c>
       <c r="C6" s="2">
-        <v>20815.4167831292</v>
+        <v>18718.034879999999</v>
       </c>
       <c r="D6" s="2">
-        <v>19721.961700869851</v>
+        <v>15706.399999999994</v>
       </c>
       <c r="E6" s="2">
-        <v>1185.9999999999991</v>
+        <v>1185.9999999999993</v>
       </c>
       <c r="F6" s="2">
-        <v>1094086.860592877</v>
+        <v>912846.19063000008</v>
       </c>
       <c r="G6" s="2">
         <v>36.5</v>
       </c>
       <c r="H6" s="2">
-        <v>125.6772308691166</v>
+        <v>107.99999999999929</v>
       </c>
       <c r="I6" s="2">
         <v>91.999999999999645</v>
@@ -720,19 +723,19 @@
         <v>873.59999999999934</v>
       </c>
       <c r="K6" s="2">
-        <v>127583</v>
+        <v>127582.99999999996</v>
       </c>
       <c r="L6" s="2">
-        <v>120574.1931586198</v>
+        <v>56902.999999999993</v>
       </c>
       <c r="M6" s="2">
         <v>5517088.4192999983</v>
       </c>
       <c r="N6" s="2">
-        <v>38.999999999999908</v>
+        <v>38.999999999999915</v>
       </c>
       <c r="O6" s="2">
-        <v>1599.139320430128</v>
+        <v>1113.0000000000002</v>
       </c>
       <c r="P6" s="2">
         <v>6142682.3205399979</v>
@@ -743,49 +746,49 @@
         <v>28434</v>
       </c>
       <c r="B7" s="2">
-        <v>10206.306899606619</v>
+        <v>5725</v>
       </c>
       <c r="C7" s="2">
-        <v>24430.417592114401</v>
+        <v>20773.66617</v>
       </c>
       <c r="D7" s="2">
-        <v>45468.347505469341</v>
+        <v>26868.199999999993</v>
       </c>
       <c r="E7" s="2">
-        <v>1645.6410443006489</v>
+        <v>1111.9999999999993</v>
       </c>
       <c r="F7" s="2">
-        <v>2362294.7641864121</v>
+        <v>1674021.9106300003</v>
       </c>
       <c r="G7" s="2">
-        <v>27.620294559099399</v>
+        <v>22.6</v>
       </c>
       <c r="H7" s="2">
-        <v>122.673448310382</v>
+        <v>72.999999999999545</v>
       </c>
       <c r="I7" s="2">
-        <v>166.46398701290829</v>
+        <v>113.99999999999952</v>
       </c>
       <c r="J7" s="2">
-        <v>384.78892776104192</v>
+        <v>350.99999999999966</v>
       </c>
       <c r="K7" s="2">
-        <v>28977.998578687861</v>
+        <v>10711.999999999955</v>
       </c>
       <c r="L7" s="2">
-        <v>24766.251315762191</v>
+        <v>7011.1399999999894</v>
       </c>
       <c r="M7" s="2">
-        <v>827690.06333850382</v>
+        <v>49916.868199999284</v>
       </c>
       <c r="N7" s="2">
-        <v>21.095615783084529</v>
+        <v>1.9999999999999927</v>
       </c>
       <c r="O7" s="2">
-        <v>2896.8590066809602</v>
+        <v>1617.9999999999998</v>
       </c>
       <c r="P7" s="2">
-        <v>8379778.1909793671</v>
+        <v>5355232.274249997</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
@@ -793,22 +796,22 @@
         <v>139565</v>
       </c>
       <c r="B8" s="2">
-        <v>24379.999999999989</v>
+        <v>24379.999999999993</v>
       </c>
       <c r="C8" s="2">
-        <v>24430.417592114401</v>
+        <v>19874.44096</v>
       </c>
       <c r="D8" s="2">
-        <v>207240.7</v>
+        <v>207240.69999999998</v>
       </c>
       <c r="E8" s="2">
-        <v>1859.999999999998</v>
+        <v>1859.9999999999984</v>
       </c>
       <c r="F8" s="2">
         <v>5926777.3109299988</v>
       </c>
       <c r="G8" s="2">
-        <v>27.620294559099399</v>
+        <v>21.6</v>
       </c>
       <c r="H8" s="2">
         <v>311.9999999999979</v>
@@ -820,13 +823,13 @@
         <v>962.79999999999893</v>
       </c>
       <c r="K8" s="2">
-        <v>28977.998578687861</v>
+        <v>8125.9999999999918</v>
       </c>
       <c r="L8" s="2">
         <v>44861.889999999948</v>
       </c>
       <c r="M8" s="2">
-        <v>827690.06333850382</v>
+        <v>199155.57099999874</v>
       </c>
       <c r="N8" s="2">
         <v>33.999999999999922</v>
@@ -835,7 +838,7 @@
         <v>6249</v>
       </c>
       <c r="P8" s="2">
-        <v>15178335.903369989</v>
+        <v>15178335.903369986</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
@@ -843,49 +846,49 @@
         <v>19887.999999999989</v>
       </c>
       <c r="B9" s="2">
-        <v>10206.306899606619</v>
+        <v>4481.9999999999982</v>
       </c>
       <c r="C9" s="2">
         <v>37917.462079999998</v>
       </c>
       <c r="D9" s="2">
-        <v>45468.347505469341</v>
+        <v>14558.999999999989</v>
       </c>
       <c r="E9" s="2">
-        <v>1645.6410443006489</v>
+        <v>609.99999999999943</v>
       </c>
       <c r="F9" s="2">
-        <v>2362294.7641864121</v>
+        <v>1282627.8831299993</v>
       </c>
       <c r="G9" s="2">
         <v>29.1</v>
       </c>
       <c r="H9" s="2">
-        <v>122.673448310382</v>
+        <v>67.999999999999545</v>
       </c>
       <c r="I9" s="2">
-        <v>166.46398701290829</v>
+        <v>114.99999999999949</v>
       </c>
       <c r="J9" s="2">
-        <v>384.78892776104192</v>
+        <v>358.69999999999959</v>
       </c>
       <c r="K9" s="2">
-        <v>28977.998578687861</v>
+        <v>4886.9999999999818</v>
       </c>
       <c r="L9" s="2">
-        <v>24766.251315762191</v>
+        <v>8000.4999999999918</v>
       </c>
       <c r="M9" s="2">
-        <v>827690.06333850382</v>
+        <v>794969.88139999914</v>
       </c>
       <c r="N9" s="2">
-        <v>21.095615783084529</v>
+        <v>14.999999999999956</v>
       </c>
       <c r="O9" s="2">
-        <v>2896.8590066809602</v>
+        <v>1094.9999999999995</v>
       </c>
       <c r="P9" s="2">
-        <v>8379778.1909793671</v>
+        <v>5006117.3553799978</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
@@ -908,84 +911,84 @@
         <v>2740590.23832</v>
       </c>
       <c r="G10" s="2">
-        <v>27.620294559099399</v>
+        <v>22.8</v>
       </c>
       <c r="H10" s="2">
-        <v>240.99999999999849</v>
+        <v>240.99999999999852</v>
       </c>
       <c r="I10" s="2">
-        <v>194.9999999999992</v>
+        <v>194.99999999999918</v>
       </c>
       <c r="J10" s="2">
-        <v>384.78892776104192</v>
+        <v>225.39999999999938</v>
       </c>
       <c r="K10" s="2">
-        <v>28977.998578687861</v>
+        <v>2243.9999999999036</v>
       </c>
       <c r="L10" s="2">
-        <v>24766.251315762191</v>
+        <v>11420.029999999982</v>
       </c>
       <c r="M10" s="2">
-        <v>827690.06333850382</v>
+        <v>169468.43350463765</v>
       </c>
       <c r="N10" s="2">
-        <v>21.095615783084529</v>
+        <v>5.9999999999999716</v>
       </c>
       <c r="O10" s="2">
         <v>3302</v>
       </c>
       <c r="P10" s="2">
-        <v>8379778.1909793671</v>
+        <v>8353078.9401600007</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <v>108665</v>
+        <v>86435.999999999985</v>
       </c>
       <c r="B11" s="2">
-        <v>17434</v>
-      </c>
-      <c r="C11" s="2">
-        <v>24430.417592114401</v>
-      </c>
-      <c r="D11" s="2">
-        <v>72518.999999999985</v>
-      </c>
-      <c r="E11" s="2">
-        <v>1825</v>
-      </c>
-      <c r="F11" s="2">
-        <v>6519507.7608800009</v>
-      </c>
-      <c r="G11" s="2">
-        <v>27.620294559099399</v>
+        <v>13019.999999999993</v>
+      </c>
+      <c r="C11" s="6">
+        <v>21164.783759999998</v>
+      </c>
+      <c r="D11" s="6">
+        <v>56657.999999999985</v>
+      </c>
+      <c r="E11" s="6">
+        <v>1856.999999999998</v>
+      </c>
+      <c r="F11" s="6">
+        <v>3773107.8136799997</v>
+      </c>
+      <c r="G11" s="6">
+        <v>28.1</v>
       </c>
       <c r="H11" s="2">
-        <v>270.99999999999818</v>
+        <v>112.99999999999922</v>
       </c>
       <c r="I11" s="2">
-        <v>292.99999999999892</v>
+        <v>371.99999999999841</v>
       </c>
       <c r="J11" s="2">
-        <v>384.78892776104192</v>
+        <v>995.09999999999877</v>
       </c>
       <c r="K11" s="2">
-        <v>28977.998578687861</v>
+        <v>134789</v>
       </c>
       <c r="L11" s="2">
-        <v>25366.999999999989</v>
+        <v>68742.999999999971</v>
       </c>
       <c r="M11" s="2">
-        <v>827690.06333850382</v>
+        <v>5197507.5167999975</v>
       </c>
       <c r="N11" s="2">
-        <v>33.999999999999908</v>
+        <v>51.999999999999872</v>
       </c>
       <c r="O11" s="2">
-        <v>5712.9999999999991</v>
+        <v>3298.9999999999995</v>
       </c>
       <c r="P11" s="2">
-        <v>12403303.24303</v>
+        <v>11634696.470159991</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
@@ -993,49 +996,49 @@
         <v>9622.9999999999964</v>
       </c>
       <c r="B12" s="2">
-        <v>2088.3249137487501</v>
+        <v>1207.9999999999993</v>
       </c>
       <c r="C12" s="2">
-        <v>19210.228831246099</v>
+        <v>16635.344249999991</v>
       </c>
       <c r="D12" s="2">
-        <v>7762.6753209116032</v>
+        <v>3746.5999999999967</v>
       </c>
       <c r="E12" s="2">
-        <v>281.9402175474014</v>
+        <v>44.99999999999995</v>
       </c>
       <c r="F12" s="2">
-        <v>374829.37895564421</v>
+        <v>79286.091859999928</v>
       </c>
       <c r="G12" s="2">
-        <v>35.438037383177502</v>
+        <v>30.1</v>
       </c>
       <c r="H12" s="2">
-        <v>54.072514242661697</v>
+        <v>32.999999999999773</v>
       </c>
       <c r="I12" s="2">
-        <v>28.221234650144272</v>
+        <v>9.9999999999999485</v>
       </c>
       <c r="J12" s="2">
-        <v>479.14656225630722</v>
+        <v>212.39999999999975</v>
       </c>
       <c r="K12" s="2">
-        <v>32749.978346102071</v>
+        <v>22989.999999999982</v>
       </c>
       <c r="L12" s="2">
-        <v>14259.056285147481</v>
+        <v>7487.889999999994</v>
       </c>
       <c r="M12" s="2">
-        <v>1321756.1130112109</v>
+        <v>613356.16829999944</v>
       </c>
       <c r="N12" s="2">
-        <v>22.70687713300876</v>
+        <v>14.999999999999956</v>
       </c>
       <c r="O12" s="2">
         <v>672.99999999999989</v>
       </c>
       <c r="P12" s="2">
-        <v>1212990.425859435</v>
+        <v>232900.09079999954</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
@@ -1046,40 +1049,40 @@
         <v>2386</v>
       </c>
       <c r="C13" s="2">
-        <v>19210.228831246099</v>
+        <v>16273.3732</v>
       </c>
       <c r="D13" s="2">
-        <v>10592.2</v>
+        <v>10592.199999999999</v>
       </c>
       <c r="E13" s="2">
         <v>377.99999999999972</v>
       </c>
       <c r="F13" s="2">
-        <v>398404.10684000002</v>
+        <v>398404.10683999996</v>
       </c>
       <c r="G13" s="2">
-        <v>35.438037383177502</v>
+        <v>26.4</v>
       </c>
       <c r="H13" s="2">
-        <v>54.072514242661697</v>
+        <v>27.999999999999833</v>
       </c>
       <c r="I13" s="2">
-        <v>28.221234650144272</v>
+        <v>22.999999999999915</v>
       </c>
       <c r="J13" s="2">
         <v>800.99999999999955</v>
       </c>
       <c r="K13" s="2">
-        <v>112137</v>
+        <v>112136.99999999997</v>
       </c>
       <c r="L13" s="2">
-        <v>14259.056285147481</v>
+        <v>9244.5999999999931</v>
       </c>
       <c r="M13" s="2">
-        <v>1610842.1836000001</v>
+        <v>1610842.1835999999</v>
       </c>
       <c r="N13" s="2">
-        <v>22.70687713300876</v>
+        <v>21.999999999999957</v>
       </c>
       <c r="O13" s="2">
         <v>624.00000000000011</v>
@@ -1096,19 +1099,19 @@
         <v>6906.9999999999973</v>
       </c>
       <c r="C14" s="2">
-        <v>19210.228831246099</v>
+        <v>16179.493109999999</v>
       </c>
       <c r="D14" s="2">
-        <v>45679.399999999987</v>
+        <v>45679.399999999994</v>
       </c>
       <c r="E14" s="2">
         <v>943.99999999999955</v>
       </c>
       <c r="F14" s="2">
-        <v>1135992.2059200001</v>
+        <v>1135992.2059199996</v>
       </c>
       <c r="G14" s="2">
-        <v>35.438037383177502</v>
+        <v>22.9</v>
       </c>
       <c r="H14" s="2">
         <v>86.999999999999389</v>
@@ -1117,22 +1120,22 @@
         <v>196.9999999999992</v>
       </c>
       <c r="J14" s="2">
-        <v>2450.9999999999991</v>
+        <v>2450.9999999999986</v>
       </c>
       <c r="K14" s="2">
-        <v>49269.999999999927</v>
+        <v>49269.999999999935</v>
       </c>
       <c r="L14" s="2">
-        <v>14259.056285147481</v>
+        <v>10475.609999999997</v>
       </c>
       <c r="M14" s="2">
-        <v>1321756.1130112109</v>
+        <v>832899.14939999871</v>
       </c>
       <c r="N14" s="2">
         <v>26.99999999999994</v>
       </c>
       <c r="O14" s="2">
-        <v>1960</v>
+        <v>1959.9999999999998</v>
       </c>
       <c r="P14" s="2">
         <v>1961160.027659998</v>
@@ -1149,43 +1152,43 @@
         <v>21418.87329</v>
       </c>
       <c r="D15" s="2">
-        <v>7762.6753209116032</v>
+        <v>4933.5999999999949</v>
       </c>
       <c r="E15" s="2">
-        <v>281.9402175474014</v>
+        <v>130.99999999999977</v>
       </c>
       <c r="F15" s="2">
-        <v>374829.37895564421</v>
+        <v>143687.26248999985</v>
       </c>
       <c r="G15" s="2">
-        <v>35.438037383177502</v>
+        <v>22.3</v>
       </c>
       <c r="H15" s="2">
         <v>103.9999999999993</v>
       </c>
       <c r="I15" s="2">
-        <v>28.221234650144272</v>
+        <v>2.9999999999999765</v>
       </c>
       <c r="J15" s="2">
-        <v>479.14656225630722</v>
+        <v>316.99999999999955</v>
       </c>
       <c r="K15" s="2">
-        <v>106498</v>
+        <v>106497.99999999996</v>
       </c>
       <c r="L15" s="2">
         <v>19137.909999999989</v>
       </c>
       <c r="M15" s="2">
-        <v>3427876.6054999982</v>
+        <v>3427876.6054999977</v>
       </c>
       <c r="N15" s="2">
-        <v>50.999999999999893</v>
+        <v>50.999999999999886</v>
       </c>
       <c r="O15" s="2">
-        <v>1218</v>
+        <v>1217.9999999999995</v>
       </c>
       <c r="P15" s="2">
-        <v>3524494.8488999992</v>
+        <v>3524494.8488999987</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
@@ -1196,31 +1199,31 @@
         <v>2093.9999999999991</v>
       </c>
       <c r="C16" s="2">
-        <v>19210.228831246099</v>
+        <v>16955.84604</v>
       </c>
       <c r="D16" s="2">
-        <v>7762.6753209116032</v>
+        <v>7192.4999999999927</v>
       </c>
       <c r="E16" s="2">
-        <v>449.99999999999937</v>
+        <v>449.99999999999943</v>
       </c>
       <c r="F16" s="2">
-        <v>374829.37895564421</v>
+        <v>298227.95619999972</v>
       </c>
       <c r="G16" s="2">
-        <v>35.438037383177502</v>
+        <v>30.03</v>
       </c>
       <c r="H16" s="2">
         <v>59.999999999999581</v>
       </c>
       <c r="I16" s="2">
-        <v>28.221234650144272</v>
+        <v>14.999999999999922</v>
       </c>
       <c r="J16" s="2">
         <v>647.79999999999916</v>
       </c>
       <c r="K16" s="2">
-        <v>32749.978346102071</v>
+        <v>25719.999999999982</v>
       </c>
       <c r="L16" s="2">
         <v>20804.14999999998</v>
@@ -1229,13 +1232,13 @@
         <v>1533618.0888999989</v>
       </c>
       <c r="N16" s="2">
-        <v>22.70687713300876</v>
+        <v>21.999999999999932</v>
       </c>
       <c r="O16" s="2">
         <v>676.99999999999955</v>
       </c>
       <c r="P16" s="2">
-        <v>1868542.2159599981</v>
+        <v>1868542.2159599983</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
@@ -1243,99 +1246,99 @@
         <v>4183.9999999999918</v>
       </c>
       <c r="B17" s="2">
-        <v>5714.5080545330657</v>
+        <v>788.99999999999841</v>
       </c>
       <c r="C17" s="2">
-        <v>20427.341848341399</v>
+        <v>19068.8688</v>
       </c>
       <c r="D17" s="2">
-        <v>18620.078602856651</v>
+        <v>1820.9999999999964</v>
       </c>
       <c r="E17" s="2">
-        <v>713.92266024672676</v>
+        <v>79.999999999999787</v>
       </c>
       <c r="F17" s="2">
-        <v>795019.6038440204</v>
+        <v>57968.611199999868</v>
       </c>
       <c r="G17" s="2">
         <v>35.799999999999997</v>
       </c>
       <c r="H17" s="2">
-        <v>121.2195445843775</v>
+        <v>12.999999999999892</v>
       </c>
       <c r="I17" s="2">
-        <v>82.574144705994001</v>
+        <v>1.9999999999999847</v>
       </c>
       <c r="J17" s="2">
-        <v>675.1104937785783</v>
+        <v>81.399999999999764</v>
       </c>
       <c r="K17" s="2">
-        <v>390629.37411319528</v>
+        <v>32010.999999999935</v>
       </c>
       <c r="L17" s="2">
-        <v>50169.914191199998</v>
+        <v>1244.4599999999969</v>
       </c>
       <c r="M17" s="2">
-        <v>5170690.3577637998</v>
+        <v>838591.639199998</v>
       </c>
       <c r="N17" s="2">
-        <v>37.037791832750607</v>
+        <v>9.9999999999999591</v>
       </c>
       <c r="O17" s="2">
-        <v>1578.0387530220919</v>
+        <v>251.99999999999952</v>
       </c>
       <c r="P17" s="2">
-        <v>5162046.5029202029</v>
+        <v>750105.80711999815</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
-        <v>95828.000000000015</v>
+        <v>25263.999999999989</v>
       </c>
       <c r="B18" s="2">
-        <v>13439</v>
-      </c>
-      <c r="C18" s="2">
-        <v>21170.54232</v>
+        <v>4126.9999999999991</v>
+      </c>
+      <c r="C18" s="6">
+        <v>20441.322639999999</v>
       </c>
       <c r="D18" s="2">
-        <v>70891.10000000002</v>
+        <v>17070.69999999999</v>
       </c>
       <c r="E18" s="2">
-        <v>2106.9999999999991</v>
+        <v>27.999999999999929</v>
       </c>
       <c r="F18" s="2">
-        <v>2932758.8092800002</v>
-      </c>
-      <c r="G18" s="2">
-        <v>28.859170731707302</v>
+        <v>268457.68935999984</v>
+      </c>
+      <c r="G18" s="6">
+        <v>21.79</v>
       </c>
       <c r="H18" s="2">
-        <v>193.99999999999881</v>
+        <v>73.999999999999488</v>
       </c>
       <c r="I18" s="2">
-        <v>221.99999999999909</v>
+        <v>69.999999999999687</v>
       </c>
       <c r="J18" s="2">
-        <v>793.09999999999945</v>
+        <v>202.59999999999971</v>
       </c>
       <c r="K18" s="2">
-        <v>1149829</v>
+        <v>314708.99999999988</v>
       </c>
       <c r="L18" s="2">
-        <v>72866.099999999977</v>
+        <v>18979.989999999991</v>
       </c>
       <c r="M18" s="2">
-        <v>9782808.4583999943</v>
+        <v>3873762.5743999979</v>
       </c>
       <c r="N18" s="2">
-        <v>37.037791832750607</v>
+        <v>28.999999999999932</v>
       </c>
       <c r="O18" s="2">
-        <v>3888</v>
+        <v>1107.9999999999998</v>
       </c>
       <c r="P18" s="2">
-        <v>9535558.9931999948</v>
+        <v>3584846.1060399981</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
@@ -1343,49 +1346,49 @@
         <v>17569.999999999989</v>
       </c>
       <c r="B19" s="2">
-        <v>5714.5080545330657</v>
+        <v>1887.9999999999989</v>
       </c>
       <c r="C19" s="2">
-        <v>20427.341848341399</v>
+        <v>18376.923200000001</v>
       </c>
       <c r="D19" s="2">
-        <v>18620.078602856651</v>
+        <v>8486.1999999999953</v>
       </c>
       <c r="E19" s="2">
-        <v>713.92266024672676</v>
+        <v>234.99999999999972</v>
       </c>
       <c r="F19" s="2">
-        <v>795019.6038440204</v>
+        <v>341592.53969999967</v>
       </c>
       <c r="G19" s="2">
-        <v>28.859170731707302</v>
+        <v>26.3</v>
       </c>
       <c r="H19" s="2">
-        <v>155.99999999999889</v>
+        <v>155.99999999999895</v>
       </c>
       <c r="I19" s="2">
-        <v>82.574144705994001</v>
+        <v>56.999999999999723</v>
       </c>
       <c r="J19" s="2">
-        <v>675.1104937785783</v>
+        <v>389.39999999999952</v>
       </c>
       <c r="K19" s="2">
-        <v>390629.37411319528</v>
+        <v>182951.9999999998</v>
       </c>
       <c r="L19" s="2">
-        <v>50169.914191199998</v>
+        <v>19100.999999999978</v>
       </c>
       <c r="M19" s="2">
-        <v>5170690.3577637998</v>
+        <v>2366184.0724999984</v>
       </c>
       <c r="N19" s="2">
-        <v>37.037791832750607</v>
+        <v>24.999999999999932</v>
       </c>
       <c r="O19" s="2">
-        <v>1578.0387530220919</v>
+        <v>790.99999999999943</v>
       </c>
       <c r="P19" s="2">
-        <v>5162046.5029202029</v>
+        <v>322435.87408999965</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
@@ -1393,7 +1396,7 @@
         <v>120926</v>
       </c>
       <c r="B20" s="2">
-        <v>20038</v>
+        <v>20037.999999999996</v>
       </c>
       <c r="C20" s="2">
         <v>25152.816680000011</v>
@@ -1402,7 +1405,7 @@
         <v>72911.599999999991</v>
       </c>
       <c r="E20" s="2">
-        <v>2549.9999999999982</v>
+        <v>2549.9999999999977</v>
       </c>
       <c r="F20" s="2">
         <v>4713511.9352799999</v>
@@ -1411,31 +1414,31 @@
         <v>29.9</v>
       </c>
       <c r="H20" s="2">
-        <v>195.99999999999869</v>
+        <v>195.99999999999872</v>
       </c>
       <c r="I20" s="2">
-        <v>248.99999999999889</v>
+        <v>248.99999999999895</v>
       </c>
       <c r="J20" s="2">
-        <v>1123.199999999998</v>
+        <v>1123.1999999999985</v>
       </c>
       <c r="K20" s="2">
-        <v>1264806.9999999991</v>
+        <v>1264806.9999999993</v>
       </c>
       <c r="L20" s="2">
-        <v>104307.93</v>
+        <v>104307.92999999998</v>
       </c>
       <c r="M20" s="2">
-        <v>5170690.3577637998</v>
+        <v>2214641.3434399972</v>
       </c>
       <c r="N20" s="2">
-        <v>37.037791832750607</v>
+        <v>34.999999999999915</v>
       </c>
       <c r="O20" s="2">
         <v>6308.9999999999991</v>
       </c>
       <c r="P20" s="2">
-        <v>26988496.705479991</v>
+        <v>26988496.705479994</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
@@ -1446,28 +1449,28 @@
         <v>8680.9999999999982</v>
       </c>
       <c r="C21" s="2">
-        <v>20427.341848341399</v>
+        <v>19397.3076</v>
       </c>
       <c r="D21" s="2">
-        <v>32935.899999999987</v>
+        <v>32935.899999999994</v>
       </c>
       <c r="E21" s="2">
-        <v>1673.999999999998</v>
+        <v>1673.9999999999982</v>
       </c>
       <c r="F21" s="2">
-        <v>1330729.4930400001</v>
+        <v>1330729.4930399999</v>
       </c>
       <c r="G21" s="2">
-        <v>28.859170731707302</v>
+        <v>25.1</v>
       </c>
       <c r="H21" s="2">
-        <v>158.99999999999889</v>
+        <v>158.99999999999895</v>
       </c>
       <c r="I21" s="2">
-        <v>184.9999999999992</v>
+        <v>184.99999999999918</v>
       </c>
       <c r="J21" s="2">
-        <v>675.1104937785783</v>
+        <v>386.19999999999953</v>
       </c>
       <c r="K21" s="2">
         <v>810919.99999999977</v>
@@ -1482,10 +1485,10 @@
         <v>38.999999999999908</v>
       </c>
       <c r="O21" s="2">
-        <v>2500</v>
+        <v>2499.9999999999995</v>
       </c>
       <c r="P21" s="2">
-        <v>5162046.5029202029</v>
+        <v>3749387.5015199976</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
@@ -1493,46 +1496,46 @@
         <v>47578.999999999993</v>
       </c>
       <c r="B22" s="2">
-        <v>11634</v>
+        <v>11633.999999999998</v>
       </c>
       <c r="C22" s="2">
-        <v>29031.0083701363</v>
+        <v>24954.799999999999</v>
       </c>
       <c r="D22" s="2">
-        <v>38299.681634895933</v>
+        <v>37654.999999999985</v>
       </c>
       <c r="E22" s="2">
-        <v>1288.588016602401</v>
+        <v>898.99999999999943</v>
       </c>
       <c r="F22" s="2">
-        <v>2114276.5499864169</v>
+        <v>1350652</v>
       </c>
       <c r="G22" s="2">
-        <v>27.965422727272699</v>
+        <v>23.5</v>
       </c>
       <c r="H22" s="2">
-        <v>123.30669105307349</v>
+        <v>69.999999999999503</v>
       </c>
       <c r="I22" s="2">
         <v>171.99999999999929</v>
       </c>
       <c r="J22" s="2">
-        <v>515.09434074171179</v>
+        <v>201.0999999999998</v>
       </c>
       <c r="K22" s="2">
-        <v>49395.306275683972</v>
+        <v>14598.999999999955</v>
       </c>
       <c r="L22" s="2">
-        <v>37819.7689054316</v>
+        <v>16640.329999999991</v>
       </c>
       <c r="M22" s="2">
-        <v>1725327.0647264121</v>
+        <v>232538.99999999936</v>
       </c>
       <c r="N22" s="2">
-        <v>25.90492510159179</v>
+        <v>10.999999999999968</v>
       </c>
       <c r="O22" s="2">
-        <v>2915.7617682164901</v>
+        <v>2737.9999999999991</v>
       </c>
       <c r="P22" s="2">
         <v>32418265.199999992</v>
@@ -1543,49 +1546,49 @@
         <v>28553</v>
       </c>
       <c r="B23" s="2">
-        <v>11428.022546365821</v>
+        <v>6935.9999999999991</v>
       </c>
       <c r="C23" s="2">
         <v>34591.617420000002</v>
       </c>
       <c r="D23" s="2">
-        <v>38299.681634895933</v>
+        <v>13338.599999999997</v>
       </c>
       <c r="E23" s="2">
-        <v>1288.588016602401</v>
+        <v>494.99999999999943</v>
       </c>
       <c r="F23" s="2">
-        <v>2114276.5499864169</v>
+        <v>139069.51849999998</v>
       </c>
       <c r="G23" s="2">
-        <v>27.965422727272699</v>
+        <v>22.9</v>
       </c>
       <c r="H23" s="2">
-        <v>123.30669105307349</v>
+        <v>76.999999999999531</v>
       </c>
       <c r="I23" s="2">
-        <v>132.03295622095121</v>
+        <v>124.99999999999952</v>
       </c>
       <c r="J23" s="2">
-        <v>515.09434074171179</v>
+        <v>169.2999999999999</v>
       </c>
       <c r="K23" s="2">
-        <v>49395.306275683972</v>
+        <v>19625.999999999978</v>
       </c>
       <c r="L23" s="2">
-        <v>37819.7689054316</v>
+        <v>10308.619999999997</v>
       </c>
       <c r="M23" s="2">
-        <v>1725327.0647264121</v>
+        <v>429026.07919999963</v>
       </c>
       <c r="N23" s="2">
-        <v>25.90492510159179</v>
+        <v>11.999999999999972</v>
       </c>
       <c r="O23" s="2">
-        <v>2915.7617682164901</v>
+        <v>2062</v>
       </c>
       <c r="P23" s="2">
-        <v>25333054.934995431</v>
+        <v>13315114.298400002</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
@@ -1605,31 +1608,31 @@
         <v>2645.9999999999991</v>
       </c>
       <c r="F24" s="2">
-        <v>2114276.5499864169</v>
+        <v>2006637.54357</v>
       </c>
       <c r="G24" s="2">
-        <v>27.965422727272699</v>
+        <v>24.6</v>
       </c>
       <c r="H24" s="2">
-        <v>164.99999999999889</v>
+        <v>164.99999999999895</v>
       </c>
       <c r="I24" s="2">
-        <v>232.99999999999901</v>
+        <v>232.99999999999903</v>
       </c>
       <c r="J24" s="2">
-        <v>515.09434074171179</v>
+        <v>188.49999999999935</v>
       </c>
       <c r="K24" s="2">
-        <v>49395.306275683972</v>
+        <v>1592.9999999998829</v>
       </c>
       <c r="L24" s="2">
-        <v>37819.7689054316</v>
+        <v>23405.999999999971</v>
       </c>
       <c r="M24" s="2">
-        <v>1725327.0647264121</v>
+        <v>313421.54109999974</v>
       </c>
       <c r="N24" s="2">
-        <v>25.90492510159179</v>
+        <v>7.9999999999999671</v>
       </c>
       <c r="O24" s="2">
         <v>5536</v>
@@ -1643,49 +1646,49 @@
         <v>57687</v>
       </c>
       <c r="B25" s="2">
-        <v>11428.022546365821</v>
+        <v>11292</v>
       </c>
       <c r="C25" s="2">
-        <v>29031.0083701363</v>
+        <v>23845.612519999999</v>
       </c>
       <c r="D25" s="2">
-        <v>38299.681634895933</v>
+        <v>33352.599999999984</v>
       </c>
       <c r="E25" s="2">
-        <v>1288.588016602401</v>
+        <v>1263.9999999999993</v>
       </c>
       <c r="F25" s="2">
-        <v>2114276.5499864169</v>
+        <v>1716389.6294400003</v>
       </c>
       <c r="G25" s="2">
         <v>29.41</v>
       </c>
       <c r="H25" s="2">
-        <v>123.30669105307349</v>
+        <v>70.999999999999531</v>
       </c>
       <c r="I25" s="2">
-        <v>230.99999999999901</v>
+        <v>230.99999999999903</v>
       </c>
       <c r="J25" s="2">
-        <v>515.09434074171179</v>
+        <v>233.29999999999964</v>
       </c>
       <c r="K25" s="2">
-        <v>49395.306275683972</v>
+        <v>383.99999999993003</v>
       </c>
       <c r="L25" s="2">
         <v>37867.999999999993</v>
       </c>
       <c r="M25" s="2">
-        <v>1725327.0647264121</v>
+        <v>322803.30879999872</v>
       </c>
       <c r="N25" s="2">
-        <v>25.90492510159179</v>
+        <v>0.99999999999999423</v>
       </c>
       <c r="O25" s="2">
-        <v>2915.7617682164901</v>
+        <v>2426.9999999999995</v>
       </c>
       <c r="P25" s="2">
-        <v>32139963.46512001</v>
+        <v>32139963.465120006</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
@@ -1696,13 +1699,13 @@
         <v>33537</v>
       </c>
       <c r="C26" s="2">
-        <v>29031.0083701363</v>
+        <v>27126.22694</v>
       </c>
       <c r="D26" s="2">
         <v>58200</v>
       </c>
       <c r="E26" s="2">
-        <v>2876.9999999999968</v>
+        <v>2876.9999999999973</v>
       </c>
       <c r="F26" s="2">
         <v>10541809.012150001</v>
@@ -1711,13 +1714,13 @@
         <v>31.4</v>
       </c>
       <c r="H26" s="2">
-        <v>306.99999999999801</v>
+        <v>306.99999999999795</v>
       </c>
       <c r="I26" s="2">
-        <v>198.9999999999992</v>
+        <v>198.99999999999918</v>
       </c>
       <c r="J26" s="2">
-        <v>515.09434074171179</v>
+        <v>474.69999999999879</v>
       </c>
       <c r="K26" s="2">
         <v>595570.99999999977</v>
@@ -1726,7 +1729,7 @@
         <v>59771.349999999991</v>
       </c>
       <c r="M26" s="2">
-        <v>1725327.0647264121</v>
+        <v>1632754.1328999992</v>
       </c>
       <c r="N26" s="2">
         <v>90.999999999999801</v>
@@ -1743,49 +1746,49 @@
         <v>23671.999999999989</v>
       </c>
       <c r="B27" s="2">
-        <v>5316.1026797151171</v>
+        <v>2819.9999999999991</v>
       </c>
       <c r="C27" s="2">
-        <v>20804.770158470299</v>
+        <v>17545.93204</v>
       </c>
       <c r="D27" s="2">
-        <v>18102.33886557139</v>
+        <v>16399.19999999999</v>
       </c>
       <c r="E27" s="2">
-        <v>692.21862862467367</v>
+        <v>346.9999999999996</v>
       </c>
       <c r="F27" s="2">
-        <v>786293.0504705467</v>
+        <v>573514.04293999961</v>
       </c>
       <c r="G27" s="2">
         <v>28</v>
       </c>
       <c r="H27" s="2">
-        <v>90.463582676213051</v>
+        <v>64.999999999999574</v>
       </c>
       <c r="I27" s="2">
-        <v>70.480699544079414</v>
+        <v>59.999999999999716</v>
       </c>
       <c r="J27" s="2">
-        <v>497.85288158683818</v>
+        <v>382.49999999999949</v>
       </c>
       <c r="K27" s="2">
-        <v>61373.672326328422</v>
+        <v>39639.999999999935</v>
       </c>
       <c r="L27" s="2">
-        <v>29602.9087374105</v>
+        <v>9314.3999999999924</v>
       </c>
       <c r="M27" s="2">
-        <v>3234408.7671999992</v>
+        <v>3234408.7671999987</v>
       </c>
       <c r="N27" s="2">
-        <v>28.514194264827129</v>
+        <v>17.99999999999995</v>
       </c>
       <c r="O27" s="2">
-        <v>1635.6427628317319</v>
+        <v>744.99999999999955</v>
       </c>
       <c r="P27" s="2">
-        <v>3002048.203665785</v>
+        <v>828015.21829999832</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
@@ -1793,7 +1796,7 @@
         <v>116468</v>
       </c>
       <c r="B28" s="2">
-        <v>21239</v>
+        <v>21239.000000000004</v>
       </c>
       <c r="C28" s="2">
         <v>23604.910929999998</v>
@@ -1802,7 +1805,7 @@
         <v>64664.399999999987</v>
       </c>
       <c r="E28" s="2">
-        <v>2077</v>
+        <v>2076.9999999999995</v>
       </c>
       <c r="F28" s="2">
         <v>4676977.1911799992</v>
@@ -1811,7 +1814,7 @@
         <v>30.2</v>
       </c>
       <c r="H28" s="2">
-        <v>300.99999999999812</v>
+        <v>300.99999999999807</v>
       </c>
       <c r="I28" s="2">
         <v>303.99999999999869</v>
@@ -1820,7 +1823,7 @@
         <v>783.79999999999882</v>
       </c>
       <c r="K28" s="2">
-        <v>202571</v>
+        <v>202571.00000000003</v>
       </c>
       <c r="L28" s="2">
         <v>87368.909999999974</v>
@@ -1843,46 +1846,46 @@
         <v>64841.999999999993</v>
       </c>
       <c r="B29" s="2">
-        <v>15029</v>
+        <v>15028.999999999996</v>
       </c>
       <c r="C29" s="2">
         <v>25869.387780000001</v>
       </c>
       <c r="D29" s="2">
-        <v>18102.33886557139</v>
+        <v>17235.499999999989</v>
       </c>
       <c r="E29" s="2">
-        <v>1123.9999999999991</v>
+        <v>1123.9999999999986</v>
       </c>
       <c r="F29" s="2">
         <v>866008.93850999954</v>
       </c>
       <c r="G29" s="2">
-        <v>26.112401315789398</v>
+        <v>23.8</v>
       </c>
       <c r="H29" s="2">
-        <v>124.9999999999992</v>
+        <v>124.99999999999919</v>
       </c>
       <c r="I29" s="2">
-        <v>194.99999999999909</v>
+        <v>194.99999999999915</v>
       </c>
       <c r="J29" s="2">
-        <v>497.85288158683818</v>
+        <v>235.39999999999975</v>
       </c>
       <c r="K29" s="2">
-        <v>61373.672326328422</v>
+        <v>2168.999999999995</v>
       </c>
       <c r="L29" s="2">
-        <v>29602.9087374105</v>
+        <v>22439.059999999987</v>
       </c>
       <c r="M29" s="2">
-        <v>2185490.0203954638</v>
+        <v>259751.15039999882</v>
       </c>
       <c r="N29" s="2">
-        <v>28.514194264827129</v>
+        <v>11.999999999999948</v>
       </c>
       <c r="O29" s="2">
-        <v>3211</v>
+        <v>3210.9999999999995</v>
       </c>
       <c r="P29" s="2">
         <v>9430951.7147999946</v>
@@ -1902,16 +1905,16 @@
         <v>59994</v>
       </c>
       <c r="E30" s="2">
-        <v>1042.9999999999991</v>
+        <v>1042.9999999999993</v>
       </c>
       <c r="F30" s="2">
-        <v>1194600.348719999</v>
+        <v>1194600.3487199994</v>
       </c>
       <c r="G30" s="2">
-        <v>26.112401315789398</v>
+        <v>24.81</v>
       </c>
       <c r="H30" s="2">
-        <v>140.99999999999909</v>
+        <v>140.99999999999912</v>
       </c>
       <c r="I30" s="2">
         <v>92.999999999999559</v>
@@ -1920,7 +1923,7 @@
         <v>563.59999999999923</v>
       </c>
       <c r="K30" s="2">
-        <v>61373.672326328422</v>
+        <v>35895.999999999993</v>
       </c>
       <c r="L30" s="2">
         <v>57654.419999999991</v>
@@ -1932,7 +1935,7 @@
         <v>36.999999999999908</v>
       </c>
       <c r="O30" s="2">
-        <v>3090</v>
+        <v>3089.9999999999995</v>
       </c>
       <c r="P30" s="2">
         <v>7029925.2345599988</v>
@@ -1946,40 +1949,40 @@
         <v>11442</v>
       </c>
       <c r="C31" s="2">
-        <v>20804.770158470299</v>
+        <v>18218.315640000001</v>
       </c>
       <c r="D31" s="2">
         <v>69421.599999999991</v>
       </c>
       <c r="E31" s="2">
-        <v>692.21862862467367</v>
+        <v>79.999999999999517</v>
       </c>
       <c r="F31" s="2">
         <v>3389505.0557000008</v>
       </c>
       <c r="G31" s="2">
-        <v>26.112401315789398</v>
+        <v>21.85</v>
       </c>
       <c r="H31" s="2">
-        <v>164.99999999999889</v>
+        <v>164.99999999999895</v>
       </c>
       <c r="I31" s="2">
-        <v>248.99999999999901</v>
+        <v>248.99999999999898</v>
       </c>
       <c r="J31" s="2">
-        <v>497.85288158683818</v>
+        <v>369.09999999999923</v>
       </c>
       <c r="K31" s="2">
-        <v>61373.672326328422</v>
+        <v>18256.999999999818</v>
       </c>
       <c r="L31" s="2">
         <v>57789.999999999949</v>
       </c>
       <c r="M31" s="2">
-        <v>2185490.0203954638</v>
+        <v>521260.11459999764</v>
       </c>
       <c r="N31" s="2">
-        <v>28.514194264827129</v>
+        <v>5.9999999999999627</v>
       </c>
       <c r="O31" s="2">
         <v>3403</v>
@@ -1993,49 +1996,49 @@
         <v>17275</v>
       </c>
       <c r="B32" s="2">
-        <v>3065.78</v>
+        <v>5648.5582401918809</v>
       </c>
       <c r="C32" s="2">
-        <v>21679.803337394831</v>
+        <v>20815.4167831292</v>
       </c>
       <c r="D32" s="2">
-        <v>9990.9274654330093</v>
+        <v>19721.961700869851</v>
       </c>
       <c r="E32" s="2">
-        <v>580.08536423274654</v>
+        <v>881.00766886934832</v>
       </c>
       <c r="F32" s="2">
-        <v>1056927.9355371816</v>
+        <v>1094086.860592877</v>
       </c>
       <c r="G32" s="2">
-        <v>39.836295399999258</v>
+        <v>39.4</v>
       </c>
       <c r="H32" s="2">
-        <v>52.28189156677908</v>
+        <v>125.6772308691166</v>
       </c>
       <c r="I32" s="2">
-        <v>9.8294841543144535</v>
+        <v>77.805859831260051</v>
       </c>
       <c r="J32" s="2">
-        <v>338.98346838031421</v>
+        <v>657.77532591485419</v>
       </c>
       <c r="K32" s="2">
-        <v>35709.008909223878</v>
+        <v>101102.97564972581</v>
       </c>
       <c r="L32" s="2">
-        <v>73632.724884151248</v>
+        <v>120574.1931586198</v>
       </c>
       <c r="M32" s="2">
-        <v>744853.96513498458</v>
+        <v>4717355.206267274</v>
       </c>
       <c r="N32" s="2">
-        <v>23.518145468272934</v>
+        <v>35.752251160859089</v>
       </c>
       <c r="O32" s="2">
-        <v>1087.841454077746</v>
+        <v>1599.139320430128</v>
       </c>
       <c r="P32" s="2">
-        <v>356159.95995556167</v>
+        <v>5013077.512856801</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
@@ -2043,99 +2046,99 @@
         <v>65842</v>
       </c>
       <c r="B33" s="2">
-        <v>13832.84</v>
+        <v>10892</v>
       </c>
       <c r="C33" s="2">
-        <v>23969.885793246038</v>
+        <v>21988.19528</v>
       </c>
       <c r="D33" s="2">
-        <v>46136.882675321423</v>
+        <v>37427.899999999987</v>
       </c>
       <c r="E33" s="2">
-        <v>988.83749852333153</v>
+        <v>881.00766886934832</v>
       </c>
       <c r="F33" s="2">
-        <v>4090470.24755956</v>
+        <v>2824760.72811</v>
       </c>
       <c r="G33" s="2">
-        <v>25.276837182740646</v>
+        <v>30.831632653061199</v>
       </c>
       <c r="H33" s="2">
-        <v>91.783765195012165</v>
+        <v>125.6772308691166</v>
       </c>
       <c r="I33" s="2">
-        <v>298.5705811873018</v>
+        <v>242.99999999999901</v>
       </c>
       <c r="J33" s="2">
-        <v>722.15238716924478</v>
+        <v>657.77532591485419</v>
       </c>
       <c r="K33" s="2">
-        <v>1066337.8382213118</v>
+        <v>959880.00000000023</v>
       </c>
       <c r="L33" s="2">
-        <v>395500.44770277175</v>
+        <v>322825.61999999988</v>
       </c>
       <c r="M33" s="2">
-        <v>17132037.645676285</v>
+        <v>12665201.631200001</v>
       </c>
       <c r="N33" s="2">
-        <v>26.585729659786789</v>
+        <v>35.752251160859089</v>
       </c>
       <c r="O33" s="2">
-        <v>3662.5528871433626</v>
+        <v>3185</v>
       </c>
       <c r="P33" s="2">
-        <v>18702978.115983784</v>
+        <v>12405299.012639999</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
-        <v>110482</v>
+        <v>34498.999999999993</v>
       </c>
       <c r="B34" s="2">
-        <v>23757.889999999996</v>
+        <v>7235.9999999999973</v>
       </c>
       <c r="C34" s="2">
-        <v>23374.655086082195</v>
+        <v>20815.4167831292</v>
       </c>
       <c r="D34" s="2">
-        <v>87752.516275045637</v>
+        <v>19721.961700869851</v>
       </c>
       <c r="E34" s="2">
-        <v>3755.8691620892382</v>
+        <v>2286.9999999999991</v>
       </c>
       <c r="F34" s="2">
-        <v>2076660.1605172826</v>
+        <v>1199846.21903</v>
       </c>
       <c r="G34" s="2">
-        <v>25.175729834009683</v>
+        <v>30.831632653061199</v>
       </c>
       <c r="H34" s="2">
-        <v>242.82034083237392</v>
+        <v>125.6772308691166</v>
       </c>
       <c r="I34" s="2">
-        <v>307.17137982232691</v>
+        <v>77.805859831260051</v>
       </c>
       <c r="J34" s="2">
-        <v>868.06713037909356</v>
+        <v>664.79999999999927</v>
       </c>
       <c r="K34" s="2">
-        <v>91892.042028160213</v>
+        <v>208310</v>
       </c>
       <c r="L34" s="2">
-        <v>404333.93767816876</v>
+        <v>120574.1931586198</v>
       </c>
       <c r="M34" s="2">
-        <v>15529696.715903692</v>
+        <v>4717355.206267274</v>
       </c>
       <c r="N34" s="2">
-        <v>30.675841915138577</v>
+        <v>40.999999999999908</v>
       </c>
       <c r="O34" s="2">
-        <v>5484.0548567619135</v>
+        <v>2013.9999999999991</v>
       </c>
       <c r="P34" s="2">
-        <v>23228394.098859005</v>
+        <v>5013077.512856801</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
@@ -2143,49 +2146,49 @@
         <v>18562</v>
       </c>
       <c r="B35" s="2">
-        <v>4691.380000000001</v>
+        <v>5648.5582401918809</v>
       </c>
       <c r="C35" s="2">
-        <v>23669.21548370285</v>
+        <v>21712.38264</v>
       </c>
       <c r="D35" s="2">
-        <v>10065.874830010225</v>
+        <v>19721.961700869851</v>
       </c>
       <c r="E35" s="2">
-        <v>695.12339005105468</v>
+        <v>881.00766886934832</v>
       </c>
       <c r="F35" s="2">
-        <v>693877.79925142787</v>
+        <v>1094086.860592877</v>
       </c>
       <c r="G35" s="2">
-        <v>38.623007215227709</v>
+        <v>38.200000000000003</v>
       </c>
       <c r="H35" s="2">
-        <v>110.37288219653362</v>
+        <v>125.6772308691166</v>
       </c>
       <c r="I35" s="2">
-        <v>51.60479181015095</v>
+        <v>77.805859831260051</v>
       </c>
       <c r="J35" s="2">
-        <v>635.26575212801254</v>
+        <v>657.77532591485419</v>
       </c>
       <c r="K35" s="2">
-        <v>16451.428351689148</v>
+        <v>101102.97564972581</v>
       </c>
       <c r="L35" s="2">
-        <v>44614.97432854872</v>
+        <v>120574.1931586198</v>
       </c>
       <c r="M35" s="2">
-        <v>6720399.1433862001</v>
+        <v>4968189.5378400004</v>
       </c>
       <c r="N35" s="2">
-        <v>24.540673532110869</v>
+        <v>35.752251160859089</v>
       </c>
       <c r="O35" s="2">
-        <v>1102.7906495354739</v>
+        <v>1599.139320430128</v>
       </c>
       <c r="P35" s="2">
-        <v>2603925.131103361</v>
+        <v>5013077.512856801</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
@@ -2193,49 +2196,49 @@
         <v>28673</v>
       </c>
       <c r="B36" s="2">
-        <v>5350.51</v>
+        <v>5648.5582401918809</v>
       </c>
       <c r="C36" s="2">
-        <v>20405.00153078483</v>
+        <v>20815.4167831292</v>
       </c>
       <c r="D36" s="2">
-        <v>19361.073799269216</v>
+        <v>19721.961700869851</v>
       </c>
       <c r="E36" s="2">
-        <v>1451.437219367167</v>
+        <v>1185.9999999999991</v>
       </c>
       <c r="F36" s="2">
-        <v>1321871.3168206764</v>
+        <v>1094086.860592877</v>
       </c>
       <c r="G36" s="2">
-        <v>36.904182286801344</v>
+        <v>36.5</v>
       </c>
       <c r="H36" s="2">
-        <v>125.47653976026976</v>
+        <v>125.6772308691166</v>
       </c>
       <c r="I36" s="2">
-        <v>113.03906777461636</v>
+        <v>91.999999999999645</v>
       </c>
       <c r="J36" s="2">
-        <v>997.42660147201968</v>
+        <v>873.59999999999934</v>
       </c>
       <c r="K36" s="2">
-        <v>141732.90454409877</v>
+        <v>127583</v>
       </c>
       <c r="L36" s="2">
-        <v>69713.060492630117</v>
+        <v>120574.1931586198</v>
       </c>
       <c r="M36" s="2">
-        <v>7462886.8332526349</v>
+        <v>5517088.4192999983</v>
       </c>
       <c r="N36" s="2">
-        <v>39.878594489680175</v>
+        <v>38.999999999999908</v>
       </c>
       <c r="O36" s="2">
-        <v>1279.8811188039447</v>
+        <v>1599.139320430128</v>
       </c>
       <c r="P36" s="2">
-        <v>9261078.9064769875</v>
+        <v>6142682.3205399979</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
@@ -2243,49 +2246,49 @@
         <v>28434</v>
       </c>
       <c r="B37" s="2">
-        <v>5839.5</v>
+        <v>10206.306899606619</v>
       </c>
       <c r="C37" s="2">
-        <v>20773.66617</v>
+        <v>24430.417592114401</v>
       </c>
       <c r="D37" s="2">
-        <v>29854.288992554695</v>
+        <v>45468.347505469341</v>
       </c>
       <c r="E37" s="2">
-        <v>1344.8309380053936</v>
+        <v>1645.6410443006489</v>
       </c>
       <c r="F37" s="2">
-        <v>2063160.5890038323</v>
+        <v>2362294.7641864121</v>
       </c>
       <c r="G37" s="2">
-        <v>22.6</v>
+        <v>27.620294559099399</v>
       </c>
       <c r="H37" s="2">
-        <v>72.999999999999545</v>
+        <v>122.673448310382</v>
       </c>
       <c r="I37" s="2">
-        <v>119.25618355303567</v>
+        <v>166.46398701290829</v>
       </c>
       <c r="J37" s="2">
-        <v>350.99999999999966</v>
+        <v>384.78892776104192</v>
       </c>
       <c r="K37" s="2">
-        <v>10711.999999999955</v>
+        <v>28977.998578687861</v>
       </c>
       <c r="L37" s="2">
-        <v>8164.1690086360904</v>
+        <v>24766.251315762191</v>
       </c>
       <c r="M37" s="2">
-        <v>54366.531525845545</v>
+        <v>827690.06333850382</v>
       </c>
       <c r="N37" s="2">
-        <v>1.9999999999999927</v>
+        <v>21.095615783084529</v>
       </c>
       <c r="O37" s="2">
-        <v>1690.0045188387674</v>
+        <v>2896.8590066809602</v>
       </c>
       <c r="P37" s="2">
-        <v>6244959.3830651175</v>
+        <v>8379778.1909793671</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
@@ -2293,49 +2296,49 @@
         <v>139565</v>
       </c>
       <c r="B38" s="2">
-        <v>24867.599999999991</v>
+        <v>24379.999999999989</v>
       </c>
       <c r="C38" s="2">
-        <v>19874.44096</v>
+        <v>24430.417592114401</v>
       </c>
       <c r="D38" s="2">
-        <v>230273.10161526751</v>
+        <v>207240.7</v>
       </c>
       <c r="E38" s="2">
-        <v>2249.447432275208</v>
+        <v>1859.999999999998</v>
       </c>
       <c r="F38" s="2">
-        <v>7304500.1920620315</v>
+        <v>5926777.3109299988</v>
       </c>
       <c r="G38" s="2">
-        <v>21.6</v>
+        <v>27.620294559099399</v>
       </c>
       <c r="H38" s="2">
         <v>311.9999999999979</v>
       </c>
       <c r="I38" s="2">
-        <v>404.84335995635797</v>
+        <v>386.99999999999841</v>
       </c>
       <c r="J38" s="2">
         <v>962.79999999999893</v>
       </c>
       <c r="K38" s="2">
-        <v>8125.9999999999918</v>
+        <v>28977.998578687861</v>
       </c>
       <c r="L38" s="2">
-        <v>52239.728775468961</v>
+        <v>44861.889999999948</v>
       </c>
       <c r="M38" s="2">
-        <v>216908.59262118847</v>
+        <v>827690.06333850382</v>
       </c>
       <c r="N38" s="2">
         <v>33.999999999999922</v>
       </c>
       <c r="O38" s="2">
-        <v>6527.0940903729661</v>
+        <v>6249</v>
       </c>
       <c r="P38" s="2">
-        <v>17700089.625400923</v>
+        <v>15178335.903369989</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
@@ -2343,49 +2346,49 @@
         <v>19887.999999999989</v>
       </c>
       <c r="B39" s="2">
-        <v>4571.6399999999985</v>
+        <v>10206.306899606619</v>
       </c>
       <c r="C39" s="2">
         <v>37917.462079999998</v>
       </c>
       <c r="D39" s="2">
-        <v>16177.064092220677</v>
+        <v>45468.347505469341</v>
       </c>
       <c r="E39" s="2">
-        <v>737.72200735907359</v>
+        <v>1645.6410443006489</v>
       </c>
       <c r="F39" s="2">
-        <v>1580784.1474639561</v>
+        <v>2362294.7641864121</v>
       </c>
       <c r="G39" s="2">
         <v>29.1</v>
       </c>
       <c r="H39" s="2">
-        <v>67.999999999999545</v>
+        <v>122.673448310382</v>
       </c>
       <c r="I39" s="2">
-        <v>120.30229042630789</v>
+        <v>166.46398701290829</v>
       </c>
       <c r="J39" s="2">
-        <v>358.69999999999959</v>
+        <v>384.78892776104192</v>
       </c>
       <c r="K39" s="2">
-        <v>4886.9999999999818</v>
+        <v>28977.998578687861</v>
       </c>
       <c r="L39" s="2">
-        <v>9316.2358979556921</v>
+        <v>24766.251315762191</v>
       </c>
       <c r="M39" s="2">
-        <v>865834.67027747876</v>
+        <v>827690.06333850382</v>
       </c>
       <c r="N39" s="2">
-        <v>14.999999999999956</v>
+        <v>21.095615783084529</v>
       </c>
       <c r="O39" s="2">
-        <v>1143.7298814143694</v>
+        <v>2896.8590066809602</v>
       </c>
       <c r="P39" s="2">
-        <v>5837841.9366662949</v>
+        <v>8379778.1909793671</v>
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
@@ -2393,99 +2396,99 @@
         <v>65776</v>
       </c>
       <c r="B40" s="2">
-        <v>15178.62</v>
+        <v>14881</v>
       </c>
       <c r="C40" s="2">
         <v>35840.741759999997</v>
       </c>
       <c r="D40" s="2">
-        <v>58054.759577604673</v>
+        <v>52247.999999999993</v>
       </c>
       <c r="E40" s="2">
-        <v>2649.7523247930017</v>
+        <v>2190.9999999999991</v>
       </c>
       <c r="F40" s="2">
-        <v>3377660.5517561701</v>
+        <v>2740590.23832</v>
       </c>
       <c r="G40" s="2">
-        <v>22.8</v>
+        <v>27.620294559099399</v>
       </c>
       <c r="H40" s="2">
-        <v>240.99999999999852</v>
+        <v>240.99999999999849</v>
       </c>
       <c r="I40" s="2">
-        <v>203.99084028808733</v>
+        <v>194.9999999999992</v>
       </c>
       <c r="J40" s="2">
-        <v>225.39999999999938</v>
+        <v>384.78892776104192</v>
       </c>
       <c r="K40" s="2">
-        <v>2243.9999999999036</v>
+        <v>28977.998578687861</v>
       </c>
       <c r="L40" s="2">
-        <v>13298.13054705717</v>
+        <v>24766.251315762191</v>
       </c>
       <c r="M40" s="2">
-        <v>184575.09986104607</v>
+        <v>827690.06333850382</v>
       </c>
       <c r="N40" s="2">
-        <v>5.9999999999999716</v>
+        <v>21.095615783084529</v>
       </c>
       <c r="O40" s="2">
-        <v>3448.9461812148397</v>
+        <v>3302</v>
       </c>
       <c r="P40" s="2">
-        <v>9740873.2307771854</v>
+        <v>8379778.1909793671</v>
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
-        <v>108665</v>
+        <v>86435.999999999985</v>
       </c>
       <c r="B41" s="2">
-        <v>17782.680000000004</v>
+        <v>13019.999999999991</v>
       </c>
       <c r="C41" s="2">
-        <v>19751.678240000001</v>
+        <v>24430.417592114401</v>
       </c>
       <c r="D41" s="2">
-        <v>80578.646260303038</v>
+        <v>56657.999999999993</v>
       </c>
       <c r="E41" s="2">
-        <v>2207.1191203775575</v>
+        <v>1856.999999999998</v>
       </c>
       <c r="F41" s="2">
-        <v>8035015.1850104388</v>
+        <v>3773107.8136800001</v>
       </c>
       <c r="G41" s="2">
-        <v>26.6</v>
+        <v>28.1</v>
       </c>
       <c r="H41" s="2">
-        <v>270.99999999999818</v>
+        <v>122.673448310382</v>
       </c>
       <c r="I41" s="2">
-        <v>306.50931386876721</v>
+        <v>371.99999999999841</v>
       </c>
       <c r="J41" s="2">
-        <v>225.39999999999932</v>
+        <v>995.09999999999877</v>
       </c>
       <c r="K41" s="2">
-        <v>2036.9999999998449</v>
+        <v>134789</v>
       </c>
       <c r="L41" s="2">
-        <v>29538.77332959717</v>
+        <v>68742.999999999971</v>
       </c>
       <c r="M41" s="2">
-        <v>267802.97913148615</v>
+        <v>5197507.5167999975</v>
       </c>
       <c r="N41" s="2">
-        <v>33.999999999999908</v>
+        <v>51.999999999999872</v>
       </c>
       <c r="O41" s="2">
-        <v>5967.2409246760681</v>
+        <v>3299</v>
       </c>
       <c r="P41" s="2">
-        <v>14464008.469065005</v>
+        <v>11634696.470159991</v>
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
@@ -2493,49 +2496,49 @@
         <v>9622.9999999999964</v>
       </c>
       <c r="B42" s="2">
-        <v>1207.9999999999993</v>
+        <v>2088.3249137487501</v>
       </c>
       <c r="C42" s="2">
-        <v>17258.655753586329</v>
+        <v>19210.228831246099</v>
       </c>
       <c r="D42" s="2">
-        <v>3746.5999999999967</v>
+        <v>7762.6753209116032</v>
       </c>
       <c r="E42" s="2">
-        <v>44.99999999999995</v>
+        <v>281.9402175474014</v>
       </c>
       <c r="F42" s="2">
-        <v>84821.616612874292</v>
+        <v>374829.37895564421</v>
       </c>
       <c r="G42" s="2">
-        <v>33.14783941551179</v>
+        <v>35.438037383177502</v>
       </c>
       <c r="H42" s="2">
-        <v>32.999999999999773</v>
+        <v>54.072514242661697</v>
       </c>
       <c r="I42" s="2">
-        <v>9.9999999999999485</v>
+        <v>28.221234650144272</v>
       </c>
       <c r="J42" s="2">
-        <v>220.54621652251558</v>
+        <v>479.14656225630722</v>
       </c>
       <c r="K42" s="2">
-        <v>22989.999999999982</v>
+        <v>32749.978346102071</v>
       </c>
       <c r="L42" s="2">
-        <v>7716.2901723415644</v>
+        <v>14259.056285147481</v>
       </c>
       <c r="M42" s="2">
-        <v>633508.48902710096</v>
+        <v>1321756.1130112109</v>
       </c>
       <c r="N42" s="2">
-        <v>14.999999999999956</v>
+        <v>22.70687713300876</v>
       </c>
       <c r="O42" s="2">
         <v>672.99999999999989</v>
       </c>
       <c r="P42" s="2">
-        <v>286032.99613732687</v>
+        <v>1212990.425859435</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
@@ -2546,46 +2549,46 @@
         <v>2386</v>
       </c>
       <c r="C43" s="2">
-        <v>16883.121971367545</v>
+        <v>19210.228831246099</v>
       </c>
       <c r="D43" s="2">
-        <v>10592.199999999999</v>
+        <v>10592.2</v>
       </c>
       <c r="E43" s="2">
         <v>377.99999999999972</v>
       </c>
       <c r="F43" s="2">
-        <v>426219.52494578558</v>
+        <v>398404.10684000002</v>
       </c>
       <c r="G43" s="2">
-        <v>29.073188058787746</v>
+        <v>35.438037383177502</v>
       </c>
       <c r="H43" s="2">
-        <v>27.999999999999833</v>
+        <v>54.072514242661697</v>
       </c>
       <c r="I43" s="2">
-        <v>22.999999999999915</v>
+        <v>28.221234650144272</v>
       </c>
       <c r="J43" s="2">
-        <v>831.72090129253809</v>
+        <v>800.99999999999955</v>
       </c>
       <c r="K43" s="2">
-        <v>112136.99999999997</v>
+        <v>112137</v>
       </c>
       <c r="L43" s="2">
-        <v>9526.584408588913</v>
+        <v>14259.056285147481</v>
       </c>
       <c r="M43" s="2">
-        <v>1663767.7267059332</v>
+        <v>1610842.1836000001</v>
       </c>
       <c r="N43" s="2">
-        <v>21.999999999999957</v>
+        <v>22.70687713300876</v>
       </c>
       <c r="O43" s="2">
         <v>624.00000000000011</v>
       </c>
       <c r="P43" s="2">
-        <v>1832988.2302829542</v>
+        <v>1492496.0792400001</v>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.25">
@@ -2596,19 +2599,19 @@
         <v>6906.9999999999973</v>
       </c>
       <c r="C44" s="2">
-        <v>16785.724278174286</v>
+        <v>19210.228831246099</v>
       </c>
       <c r="D44" s="2">
-        <v>45679.399999999994</v>
+        <v>45679.399999999987</v>
       </c>
       <c r="E44" s="2">
         <v>943.99999999999955</v>
       </c>
       <c r="F44" s="2">
-        <v>1215303.8837618858</v>
+        <v>1135992.2059200001</v>
       </c>
       <c r="G44" s="2">
-        <v>25.218788126751495</v>
+        <v>35.438037383177502</v>
       </c>
       <c r="H44" s="2">
         <v>86.999999999999389</v>
@@ -2617,25 +2620,25 @@
         <v>196.9999999999992</v>
       </c>
       <c r="J44" s="2">
-        <v>2545.0036567640586</v>
+        <v>2450.9999999999991</v>
       </c>
       <c r="K44" s="2">
-        <v>49269.999999999935</v>
+        <v>49269.999999999927</v>
       </c>
       <c r="L44" s="2">
-        <v>10795.143423886177</v>
+        <v>14259.056285147481</v>
       </c>
       <c r="M44" s="2">
-        <v>860264.7351061966</v>
+        <v>1321756.1130112109</v>
       </c>
       <c r="N44" s="2">
         <v>26.99999999999994</v>
       </c>
       <c r="O44" s="2">
-        <v>1959.9999999999998</v>
+        <v>1960</v>
       </c>
       <c r="P44" s="2">
-        <v>2408571.3178105522</v>
+        <v>1961160.027659998</v>
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.25">
@@ -2646,46 +2649,46 @@
         <v>4568.9999999999982</v>
       </c>
       <c r="C45" s="2">
-        <v>22221.419357870833</v>
+        <v>21418.87329</v>
       </c>
       <c r="D45" s="2">
-        <v>4933.5999999999949</v>
+        <v>7762.6753209116032</v>
       </c>
       <c r="E45" s="2">
-        <v>130.99999999999977</v>
+        <v>281.9402175474014</v>
       </c>
       <c r="F45" s="2">
-        <v>153719.09000888685</v>
+        <v>374829.37895564421</v>
       </c>
       <c r="G45" s="2">
-        <v>24.558033852688137</v>
+        <v>35.438037383177502</v>
       </c>
       <c r="H45" s="2">
         <v>103.9999999999993</v>
       </c>
       <c r="I45" s="2">
-        <v>2.9999999999999765</v>
+        <v>28.221234650144272</v>
       </c>
       <c r="J45" s="2">
-        <v>329.15795968755845</v>
+        <v>479.14656225630722</v>
       </c>
       <c r="K45" s="2">
-        <v>106497.99999999996</v>
+        <v>106498</v>
       </c>
       <c r="L45" s="2">
-        <v>19721.666163920327</v>
+        <v>19137.909999999989</v>
       </c>
       <c r="M45" s="2">
-        <v>3540502.3070698176</v>
+        <v>3427876.6054999982</v>
       </c>
       <c r="N45" s="2">
-        <v>50.999999999999886</v>
+        <v>50.999999999999893</v>
       </c>
       <c r="O45" s="2">
-        <v>1217.9999999999995</v>
+        <v>1218</v>
       </c>
       <c r="P45" s="2">
-        <v>4328559.1604477121</v>
+        <v>3524494.8488999992</v>
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.25">
@@ -2696,46 +2699,46 @@
         <v>2093.9999999999991</v>
       </c>
       <c r="C46" s="2">
-        <v>17591.166459640302</v>
+        <v>19210.228831246099</v>
       </c>
       <c r="D46" s="2">
-        <v>7192.4999999999927</v>
+        <v>7762.6753209116032</v>
       </c>
       <c r="E46" s="2">
-        <v>449.99999999999943</v>
+        <v>449.99999999999937</v>
       </c>
       <c r="F46" s="2">
-        <v>319049.36629622732</v>
+        <v>374829.37895564421</v>
       </c>
       <c r="G46" s="2">
-        <v>33.070751416871069</v>
+        <v>35.438037383177502</v>
       </c>
       <c r="H46" s="2">
         <v>59.999999999999581</v>
       </c>
       <c r="I46" s="2">
-        <v>14.999999999999922</v>
+        <v>28.221234650144272</v>
       </c>
       <c r="J46" s="2">
-        <v>672.64519332996974</v>
+        <v>647.79999999999916</v>
       </c>
       <c r="K46" s="2">
-        <v>25719.999999999982</v>
+        <v>32749.978346102071</v>
       </c>
       <c r="L46" s="2">
-        <v>21438.730829234901</v>
+        <v>20804.14999999998</v>
       </c>
       <c r="M46" s="2">
-        <v>1584006.3709418301</v>
+        <v>1533618.0888999989</v>
       </c>
       <c r="N46" s="2">
-        <v>21.999999999999932</v>
+        <v>22.70687713300876</v>
       </c>
       <c r="O46" s="2">
         <v>676.99999999999955</v>
       </c>
       <c r="P46" s="2">
-        <v>2294824.0449553295</v>
+        <v>1868542.2159599981</v>
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.25">
@@ -2743,99 +2746,99 @@
         <v>4183.9999999999918</v>
       </c>
       <c r="B47" s="2">
-        <v>1057.2599999999979</v>
+        <v>5714.5080545330657</v>
       </c>
       <c r="C47" s="2">
-        <v>20226.367727107965</v>
+        <v>20427.341848341399</v>
       </c>
       <c r="D47" s="2">
-        <v>2381.0656795158275</v>
+        <v>18620.078602856651</v>
       </c>
       <c r="E47" s="2">
-        <v>113.42499495170337</v>
+        <v>713.92266024672676</v>
       </c>
       <c r="F47" s="2">
-        <v>81501.246245260627</v>
+        <v>795019.6038440204</v>
       </c>
       <c r="G47" s="2">
-        <v>36.102330543942813</v>
+        <v>35.799999999999997</v>
       </c>
       <c r="H47" s="2">
-        <v>15.982526713303701</v>
+        <v>121.2195445843775</v>
       </c>
       <c r="I47" s="2">
-        <v>2.5736340998794454</v>
+        <v>82.574144705994001</v>
       </c>
       <c r="J47" s="2">
-        <v>109.9937054332045</v>
+        <v>675.1104937785783</v>
       </c>
       <c r="K47" s="2">
-        <v>44335.913688073495</v>
+        <v>390629.37411319528</v>
       </c>
       <c r="L47" s="2">
-        <v>2003.2628205799081</v>
+        <v>50169.914191199998</v>
       </c>
       <c r="M47" s="2">
-        <v>1077875.2283725089</v>
+        <v>5170690.3577637998</v>
       </c>
       <c r="N47" s="2">
-        <v>11.577914620948475</v>
+        <v>37.037791832750607</v>
       </c>
       <c r="O47" s="2">
-        <v>315.84662311287593</v>
+        <v>1578.0387530220919</v>
       </c>
       <c r="P47" s="2">
-        <v>1122077.8321941854</v>
+        <v>5162046.5029202029</v>
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
-        <v>95828.000000000015</v>
+        <v>25263.999999999989</v>
       </c>
       <c r="B48" s="2">
-        <v>18008.259999999998</v>
+        <v>5714.5080545330657</v>
       </c>
       <c r="C48" s="2">
-        <v>22455.614878771485</v>
+        <v>20441.322639999999</v>
       </c>
       <c r="D48" s="2">
-        <v>92694.324653006508</v>
+        <v>18620.078602856651</v>
       </c>
       <c r="E48" s="2">
-        <v>2987.3308045404933</v>
+        <v>713.92266024672676</v>
       </c>
       <c r="F48" s="2">
-        <v>4123326.2785686189</v>
+        <v>795019.6038440204</v>
       </c>
       <c r="G48" s="2">
-        <v>27.42970365349845</v>
+        <v>28.859170731707302</v>
       </c>
       <c r="H48" s="2">
-        <v>238.50847556776347</v>
+        <v>121.2195445843775</v>
       </c>
       <c r="I48" s="2">
-        <v>285.67338508661948</v>
+        <v>82.574144705994001</v>
       </c>
       <c r="J48" s="2">
-        <v>1071.6954272613598</v>
+        <v>675.1104937785783</v>
       </c>
       <c r="K48" s="2">
-        <v>1592537.543345849</v>
+        <v>390629.37411319528</v>
       </c>
       <c r="L48" s="2">
-        <v>117295.81425731478</v>
+        <v>50169.914191199998</v>
       </c>
       <c r="M48" s="2">
-        <v>12574233.283892285</v>
+        <v>5170690.3577637998</v>
       </c>
       <c r="N48" s="2">
-        <v>31.260369476560907</v>
+        <v>37.037791832750607</v>
       </c>
       <c r="O48" s="2">
-        <v>4873.0621851700944</v>
+        <v>1578.0387530220919</v>
       </c>
       <c r="P48" s="2">
-        <v>14264173.483645547</v>
+        <v>5162046.5029202029</v>
       </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.25">
@@ -2843,49 +2846,49 @@
         <v>17569.999999999989</v>
       </c>
       <c r="B49" s="2">
-        <v>2529.9199999999983</v>
+        <v>5714.5080545330657</v>
       </c>
       <c r="C49" s="2">
-        <v>19492.420354584516</v>
+        <v>20427.341848341399</v>
       </c>
       <c r="D49" s="2">
-        <v>11096.210636742033</v>
+        <v>18620.078602856651</v>
       </c>
       <c r="E49" s="2">
-        <v>333.18592267062911</v>
+        <v>713.92266024672676</v>
       </c>
       <c r="F49" s="2">
-        <v>480263.66540990554</v>
+        <v>795019.6038440204</v>
       </c>
       <c r="G49" s="2">
-        <v>26.522103164963575</v>
+        <v>28.859170731707302</v>
       </c>
       <c r="H49" s="2">
-        <v>191.79032055964473</v>
+        <v>155.99999999999889</v>
       </c>
       <c r="I49" s="2">
-        <v>73.348571846564397</v>
+        <v>82.574144705994001</v>
       </c>
       <c r="J49" s="2">
-        <v>526.1861043696548</v>
+        <v>675.1104937785783</v>
       </c>
       <c r="K49" s="2">
-        <v>253392.39889601793</v>
+        <v>390629.37411319528</v>
       </c>
       <c r="L49" s="2">
-        <v>30747.732458975683</v>
+        <v>50169.914191199998</v>
       </c>
       <c r="M49" s="2">
-        <v>3041350.6148838014</v>
+        <v>5170690.3577637998</v>
       </c>
       <c r="N49" s="2">
-        <v>28.944786552371227</v>
+        <v>37.037791832750607</v>
       </c>
       <c r="O49" s="2">
-        <v>991.40745588208404</v>
+        <v>1578.0387530220919</v>
       </c>
       <c r="P49" s="2">
-        <v>482329.48363598721</v>
+        <v>5162046.5029202029</v>
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.25">
@@ -2893,49 +2896,49 @@
         <v>120926</v>
       </c>
       <c r="B50" s="2">
-        <v>26850.919999999995</v>
+        <v>20038</v>
       </c>
       <c r="C50" s="2">
-        <v>26679.61717489058</v>
+        <v>25152.816680000011</v>
       </c>
       <c r="D50" s="2">
-        <v>95336.24843414966</v>
+        <v>72911.599999999991</v>
       </c>
       <c r="E50" s="2">
-        <v>3615.4217140855512</v>
+        <v>2549.9999999999982</v>
       </c>
       <c r="F50" s="2">
-        <v>6626984.6553996988</v>
+        <v>4713511.9352799999</v>
       </c>
       <c r="G50" s="2">
-        <v>30.152505119103076</v>
+        <v>29.9</v>
       </c>
       <c r="H50" s="2">
-        <v>240.96732583134855</v>
+        <v>195.99999999999869</v>
       </c>
       <c r="I50" s="2">
-        <v>320.41744543499203</v>
+        <v>248.99999999999889</v>
       </c>
       <c r="J50" s="2">
-        <v>1517.7509820955217</v>
+        <v>1123.199999999998</v>
       </c>
       <c r="K50" s="2">
-        <v>1751784.5110765442</v>
+        <v>1264806.9999999991</v>
       </c>
       <c r="L50" s="2">
-        <v>167909.13172030606</v>
+        <v>104307.93</v>
       </c>
       <c r="M50" s="2">
-        <v>2846566.7104680962</v>
+        <v>5170690.3577637998</v>
       </c>
       <c r="N50" s="2">
-        <v>40.522701173319724</v>
+        <v>37.037791832750607</v>
       </c>
       <c r="O50" s="2">
-        <v>7907.4458143616584</v>
+        <v>6308.9999999999991</v>
       </c>
       <c r="P50" s="2">
-        <v>40371896.324514598</v>
+        <v>26988496.705479991</v>
       </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.25">
@@ -2943,49 +2946,49 @@
         <v>50473.999999999993</v>
       </c>
       <c r="B51" s="2">
-        <v>11632.539999999997</v>
+        <v>8680.9999999999982</v>
       </c>
       <c r="C51" s="2">
-        <v>20574.743082475143</v>
+        <v>20427.341848341399</v>
       </c>
       <c r="D51" s="2">
-        <v>43065.645861595542</v>
+        <v>32935.899999999987</v>
       </c>
       <c r="E51" s="2">
-        <v>2373.418019364397</v>
+        <v>1673.999999999998</v>
       </c>
       <c r="F51" s="2">
-        <v>1870945.4971052352</v>
+        <v>1330729.4930400001</v>
       </c>
       <c r="G51" s="2">
-        <v>25.311969180250408</v>
+        <v>28.859170731707302</v>
       </c>
       <c r="H51" s="2">
-        <v>195.47859595502251</v>
+        <v>158.99999999999889</v>
       </c>
       <c r="I51" s="2">
-        <v>238.06115423884944</v>
+        <v>184.9999999999992</v>
       </c>
       <c r="J51" s="2">
-        <v>521.86202749758786</v>
+        <v>675.1104937785783</v>
       </c>
       <c r="K51" s="2">
-        <v>1123141.3928940871</v>
+        <v>810919.99999999977</v>
       </c>
       <c r="L51" s="2">
-        <v>294093.9076134772</v>
+        <v>182696</v>
       </c>
       <c r="M51" s="2">
-        <v>7094269.7219382674</v>
+        <v>5519372.8535999991</v>
       </c>
       <c r="N51" s="2">
-        <v>45.153867021699128</v>
+        <v>38.999999999999908</v>
       </c>
       <c r="O51" s="2">
-        <v>3133.3990388182192</v>
+        <v>2500</v>
       </c>
       <c r="P51" s="2">
-        <v>5608681.5484265415</v>
+        <v>5162046.5029202029</v>
       </c>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.25">
@@ -2993,49 +2996,49 @@
         <v>47578.999999999993</v>
       </c>
       <c r="B52" s="2">
-        <v>11983.019999999999</v>
+        <v>11634</v>
       </c>
       <c r="C52" s="2">
-        <v>25430.158580461106</v>
+        <v>29031.0083701363</v>
       </c>
       <c r="D52" s="2">
-        <v>45721.641100095774</v>
+        <v>38299.681634895933</v>
       </c>
       <c r="E52" s="2">
-        <v>1078.2639907286032</v>
+        <v>1288.588016602401</v>
       </c>
       <c r="F52" s="2">
-        <v>1929096.1699928325</v>
+        <v>2114276.5499864169</v>
       </c>
       <c r="G52" s="2">
-        <v>24.20423743534403</v>
+        <v>27.965422727272699</v>
       </c>
       <c r="H52" s="2">
-        <v>69.999999999999503</v>
+        <v>123.30669105307349</v>
       </c>
       <c r="I52" s="2">
-        <v>197.21727965783901</v>
+        <v>171.99999999999929</v>
       </c>
       <c r="J52" s="2">
-        <v>201.0999999999998</v>
+        <v>515.09434074171179</v>
       </c>
       <c r="K52" s="2">
-        <v>14598.999999999955</v>
+        <v>49395.306275683972</v>
       </c>
       <c r="L52" s="2">
-        <v>23998.867850818726</v>
+        <v>37819.7689054316</v>
       </c>
       <c r="M52" s="2">
-        <v>286065.10401343706</v>
+        <v>1725327.0647264121</v>
       </c>
       <c r="N52" s="2">
-        <v>10.999999999999968</v>
+        <v>25.90492510159179</v>
       </c>
       <c r="O52" s="2">
-        <v>2873.3721036438064</v>
+        <v>2915.7617682164901</v>
       </c>
       <c r="P52" s="2">
-        <v>36698725.509738542</v>
+        <v>32418265.199999992</v>
       </c>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.25">
@@ -3043,49 +3046,49 @@
         <v>28553</v>
       </c>
       <c r="B53" s="2">
-        <v>7144.079999999999</v>
+        <v>11428.022546365821</v>
       </c>
       <c r="C53" s="2">
-        <v>35250.545648341838</v>
+        <v>34591.617420000002</v>
       </c>
       <c r="D53" s="2">
-        <v>16196.061133388332</v>
+        <v>38299.681634895933</v>
       </c>
       <c r="E53" s="2">
-        <v>593.70486697514832</v>
+        <v>1288.588016602401</v>
       </c>
       <c r="F53" s="2">
-        <v>198628.86628169011</v>
+        <v>2114276.5499864169</v>
       </c>
       <c r="G53" s="2">
-        <v>23.586256905079928</v>
+        <v>27.965422727272699</v>
       </c>
       <c r="H53" s="2">
-        <v>76.999999999999531</v>
+        <v>123.30669105307349</v>
       </c>
       <c r="I53" s="2">
-        <v>143.32651137924353</v>
+        <v>132.03295622095121</v>
       </c>
       <c r="J53" s="2">
-        <v>169.2999999999999</v>
+        <v>515.09434074171179</v>
       </c>
       <c r="K53" s="2">
-        <v>19625.999999999978</v>
+        <v>49395.306275683972</v>
       </c>
       <c r="L53" s="2">
-        <v>14867.205704713007</v>
+        <v>37819.7689054316</v>
       </c>
       <c r="M53" s="2">
-        <v>527779.81315317133</v>
+        <v>1725327.0647264121</v>
       </c>
       <c r="N53" s="2">
-        <v>11.999999999999972</v>
+        <v>25.90492510159179</v>
       </c>
       <c r="O53" s="2">
-        <v>2163.9493344461398</v>
+        <v>2915.7617682164901</v>
       </c>
       <c r="P53" s="2">
-        <v>15073222.510616535</v>
+        <v>25333054.934995431</v>
       </c>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.25">
@@ -3093,49 +3096,49 @@
         <v>79746</v>
       </c>
       <c r="B54" s="2">
-        <v>17348.29</v>
+        <v>16843</v>
       </c>
       <c r="C54" s="2">
-        <v>36013.090284106096</v>
+        <v>35339.908029999999</v>
       </c>
       <c r="D54" s="2">
-        <v>89235.335521758054</v>
+        <v>73491.599999999991</v>
       </c>
       <c r="E54" s="2">
-        <v>3173.6223798307956</v>
+        <v>2645.9999999999991</v>
       </c>
       <c r="F54" s="2">
-        <v>2866020.8550127735</v>
+        <v>2114276.5499864169</v>
       </c>
       <c r="G54" s="2">
-        <v>25.33720174082822</v>
+        <v>27.965422727272699</v>
       </c>
       <c r="H54" s="2">
-        <v>164.99999999999895</v>
+        <v>164.99999999999889</v>
       </c>
       <c r="I54" s="2">
-        <v>267.16061721090983</v>
+        <v>232.99999999999901</v>
       </c>
       <c r="J54" s="2">
-        <v>188.49999999999935</v>
+        <v>515.09434074171179</v>
       </c>
       <c r="K54" s="2">
-        <v>1592.9999999998829</v>
+        <v>49395.306275683972</v>
       </c>
       <c r="L54" s="2">
-        <v>33756.391905464778</v>
+        <v>37819.7689054316</v>
       </c>
       <c r="M54" s="2">
-        <v>385565.28476867708</v>
+        <v>1725327.0647264121</v>
       </c>
       <c r="N54" s="2">
-        <v>7.9999999999999671</v>
+        <v>25.90492510159179</v>
       </c>
       <c r="O54" s="2">
-        <v>5809.7107252637397</v>
+        <v>5536</v>
       </c>
       <c r="P54" s="2">
-        <v>42433907.62955901</v>
+        <v>37484508.028549999</v>
       </c>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.25">
@@ -3143,49 +3146,49 @@
         <v>57687</v>
       </c>
       <c r="B55" s="2">
-        <v>11630.76</v>
+        <v>11428.022546365821</v>
       </c>
       <c r="C55" s="2">
-        <v>24299.842428383665</v>
+        <v>29031.0083701363</v>
       </c>
       <c r="D55" s="2">
-        <v>40497.559605764291</v>
+        <v>38299.681634895933</v>
       </c>
       <c r="E55" s="2">
-        <v>1516.0463673870463</v>
+        <v>1288.588016602401</v>
       </c>
       <c r="F55" s="2">
-        <v>2451468.3725845898</v>
+        <v>2114276.5499864169</v>
       </c>
       <c r="G55" s="2">
-        <v>30.291345658445444</v>
+        <v>29.41</v>
       </c>
       <c r="H55" s="2">
-        <v>70.999999999999531</v>
+        <v>123.30669105307349</v>
       </c>
       <c r="I55" s="2">
-        <v>264.86739302884195</v>
+        <v>230.99999999999901</v>
       </c>
       <c r="J55" s="2">
-        <v>233.29999999999964</v>
+        <v>515.09434074171179</v>
       </c>
       <c r="K55" s="2">
-        <v>383.99999999993003</v>
+        <v>49395.306275683972</v>
       </c>
       <c r="L55" s="2">
-        <v>54613.648153300077</v>
+        <v>37867.999999999993</v>
       </c>
       <c r="M55" s="2">
-        <v>397106.55893314036</v>
+        <v>1725327.0647264121</v>
       </c>
       <c r="N55" s="2">
-        <v>0.99999999999999423</v>
+        <v>25.90492510159179</v>
       </c>
       <c r="O55" s="2">
-        <v>2546.9956521342292</v>
+        <v>2915.7617682164901</v>
       </c>
       <c r="P55" s="2">
-        <v>36383677.220934838</v>
+        <v>32139963.46512001</v>
       </c>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.25">
@@ -3193,49 +3196,49 @@
         <v>141368</v>
       </c>
       <c r="B56" s="2">
-        <v>34543.11</v>
+        <v>33537</v>
       </c>
       <c r="C56" s="2">
-        <v>27642.948561951056</v>
+        <v>29031.0083701363</v>
       </c>
       <c r="D56" s="2">
-        <v>70667.89302949344</v>
+        <v>58200</v>
       </c>
       <c r="E56" s="2">
-        <v>3450.6846510858627</v>
+        <v>2876.9999999999968</v>
       </c>
       <c r="F56" s="2">
-        <v>15056552.97599566</v>
+        <v>10541809.012150001</v>
       </c>
       <c r="G56" s="2">
-        <v>32.340981083821383</v>
+        <v>31.4</v>
       </c>
       <c r="H56" s="2">
-        <v>306.99999999999795</v>
+        <v>306.99999999999801</v>
       </c>
       <c r="I56" s="2">
-        <v>228.17580611575562</v>
+        <v>198.9999999999992</v>
       </c>
       <c r="J56" s="2">
-        <v>474.69999999999879</v>
+        <v>515.09434074171179</v>
       </c>
       <c r="K56" s="2">
         <v>595570.99999999977</v>
       </c>
       <c r="L56" s="2">
-        <v>86202.901620042059</v>
+        <v>59771.349999999991</v>
       </c>
       <c r="M56" s="2">
-        <v>2008583.4240983608</v>
+        <v>1725327.0647264121</v>
       </c>
       <c r="N56" s="2">
         <v>90.999999999999801</v>
       </c>
       <c r="O56" s="2">
-        <v>9834.3206659043535</v>
+        <v>9371</v>
       </c>
       <c r="P56" s="2">
-        <v>89911704.287623957</v>
+        <v>79424596.731749997</v>
       </c>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.25">
@@ -3243,49 +3246,49 @@
         <v>23671.999999999989</v>
       </c>
       <c r="B57" s="2">
-        <v>3158.3999999999987</v>
+        <v>5316.1026797151171</v>
       </c>
       <c r="C57" s="2">
-        <v>17851.005113971656</v>
+        <v>20804.770158470299</v>
       </c>
       <c r="D57" s="2">
-        <v>19208.304094964893</v>
+        <v>18102.33886557139</v>
       </c>
       <c r="E57" s="2">
-        <v>451.32048764165734</v>
+        <v>692.21862862467367</v>
       </c>
       <c r="F57" s="2">
-        <v>755007.55980432429</v>
+        <v>786293.0504705467</v>
       </c>
       <c r="G57" s="2">
         <v>28</v>
       </c>
       <c r="H57" s="2">
-        <v>69.903067955958988</v>
+        <v>90.463582676213051</v>
       </c>
       <c r="I57" s="2">
-        <v>70.789182904792597</v>
+        <v>70.480699544079414</v>
       </c>
       <c r="J57" s="2">
-        <v>419.02042306815559</v>
+        <v>497.85288158683818</v>
       </c>
       <c r="K57" s="2">
-        <v>42544.905231337492</v>
+        <v>61373.672326328422</v>
       </c>
       <c r="L57" s="2">
-        <v>12579.477799160772</v>
+        <v>29602.9087374105</v>
       </c>
       <c r="M57" s="2">
-        <v>4394157.9441938587</v>
+        <v>3234408.7671999992</v>
       </c>
       <c r="N57" s="2">
-        <v>17.99999999999995</v>
+        <v>28.514194264827129</v>
       </c>
       <c r="O57" s="2">
-        <v>801.10415672385136</v>
+        <v>1635.6427628317319</v>
       </c>
       <c r="P57" s="2">
-        <v>1155335.2855618461</v>
+        <v>3002048.203665785</v>
       </c>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.25">
@@ -3293,49 +3296,49 @@
         <v>116468</v>
       </c>
       <c r="B58" s="2">
-        <v>23787.680000000004</v>
+        <v>21239</v>
       </c>
       <c r="C58" s="2">
-        <v>24015.332144548502</v>
+        <v>23604.910929999998</v>
       </c>
       <c r="D58" s="2">
-        <v>75741.100743844116</v>
+        <v>64664.399999999987</v>
       </c>
       <c r="E58" s="2">
-        <v>2701.4197487945912</v>
+        <v>2077</v>
       </c>
       <c r="F58" s="2">
-        <v>6157047.3815629296</v>
+        <v>4676977.1911799992</v>
       </c>
       <c r="G58" s="2">
         <v>30.2</v>
       </c>
       <c r="H58" s="2">
-        <v>323.70497622682552</v>
+        <v>300.99999999999812</v>
       </c>
       <c r="I58" s="2">
-        <v>358.66519338428265</v>
+        <v>303.99999999999869</v>
       </c>
       <c r="J58" s="2">
-        <v>858.63583686488971</v>
+        <v>783.79999999999882</v>
       </c>
       <c r="K58" s="2">
-        <v>217415.84252314031</v>
+        <v>202571</v>
       </c>
       <c r="L58" s="2">
-        <v>117995.28296850856</v>
+        <v>87368.909999999974</v>
       </c>
       <c r="M58" s="2">
-        <v>11423806.789907886</v>
+        <v>8408723.8795999978</v>
       </c>
       <c r="N58" s="2">
         <v>34.999999999999901</v>
       </c>
       <c r="O58" s="2">
-        <v>4841.0347833164842</v>
+        <v>4502</v>
       </c>
       <c r="P58" s="2">
-        <v>27065491.890230715</v>
+        <v>19397519.885310002</v>
       </c>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.25">
@@ -3343,49 +3346,49 @@
         <v>64841.999999999993</v>
       </c>
       <c r="B59" s="2">
-        <v>16832.479999999996</v>
+        <v>15029</v>
       </c>
       <c r="C59" s="2">
-        <v>26319.181705669933</v>
+        <v>25869.387780000001</v>
       </c>
       <c r="D59" s="2">
-        <v>20187.858263132799</v>
+        <v>18102.33886557139</v>
       </c>
       <c r="E59" s="2">
-        <v>1461.9142020438699</v>
+        <v>1123.9999999999991</v>
       </c>
       <c r="F59" s="2">
-        <v>1140065.0140690142</v>
+        <v>866008.93850999954</v>
       </c>
       <c r="G59" s="2">
-        <v>23.8</v>
+        <v>26.112401315789398</v>
       </c>
       <c r="H59" s="2">
-        <v>134.42897683838268</v>
+        <v>124.9999999999992</v>
       </c>
       <c r="I59" s="2">
-        <v>230.064844440576</v>
+        <v>194.99999999999909</v>
       </c>
       <c r="J59" s="2">
-        <v>257.87557539933033</v>
+        <v>497.85288158683818</v>
       </c>
       <c r="K59" s="2">
-        <v>2327.949027416018</v>
+        <v>61373.672326328422</v>
       </c>
       <c r="L59" s="2">
-        <v>30304.86742077177</v>
+        <v>29602.9087374105</v>
       </c>
       <c r="M59" s="2">
-        <v>352889.09448255628</v>
+        <v>2185490.0203954638</v>
       </c>
       <c r="N59" s="2">
-        <v>11.999999999999948</v>
+        <v>28.514194264827129</v>
       </c>
       <c r="O59" s="2">
-        <v>3452.8126808594466</v>
+        <v>3211</v>
       </c>
       <c r="P59" s="2">
-        <v>13159071.296912728</v>
+        <v>9430951.7147999946</v>
       </c>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.25">
@@ -3393,49 +3396,49 @@
         <v>64100</v>
       </c>
       <c r="B60" s="2">
-        <v>10295.040000000001</v>
+        <v>9192</v>
       </c>
       <c r="C60" s="2">
-        <v>21573.720880582281</v>
+        <v>21205.026720000002</v>
       </c>
       <c r="D60" s="2">
-        <v>70270.683684162912</v>
+        <v>59994</v>
       </c>
       <c r="E60" s="2">
-        <v>1356.5627337471146</v>
+        <v>1042.9999999999991</v>
       </c>
       <c r="F60" s="2">
-        <v>1572642.0396001372</v>
+        <v>1194600.348719999</v>
       </c>
       <c r="G60" s="2">
-        <v>24.81</v>
+        <v>26.112401315789398</v>
       </c>
       <c r="H60" s="2">
-        <v>151.63588587369571</v>
+        <v>140.99999999999909</v>
       </c>
       <c r="I60" s="2">
-        <v>109.72323350242851</v>
+        <v>92.999999999999559</v>
       </c>
       <c r="J60" s="2">
-        <v>617.41153056526139</v>
+        <v>563.59999999999923</v>
       </c>
       <c r="K60" s="2">
-        <v>38526.536785673379</v>
+        <v>61373.672326328422</v>
       </c>
       <c r="L60" s="2">
-        <v>77864.650048687123</v>
+        <v>57654.419999999991</v>
       </c>
       <c r="M60" s="2">
-        <v>11237072.288961096</v>
+        <v>8271274.1760000018</v>
       </c>
       <c r="N60" s="2">
         <v>36.999999999999908</v>
       </c>
       <c r="O60" s="2">
-        <v>3322.7004621163783</v>
+        <v>3090</v>
       </c>
       <c r="P60" s="2">
-        <v>9808902.6612626221</v>
+        <v>7029925.2345599988</v>
       </c>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.25">
@@ -3443,1550 +3446,590 @@
         <v>105038</v>
       </c>
       <c r="B61" s="2">
-        <v>12815.04</v>
+        <v>11442</v>
       </c>
       <c r="C61" s="2">
-        <v>18535.079522489126</v>
+        <v>20804.770158470299</v>
       </c>
       <c r="D61" s="2">
-        <v>81313.186226097343</v>
+        <v>69421.599999999991</v>
       </c>
       <c r="E61" s="2">
-        <v>104.05083288568417</v>
+        <v>692.21862862467367</v>
       </c>
       <c r="F61" s="2">
-        <v>4462143.4689371828</v>
+        <v>3389505.0557000008</v>
       </c>
       <c r="G61" s="2">
-        <v>21.85</v>
+        <v>26.112401315789398</v>
       </c>
       <c r="H61" s="2">
-        <v>177.44624942666516</v>
+        <v>164.99999999999889</v>
       </c>
       <c r="I61" s="2">
-        <v>293.77510905488947</v>
+        <v>248.99999999999901</v>
       </c>
       <c r="J61" s="2">
-        <v>404.34101478289182</v>
+        <v>497.85288158683818</v>
       </c>
       <c r="K61" s="2">
-        <v>19594.912583464229</v>
+        <v>61373.672326328422</v>
       </c>
       <c r="L61" s="2">
-        <v>78047.756378671838</v>
+        <v>57789.999999999949</v>
       </c>
       <c r="M61" s="2">
-        <v>708166.29511669534</v>
+        <v>2185490.0203954638</v>
       </c>
       <c r="N61" s="2">
-        <v>5.9999999999999627</v>
+        <v>28.514194264827129</v>
       </c>
       <c r="O61" s="2">
-        <v>3659.2717386996883</v>
+        <v>3403</v>
       </c>
       <c r="P61" s="2">
-        <v>8288037.572059215</v>
+        <v>5939939.1027599983</v>
       </c>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A62" s="4">
-        <v>17275</v>
-      </c>
-      <c r="B62" s="5">
-        <v>2414</v>
-      </c>
-      <c r="C62" s="5">
-        <v>19887.443500000001</v>
-      </c>
-      <c r="D62" s="5">
-        <v>8104.9999999999982</v>
-      </c>
-      <c r="E62" s="5">
-        <v>473.99999999999983</v>
-      </c>
-      <c r="F62" s="5">
-        <v>729883.93608999986</v>
-      </c>
-      <c r="G62" s="5">
-        <v>39.4</v>
-      </c>
-      <c r="H62" s="5">
-        <v>44.999999999999716</v>
-      </c>
-      <c r="I62" s="5">
-        <v>7.99999999999996</v>
-      </c>
-      <c r="J62" s="5">
-        <v>296.89999999999964</v>
-      </c>
-      <c r="K62" s="5">
-        <v>32143.999999999978</v>
-      </c>
-      <c r="L62" s="5">
-        <v>60102.41</v>
-      </c>
-      <c r="M62" s="5">
-        <v>550648.19779999938</v>
-      </c>
-      <c r="N62" s="5">
-        <v>22.999999999999957</v>
-      </c>
-      <c r="O62" s="5">
-        <v>946</v>
-      </c>
-      <c r="P62" s="5">
-        <v>236233.5437799996</v>
-      </c>
+      <c r="A62" s="4"/>
+      <c r="B62" s="5"/>
+      <c r="C62" s="5"/>
+      <c r="D62" s="5"/>
+      <c r="E62" s="5"/>
+      <c r="F62" s="5"/>
+      <c r="G62" s="5"/>
+      <c r="H62" s="5"/>
+      <c r="I62" s="5"/>
+      <c r="J62" s="5"/>
+      <c r="K62" s="5"/>
+      <c r="L62" s="5"/>
+      <c r="M62" s="5"/>
+      <c r="N62" s="5"/>
+      <c r="O62" s="5"/>
+      <c r="P62" s="5"/>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A63" s="3">
-        <v>65842</v>
-      </c>
-      <c r="B63" s="2">
-        <v>10892</v>
-      </c>
-      <c r="C63" s="2">
-        <v>21988.19528</v>
-      </c>
-      <c r="D63" s="2">
-        <v>37427.899999999994</v>
-      </c>
-      <c r="E63" s="2">
-        <v>807.99999999999966</v>
-      </c>
-      <c r="F63" s="2">
-        <v>2824760.7281099996</v>
-      </c>
-      <c r="G63" s="2">
-        <v>25</v>
-      </c>
-      <c r="H63" s="2">
-        <v>78.999999999999503</v>
-      </c>
-      <c r="I63" s="2">
-        <v>242.99999999999901</v>
-      </c>
-      <c r="J63" s="2">
-        <v>632.49999999999932</v>
-      </c>
-      <c r="K63" s="2">
-        <v>959880.00000000023</v>
-      </c>
-      <c r="L63" s="2">
-        <v>322825.61999999994</v>
-      </c>
-      <c r="M63" s="2">
-        <v>12665201.631199995</v>
-      </c>
-      <c r="N63" s="2">
-        <v>25.999999999999947</v>
-      </c>
-      <c r="O63" s="2">
-        <v>3185</v>
-      </c>
-      <c r="P63" s="2">
-        <v>12405299.012639996</v>
-      </c>
+      <c r="A63" s="3"/>
+      <c r="B63" s="2"/>
+      <c r="C63" s="2"/>
+      <c r="D63" s="2"/>
+      <c r="E63" s="2"/>
+      <c r="F63" s="2"/>
+      <c r="G63" s="2"/>
+      <c r="H63" s="2"/>
+      <c r="I63" s="2"/>
+      <c r="J63" s="2"/>
+      <c r="K63" s="2"/>
+      <c r="L63" s="2"/>
+      <c r="M63" s="2"/>
+      <c r="N63" s="2"/>
+      <c r="O63" s="2"/>
+      <c r="P63" s="2"/>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A64" s="3">
-        <v>110482</v>
-      </c>
-      <c r="B64" s="2">
-        <v>18706.999999999996</v>
-      </c>
-      <c r="C64" s="2">
-        <v>21442.174780000001</v>
-      </c>
-      <c r="D64" s="2">
-        <v>71187.999999999971</v>
-      </c>
-      <c r="E64" s="2">
-        <v>3068.9999999999986</v>
-      </c>
-      <c r="F64" s="2">
-        <v>1434081.5877000005</v>
-      </c>
-      <c r="G64" s="2">
-        <v>24.9</v>
-      </c>
-      <c r="H64" s="2">
-        <v>208.99999999999864</v>
-      </c>
-      <c r="I64" s="2">
-        <v>249.99999999999895</v>
-      </c>
-      <c r="J64" s="2">
-        <v>760.29999999999905</v>
-      </c>
-      <c r="K64" s="2">
-        <v>82717.999999999985</v>
-      </c>
-      <c r="L64" s="2">
-        <v>330035.92</v>
-      </c>
-      <c r="M64" s="2">
-        <v>11480639.036999995</v>
-      </c>
-      <c r="N64" s="2">
-        <v>29.999999999999915</v>
-      </c>
-      <c r="O64" s="2">
-        <v>4768.9999999999991</v>
-      </c>
-      <c r="P64" s="2">
-        <v>15406913.946689995</v>
-      </c>
+      <c r="A64" s="3"/>
+      <c r="B64" s="2"/>
+      <c r="C64" s="2"/>
+      <c r="D64" s="2"/>
+      <c r="E64" s="2"/>
+      <c r="F64" s="2"/>
+      <c r="G64" s="2"/>
+      <c r="H64" s="2"/>
+      <c r="I64" s="2"/>
+      <c r="J64" s="2"/>
+      <c r="K64" s="2"/>
+      <c r="L64" s="2"/>
+      <c r="M64" s="2"/>
+      <c r="N64" s="2"/>
+      <c r="O64" s="2"/>
+      <c r="P64" s="2"/>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A65" s="3">
-        <v>18562</v>
-      </c>
-      <c r="B65" s="2">
-        <v>3694.0000000000009</v>
-      </c>
-      <c r="C65" s="2">
-        <v>21712.38264</v>
-      </c>
-      <c r="D65" s="2">
-        <v>8165.7999999999993</v>
-      </c>
-      <c r="E65" s="2">
-        <v>567.99999999999966</v>
-      </c>
-      <c r="F65" s="2">
-        <v>479171.98727999994</v>
-      </c>
-      <c r="G65" s="2">
-        <v>38.200000000000003</v>
-      </c>
-      <c r="H65" s="2">
-        <v>94.999999999999403</v>
-      </c>
-      <c r="I65" s="2">
-        <v>41.999999999999844</v>
-      </c>
-      <c r="J65" s="2">
-        <v>556.39999999999964</v>
-      </c>
-      <c r="K65" s="2">
-        <v>14808.999999999978</v>
-      </c>
-      <c r="L65" s="2">
-        <v>36416.79</v>
-      </c>
-      <c r="M65" s="2">
-        <v>4968189.5378400004</v>
-      </c>
-      <c r="N65" s="2">
-        <v>23.99999999999994</v>
-      </c>
-      <c r="O65" s="2">
-        <v>958.99999999999977</v>
-      </c>
-      <c r="P65" s="2">
-        <v>1727129.7467999991</v>
-      </c>
+      <c r="A65" s="3"/>
+      <c r="B65" s="2"/>
+      <c r="C65" s="2"/>
+      <c r="D65" s="2"/>
+      <c r="E65" s="2"/>
+      <c r="F65" s="2"/>
+      <c r="G65" s="2"/>
+      <c r="H65" s="2"/>
+      <c r="I65" s="2"/>
+      <c r="J65" s="2"/>
+      <c r="K65" s="2"/>
+      <c r="L65" s="2"/>
+      <c r="M65" s="2"/>
+      <c r="N65" s="2"/>
+      <c r="O65" s="2"/>
+      <c r="P65" s="2"/>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A66" s="3">
-        <v>28673</v>
-      </c>
-      <c r="B66" s="2">
-        <v>4213</v>
-      </c>
-      <c r="C66" s="2">
-        <v>18718.034879999999</v>
-      </c>
-      <c r="D66" s="2">
-        <v>15706.399999999994</v>
-      </c>
-      <c r="E66" s="2">
-        <v>1185.9999999999993</v>
-      </c>
-      <c r="F66" s="2">
-        <v>912846.19063000008</v>
-      </c>
-      <c r="G66" s="2">
-        <v>36.5</v>
-      </c>
-      <c r="H66" s="2">
-        <v>107.99999999999929</v>
-      </c>
-      <c r="I66" s="2">
-        <v>91.999999999999645</v>
-      </c>
-      <c r="J66" s="2">
-        <v>873.59999999999934</v>
-      </c>
-      <c r="K66" s="2">
-        <v>127582.99999999996</v>
-      </c>
-      <c r="L66" s="2">
-        <v>56902.999999999993</v>
-      </c>
-      <c r="M66" s="2">
-        <v>5517088.4192999983</v>
-      </c>
-      <c r="N66" s="2">
-        <v>38.999999999999915</v>
-      </c>
-      <c r="O66" s="2">
-        <v>1113.0000000000002</v>
-      </c>
-      <c r="P66" s="2">
-        <v>6142682.3205399979</v>
-      </c>
+      <c r="A66" s="3"/>
+      <c r="B66" s="2"/>
+      <c r="C66" s="2"/>
+      <c r="D66" s="2"/>
+      <c r="E66" s="2"/>
+      <c r="F66" s="2"/>
+      <c r="G66" s="2"/>
+      <c r="H66" s="2"/>
+      <c r="I66" s="2"/>
+      <c r="J66" s="2"/>
+      <c r="K66" s="2"/>
+      <c r="L66" s="2"/>
+      <c r="M66" s="2"/>
+      <c r="N66" s="2"/>
+      <c r="O66" s="2"/>
+      <c r="P66" s="2"/>
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A67" s="3">
-        <v>28434</v>
-      </c>
-      <c r="B67" s="2">
-        <v>5725</v>
-      </c>
-      <c r="C67" s="2">
-        <v>20773.66617</v>
-      </c>
-      <c r="D67" s="2">
-        <v>26868.199999999993</v>
-      </c>
-      <c r="E67" s="2">
-        <v>1111.9999999999993</v>
-      </c>
-      <c r="F67" s="2">
-        <v>1674021.9106300003</v>
-      </c>
-      <c r="G67" s="2">
-        <v>22.6</v>
-      </c>
-      <c r="H67" s="2">
-        <v>72.999999999999545</v>
-      </c>
-      <c r="I67" s="2">
-        <v>113.99999999999952</v>
-      </c>
-      <c r="J67" s="2">
-        <v>350.99999999999966</v>
-      </c>
-      <c r="K67" s="2">
-        <v>10711.999999999955</v>
-      </c>
-      <c r="L67" s="2">
-        <v>7011.1399999999894</v>
-      </c>
-      <c r="M67" s="2">
-        <v>49916.868199999284</v>
-      </c>
-      <c r="N67" s="2">
-        <v>1.9999999999999927</v>
-      </c>
-      <c r="O67" s="2">
-        <v>1617.9999999999998</v>
-      </c>
-      <c r="P67" s="2">
-        <v>5355232.274249997</v>
-      </c>
+      <c r="A67" s="3"/>
+      <c r="B67" s="2"/>
+      <c r="C67" s="2"/>
+      <c r="D67" s="2"/>
+      <c r="E67" s="2"/>
+      <c r="F67" s="2"/>
+      <c r="G67" s="2"/>
+      <c r="H67" s="2"/>
+      <c r="I67" s="2"/>
+      <c r="J67" s="2"/>
+      <c r="K67" s="2"/>
+      <c r="L67" s="2"/>
+      <c r="M67" s="2"/>
+      <c r="N67" s="2"/>
+      <c r="O67" s="2"/>
+      <c r="P67" s="2"/>
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A68" s="3">
-        <v>139565</v>
-      </c>
-      <c r="B68" s="2">
-        <v>24379.999999999993</v>
-      </c>
-      <c r="C68" s="2">
-        <v>19874.44096</v>
-      </c>
-      <c r="D68" s="2">
-        <v>207240.69999999998</v>
-      </c>
-      <c r="E68" s="2">
-        <v>1859.9999999999984</v>
-      </c>
-      <c r="F68" s="2">
-        <v>5926777.3109299988</v>
-      </c>
-      <c r="G68" s="2">
-        <v>21.6</v>
-      </c>
-      <c r="H68" s="2">
-        <v>311.9999999999979</v>
-      </c>
-      <c r="I68" s="2">
-        <v>386.99999999999841</v>
-      </c>
-      <c r="J68" s="2">
-        <v>962.79999999999893</v>
-      </c>
-      <c r="K68" s="2">
-        <v>8125.9999999999918</v>
-      </c>
-      <c r="L68" s="2">
-        <v>44861.889999999948</v>
-      </c>
-      <c r="M68" s="2">
-        <v>199155.57099999874</v>
-      </c>
-      <c r="N68" s="2">
-        <v>33.999999999999922</v>
-      </c>
-      <c r="O68" s="2">
-        <v>6249</v>
-      </c>
-      <c r="P68" s="2">
-        <v>15178335.903369986</v>
-      </c>
+      <c r="A68" s="3"/>
+      <c r="B68" s="2"/>
+      <c r="C68" s="2"/>
+      <c r="D68" s="2"/>
+      <c r="E68" s="2"/>
+      <c r="F68" s="2"/>
+      <c r="G68" s="2"/>
+      <c r="H68" s="2"/>
+      <c r="I68" s="2"/>
+      <c r="J68" s="2"/>
+      <c r="K68" s="2"/>
+      <c r="L68" s="2"/>
+      <c r="M68" s="2"/>
+      <c r="N68" s="2"/>
+      <c r="O68" s="2"/>
+      <c r="P68" s="2"/>
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A69" s="3">
-        <v>19887.999999999989</v>
-      </c>
-      <c r="B69" s="2">
-        <v>4481.9999999999982</v>
-      </c>
-      <c r="C69" s="2">
-        <v>37917.462079999998</v>
-      </c>
-      <c r="D69" s="2">
-        <v>14558.999999999989</v>
-      </c>
-      <c r="E69" s="2">
-        <v>609.99999999999943</v>
-      </c>
-      <c r="F69" s="2">
-        <v>1282627.8831299993</v>
-      </c>
-      <c r="G69" s="2">
-        <v>29.1</v>
-      </c>
-      <c r="H69" s="2">
-        <v>67.999999999999545</v>
-      </c>
-      <c r="I69" s="2">
-        <v>114.99999999999949</v>
-      </c>
-      <c r="J69" s="2">
-        <v>358.69999999999959</v>
-      </c>
-      <c r="K69" s="2">
-        <v>4886.9999999999818</v>
-      </c>
-      <c r="L69" s="2">
-        <v>8000.4999999999918</v>
-      </c>
-      <c r="M69" s="2">
-        <v>794969.88139999914</v>
-      </c>
-      <c r="N69" s="2">
-        <v>14.999999999999956</v>
-      </c>
-      <c r="O69" s="2">
-        <v>1094.9999999999995</v>
-      </c>
-      <c r="P69" s="2">
-        <v>5006117.3553799978</v>
-      </c>
+      <c r="A69" s="3"/>
+      <c r="B69" s="2"/>
+      <c r="C69" s="2"/>
+      <c r="D69" s="2"/>
+      <c r="E69" s="2"/>
+      <c r="F69" s="2"/>
+      <c r="G69" s="2"/>
+      <c r="H69" s="2"/>
+      <c r="I69" s="2"/>
+      <c r="J69" s="2"/>
+      <c r="K69" s="2"/>
+      <c r="L69" s="2"/>
+      <c r="M69" s="2"/>
+      <c r="N69" s="2"/>
+      <c r="O69" s="2"/>
+      <c r="P69" s="2"/>
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A70" s="3">
-        <v>65776</v>
-      </c>
-      <c r="B70" s="2">
-        <v>14881</v>
-      </c>
-      <c r="C70" s="2">
-        <v>35840.741759999997</v>
-      </c>
-      <c r="D70" s="2">
-        <v>52247.999999999993</v>
-      </c>
-      <c r="E70" s="2">
-        <v>2190.9999999999991</v>
-      </c>
-      <c r="F70" s="2">
-        <v>2740590.23832</v>
-      </c>
-      <c r="G70" s="2">
-        <v>22.8</v>
-      </c>
-      <c r="H70" s="2">
-        <v>240.99999999999852</v>
-      </c>
-      <c r="I70" s="2">
-        <v>194.99999999999918</v>
-      </c>
-      <c r="J70" s="2">
-        <v>225.39999999999938</v>
-      </c>
-      <c r="K70" s="2">
-        <v>2243.9999999999036</v>
-      </c>
-      <c r="L70" s="2">
-        <v>11420.029999999982</v>
-      </c>
-      <c r="M70" s="2">
-        <v>169468.43350463765</v>
-      </c>
-      <c r="N70" s="2">
-        <v>5.9999999999999716</v>
-      </c>
-      <c r="O70" s="2">
-        <v>3302</v>
-      </c>
-      <c r="P70" s="2">
-        <v>8353078.9401600007</v>
-      </c>
+      <c r="A70" s="3"/>
+      <c r="B70" s="2"/>
+      <c r="C70" s="2"/>
+      <c r="D70" s="2"/>
+      <c r="E70" s="2"/>
+      <c r="F70" s="2"/>
+      <c r="G70" s="2"/>
+      <c r="H70" s="2"/>
+      <c r="I70" s="2"/>
+      <c r="J70" s="2"/>
+      <c r="K70" s="2"/>
+      <c r="L70" s="2"/>
+      <c r="M70" s="2"/>
+      <c r="N70" s="2"/>
+      <c r="O70" s="2"/>
+      <c r="P70" s="2"/>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A71" s="3">
-        <v>108665</v>
-      </c>
-      <c r="B71" s="2">
-        <v>17434.000000000004</v>
-      </c>
-      <c r="C71" s="2">
-        <v>19751.678240000001</v>
-      </c>
-      <c r="D71" s="2">
-        <v>72518.999999999985</v>
-      </c>
-      <c r="E71" s="2">
-        <v>1824.9999999999995</v>
-      </c>
-      <c r="F71" s="2">
-        <v>6519507.7608800009</v>
-      </c>
-      <c r="G71" s="2">
-        <v>26.6</v>
-      </c>
-      <c r="H71" s="2">
-        <v>270.99999999999818</v>
-      </c>
-      <c r="I71" s="2">
-        <v>292.99999999999886</v>
-      </c>
-      <c r="J71" s="2">
-        <v>225.39999999999932</v>
-      </c>
-      <c r="K71" s="2">
-        <v>2036.9999999998449</v>
-      </c>
-      <c r="L71" s="2">
-        <v>25366.999999999985</v>
-      </c>
-      <c r="M71" s="2">
-        <v>245884.47409999909</v>
-      </c>
-      <c r="N71" s="2">
-        <v>33.999999999999908</v>
-      </c>
-      <c r="O71" s="2">
-        <v>5712.9999999999991</v>
-      </c>
-      <c r="P71" s="2">
-        <v>12403303.24303</v>
-      </c>
+      <c r="A71" s="3"/>
+      <c r="B71" s="2"/>
+      <c r="C71" s="2"/>
+      <c r="D71" s="2"/>
+      <c r="E71" s="2"/>
+      <c r="F71" s="2"/>
+      <c r="G71" s="2"/>
+      <c r="H71" s="2"/>
+      <c r="I71" s="2"/>
+      <c r="J71" s="2"/>
+      <c r="K71" s="2"/>
+      <c r="L71" s="2"/>
+      <c r="M71" s="2"/>
+      <c r="N71" s="2"/>
+      <c r="O71" s="2"/>
+      <c r="P71" s="2"/>
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A72" s="3">
-        <v>9622.9999999999964</v>
-      </c>
-      <c r="B72" s="2">
-        <v>1207.9999999999993</v>
-      </c>
-      <c r="C72" s="2">
-        <v>16635.344249999991</v>
-      </c>
-      <c r="D72" s="2">
-        <v>3746.5999999999967</v>
-      </c>
-      <c r="E72" s="2">
-        <v>44.99999999999995</v>
-      </c>
-      <c r="F72" s="2">
-        <v>79286.091859999928</v>
-      </c>
-      <c r="G72" s="2">
-        <v>30.1</v>
-      </c>
-      <c r="H72" s="2">
-        <v>32.999999999999773</v>
-      </c>
-      <c r="I72" s="2">
-        <v>9.9999999999999485</v>
-      </c>
-      <c r="J72" s="2">
-        <v>212.39999999999975</v>
-      </c>
-      <c r="K72" s="2">
-        <v>22989.999999999982</v>
-      </c>
-      <c r="L72" s="2">
-        <v>7487.889999999994</v>
-      </c>
-      <c r="M72" s="2">
-        <v>613356.16829999944</v>
-      </c>
-      <c r="N72" s="2">
-        <v>14.999999999999956</v>
-      </c>
-      <c r="O72" s="2">
-        <v>672.99999999999989</v>
-      </c>
-      <c r="P72" s="2">
-        <v>232900.09079999954</v>
-      </c>
+      <c r="A72" s="3"/>
+      <c r="B72" s="2"/>
+      <c r="C72" s="2"/>
+      <c r="D72" s="2"/>
+      <c r="E72" s="2"/>
+      <c r="F72" s="2"/>
+      <c r="G72" s="2"/>
+      <c r="H72" s="2"/>
+      <c r="I72" s="2"/>
+      <c r="J72" s="2"/>
+      <c r="K72" s="2"/>
+      <c r="L72" s="2"/>
+      <c r="M72" s="2"/>
+      <c r="N72" s="2"/>
+      <c r="O72" s="2"/>
+      <c r="P72" s="2"/>
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A73" s="3">
-        <v>16685</v>
-      </c>
-      <c r="B73" s="2">
-        <v>2386</v>
-      </c>
-      <c r="C73" s="2">
-        <v>16273.3732</v>
-      </c>
-      <c r="D73" s="2">
-        <v>10592.199999999999</v>
-      </c>
-      <c r="E73" s="2">
-        <v>377.99999999999972</v>
-      </c>
-      <c r="F73" s="2">
-        <v>398404.10683999996</v>
-      </c>
-      <c r="G73" s="2">
-        <v>26.4</v>
-      </c>
-      <c r="H73" s="2">
-        <v>27.999999999999833</v>
-      </c>
-      <c r="I73" s="2">
-        <v>22.999999999999915</v>
-      </c>
-      <c r="J73" s="2">
-        <v>800.99999999999955</v>
-      </c>
-      <c r="K73" s="2">
-        <v>112136.99999999997</v>
-      </c>
-      <c r="L73" s="2">
-        <v>9244.5999999999931</v>
-      </c>
-      <c r="M73" s="2">
-        <v>1610842.1835999999</v>
-      </c>
-      <c r="N73" s="2">
-        <v>21.999999999999957</v>
-      </c>
-      <c r="O73" s="2">
-        <v>624.00000000000011</v>
-      </c>
-      <c r="P73" s="2">
-        <v>1492496.0792400001</v>
-      </c>
+      <c r="A73" s="3"/>
+      <c r="B73" s="2"/>
+      <c r="C73" s="2"/>
+      <c r="D73" s="2"/>
+      <c r="E73" s="2"/>
+      <c r="F73" s="2"/>
+      <c r="G73" s="2"/>
+      <c r="H73" s="2"/>
+      <c r="I73" s="2"/>
+      <c r="J73" s="2"/>
+      <c r="K73" s="2"/>
+      <c r="L73" s="2"/>
+      <c r="M73" s="2"/>
+      <c r="N73" s="2"/>
+      <c r="O73" s="2"/>
+      <c r="P73" s="2"/>
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A74" s="3">
-        <v>40956</v>
-      </c>
-      <c r="B74" s="2">
-        <v>6906.9999999999973</v>
-      </c>
-      <c r="C74" s="2">
-        <v>16179.493109999999</v>
-      </c>
-      <c r="D74" s="2">
-        <v>45679.399999999994</v>
-      </c>
-      <c r="E74" s="2">
-        <v>943.99999999999955</v>
-      </c>
-      <c r="F74" s="2">
-        <v>1135992.2059199996</v>
-      </c>
-      <c r="G74" s="2">
-        <v>22.9</v>
-      </c>
-      <c r="H74" s="2">
-        <v>86.999999999999389</v>
-      </c>
-      <c r="I74" s="2">
-        <v>196.9999999999992</v>
-      </c>
-      <c r="J74" s="2">
-        <v>2450.9999999999986</v>
-      </c>
-      <c r="K74" s="2">
-        <v>49269.999999999935</v>
-      </c>
-      <c r="L74" s="2">
-        <v>10475.609999999997</v>
-      </c>
-      <c r="M74" s="2">
-        <v>832899.14939999871</v>
-      </c>
-      <c r="N74" s="2">
-        <v>26.99999999999994</v>
-      </c>
-      <c r="O74" s="2">
-        <v>1959.9999999999998</v>
-      </c>
-      <c r="P74" s="2">
-        <v>1961160.027659998</v>
-      </c>
+      <c r="A74" s="3"/>
+      <c r="B74" s="2"/>
+      <c r="C74" s="2"/>
+      <c r="D74" s="2"/>
+      <c r="E74" s="2"/>
+      <c r="F74" s="2"/>
+      <c r="G74" s="2"/>
+      <c r="H74" s="2"/>
+      <c r="I74" s="2"/>
+      <c r="J74" s="2"/>
+      <c r="K74" s="2"/>
+      <c r="L74" s="2"/>
+      <c r="M74" s="2"/>
+      <c r="N74" s="2"/>
+      <c r="O74" s="2"/>
+      <c r="P74" s="2"/>
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A75" s="3">
-        <v>24184.999999999989</v>
-      </c>
-      <c r="B75" s="2">
-        <v>4568.9999999999982</v>
-      </c>
-      <c r="C75" s="2">
-        <v>21418.87329</v>
-      </c>
-      <c r="D75" s="2">
-        <v>4933.5999999999949</v>
-      </c>
-      <c r="E75" s="2">
-        <v>130.99999999999977</v>
-      </c>
-      <c r="F75" s="2">
-        <v>143687.26248999985</v>
-      </c>
-      <c r="G75" s="2">
-        <v>22.3</v>
-      </c>
-      <c r="H75" s="2">
-        <v>103.9999999999993</v>
-      </c>
-      <c r="I75" s="2">
-        <v>2.9999999999999765</v>
-      </c>
-      <c r="J75" s="2">
-        <v>316.99999999999955</v>
-      </c>
-      <c r="K75" s="2">
-        <v>106497.99999999996</v>
-      </c>
-      <c r="L75" s="2">
-        <v>19137.909999999989</v>
-      </c>
-      <c r="M75" s="2">
-        <v>3427876.6054999977</v>
-      </c>
-      <c r="N75" s="2">
-        <v>50.999999999999886</v>
-      </c>
-      <c r="O75" s="2">
-        <v>1217.9999999999995</v>
-      </c>
-      <c r="P75" s="2">
-        <v>3524494.8488999987</v>
-      </c>
+      <c r="A75" s="3"/>
+      <c r="B75" s="2"/>
+      <c r="C75" s="2"/>
+      <c r="D75" s="2"/>
+      <c r="E75" s="2"/>
+      <c r="F75" s="2"/>
+      <c r="G75" s="2"/>
+      <c r="H75" s="2"/>
+      <c r="I75" s="2"/>
+      <c r="J75" s="2"/>
+      <c r="K75" s="2"/>
+      <c r="L75" s="2"/>
+      <c r="M75" s="2"/>
+      <c r="N75" s="2"/>
+      <c r="O75" s="2"/>
+      <c r="P75" s="2"/>
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A76" s="3">
-        <v>12565.999999999991</v>
-      </c>
-      <c r="B76" s="2">
-        <v>2093.9999999999991</v>
-      </c>
-      <c r="C76" s="2">
-        <v>16955.84604</v>
-      </c>
-      <c r="D76" s="2">
-        <v>7192.4999999999927</v>
-      </c>
-      <c r="E76" s="2">
-        <v>449.99999999999943</v>
-      </c>
-      <c r="F76" s="2">
-        <v>298227.95619999972</v>
-      </c>
-      <c r="G76" s="2">
-        <v>30.03</v>
-      </c>
-      <c r="H76" s="2">
-        <v>59.999999999999581</v>
-      </c>
-      <c r="I76" s="2">
-        <v>14.999999999999922</v>
-      </c>
-      <c r="J76" s="2">
-        <v>647.79999999999916</v>
-      </c>
-      <c r="K76" s="2">
-        <v>25719.999999999982</v>
-      </c>
-      <c r="L76" s="2">
-        <v>20804.14999999998</v>
-      </c>
-      <c r="M76" s="2">
-        <v>1533618.0888999989</v>
-      </c>
-      <c r="N76" s="2">
-        <v>21.999999999999932</v>
-      </c>
-      <c r="O76" s="2">
-        <v>676.99999999999955</v>
-      </c>
-      <c r="P76" s="2">
-        <v>1868542.2159599983</v>
-      </c>
+      <c r="A76" s="3"/>
+      <c r="B76" s="2"/>
+      <c r="C76" s="2"/>
+      <c r="D76" s="2"/>
+      <c r="E76" s="2"/>
+      <c r="F76" s="2"/>
+      <c r="G76" s="2"/>
+      <c r="H76" s="2"/>
+      <c r="I76" s="2"/>
+      <c r="J76" s="2"/>
+      <c r="K76" s="2"/>
+      <c r="L76" s="2"/>
+      <c r="M76" s="2"/>
+      <c r="N76" s="2"/>
+      <c r="O76" s="2"/>
+      <c r="P76" s="2"/>
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A77" s="3">
-        <v>4183.9999999999918</v>
-      </c>
-      <c r="B77" s="2">
-        <v>788.99999999999841</v>
-      </c>
-      <c r="C77" s="2">
-        <v>19068.8688</v>
-      </c>
-      <c r="D77" s="2">
-        <v>1820.9999999999964</v>
-      </c>
-      <c r="E77" s="2">
-        <v>79.999999999999787</v>
-      </c>
-      <c r="F77" s="2">
-        <v>57968.611199999868</v>
-      </c>
-      <c r="G77" s="2">
-        <v>35.799999999999997</v>
-      </c>
-      <c r="H77" s="2">
-        <v>12.999999999999892</v>
-      </c>
-      <c r="I77" s="2">
-        <v>1.9999999999999847</v>
-      </c>
-      <c r="J77" s="2">
-        <v>81.399999999999764</v>
-      </c>
-      <c r="K77" s="2">
-        <v>32010.999999999935</v>
-      </c>
-      <c r="L77" s="2">
-        <v>1244.4599999999969</v>
-      </c>
-      <c r="M77" s="2">
-        <v>838591.639199998</v>
-      </c>
-      <c r="N77" s="2">
-        <v>9.9999999999999591</v>
-      </c>
-      <c r="O77" s="2">
-        <v>251.99999999999952</v>
-      </c>
-      <c r="P77" s="2">
-        <v>750105.80711999815</v>
-      </c>
+      <c r="A77" s="3"/>
+      <c r="B77" s="2"/>
+      <c r="C77" s="2"/>
+      <c r="D77" s="2"/>
+      <c r="E77" s="2"/>
+      <c r="F77" s="2"/>
+      <c r="G77" s="2"/>
+      <c r="H77" s="2"/>
+      <c r="I77" s="2"/>
+      <c r="J77" s="2"/>
+      <c r="K77" s="2"/>
+      <c r="L77" s="2"/>
+      <c r="M77" s="2"/>
+      <c r="N77" s="2"/>
+      <c r="O77" s="2"/>
+      <c r="P77" s="2"/>
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A78" s="3">
-        <v>95828.000000000015</v>
-      </c>
-      <c r="B78" s="2">
-        <v>13438.999999999998</v>
-      </c>
-      <c r="C78" s="2">
-        <v>21170.54232</v>
-      </c>
-      <c r="D78" s="2">
-        <v>70891.10000000002</v>
-      </c>
-      <c r="E78" s="2">
-        <v>2106.9999999999986</v>
-      </c>
-      <c r="F78" s="2">
-        <v>2932758.8092799997</v>
-      </c>
-      <c r="G78" s="2">
-        <v>27.2</v>
-      </c>
-      <c r="H78" s="2">
-        <v>193.99999999999883</v>
-      </c>
-      <c r="I78" s="2">
-        <v>221.99999999999912</v>
-      </c>
-      <c r="J78" s="2">
-        <v>793.09999999999945</v>
-      </c>
-      <c r="K78" s="2">
-        <v>1149829.0000000002</v>
-      </c>
-      <c r="L78" s="2">
-        <v>72866.099999999977</v>
-      </c>
-      <c r="M78" s="2">
-        <v>9782808.4583999943</v>
-      </c>
-      <c r="N78" s="2">
-        <v>26.999999999999911</v>
-      </c>
-      <c r="O78" s="2">
-        <v>3887.9999999999995</v>
-      </c>
-      <c r="P78" s="2">
-        <v>9535558.9931999948</v>
-      </c>
+      <c r="A78" s="3"/>
+      <c r="B78" s="2"/>
+      <c r="C78" s="2"/>
+      <c r="D78" s="2"/>
+      <c r="E78" s="2"/>
+      <c r="F78" s="2"/>
+      <c r="G78" s="2"/>
+      <c r="H78" s="2"/>
+      <c r="I78" s="2"/>
+      <c r="J78" s="2"/>
+      <c r="K78" s="2"/>
+      <c r="L78" s="2"/>
+      <c r="M78" s="2"/>
+      <c r="N78" s="2"/>
+      <c r="O78" s="2"/>
+      <c r="P78" s="2"/>
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A79" s="3">
-        <v>17569.999999999989</v>
-      </c>
-      <c r="B79" s="2">
-        <v>1887.9999999999989</v>
-      </c>
-      <c r="C79" s="2">
-        <v>18376.923200000001</v>
-      </c>
-      <c r="D79" s="2">
-        <v>8486.1999999999953</v>
-      </c>
-      <c r="E79" s="2">
-        <v>234.99999999999972</v>
-      </c>
-      <c r="F79" s="2">
-        <v>341592.53969999967</v>
-      </c>
-      <c r="G79" s="2">
-        <v>26.3</v>
-      </c>
-      <c r="H79" s="2">
-        <v>155.99999999999895</v>
-      </c>
-      <c r="I79" s="2">
-        <v>56.999999999999723</v>
-      </c>
-      <c r="J79" s="2">
-        <v>389.39999999999952</v>
-      </c>
-      <c r="K79" s="2">
-        <v>182951.9999999998</v>
-      </c>
-      <c r="L79" s="2">
-        <v>19100.999999999978</v>
-      </c>
-      <c r="M79" s="2">
-        <v>2366184.0724999984</v>
-      </c>
-      <c r="N79" s="2">
-        <v>24.999999999999932</v>
-      </c>
-      <c r="O79" s="2">
-        <v>790.99999999999943</v>
-      </c>
-      <c r="P79" s="2">
-        <v>322435.87408999965</v>
-      </c>
+      <c r="A79" s="3"/>
+      <c r="B79" s="2"/>
+      <c r="C79" s="2"/>
+      <c r="D79" s="2"/>
+      <c r="E79" s="2"/>
+      <c r="F79" s="2"/>
+      <c r="G79" s="2"/>
+      <c r="H79" s="2"/>
+      <c r="I79" s="2"/>
+      <c r="J79" s="2"/>
+      <c r="K79" s="2"/>
+      <c r="L79" s="2"/>
+      <c r="M79" s="2"/>
+      <c r="N79" s="2"/>
+      <c r="O79" s="2"/>
+      <c r="P79" s="2"/>
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A80" s="3">
-        <v>120926</v>
-      </c>
-      <c r="B80" s="2">
-        <v>20037.999999999996</v>
-      </c>
-      <c r="C80" s="2">
-        <v>25152.816680000011</v>
-      </c>
-      <c r="D80" s="2">
-        <v>72911.599999999991</v>
-      </c>
-      <c r="E80" s="2">
-        <v>2549.9999999999977</v>
-      </c>
-      <c r="F80" s="2">
-        <v>4713511.9352799999</v>
-      </c>
-      <c r="G80" s="2">
-        <v>29.9</v>
-      </c>
-      <c r="H80" s="2">
-        <v>195.99999999999872</v>
-      </c>
-      <c r="I80" s="2">
-        <v>248.99999999999895</v>
-      </c>
-      <c r="J80" s="2">
-        <v>1123.1999999999985</v>
-      </c>
-      <c r="K80" s="2">
-        <v>1264806.9999999993</v>
-      </c>
-      <c r="L80" s="2">
-        <v>104307.92999999998</v>
-      </c>
-      <c r="M80" s="2">
-        <v>2214641.3434399972</v>
-      </c>
-      <c r="N80" s="2">
-        <v>34.999999999999915</v>
-      </c>
-      <c r="O80" s="2">
-        <v>6308.9999999999991</v>
-      </c>
-      <c r="P80" s="2">
-        <v>26988496.705479994</v>
-      </c>
+      <c r="A80" s="3"/>
+      <c r="B80" s="2"/>
+      <c r="C80" s="2"/>
+      <c r="D80" s="2"/>
+      <c r="E80" s="2"/>
+      <c r="F80" s="2"/>
+      <c r="G80" s="2"/>
+      <c r="H80" s="2"/>
+      <c r="I80" s="2"/>
+      <c r="J80" s="2"/>
+      <c r="K80" s="2"/>
+      <c r="L80" s="2"/>
+      <c r="M80" s="2"/>
+      <c r="N80" s="2"/>
+      <c r="O80" s="2"/>
+      <c r="P80" s="2"/>
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A81" s="3">
-        <v>50473.999999999993</v>
-      </c>
-      <c r="B81" s="2">
-        <v>8680.9999999999982</v>
-      </c>
-      <c r="C81" s="2">
-        <v>19397.3076</v>
-      </c>
-      <c r="D81" s="2">
-        <v>32935.899999999994</v>
-      </c>
-      <c r="E81" s="2">
-        <v>1673.9999999999982</v>
-      </c>
-      <c r="F81" s="2">
-        <v>1330729.4930399999</v>
-      </c>
-      <c r="G81" s="2">
-        <v>25.1</v>
-      </c>
-      <c r="H81" s="2">
-        <v>158.99999999999895</v>
-      </c>
-      <c r="I81" s="2">
-        <v>184.99999999999918</v>
-      </c>
-      <c r="J81" s="2">
-        <v>386.19999999999953</v>
-      </c>
-      <c r="K81" s="2">
-        <v>810919.99999999977</v>
-      </c>
-      <c r="L81" s="2">
-        <v>182696</v>
-      </c>
-      <c r="M81" s="2">
-        <v>5519372.8535999991</v>
-      </c>
-      <c r="N81" s="2">
-        <v>38.999999999999908</v>
-      </c>
-      <c r="O81" s="2">
-        <v>2499.9999999999995</v>
-      </c>
-      <c r="P81" s="2">
-        <v>3749387.5015199976</v>
-      </c>
+      <c r="A81" s="3"/>
+      <c r="B81" s="2"/>
+      <c r="C81" s="2"/>
+      <c r="D81" s="2"/>
+      <c r="E81" s="2"/>
+      <c r="F81" s="2"/>
+      <c r="G81" s="2"/>
+      <c r="H81" s="2"/>
+      <c r="I81" s="2"/>
+      <c r="J81" s="2"/>
+      <c r="K81" s="2"/>
+      <c r="L81" s="2"/>
+      <c r="M81" s="2"/>
+      <c r="N81" s="2"/>
+      <c r="O81" s="2"/>
+      <c r="P81" s="2"/>
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A82" s="3">
-        <v>47578.999999999993</v>
-      </c>
-      <c r="B82" s="2">
-        <v>11633.999999999998</v>
-      </c>
-      <c r="C82" s="2">
-        <v>24954.799999999999</v>
-      </c>
-      <c r="D82" s="2">
-        <v>37654.999999999985</v>
-      </c>
-      <c r="E82" s="2">
-        <v>898.99999999999943</v>
-      </c>
-      <c r="F82" s="2">
-        <v>1350652</v>
-      </c>
-      <c r="G82" s="2">
-        <v>23.5</v>
-      </c>
-      <c r="H82" s="2">
-        <v>69.999999999999503</v>
-      </c>
-      <c r="I82" s="2">
-        <v>171.99999999999929</v>
-      </c>
-      <c r="J82" s="2">
-        <v>201.0999999999998</v>
-      </c>
-      <c r="K82" s="2">
-        <v>14598.999999999955</v>
-      </c>
-      <c r="L82" s="2">
-        <v>16640.329999999991</v>
-      </c>
-      <c r="M82" s="2">
-        <v>232538.99999999936</v>
-      </c>
-      <c r="N82" s="2">
-        <v>10.999999999999968</v>
-      </c>
-      <c r="O82" s="2">
-        <v>2737.9999999999991</v>
-      </c>
-      <c r="P82" s="2">
-        <v>32418265.199999992</v>
-      </c>
+      <c r="A82" s="3"/>
+      <c r="B82" s="2"/>
+      <c r="C82" s="2"/>
+      <c r="D82" s="2"/>
+      <c r="E82" s="2"/>
+      <c r="F82" s="2"/>
+      <c r="G82" s="2"/>
+      <c r="H82" s="2"/>
+      <c r="I82" s="2"/>
+      <c r="J82" s="2"/>
+      <c r="K82" s="2"/>
+      <c r="L82" s="2"/>
+      <c r="M82" s="2"/>
+      <c r="N82" s="2"/>
+      <c r="O82" s="2"/>
+      <c r="P82" s="2"/>
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A83" s="3">
-        <v>28553</v>
-      </c>
-      <c r="B83" s="2">
-        <v>6935.9999999999991</v>
-      </c>
-      <c r="C83" s="2">
-        <v>34591.617420000002</v>
-      </c>
-      <c r="D83" s="2">
-        <v>13338.599999999997</v>
-      </c>
-      <c r="E83" s="2">
-        <v>494.99999999999943</v>
-      </c>
-      <c r="F83" s="2">
-        <v>139069.51849999998</v>
-      </c>
-      <c r="G83" s="2">
-        <v>22.9</v>
-      </c>
-      <c r="H83" s="2">
-        <v>76.999999999999531</v>
-      </c>
-      <c r="I83" s="2">
-        <v>124.99999999999952</v>
-      </c>
-      <c r="J83" s="2">
-        <v>169.2999999999999</v>
-      </c>
-      <c r="K83" s="2">
-        <v>19625.999999999978</v>
-      </c>
-      <c r="L83" s="2">
-        <v>10308.619999999997</v>
-      </c>
-      <c r="M83" s="2">
-        <v>429026.07919999963</v>
-      </c>
-      <c r="N83" s="2">
-        <v>11.999999999999972</v>
-      </c>
-      <c r="O83" s="2">
-        <v>2062</v>
-      </c>
-      <c r="P83" s="2">
-        <v>13315114.298400002</v>
-      </c>
+      <c r="A83" s="3"/>
+      <c r="B83" s="2"/>
+      <c r="C83" s="2"/>
+      <c r="D83" s="2"/>
+      <c r="E83" s="2"/>
+      <c r="F83" s="2"/>
+      <c r="G83" s="2"/>
+      <c r="H83" s="2"/>
+      <c r="I83" s="2"/>
+      <c r="J83" s="2"/>
+      <c r="K83" s="2"/>
+      <c r="L83" s="2"/>
+      <c r="M83" s="2"/>
+      <c r="N83" s="2"/>
+      <c r="O83" s="2"/>
+      <c r="P83" s="2"/>
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A84" s="3">
-        <v>79746</v>
-      </c>
-      <c r="B84" s="2">
-        <v>16843</v>
-      </c>
-      <c r="C84" s="2">
-        <v>35339.908029999999</v>
-      </c>
-      <c r="D84" s="2">
-        <v>73491.599999999991</v>
-      </c>
-      <c r="E84" s="2">
-        <v>2645.9999999999991</v>
-      </c>
-      <c r="F84" s="2">
-        <v>2006637.54357</v>
-      </c>
-      <c r="G84" s="2">
-        <v>24.6</v>
-      </c>
-      <c r="H84" s="2">
-        <v>164.99999999999895</v>
-      </c>
-      <c r="I84" s="2">
-        <v>232.99999999999903</v>
-      </c>
-      <c r="J84" s="2">
-        <v>188.49999999999935</v>
-      </c>
-      <c r="K84" s="2">
-        <v>1592.9999999998829</v>
-      </c>
-      <c r="L84" s="2">
-        <v>23405.999999999971</v>
-      </c>
-      <c r="M84" s="2">
-        <v>313421.54109999974</v>
-      </c>
-      <c r="N84" s="2">
-        <v>7.9999999999999671</v>
-      </c>
-      <c r="O84" s="2">
-        <v>5536</v>
-      </c>
-      <c r="P84" s="2">
-        <v>37484508.028549999</v>
-      </c>
+      <c r="A84" s="3"/>
+      <c r="B84" s="2"/>
+      <c r="C84" s="2"/>
+      <c r="D84" s="2"/>
+      <c r="E84" s="2"/>
+      <c r="F84" s="2"/>
+      <c r="G84" s="2"/>
+      <c r="H84" s="2"/>
+      <c r="I84" s="2"/>
+      <c r="J84" s="2"/>
+      <c r="K84" s="2"/>
+      <c r="L84" s="2"/>
+      <c r="M84" s="2"/>
+      <c r="N84" s="2"/>
+      <c r="O84" s="2"/>
+      <c r="P84" s="2"/>
     </row>
     <row r="85" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A85" s="3">
-        <v>57687</v>
-      </c>
-      <c r="B85" s="2">
-        <v>11292</v>
-      </c>
-      <c r="C85" s="2">
-        <v>23845.612519999999</v>
-      </c>
-      <c r="D85" s="2">
-        <v>33352.599999999984</v>
-      </c>
-      <c r="E85" s="2">
-        <v>1263.9999999999993</v>
-      </c>
-      <c r="F85" s="2">
-        <v>1716389.6294400003</v>
-      </c>
-      <c r="G85" s="2">
-        <v>29.41</v>
-      </c>
-      <c r="H85" s="2">
-        <v>70.999999999999531</v>
-      </c>
-      <c r="I85" s="2">
-        <v>230.99999999999903</v>
-      </c>
-      <c r="J85" s="2">
-        <v>233.29999999999964</v>
-      </c>
-      <c r="K85" s="2">
-        <v>383.99999999993003</v>
-      </c>
-      <c r="L85" s="2">
-        <v>37867.999999999993</v>
-      </c>
-      <c r="M85" s="2">
-        <v>322803.30879999872</v>
-      </c>
-      <c r="N85" s="2">
-        <v>0.99999999999999423</v>
-      </c>
-      <c r="O85" s="2">
-        <v>2426.9999999999995</v>
-      </c>
-      <c r="P85" s="2">
-        <v>32139963.465120006</v>
-      </c>
+      <c r="A85" s="3"/>
+      <c r="B85" s="2"/>
+      <c r="C85" s="2"/>
+      <c r="D85" s="2"/>
+      <c r="E85" s="2"/>
+      <c r="F85" s="2"/>
+      <c r="G85" s="2"/>
+      <c r="H85" s="2"/>
+      <c r="I85" s="2"/>
+      <c r="J85" s="2"/>
+      <c r="K85" s="2"/>
+      <c r="L85" s="2"/>
+      <c r="M85" s="2"/>
+      <c r="N85" s="2"/>
+      <c r="O85" s="2"/>
+      <c r="P85" s="2"/>
     </row>
     <row r="86" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A86" s="3">
-        <v>141368</v>
-      </c>
-      <c r="B86" s="2">
-        <v>33537</v>
-      </c>
-      <c r="C86" s="2">
-        <v>27126.22694</v>
-      </c>
-      <c r="D86" s="2">
-        <v>58200</v>
-      </c>
-      <c r="E86" s="2">
-        <v>2876.9999999999973</v>
-      </c>
-      <c r="F86" s="2">
-        <v>10541809.012150001</v>
-      </c>
-      <c r="G86" s="2">
-        <v>31.4</v>
-      </c>
-      <c r="H86" s="2">
-        <v>306.99999999999795</v>
-      </c>
-      <c r="I86" s="2">
-        <v>198.99999999999918</v>
-      </c>
-      <c r="J86" s="2">
-        <v>474.69999999999879</v>
-      </c>
-      <c r="K86" s="2">
-        <v>595570.99999999977</v>
-      </c>
-      <c r="L86" s="2">
-        <v>59771.349999999991</v>
-      </c>
-      <c r="M86" s="2">
-        <v>1632754.1328999992</v>
-      </c>
-      <c r="N86" s="2">
-        <v>90.999999999999801</v>
-      </c>
-      <c r="O86" s="2">
-        <v>9371</v>
-      </c>
-      <c r="P86" s="2">
-        <v>79424596.731749997</v>
-      </c>
+      <c r="A86" s="3"/>
+      <c r="B86" s="2"/>
+      <c r="C86" s="2"/>
+      <c r="D86" s="2"/>
+      <c r="E86" s="2"/>
+      <c r="F86" s="2"/>
+      <c r="G86" s="2"/>
+      <c r="H86" s="2"/>
+      <c r="I86" s="2"/>
+      <c r="J86" s="2"/>
+      <c r="K86" s="2"/>
+      <c r="L86" s="2"/>
+      <c r="M86" s="2"/>
+      <c r="N86" s="2"/>
+      <c r="O86" s="2"/>
+      <c r="P86" s="2"/>
     </row>
     <row r="87" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A87" s="3">
-        <v>23671.999999999989</v>
-      </c>
-      <c r="B87" s="2">
-        <v>2819.9999999999991</v>
-      </c>
-      <c r="C87" s="2">
-        <v>17545.93204</v>
-      </c>
-      <c r="D87" s="2">
-        <v>16399.19999999999</v>
-      </c>
-      <c r="E87" s="2">
-        <v>346.9999999999996</v>
-      </c>
-      <c r="F87" s="2">
-        <v>573514.04293999961</v>
-      </c>
-      <c r="G87" s="2">
-        <v>28</v>
-      </c>
-      <c r="H87" s="2">
-        <v>64.999999999999574</v>
-      </c>
-      <c r="I87" s="2">
-        <v>59.999999999999716</v>
-      </c>
-      <c r="J87" s="2">
-        <v>382.49999999999949</v>
-      </c>
-      <c r="K87" s="2">
-        <v>39639.999999999935</v>
-      </c>
-      <c r="L87" s="2">
-        <v>9314.3999999999924</v>
-      </c>
-      <c r="M87" s="2">
-        <v>3234408.7671999987</v>
-      </c>
-      <c r="N87" s="2">
-        <v>17.99999999999995</v>
-      </c>
-      <c r="O87" s="2">
-        <v>744.99999999999955</v>
-      </c>
-      <c r="P87" s="2">
-        <v>828015.21829999832</v>
-      </c>
+      <c r="A87" s="3"/>
+      <c r="B87" s="2"/>
+      <c r="C87" s="2"/>
+      <c r="D87" s="2"/>
+      <c r="E87" s="2"/>
+      <c r="F87" s="2"/>
+      <c r="G87" s="2"/>
+      <c r="H87" s="2"/>
+      <c r="I87" s="2"/>
+      <c r="J87" s="2"/>
+      <c r="K87" s="2"/>
+      <c r="L87" s="2"/>
+      <c r="M87" s="2"/>
+      <c r="N87" s="2"/>
+      <c r="O87" s="2"/>
+      <c r="P87" s="2"/>
     </row>
     <row r="88" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A88" s="3">
-        <v>116468</v>
-      </c>
-      <c r="B88" s="2">
-        <v>21239.000000000004</v>
-      </c>
-      <c r="C88" s="2">
-        <v>23604.910929999998</v>
-      </c>
-      <c r="D88" s="2">
-        <v>64664.399999999987</v>
-      </c>
-      <c r="E88" s="2">
-        <v>2076.9999999999995</v>
-      </c>
-      <c r="F88" s="2">
-        <v>4676977.1911799992</v>
-      </c>
-      <c r="G88" s="2">
-        <v>30.2</v>
-      </c>
-      <c r="H88" s="2">
-        <v>300.99999999999807</v>
-      </c>
-      <c r="I88" s="2">
-        <v>303.99999999999869</v>
-      </c>
-      <c r="J88" s="2">
-        <v>783.79999999999882</v>
-      </c>
-      <c r="K88" s="2">
-        <v>202571.00000000003</v>
-      </c>
-      <c r="L88" s="2">
-        <v>87368.909999999974</v>
-      </c>
-      <c r="M88" s="2">
-        <v>8408723.8795999978</v>
-      </c>
-      <c r="N88" s="2">
-        <v>34.999999999999901</v>
-      </c>
-      <c r="O88" s="2">
-        <v>4502</v>
-      </c>
-      <c r="P88" s="2">
-        <v>19397519.885310002</v>
-      </c>
+      <c r="A88" s="3"/>
+      <c r="B88" s="2"/>
+      <c r="C88" s="2"/>
+      <c r="D88" s="2"/>
+      <c r="E88" s="2"/>
+      <c r="F88" s="2"/>
+      <c r="G88" s="2"/>
+      <c r="H88" s="2"/>
+      <c r="I88" s="2"/>
+      <c r="J88" s="2"/>
+      <c r="K88" s="2"/>
+      <c r="L88" s="2"/>
+      <c r="M88" s="2"/>
+      <c r="N88" s="2"/>
+      <c r="O88" s="2"/>
+      <c r="P88" s="2"/>
     </row>
     <row r="89" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A89" s="3">
-        <v>64841.999999999993</v>
-      </c>
-      <c r="B89" s="2">
-        <v>15028.999999999996</v>
-      </c>
-      <c r="C89" s="2">
-        <v>25869.387780000001</v>
-      </c>
-      <c r="D89" s="2">
-        <v>17235.499999999989</v>
-      </c>
-      <c r="E89" s="2">
-        <v>1123.9999999999986</v>
-      </c>
-      <c r="F89" s="2">
-        <v>866008.93850999954</v>
-      </c>
-      <c r="G89" s="2">
-        <v>23.8</v>
-      </c>
-      <c r="H89" s="2">
-        <v>124.99999999999919</v>
-      </c>
-      <c r="I89" s="2">
-        <v>194.99999999999915</v>
-      </c>
-      <c r="J89" s="2">
-        <v>235.39999999999975</v>
-      </c>
-      <c r="K89" s="2">
-        <v>2168.999999999995</v>
-      </c>
-      <c r="L89" s="2">
-        <v>22439.059999999987</v>
-      </c>
-      <c r="M89" s="2">
-        <v>259751.15039999882</v>
-      </c>
-      <c r="N89" s="2">
-        <v>11.999999999999948</v>
-      </c>
-      <c r="O89" s="2">
-        <v>3210.9999999999995</v>
-      </c>
-      <c r="P89" s="2">
-        <v>9430951.7147999946</v>
-      </c>
+      <c r="A89" s="3"/>
+      <c r="B89" s="2"/>
+      <c r="C89" s="2"/>
+      <c r="D89" s="2"/>
+      <c r="E89" s="2"/>
+      <c r="F89" s="2"/>
+      <c r="G89" s="2"/>
+      <c r="H89" s="2"/>
+      <c r="I89" s="2"/>
+      <c r="J89" s="2"/>
+      <c r="K89" s="2"/>
+      <c r="L89" s="2"/>
+      <c r="M89" s="2"/>
+      <c r="N89" s="2"/>
+      <c r="O89" s="2"/>
+      <c r="P89" s="2"/>
     </row>
     <row r="90" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A90" s="3">
-        <v>64100</v>
-      </c>
-      <c r="B90" s="2">
-        <v>9192</v>
-      </c>
-      <c r="C90" s="2">
-        <v>21205.026720000002</v>
-      </c>
-      <c r="D90" s="2">
-        <v>59994</v>
-      </c>
-      <c r="E90" s="2">
-        <v>1042.9999999999993</v>
-      </c>
-      <c r="F90" s="2">
-        <v>1194600.3487199994</v>
-      </c>
-      <c r="G90" s="2">
-        <v>24.81</v>
-      </c>
-      <c r="H90" s="2">
-        <v>140.99999999999912</v>
-      </c>
-      <c r="I90" s="2">
-        <v>92.999999999999559</v>
-      </c>
-      <c r="J90" s="2">
-        <v>563.59999999999923</v>
-      </c>
-      <c r="K90" s="2">
-        <v>35895.999999999993</v>
-      </c>
-      <c r="L90" s="2">
-        <v>57654.419999999991</v>
-      </c>
-      <c r="M90" s="2">
-        <v>8271274.1760000018</v>
-      </c>
-      <c r="N90" s="2">
-        <v>36.999999999999908</v>
-      </c>
-      <c r="O90" s="2">
-        <v>3089.9999999999995</v>
-      </c>
-      <c r="P90" s="2">
-        <v>7029925.2345599988</v>
-      </c>
+      <c r="A90" s="3"/>
+      <c r="B90" s="2"/>
+      <c r="C90" s="2"/>
+      <c r="D90" s="2"/>
+      <c r="E90" s="2"/>
+      <c r="F90" s="2"/>
+      <c r="G90" s="2"/>
+      <c r="H90" s="2"/>
+      <c r="I90" s="2"/>
+      <c r="J90" s="2"/>
+      <c r="K90" s="2"/>
+      <c r="L90" s="2"/>
+      <c r="M90" s="2"/>
+      <c r="N90" s="2"/>
+      <c r="O90" s="2"/>
+      <c r="P90" s="2"/>
     </row>
     <row r="91" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A91" s="3">
-        <v>105038</v>
-      </c>
-      <c r="B91" s="2">
-        <v>11442</v>
-      </c>
-      <c r="C91" s="2">
-        <v>18218.315640000001</v>
-      </c>
-      <c r="D91" s="2">
-        <v>69421.599999999991</v>
-      </c>
-      <c r="E91" s="2">
-        <v>79.999999999999517</v>
-      </c>
-      <c r="F91" s="2">
-        <v>3389505.0557000008</v>
-      </c>
-      <c r="G91" s="2">
-        <v>21.85</v>
-      </c>
-      <c r="H91" s="2">
-        <v>164.99999999999895</v>
-      </c>
-      <c r="I91" s="2">
-        <v>248.99999999999898</v>
-      </c>
-      <c r="J91" s="2">
-        <v>369.09999999999923</v>
-      </c>
-      <c r="K91" s="2">
-        <v>18256.999999999818</v>
-      </c>
-      <c r="L91" s="2">
-        <v>57789.999999999949</v>
-      </c>
-      <c r="M91" s="2">
-        <v>521260.11459999764</v>
-      </c>
-      <c r="N91" s="2">
-        <v>5.9999999999999627</v>
-      </c>
-      <c r="O91" s="2">
-        <v>3403</v>
-      </c>
-      <c r="P91" s="2">
-        <v>5939939.1027599983</v>
-      </c>
+      <c r="A91" s="3"/>
+      <c r="B91" s="2"/>
+      <c r="C91" s="2"/>
+      <c r="D91" s="2"/>
+      <c r="E91" s="2"/>
+      <c r="F91" s="2"/>
+      <c r="G91" s="2"/>
+      <c r="H91" s="2"/>
+      <c r="I91" s="2"/>
+      <c r="J91" s="2"/>
+      <c r="K91" s="2"/>
+      <c r="L91" s="2"/>
+      <c r="M91" s="2"/>
+      <c r="N91" s="2"/>
+      <c r="O91" s="2"/>
+      <c r="P91" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/migforecasting/clustering/for paper/input for paper.xlsx
+++ b/migforecasting/clustering/for paper/input for paper.xlsx
@@ -421,8 +421,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P91"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R12" sqref="R12"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="T32" sqref="T32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1996,13 +1996,13 @@
         <v>17275</v>
       </c>
       <c r="B32" s="2">
-        <v>5648.5582401918809</v>
+        <v>3074.994130329068</v>
       </c>
       <c r="C32" s="2">
         <v>20815.4167831292</v>
       </c>
       <c r="D32" s="2">
-        <v>19721.961700869851</v>
+        <v>9990.9274654330093</v>
       </c>
       <c r="E32" s="2">
         <v>881.00766886934832</v>
@@ -2014,22 +2014,22 @@
         <v>39.4</v>
       </c>
       <c r="H32" s="2">
-        <v>125.6772308691166</v>
+        <v>52.28189156677908</v>
       </c>
       <c r="I32" s="2">
-        <v>77.805859831260051</v>
+        <v>9.8294841543144535</v>
       </c>
       <c r="J32" s="2">
-        <v>657.77532591485419</v>
+        <v>338.98346838031421</v>
       </c>
       <c r="K32" s="2">
-        <v>101102.97564972581</v>
+        <v>35709.008909223878</v>
       </c>
       <c r="L32" s="2">
-        <v>120574.1931586198</v>
+        <v>73632.724884151248</v>
       </c>
       <c r="M32" s="2">
-        <v>4717355.206267274</v>
+        <v>744853.96513498458</v>
       </c>
       <c r="N32" s="2">
         <v>35.752251160859089</v>
@@ -2038,7 +2038,7 @@
         <v>1599.139320430128</v>
       </c>
       <c r="P32" s="2">
-        <v>5013077.512856801</v>
+        <v>356159.95995556231</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
@@ -2126,10 +2126,10 @@
         <v>208310</v>
       </c>
       <c r="L34" s="2">
-        <v>120574.1931586198</v>
+        <v>73217.653887984008</v>
       </c>
       <c r="M34" s="2">
-        <v>4717355.206267274</v>
+        <v>2545166.6184198498</v>
       </c>
       <c r="N34" s="2">
         <v>40.999999999999908</v>
@@ -2152,13 +2152,13 @@
         <v>21712.38264</v>
       </c>
       <c r="D35" s="2">
-        <v>19721.961700869851</v>
+        <v>10065.874830010231</v>
       </c>
       <c r="E35" s="2">
         <v>881.00766886934832</v>
       </c>
       <c r="F35" s="2">
-        <v>1094086.860592877</v>
+        <v>693877.79925142787</v>
       </c>
       <c r="G35" s="2">
         <v>38.200000000000003</v>
@@ -2173,10 +2173,10 @@
         <v>657.77532591485419</v>
       </c>
       <c r="K35" s="2">
-        <v>101102.97564972581</v>
+        <v>16451.428351689148</v>
       </c>
       <c r="L35" s="2">
-        <v>120574.1931586198</v>
+        <v>44614.97432854872</v>
       </c>
       <c r="M35" s="2">
         <v>4968189.5378400004</v>
@@ -2188,7 +2188,7 @@
         <v>1599.139320430128</v>
       </c>
       <c r="P35" s="2">
-        <v>5013077.512856801</v>
+        <v>2603925.131103361</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
@@ -2226,7 +2226,7 @@
         <v>127583</v>
       </c>
       <c r="L36" s="2">
-        <v>120574.1931586198</v>
+        <v>69713.060492630117</v>
       </c>
       <c r="M36" s="2">
         <v>5517088.4192999983</v>
@@ -2273,16 +2273,16 @@
         <v>384.78892776104192</v>
       </c>
       <c r="K37" s="2">
-        <v>28977.998578687861</v>
+        <v>10711.999999999951</v>
       </c>
       <c r="L37" s="2">
-        <v>24766.251315762191</v>
+        <v>8164.1690086360904</v>
       </c>
       <c r="M37" s="2">
-        <v>827690.06333850382</v>
+        <v>54366.531525845538</v>
       </c>
       <c r="N37" s="2">
-        <v>21.095615783084529</v>
+        <v>1.9999999999999929</v>
       </c>
       <c r="O37" s="2">
         <v>2896.8590066809602</v>
@@ -2323,13 +2323,13 @@
         <v>962.79999999999893</v>
       </c>
       <c r="K38" s="2">
-        <v>28977.998578687861</v>
+        <v>8125.9999999999918</v>
       </c>
       <c r="L38" s="2">
         <v>44861.889999999948</v>
       </c>
       <c r="M38" s="2">
-        <v>827690.06333850382</v>
+        <v>216908.59262118849</v>
       </c>
       <c r="N38" s="2">
         <v>33.999999999999922</v>
@@ -2346,16 +2346,16 @@
         <v>19887.999999999989</v>
       </c>
       <c r="B39" s="2">
-        <v>10206.306899606619</v>
+        <v>4564.6278902952727</v>
       </c>
       <c r="C39" s="2">
         <v>37917.462079999998</v>
       </c>
       <c r="D39" s="2">
-        <v>45468.347505469341</v>
+        <v>16177.06409222068</v>
       </c>
       <c r="E39" s="2">
-        <v>1645.6410443006489</v>
+        <v>737.72200735907359</v>
       </c>
       <c r="F39" s="2">
         <v>2362294.7641864121</v>
@@ -2373,10 +2373,10 @@
         <v>384.78892776104192</v>
       </c>
       <c r="K39" s="2">
-        <v>28977.998578687861</v>
+        <v>4886.9999999999818</v>
       </c>
       <c r="L39" s="2">
-        <v>24766.251315762191</v>
+        <v>9316.2358979556921</v>
       </c>
       <c r="M39" s="2">
         <v>827690.06333850382</v>
@@ -2385,7 +2385,7 @@
         <v>21.095615783084529</v>
       </c>
       <c r="O39" s="2">
-        <v>2896.8590066809602</v>
+        <v>1143.7298814143689</v>
       </c>
       <c r="P39" s="2">
         <v>8379778.1909793671</v>
@@ -2423,16 +2423,16 @@
         <v>384.78892776104192</v>
       </c>
       <c r="K40" s="2">
-        <v>28977.998578687861</v>
+        <v>2243.999999999904</v>
       </c>
       <c r="L40" s="2">
-        <v>24766.251315762191</v>
+        <v>13298.13054705717</v>
       </c>
       <c r="M40" s="2">
-        <v>827690.06333850382</v>
+        <v>184575.0998610461</v>
       </c>
       <c r="N40" s="2">
-        <v>21.095615783084529</v>
+        <v>5.9999999999999716</v>
       </c>
       <c r="O40" s="2">
         <v>3302</v>
@@ -2502,13 +2502,13 @@
         <v>19210.228831246099</v>
       </c>
       <c r="D42" s="2">
-        <v>7762.6753209116032</v>
+        <v>3746.5999999999972</v>
       </c>
       <c r="E42" s="2">
-        <v>281.9402175474014</v>
+        <v>44.99999999999995</v>
       </c>
       <c r="F42" s="2">
-        <v>374829.37895564421</v>
+        <v>84821.616612874292</v>
       </c>
       <c r="G42" s="2">
         <v>35.438037383177502</v>
@@ -2517,10 +2517,10 @@
         <v>54.072514242661697</v>
       </c>
       <c r="I42" s="2">
-        <v>28.221234650144272</v>
+        <v>9.9999999999999485</v>
       </c>
       <c r="J42" s="2">
-        <v>479.14656225630722</v>
+        <v>220.54621652251561</v>
       </c>
       <c r="K42" s="2">
         <v>32749.978346102071</v>
@@ -2529,7 +2529,7 @@
         <v>14259.056285147481</v>
       </c>
       <c r="M42" s="2">
-        <v>1321756.1130112109</v>
+        <v>633508.48902710096</v>
       </c>
       <c r="N42" s="2">
         <v>22.70687713300876</v>
@@ -2538,7 +2538,7 @@
         <v>672.99999999999989</v>
       </c>
       <c r="P42" s="2">
-        <v>1212990.425859435</v>
+        <v>286032.99613732687</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
@@ -2655,10 +2655,10 @@
         <v>7762.6753209116032</v>
       </c>
       <c r="E45" s="2">
-        <v>281.9402175474014</v>
+        <v>130.9999999999998</v>
       </c>
       <c r="F45" s="2">
-        <v>374829.37895564421</v>
+        <v>153719.09000888691</v>
       </c>
       <c r="G45" s="2">
         <v>35.438037383177502</v>
@@ -2667,7 +2667,7 @@
         <v>103.9999999999993</v>
       </c>
       <c r="I45" s="2">
-        <v>28.221234650144272</v>
+        <v>2.999999999999976</v>
       </c>
       <c r="J45" s="2">
         <v>479.14656225630722</v>
@@ -2746,49 +2746,49 @@
         <v>4183.9999999999918</v>
       </c>
       <c r="B47" s="2">
-        <v>5714.5080545330657</v>
+        <v>1056.473753859249</v>
       </c>
       <c r="C47" s="2">
         <v>20427.341848341399</v>
       </c>
       <c r="D47" s="2">
-        <v>18620.078602856651</v>
+        <v>2381.065679515827</v>
       </c>
       <c r="E47" s="2">
-        <v>713.92266024672676</v>
+        <v>113.4249949517034</v>
       </c>
       <c r="F47" s="2">
-        <v>795019.6038440204</v>
+        <v>81501.246245260627</v>
       </c>
       <c r="G47" s="2">
         <v>35.799999999999997</v>
       </c>
       <c r="H47" s="2">
-        <v>121.2195445843775</v>
+        <v>15.982526713303701</v>
       </c>
       <c r="I47" s="2">
-        <v>82.574144705994001</v>
+        <v>2.5736340998794449</v>
       </c>
       <c r="J47" s="2">
-        <v>675.1104937785783</v>
+        <v>109.9937054332045</v>
       </c>
       <c r="K47" s="2">
-        <v>390629.37411319528</v>
+        <v>44335.913688073488</v>
       </c>
       <c r="L47" s="2">
-        <v>50169.914191199998</v>
+        <v>2003.2628205799081</v>
       </c>
       <c r="M47" s="2">
-        <v>5170690.3577637998</v>
+        <v>1077875.2283725089</v>
       </c>
       <c r="N47" s="2">
-        <v>37.037791832750607</v>
+        <v>11.577914620948469</v>
       </c>
       <c r="O47" s="2">
-        <v>1578.0387530220919</v>
+        <v>315.84662311287587</v>
       </c>
       <c r="P47" s="2">
-        <v>5162046.5029202029</v>
+        <v>1122077.8321941849</v>
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.25">
@@ -2805,10 +2805,10 @@
         <v>18620.078602856651</v>
       </c>
       <c r="E48" s="2">
-        <v>713.92266024672676</v>
+        <v>39.698748233096183</v>
       </c>
       <c r="F48" s="2">
-        <v>795019.6038440204</v>
+        <v>377439.37268869882</v>
       </c>
       <c r="G48" s="2">
         <v>28.859170731707302</v>
@@ -2820,13 +2820,13 @@
         <v>82.574144705994001</v>
       </c>
       <c r="J48" s="2">
-        <v>675.1104937785783</v>
+        <v>273.76811696274279</v>
       </c>
       <c r="K48" s="2">
         <v>390629.37411319528</v>
       </c>
       <c r="L48" s="2">
-        <v>50169.914191199998</v>
+        <v>30552.937259516999</v>
       </c>
       <c r="M48" s="2">
         <v>5170690.3577637998</v>
@@ -2846,19 +2846,19 @@
         <v>17569.999999999989</v>
       </c>
       <c r="B49" s="2">
-        <v>5714.5080545330657</v>
+        <v>2528.0385897164319</v>
       </c>
       <c r="C49" s="2">
         <v>20427.341848341399</v>
       </c>
       <c r="D49" s="2">
-        <v>18620.078602856651</v>
+        <v>11096.210636742029</v>
       </c>
       <c r="E49" s="2">
-        <v>713.92266024672676</v>
+        <v>333.18592267062911</v>
       </c>
       <c r="F49" s="2">
-        <v>795019.6038440204</v>
+        <v>480263.66540990549</v>
       </c>
       <c r="G49" s="2">
         <v>28.859170731707302</v>
@@ -2873,13 +2873,13 @@
         <v>675.1104937785783</v>
       </c>
       <c r="K49" s="2">
-        <v>390629.37411319528</v>
+        <v>253392.3988960179</v>
       </c>
       <c r="L49" s="2">
-        <v>50169.914191199998</v>
+        <v>30747.732458975679</v>
       </c>
       <c r="M49" s="2">
-        <v>5170690.3577637998</v>
+        <v>3041350.614883801</v>
       </c>
       <c r="N49" s="2">
         <v>37.037791832750607</v>
@@ -2888,7 +2888,7 @@
         <v>1578.0387530220919</v>
       </c>
       <c r="P49" s="2">
-        <v>5162046.5029202029</v>
+        <v>482329.48363598721</v>
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.25">
@@ -2929,7 +2929,7 @@
         <v>104307.93</v>
       </c>
       <c r="M50" s="2">
-        <v>5170690.3577637998</v>
+        <v>2846566.7104680962</v>
       </c>
       <c r="N50" s="2">
         <v>37.037791832750607</v>
@@ -3020,19 +3020,19 @@
         <v>171.99999999999929</v>
       </c>
       <c r="J52" s="2">
-        <v>515.09434074171179</v>
+        <v>201.0999999999998</v>
       </c>
       <c r="K52" s="2">
-        <v>49395.306275683972</v>
+        <v>14598.999999999951</v>
       </c>
       <c r="L52" s="2">
-        <v>37819.7689054316</v>
+        <v>23998.867850818729</v>
       </c>
       <c r="M52" s="2">
-        <v>1725327.0647264121</v>
+        <v>286065.10401343711</v>
       </c>
       <c r="N52" s="2">
-        <v>25.90492510159179</v>
+        <v>10.99999999999997</v>
       </c>
       <c r="O52" s="2">
         <v>2915.7617682164901</v>
@@ -3052,13 +3052,13 @@
         <v>34591.617420000002</v>
       </c>
       <c r="D53" s="2">
-        <v>38299.681634895933</v>
+        <v>16196.06113338833</v>
       </c>
       <c r="E53" s="2">
-        <v>1288.588016602401</v>
+        <v>593.70486697514832</v>
       </c>
       <c r="F53" s="2">
-        <v>2114276.5499864169</v>
+        <v>198628.86628169011</v>
       </c>
       <c r="G53" s="2">
         <v>27.965422727272699</v>
@@ -3070,19 +3070,19 @@
         <v>132.03295622095121</v>
       </c>
       <c r="J53" s="2">
-        <v>515.09434074171179</v>
+        <v>169.2999999999999</v>
       </c>
       <c r="K53" s="2">
-        <v>49395.306275683972</v>
+        <v>19625.999999999982</v>
       </c>
       <c r="L53" s="2">
-        <v>37819.7689054316</v>
+        <v>14867.205704713009</v>
       </c>
       <c r="M53" s="2">
-        <v>1725327.0647264121</v>
+        <v>527779.81315317133</v>
       </c>
       <c r="N53" s="2">
-        <v>25.90492510159179</v>
+        <v>11.99999999999997</v>
       </c>
       <c r="O53" s="2">
         <v>2915.7617682164901</v>
@@ -3120,19 +3120,19 @@
         <v>232.99999999999901</v>
       </c>
       <c r="J54" s="2">
-        <v>515.09434074171179</v>
+        <v>188.49999999999929</v>
       </c>
       <c r="K54" s="2">
-        <v>49395.306275683972</v>
+        <v>1592.9999999998829</v>
       </c>
       <c r="L54" s="2">
         <v>37819.7689054316</v>
       </c>
       <c r="M54" s="2">
-        <v>1725327.0647264121</v>
+        <v>385565.28476867708</v>
       </c>
       <c r="N54" s="2">
-        <v>25.90492510159179</v>
+        <v>7.9999999999999671</v>
       </c>
       <c r="O54" s="2">
         <v>5536</v>
@@ -3170,19 +3170,19 @@
         <v>230.99999999999901</v>
       </c>
       <c r="J55" s="2">
-        <v>515.09434074171179</v>
+        <v>233.29999999999961</v>
       </c>
       <c r="K55" s="2">
-        <v>49395.306275683972</v>
+        <v>383.99999999993003</v>
       </c>
       <c r="L55" s="2">
         <v>37867.999999999993</v>
       </c>
       <c r="M55" s="2">
-        <v>1725327.0647264121</v>
+        <v>397106.55893314042</v>
       </c>
       <c r="N55" s="2">
-        <v>25.90492510159179</v>
+        <v>0.99999999999999423</v>
       </c>
       <c r="O55" s="2">
         <v>2915.7617682164901</v>
@@ -3276,7 +3276,7 @@
         <v>61373.672326328422</v>
       </c>
       <c r="L57" s="2">
-        <v>29602.9087374105</v>
+        <v>12579.47779916077</v>
       </c>
       <c r="M57" s="2">
         <v>3234408.7671999992</v>
@@ -3285,10 +3285,10 @@
         <v>28.514194264827129</v>
       </c>
       <c r="O57" s="2">
-        <v>1635.6427628317319</v>
+        <v>801.10415672385136</v>
       </c>
       <c r="P57" s="2">
-        <v>3002048.203665785</v>
+        <v>1155335.2855618461</v>
       </c>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.25">
@@ -3370,19 +3370,19 @@
         <v>194.99999999999909</v>
       </c>
       <c r="J59" s="2">
-        <v>497.85288158683818</v>
+        <v>257.87557539933027</v>
       </c>
       <c r="K59" s="2">
-        <v>61373.672326328422</v>
+        <v>2327.949027416018</v>
       </c>
       <c r="L59" s="2">
         <v>29602.9087374105</v>
       </c>
       <c r="M59" s="2">
-        <v>2185490.0203954638</v>
+        <v>352889.09448255628</v>
       </c>
       <c r="N59" s="2">
-        <v>28.514194264827129</v>
+        <v>11.99999999999995</v>
       </c>
       <c r="O59" s="2">
         <v>3211</v>
@@ -3455,7 +3455,7 @@
         <v>69421.599999999991</v>
       </c>
       <c r="E61" s="2">
-        <v>692.21862862467367</v>
+        <v>104.0508328856842</v>
       </c>
       <c r="F61" s="2">
         <v>3389505.0557000008</v>
@@ -3473,16 +3473,16 @@
         <v>497.85288158683818</v>
       </c>
       <c r="K61" s="2">
-        <v>61373.672326328422</v>
+        <v>19594.912583464229</v>
       </c>
       <c r="L61" s="2">
         <v>57789.999999999949</v>
       </c>
       <c r="M61" s="2">
-        <v>2185490.0203954638</v>
+        <v>708166.29511669534</v>
       </c>
       <c r="N61" s="2">
-        <v>28.514194264827129</v>
+        <v>5.9999999999999627</v>
       </c>
       <c r="O61" s="2">
         <v>3403</v>

--- a/migforecasting/clustering/for paper/input for paper.xlsx
+++ b/migforecasting/clustering/for paper/input for paper.xlsx
@@ -119,7 +119,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -130,13 +130,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -419,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P91"/>
+  <dimension ref="A1:P121"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="T32" sqref="T32"/>
+      <selection activeCell="AE17" sqref="AE17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -492,3544 +489,6004 @@
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+      <c r="A2" s="3">
         <v>17275</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="3">
         <v>2414</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="3">
         <v>19887.443500000001</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="3">
         <v>8104.9999999999982</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="3">
         <v>473.99999999999983</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="3">
         <v>729883.93608999986</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="3">
         <v>39.4</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2" s="3">
         <v>44.999999999999716</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I2" s="3">
         <v>7.99999999999996</v>
       </c>
-      <c r="J2" s="2">
+      <c r="J2" s="3">
         <v>296.89999999999964</v>
       </c>
-      <c r="K2" s="2">
+      <c r="K2" s="3">
         <v>32143.999999999978</v>
       </c>
-      <c r="L2" s="2">
+      <c r="L2" s="3">
         <v>60102.41</v>
       </c>
-      <c r="M2" s="2">
+      <c r="M2" s="3">
         <v>550648.19779999938</v>
       </c>
-      <c r="N2" s="2">
+      <c r="N2" s="3">
         <v>22.999999999999957</v>
       </c>
-      <c r="O2" s="2">
+      <c r="O2" s="3">
         <v>946</v>
       </c>
-      <c r="P2" s="2">
+      <c r="P2" s="3">
         <v>236233.54378000001</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+      <c r="A3" s="3">
         <v>65842</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="3">
         <v>10892</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="3">
         <v>21988.19528</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="3">
         <v>37427.899999999994</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="3">
         <v>807.99999999999966</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="3">
         <v>2824760.7281099996</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="3">
         <v>25</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="3">
         <v>78.999999999999503</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I3" s="3">
         <v>242.99999999999901</v>
       </c>
-      <c r="J3" s="2">
+      <c r="J3" s="3">
         <v>632.49999999999932</v>
       </c>
-      <c r="K3" s="2">
+      <c r="K3" s="3">
         <v>959880.00000000023</v>
       </c>
-      <c r="L3" s="2">
+      <c r="L3" s="3">
         <v>322825.61999999994</v>
       </c>
-      <c r="M3" s="2">
+      <c r="M3" s="3">
         <v>12665201.631199995</v>
       </c>
-      <c r="N3" s="2">
+      <c r="N3" s="3">
         <v>25.999999999999947</v>
       </c>
-      <c r="O3" s="2">
+      <c r="O3" s="3">
         <v>3185</v>
       </c>
-      <c r="P3" s="2">
+      <c r="P3" s="3">
         <v>12405299.012639999</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+      <c r="A4" s="3">
         <v>34498.999999999993</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="3">
         <v>7235.9999999999973</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="5">
         <v>18166.422620000001</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="3">
         <v>15435.899999999992</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="3">
         <v>2286.9999999999986</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="3">
         <v>1199846.2190299996</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="5">
         <v>30.3</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="3">
         <v>113.99999999999925</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4" s="3">
         <v>57.999999999999737</v>
       </c>
-      <c r="J4" s="2">
+      <c r="J4" s="3">
         <v>664.79999999999927</v>
       </c>
-      <c r="K4" s="2">
+      <c r="K4" s="3">
         <v>208310</v>
       </c>
-      <c r="L4" s="2">
+      <c r="L4" s="3">
         <v>59763.609999999986</v>
       </c>
-      <c r="M4" s="2">
+      <c r="M4" s="3">
         <v>1881565.3498999991</v>
       </c>
-      <c r="N4" s="2">
+      <c r="N4" s="3">
         <v>40.999999999999908</v>
       </c>
-      <c r="O4" s="2">
+      <c r="O4" s="3">
         <v>2013.9999999999993</v>
       </c>
-      <c r="P4" s="2">
+      <c r="P4" s="3">
         <v>3889344.5399099961</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+      <c r="A5" s="3">
         <v>18562</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="3">
         <v>3694.0000000000009</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="3">
         <v>21712.38264</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="3">
         <v>8165.7999999999993</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="3">
         <v>567.99999999999966</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="3">
         <v>479171.98727999994</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="3">
         <v>38.200000000000003</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="3">
         <v>94.999999999999403</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5" s="3">
         <v>41.999999999999844</v>
       </c>
-      <c r="J5" s="2">
+      <c r="J5" s="3">
         <v>556.39999999999964</v>
       </c>
-      <c r="K5" s="2">
+      <c r="K5" s="3">
         <v>14808.999999999978</v>
       </c>
-      <c r="L5" s="2">
+      <c r="L5" s="3">
         <v>36416.79</v>
       </c>
-      <c r="M5" s="2">
+      <c r="M5" s="3">
         <v>4968189.5378400004</v>
       </c>
-      <c r="N5" s="2">
+      <c r="N5" s="3">
         <v>23.99999999999994</v>
       </c>
-      <c r="O5" s="2">
+      <c r="O5" s="3">
         <v>958.99999999999977</v>
       </c>
-      <c r="P5" s="2">
+      <c r="P5" s="3">
         <v>1727129.7467999991</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+      <c r="A6" s="3">
         <v>28673</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="3">
         <v>4213</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="3">
         <v>18718.034879999999</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="3">
         <v>15706.399999999994</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="3">
         <v>1185.9999999999993</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="3">
         <v>912846.19063000008</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="3">
         <v>36.5</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="3">
         <v>107.99999999999929</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I6" s="3">
         <v>91.999999999999645</v>
       </c>
-      <c r="J6" s="2">
+      <c r="J6" s="3">
         <v>873.59999999999934</v>
       </c>
-      <c r="K6" s="2">
+      <c r="K6" s="3">
         <v>127582.99999999996</v>
       </c>
-      <c r="L6" s="2">
+      <c r="L6" s="3">
         <v>56902.999999999993</v>
       </c>
-      <c r="M6" s="2">
+      <c r="M6" s="3">
         <v>5517088.4192999983</v>
       </c>
-      <c r="N6" s="2">
+      <c r="N6" s="3">
         <v>38.999999999999915</v>
       </c>
-      <c r="O6" s="2">
+      <c r="O6" s="3">
         <v>1113.0000000000002</v>
       </c>
-      <c r="P6" s="2">
+      <c r="P6" s="3">
         <v>6142682.3205399979</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+      <c r="A7" s="3">
+        <v>30730</v>
+      </c>
+      <c r="B7" s="3">
+        <v>3948</v>
+      </c>
+      <c r="C7" s="3">
+        <v>16306.88399</v>
+      </c>
+      <c r="D7" s="3">
+        <v>11177.6</v>
+      </c>
+      <c r="E7" s="3">
+        <v>691.99999999999966</v>
+      </c>
+      <c r="F7" s="3">
+        <v>815485.63283999986</v>
+      </c>
+      <c r="G7" s="3">
+        <v>28.6</v>
+      </c>
+      <c r="H7" s="3">
+        <v>96.999999999999389</v>
+      </c>
+      <c r="I7" s="3">
+        <v>63.999999999999744</v>
+      </c>
+      <c r="J7" s="3">
+        <v>889.29999999999927</v>
+      </c>
+      <c r="K7" s="3">
+        <v>29091.999999999985</v>
+      </c>
+      <c r="L7" s="3">
+        <v>64303.80999999999</v>
+      </c>
+      <c r="M7" s="3">
+        <v>894989.54199999874</v>
+      </c>
+      <c r="N7" s="3">
+        <v>31.999999999999918</v>
+      </c>
+      <c r="O7" s="3">
+        <v>1646</v>
+      </c>
+      <c r="P7" s="3">
+        <v>2503429.8272599983</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>23798.999999999989</v>
+      </c>
+      <c r="B8" s="3">
+        <v>3246.9999999999968</v>
+      </c>
+      <c r="C8" s="3">
+        <v>22498.426080000001</v>
+      </c>
+      <c r="D8" s="3">
+        <v>6459.0999999999967</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1088.9999999999989</v>
+      </c>
+      <c r="F8" s="3">
+        <v>621232.85015999957</v>
+      </c>
+      <c r="G8" s="3">
+        <v>29.25</v>
+      </c>
+      <c r="H8" s="3">
+        <v>50.999999999999659</v>
+      </c>
+      <c r="I8" s="3">
+        <v>23.99999999999989</v>
+      </c>
+      <c r="J8" s="3">
+        <v>591.49999999999932</v>
+      </c>
+      <c r="K8" s="3">
+        <v>17366.999999999989</v>
+      </c>
+      <c r="L8" s="3">
+        <v>79477.839999999967</v>
+      </c>
+      <c r="M8" s="3">
+        <v>2193016.3343999982</v>
+      </c>
+      <c r="N8" s="3">
+        <v>29.999999999999911</v>
+      </c>
+      <c r="O8" s="3">
+        <v>1564.9999999999991</v>
+      </c>
+      <c r="P8" s="3">
+        <v>1421570.0404799981</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>16244</v>
+      </c>
+      <c r="B9" s="3">
+        <v>2323.9999999999991</v>
+      </c>
+      <c r="C9" s="3">
+        <v>15907.71135</v>
+      </c>
+      <c r="D9" s="3">
+        <v>7991.9999999999982</v>
+      </c>
+      <c r="E9" s="3">
+        <v>39.999999999999901</v>
+      </c>
+      <c r="F9" s="3">
+        <v>133791.38202999989</v>
+      </c>
+      <c r="G9" s="3">
+        <v>31.1</v>
+      </c>
+      <c r="H9" s="3">
+        <v>79.999999999999503</v>
+      </c>
+      <c r="I9" s="3">
+        <v>22.999999999999893</v>
+      </c>
+      <c r="J9" s="3">
+        <v>524.09999999999968</v>
+      </c>
+      <c r="K9" s="3">
+        <v>29622.999999999985</v>
+      </c>
+      <c r="L9" s="3">
+        <v>43840.999999999985</v>
+      </c>
+      <c r="M9" s="3">
+        <v>1160238.6936999995</v>
+      </c>
+      <c r="N9" s="3">
+        <v>22.99999999999994</v>
+      </c>
+      <c r="O9" s="3">
+        <v>840</v>
+      </c>
+      <c r="P9" s="3">
+        <v>310629.55309999897</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>11710.999999999991</v>
+      </c>
+      <c r="B10" s="3">
+        <v>1564.9999999999989</v>
+      </c>
+      <c r="C10" s="3">
+        <v>17400.493439999998</v>
+      </c>
+      <c r="D10" s="3">
+        <v>5934.2999999999947</v>
+      </c>
+      <c r="E10" s="3">
+        <v>258.99999999999966</v>
+      </c>
+      <c r="F10" s="3">
+        <v>102640.8412799998</v>
+      </c>
+      <c r="G10" s="3">
+        <v>27.4</v>
+      </c>
+      <c r="H10" s="3">
+        <v>47.999999999999673</v>
+      </c>
+      <c r="I10" s="3">
+        <v>20.999999999999893</v>
+      </c>
+      <c r="J10" s="3">
+        <v>308.79999999999956</v>
+      </c>
+      <c r="K10" s="3">
+        <v>32438.999999999975</v>
+      </c>
+      <c r="L10" s="3">
+        <v>34895.129999999976</v>
+      </c>
+      <c r="M10" s="3">
+        <v>836820.54719999898</v>
+      </c>
+      <c r="N10" s="3">
+        <v>15.999999999999943</v>
+      </c>
+      <c r="O10" s="3">
+        <v>529.99999999999966</v>
+      </c>
+      <c r="P10" s="3">
+        <v>391012.65215999895</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>29815.999999999989</v>
+      </c>
+      <c r="B11" s="3">
+        <v>2908.9999999999977</v>
+      </c>
+      <c r="C11" s="3">
+        <v>15931.32554</v>
+      </c>
+      <c r="D11" s="3">
+        <v>10793.899999999996</v>
+      </c>
+      <c r="E11" s="3">
+        <v>268.9999999999996</v>
+      </c>
+      <c r="F11" s="3">
+        <v>416409.6848999997</v>
+      </c>
+      <c r="G11" s="3">
+        <v>24.2</v>
+      </c>
+      <c r="H11" s="3">
+        <v>57.999999999999616</v>
+      </c>
+      <c r="I11" s="3">
+        <v>74.999999999999673</v>
+      </c>
+      <c r="J11" s="3">
+        <v>219.79999999999964</v>
+      </c>
+      <c r="K11" s="3">
+        <v>137192.99999999991</v>
+      </c>
+      <c r="L11" s="3">
+        <v>146352.99999999994</v>
+      </c>
+      <c r="M11" s="3">
+        <v>1813391.6641999981</v>
+      </c>
+      <c r="N11" s="3">
+        <v>28.999999999999922</v>
+      </c>
+      <c r="O11" s="3">
+        <v>1071.9999999999995</v>
+      </c>
+      <c r="P11" s="3">
+        <v>226704.80354999797</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
         <v>28434</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B12" s="3">
         <v>5725</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C12" s="3">
         <v>20773.66617</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D12" s="3">
         <v>26868.199999999993</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E12" s="3">
         <v>1111.9999999999993</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F12" s="3">
         <v>1674021.9106300003</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G12" s="3">
         <v>22.6</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H12" s="3">
         <v>72.999999999999545</v>
       </c>
-      <c r="I7" s="2">
+      <c r="I12" s="3">
         <v>113.99999999999952</v>
       </c>
-      <c r="J7" s="2">
+      <c r="J12" s="3">
         <v>350.99999999999966</v>
       </c>
-      <c r="K7" s="2">
+      <c r="K12" s="3">
         <v>10711.999999999955</v>
       </c>
-      <c r="L7" s="2">
+      <c r="L12" s="3">
         <v>7011.1399999999894</v>
       </c>
-      <c r="M7" s="2">
+      <c r="M12" s="3">
         <v>49916.868199999284</v>
       </c>
-      <c r="N7" s="2">
+      <c r="N12" s="3">
         <v>1.9999999999999927</v>
       </c>
-      <c r="O7" s="2">
+      <c r="O12" s="3">
         <v>1617.9999999999998</v>
       </c>
-      <c r="P7" s="2">
+      <c r="P12" s="3">
         <v>5355232.274249997</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
         <v>139565</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B13" s="3">
         <v>24379.999999999993</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C13" s="3">
         <v>19874.44096</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D13" s="3">
         <v>207240.69999999998</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E13" s="3">
         <v>1859.9999999999984</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F13" s="3">
         <v>5926777.3109299988</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G13" s="3">
         <v>21.6</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H13" s="3">
         <v>311.9999999999979</v>
       </c>
-      <c r="I8" s="2">
+      <c r="I13" s="3">
         <v>386.99999999999841</v>
       </c>
-      <c r="J8" s="2">
+      <c r="J13" s="3">
         <v>962.79999999999893</v>
       </c>
-      <c r="K8" s="2">
+      <c r="K13" s="3">
         <v>8125.9999999999918</v>
       </c>
-      <c r="L8" s="2">
+      <c r="L13" s="3">
         <v>44861.889999999948</v>
       </c>
-      <c r="M8" s="2">
+      <c r="M13" s="3">
         <v>199155.57099999874</v>
       </c>
-      <c r="N8" s="2">
+      <c r="N13" s="3">
         <v>33.999999999999922</v>
       </c>
-      <c r="O8" s="2">
+      <c r="O13" s="3">
         <v>6249</v>
       </c>
-      <c r="P8" s="2">
+      <c r="P13" s="3">
         <v>15178335.903369986</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
         <v>19887.999999999989</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B14" s="3">
         <v>4481.9999999999982</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C14" s="3">
         <v>37917.462079999998</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D14" s="3">
         <v>14558.999999999989</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E14" s="3">
         <v>609.99999999999943</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F14" s="3">
         <v>1282627.8831299993</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G14" s="3">
         <v>29.1</v>
       </c>
-      <c r="H9" s="2">
+      <c r="H14" s="3">
         <v>67.999999999999545</v>
       </c>
-      <c r="I9" s="2">
+      <c r="I14" s="3">
         <v>114.99999999999949</v>
       </c>
-      <c r="J9" s="2">
+      <c r="J14" s="3">
         <v>358.69999999999959</v>
       </c>
-      <c r="K9" s="2">
+      <c r="K14" s="3">
         <v>4886.9999999999818</v>
       </c>
-      <c r="L9" s="2">
+      <c r="L14" s="3">
         <v>8000.4999999999918</v>
       </c>
-      <c r="M9" s="2">
+      <c r="M14" s="3">
         <v>794969.88139999914</v>
       </c>
-      <c r="N9" s="2">
+      <c r="N14" s="3">
         <v>14.999999999999956</v>
       </c>
-      <c r="O9" s="2">
+      <c r="O14" s="3">
         <v>1094.9999999999995</v>
       </c>
-      <c r="P9" s="2">
+      <c r="P14" s="3">
         <v>5006117.3553799978</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
         <v>65776</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B15" s="3">
         <v>14881</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C15" s="3">
         <v>35840.741759999997</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D15" s="3">
         <v>52247.999999999993</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E15" s="3">
         <v>2190.9999999999991</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F15" s="3">
         <v>2740590.23832</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G15" s="3">
         <v>22.8</v>
       </c>
-      <c r="H10" s="2">
+      <c r="H15" s="3">
         <v>240.99999999999852</v>
       </c>
-      <c r="I10" s="2">
+      <c r="I15" s="3">
         <v>194.99999999999918</v>
       </c>
-      <c r="J10" s="2">
+      <c r="J15" s="3">
         <v>225.39999999999938</v>
       </c>
-      <c r="K10" s="2">
+      <c r="K15" s="3">
         <v>2243.9999999999036</v>
       </c>
-      <c r="L10" s="2">
+      <c r="L15" s="3">
         <v>11420.029999999982</v>
       </c>
-      <c r="M10" s="2">
+      <c r="M15" s="3">
         <v>169468.43350463765</v>
       </c>
-      <c r="N10" s="2">
+      <c r="N15" s="3">
         <v>5.9999999999999716</v>
       </c>
-      <c r="O10" s="2">
+      <c r="O15" s="3">
         <v>3302</v>
       </c>
-      <c r="P10" s="2">
+      <c r="P15" s="3">
         <v>8353078.9401600007</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
         <v>86435.999999999985</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B16" s="3">
         <v>13019.999999999993</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C16" s="5">
         <v>21164.783759999998</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D16" s="5">
         <v>56657.999999999985</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E16" s="5">
         <v>1856.999999999998</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F16" s="5">
         <v>3773107.8136799997</v>
       </c>
-      <c r="G11" s="6">
+      <c r="G16" s="5">
         <v>28.1</v>
       </c>
-      <c r="H11" s="2">
+      <c r="H16" s="3">
         <v>112.99999999999922</v>
       </c>
-      <c r="I11" s="2">
+      <c r="I16" s="3">
         <v>371.99999999999841</v>
       </c>
-      <c r="J11" s="2">
+      <c r="J16" s="3">
         <v>995.09999999999877</v>
       </c>
-      <c r="K11" s="2">
+      <c r="K16" s="3">
         <v>134789</v>
       </c>
-      <c r="L11" s="2">
+      <c r="L16" s="3">
         <v>68742.999999999971</v>
       </c>
-      <c r="M11" s="2">
+      <c r="M16" s="3">
         <v>5197507.5167999975</v>
       </c>
-      <c r="N11" s="2">
+      <c r="N16" s="3">
         <v>51.999999999999872</v>
       </c>
-      <c r="O11" s="2">
+      <c r="O16" s="3">
         <v>3298.9999999999995</v>
       </c>
-      <c r="P11" s="2">
+      <c r="P16" s="3">
         <v>11634696.470159991</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>55511.999999999993</v>
+      </c>
+      <c r="B17" s="3">
+        <v>13204.999999999998</v>
+      </c>
+      <c r="C17" s="3">
+        <v>23396.225760000001</v>
+      </c>
+      <c r="D17" s="3">
+        <v>83197.2</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1948.9999999999984</v>
+      </c>
+      <c r="F17" s="3">
+        <v>3114118.2283199993</v>
+      </c>
+      <c r="G17" s="3">
+        <v>28.4</v>
+      </c>
+      <c r="H17" s="3">
+        <v>180.99999999999883</v>
+      </c>
+      <c r="I17" s="3">
+        <v>201.99999999999909</v>
+      </c>
+      <c r="J17" s="3">
+        <v>187.19999999999979</v>
+      </c>
+      <c r="K17" s="3">
+        <v>770.99999999998715</v>
+      </c>
+      <c r="L17" s="3">
+        <v>8337.9999999999836</v>
+      </c>
+      <c r="M17" s="3">
+        <v>59104.252799998845</v>
+      </c>
+      <c r="N17" s="3">
+        <v>22.99999999999994</v>
+      </c>
+      <c r="O17" s="3">
+        <v>4264.9999999999991</v>
+      </c>
+      <c r="P17" s="3">
+        <v>14759491.671359997</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>36704</v>
+      </c>
+      <c r="B18" s="3">
+        <v>7345</v>
+      </c>
+      <c r="C18" s="3">
+        <v>20933.503919999999</v>
+      </c>
+      <c r="D18" s="3">
+        <v>33377.19999999999</v>
+      </c>
+      <c r="E18" s="3">
+        <v>634.99999999999943</v>
+      </c>
+      <c r="F18" s="3">
+        <v>2290850.5860000006</v>
+      </c>
+      <c r="G18" s="3">
+        <v>28.3</v>
+      </c>
+      <c r="H18" s="3">
+        <v>130.99999999999915</v>
+      </c>
+      <c r="I18" s="3">
+        <v>121.9999999999995</v>
+      </c>
+      <c r="J18" s="3">
+        <v>211.59999999999974</v>
+      </c>
+      <c r="K18" s="3">
+        <v>19513.999999999989</v>
+      </c>
+      <c r="L18" s="3">
+        <v>6673</v>
+      </c>
+      <c r="M18" s="3">
+        <v>174197.10959999921</v>
+      </c>
+      <c r="N18" s="3">
+        <v>17.999999999999947</v>
+      </c>
+      <c r="O18" s="3">
+        <v>1608</v>
+      </c>
+      <c r="P18" s="3">
+        <v>3699859.1983200009</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>37377</v>
+      </c>
+      <c r="B19" s="3">
+        <v>6628.9999999999982</v>
+      </c>
+      <c r="C19" s="3">
+        <v>19979.241050000001</v>
+      </c>
+      <c r="D19" s="3">
+        <v>24799.299999999996</v>
+      </c>
+      <c r="E19" s="3">
+        <v>495.99999999999955</v>
+      </c>
+      <c r="F19" s="3">
+        <v>1431726.77079</v>
+      </c>
+      <c r="G19" s="3">
+        <v>23.4</v>
+      </c>
+      <c r="H19" s="3">
+        <v>102.99999999999933</v>
+      </c>
+      <c r="I19" s="3">
+        <v>154.99999999999937</v>
+      </c>
+      <c r="J19" s="3">
+        <v>206.89999999999966</v>
+      </c>
+      <c r="K19" s="3">
+        <v>23897.999999999993</v>
+      </c>
+      <c r="L19" s="3">
+        <v>10754.999999999993</v>
+      </c>
+      <c r="M19" s="3">
+        <v>271809.38029999856</v>
+      </c>
+      <c r="N19" s="3">
+        <v>10.999999999999966</v>
+      </c>
+      <c r="O19" s="3">
+        <v>1573.9999999999998</v>
+      </c>
+      <c r="P19" s="3">
+        <v>2329628.0499</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>36616.999999999993</v>
+      </c>
+      <c r="B20" s="3">
+        <v>4992.9999999999982</v>
+      </c>
+      <c r="C20" s="3">
+        <v>16722.441760000002</v>
+      </c>
+      <c r="D20" s="3">
+        <v>30655.999999999985</v>
+      </c>
+      <c r="E20" s="3">
+        <v>1037.9999999999993</v>
+      </c>
+      <c r="F20" s="3">
+        <v>788151.45435999963</v>
+      </c>
+      <c r="G20" s="3">
+        <v>25.7</v>
+      </c>
+      <c r="H20" s="3">
+        <v>113.99999999999925</v>
+      </c>
+      <c r="I20" s="3">
+        <v>121.99999999999946</v>
+      </c>
+      <c r="J20" s="3">
+        <v>384.19999999999942</v>
+      </c>
+      <c r="K20" s="3">
+        <v>25676.999999999949</v>
+      </c>
+      <c r="L20" s="3">
+        <v>13056.299999999997</v>
+      </c>
+      <c r="M20" s="3">
+        <v>416468.51609999931</v>
+      </c>
+      <c r="N20" s="3">
+        <v>26.999999999999929</v>
+      </c>
+      <c r="O20" s="3">
+        <v>1999.9999999999995</v>
+      </c>
+      <c r="P20" s="3">
+        <v>3340485.9510699986</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>33061</v>
+      </c>
+      <c r="B21" s="3">
+        <v>6711</v>
+      </c>
+      <c r="C21" s="3">
+        <v>16213.878720000001</v>
+      </c>
+      <c r="D21" s="3">
+        <v>21373.399999999998</v>
+      </c>
+      <c r="E21" s="3">
+        <v>523.99999999999966</v>
+      </c>
+      <c r="F21" s="3">
+        <v>952980.54330999986</v>
+      </c>
+      <c r="G21" s="3">
+        <v>24.33</v>
+      </c>
+      <c r="H21" s="3">
+        <v>50.99999999999968</v>
+      </c>
+      <c r="I21" s="3">
+        <v>87.999999999999631</v>
+      </c>
+      <c r="J21" s="3">
+        <v>113.89999999999986</v>
+      </c>
+      <c r="K21" s="3">
+        <v>7999.9999999999436</v>
+      </c>
+      <c r="L21" s="3">
+        <v>4292.9999999999982</v>
+      </c>
+      <c r="M21" s="3">
+        <v>57192.097399999264</v>
+      </c>
+      <c r="N21" s="3">
+        <v>7.9999999999999725</v>
+      </c>
+      <c r="O21" s="3">
+        <v>2061</v>
+      </c>
+      <c r="P21" s="3">
+        <v>3033452.7819099985</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
         <v>9622.9999999999964</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B22" s="3">
         <v>1207.9999999999993</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C22" s="3">
         <v>16635.344249999991</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D22" s="3">
         <v>3746.5999999999967</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E22" s="3">
         <v>44.99999999999995</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F22" s="3">
         <v>79286.091859999928</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G22" s="3">
         <v>30.1</v>
       </c>
-      <c r="H12" s="2">
+      <c r="H22" s="3">
         <v>32.999999999999773</v>
       </c>
-      <c r="I12" s="2">
+      <c r="I22" s="3">
         <v>9.9999999999999485</v>
       </c>
-      <c r="J12" s="2">
+      <c r="J22" s="3">
         <v>212.39999999999975</v>
       </c>
-      <c r="K12" s="2">
+      <c r="K22" s="3">
         <v>22989.999999999982</v>
       </c>
-      <c r="L12" s="2">
+      <c r="L22" s="3">
         <v>7487.889999999994</v>
       </c>
-      <c r="M12" s="2">
+      <c r="M22" s="3">
         <v>613356.16829999944</v>
       </c>
-      <c r="N12" s="2">
+      <c r="N22" s="3">
         <v>14.999999999999956</v>
       </c>
-      <c r="O12" s="2">
+      <c r="O22" s="3">
         <v>672.99999999999989</v>
       </c>
-      <c r="P12" s="2">
+      <c r="P22" s="3">
         <v>232900.09079999954</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
         <v>16685</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B23" s="3">
         <v>2386</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C23" s="3">
         <v>16273.3732</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D23" s="3">
         <v>10592.199999999999</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E23" s="3">
         <v>377.99999999999972</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F23" s="3">
         <v>398404.10683999996</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G23" s="3">
         <v>26.4</v>
       </c>
-      <c r="H13" s="2">
+      <c r="H23" s="3">
         <v>27.999999999999833</v>
       </c>
-      <c r="I13" s="2">
+      <c r="I23" s="3">
         <v>22.999999999999915</v>
       </c>
-      <c r="J13" s="2">
+      <c r="J23" s="3">
         <v>800.99999999999955</v>
       </c>
-      <c r="K13" s="2">
+      <c r="K23" s="3">
         <v>112136.99999999997</v>
       </c>
-      <c r="L13" s="2">
+      <c r="L23" s="3">
         <v>9244.5999999999931</v>
       </c>
-      <c r="M13" s="2">
+      <c r="M23" s="3">
         <v>1610842.1835999999</v>
       </c>
-      <c r="N13" s="2">
+      <c r="N23" s="3">
         <v>21.999999999999957</v>
       </c>
-      <c r="O13" s="2">
+      <c r="O23" s="3">
         <v>624.00000000000011</v>
       </c>
-      <c r="P13" s="2">
+      <c r="P23" s="3">
         <v>1492496.0792400001</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
         <v>40956</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B24" s="3">
         <v>6906.9999999999973</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C24" s="3">
         <v>16179.493109999999</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D24" s="3">
         <v>45679.399999999994</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E24" s="3">
         <v>943.99999999999955</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F24" s="3">
         <v>1135992.2059199996</v>
       </c>
-      <c r="G14" s="2">
+      <c r="G24" s="3">
         <v>22.9</v>
       </c>
-      <c r="H14" s="2">
+      <c r="H24" s="3">
         <v>86.999999999999389</v>
       </c>
-      <c r="I14" s="2">
+      <c r="I24" s="3">
         <v>196.9999999999992</v>
       </c>
-      <c r="J14" s="2">
+      <c r="J24" s="3">
         <v>2450.9999999999986</v>
       </c>
-      <c r="K14" s="2">
+      <c r="K24" s="3">
         <v>49269.999999999935</v>
       </c>
-      <c r="L14" s="2">
+      <c r="L24" s="3">
         <v>10475.609999999997</v>
       </c>
-      <c r="M14" s="2">
+      <c r="M24" s="3">
         <v>832899.14939999871</v>
       </c>
-      <c r="N14" s="2">
+      <c r="N24" s="3">
         <v>26.99999999999994</v>
       </c>
-      <c r="O14" s="2">
+      <c r="O24" s="3">
         <v>1959.9999999999998</v>
       </c>
-      <c r="P14" s="2">
+      <c r="P24" s="3">
         <v>1961160.027659998</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
         <v>24184.999999999989</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B25" s="3">
         <v>4568.9999999999982</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C25" s="3">
         <v>21418.87329</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D25" s="3">
         <v>4933.5999999999949</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E25" s="3">
         <v>130.99999999999977</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F25" s="3">
         <v>143687.26248999985</v>
       </c>
-      <c r="G15" s="2">
+      <c r="G25" s="3">
         <v>22.3</v>
       </c>
-      <c r="H15" s="2">
+      <c r="H25" s="3">
         <v>103.9999999999993</v>
       </c>
-      <c r="I15" s="2">
+      <c r="I25" s="3">
         <v>2.9999999999999765</v>
       </c>
-      <c r="J15" s="2">
+      <c r="J25" s="3">
         <v>316.99999999999955</v>
       </c>
-      <c r="K15" s="2">
+      <c r="K25" s="3">
         <v>106497.99999999996</v>
       </c>
-      <c r="L15" s="2">
+      <c r="L25" s="3">
         <v>19137.909999999989</v>
       </c>
-      <c r="M15" s="2">
+      <c r="M25" s="3">
         <v>3427876.6054999977</v>
       </c>
-      <c r="N15" s="2">
+      <c r="N25" s="3">
         <v>50.999999999999886</v>
       </c>
-      <c r="O15" s="2">
+      <c r="O25" s="3">
         <v>1217.9999999999995</v>
       </c>
-      <c r="P15" s="2">
+      <c r="P25" s="3">
         <v>3524494.8488999987</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
         <v>12565.999999999991</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B26" s="3">
         <v>2093.9999999999991</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C26" s="3">
         <v>16955.84604</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D26" s="3">
         <v>7192.4999999999927</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E26" s="3">
         <v>449.99999999999943</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F26" s="3">
         <v>298227.95619999972</v>
       </c>
-      <c r="G16" s="2">
+      <c r="G26" s="3">
         <v>30.03</v>
       </c>
-      <c r="H16" s="2">
+      <c r="H26" s="3">
         <v>59.999999999999581</v>
       </c>
-      <c r="I16" s="2">
+      <c r="I26" s="3">
         <v>14.999999999999922</v>
       </c>
-      <c r="J16" s="2">
+      <c r="J26" s="3">
         <v>647.79999999999916</v>
       </c>
-      <c r="K16" s="2">
+      <c r="K26" s="3">
         <v>25719.999999999982</v>
       </c>
-      <c r="L16" s="2">
+      <c r="L26" s="3">
         <v>20804.14999999998</v>
       </c>
-      <c r="M16" s="2">
+      <c r="M26" s="3">
         <v>1533618.0888999989</v>
       </c>
-      <c r="N16" s="2">
+      <c r="N26" s="3">
         <v>21.999999999999932</v>
       </c>
-      <c r="O16" s="2">
+      <c r="O26" s="3">
         <v>676.99999999999955</v>
       </c>
-      <c r="P16" s="2">
+      <c r="P26" s="3">
         <v>1868542.2159599983</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>17499</v>
+      </c>
+      <c r="B27" s="3">
+        <v>2815</v>
+      </c>
+      <c r="C27" s="3">
+        <v>20675.747319999999</v>
+      </c>
+      <c r="D27" s="3">
+        <v>4044.4999999999973</v>
+      </c>
+      <c r="E27" s="3">
+        <v>387.99999999999983</v>
+      </c>
+      <c r="F27" s="3">
+        <v>509272.59583999997</v>
+      </c>
+      <c r="G27" s="3">
+        <v>29.82</v>
+      </c>
+      <c r="H27" s="3">
+        <v>53.999999999999659</v>
+      </c>
+      <c r="I27" s="3">
+        <v>31.999999999999865</v>
+      </c>
+      <c r="J27" s="3">
+        <v>1231.9999999999993</v>
+      </c>
+      <c r="K27" s="3">
+        <v>47001.999999999993</v>
+      </c>
+      <c r="L27" s="3">
+        <v>8969.9999999999982</v>
+      </c>
+      <c r="M27" s="3">
+        <v>2998146.3123999988</v>
+      </c>
+      <c r="N27" s="3">
+        <v>21.99999999999995</v>
+      </c>
+      <c r="O27" s="3">
+        <v>1535</v>
+      </c>
+      <c r="P27" s="3">
+        <v>4597855.1592400009</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>22832.999999999989</v>
+      </c>
+      <c r="B28" s="3">
+        <v>2624.9999999999973</v>
+      </c>
+      <c r="C28" s="3">
+        <v>19000.342280000001</v>
+      </c>
+      <c r="D28" s="3">
+        <v>12773.499999999993</v>
+      </c>
+      <c r="E28" s="3">
+        <v>480.99999999999943</v>
+      </c>
+      <c r="F28" s="3">
+        <v>477102.61020999961</v>
+      </c>
+      <c r="G28" s="3">
+        <v>32.450000000000003</v>
+      </c>
+      <c r="H28" s="3">
+        <v>83.999999999999417</v>
+      </c>
+      <c r="I28" s="3">
+        <v>66.999999999999702</v>
+      </c>
+      <c r="J28" s="3">
+        <v>586.09999999999911</v>
+      </c>
+      <c r="K28" s="3">
+        <v>13303.999999999976</v>
+      </c>
+      <c r="L28" s="3">
+        <v>31991.309999999979</v>
+      </c>
+      <c r="M28" s="3">
+        <v>2339528.8654999975</v>
+      </c>
+      <c r="N28" s="3">
+        <v>40.999999999999879</v>
+      </c>
+      <c r="O28" s="3">
+        <v>960.99999999999955</v>
+      </c>
+      <c r="P28" s="3">
+        <v>507575.87836999819</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <v>15277.999999999991</v>
+      </c>
+      <c r="B29" s="3">
+        <v>2241.9999999999986</v>
+      </c>
+      <c r="C29" s="3">
+        <v>18928.538</v>
+      </c>
+      <c r="D29" s="3">
+        <v>5624.599999999994</v>
+      </c>
+      <c r="E29" s="3">
+        <v>253.99999999999974</v>
+      </c>
+      <c r="F29" s="3">
+        <v>305353.16715999978</v>
+      </c>
+      <c r="G29" s="3">
+        <v>28.41</v>
+      </c>
+      <c r="H29" s="3">
+        <v>54.999999999999609</v>
+      </c>
+      <c r="I29" s="3">
+        <v>34.999999999999837</v>
+      </c>
+      <c r="J29" s="3">
+        <v>982.89999999999884</v>
+      </c>
+      <c r="K29" s="3">
+        <v>22820.999999999982</v>
+      </c>
+      <c r="L29" s="3">
+        <v>13234.999999999989</v>
+      </c>
+      <c r="M29" s="3">
+        <v>1244565.0463999989</v>
+      </c>
+      <c r="N29" s="3">
+        <v>24.999999999999929</v>
+      </c>
+      <c r="O29" s="3">
+        <v>693.99999999999932</v>
+      </c>
+      <c r="P29" s="3">
+        <v>3344506.7167999977</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <v>9624.9999999999891</v>
+      </c>
+      <c r="B30" s="3">
+        <v>1255.9999999999986</v>
+      </c>
+      <c r="C30" s="3">
+        <v>16376.46312</v>
+      </c>
+      <c r="D30" s="3">
+        <v>6331.8999999999915</v>
+      </c>
+      <c r="E30" s="3">
+        <v>135.99999999999977</v>
+      </c>
+      <c r="F30" s="3">
+        <v>158372.48895999984</v>
+      </c>
+      <c r="G30" s="3">
+        <v>25.4</v>
+      </c>
+      <c r="H30" s="3">
+        <v>45.999999999999659</v>
+      </c>
+      <c r="I30" s="3">
+        <v>8.9999999999999467</v>
+      </c>
+      <c r="J30" s="3">
+        <v>169.29999999999961</v>
+      </c>
+      <c r="K30" s="3">
+        <v>61603.99999999992</v>
+      </c>
+      <c r="L30" s="3">
+        <v>13867.999999999985</v>
+      </c>
+      <c r="M30" s="3">
+        <v>611275.27679999929</v>
+      </c>
+      <c r="N30" s="3">
+        <v>31.99999999999989</v>
+      </c>
+      <c r="O30" s="3">
+        <v>405.99999999999937</v>
+      </c>
+      <c r="P30" s="3">
+        <v>85781.077479999847</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <v>7424.9999999999973</v>
+      </c>
+      <c r="B31" s="3">
+        <v>1293</v>
+      </c>
+      <c r="C31" s="3">
+        <v>16443.209169999991</v>
+      </c>
+      <c r="D31" s="3">
+        <v>4607.6999999999971</v>
+      </c>
+      <c r="E31" s="3">
+        <v>119.99999999999987</v>
+      </c>
+      <c r="F31" s="3">
+        <v>219599.7193099999</v>
+      </c>
+      <c r="G31" s="3">
+        <v>27.9</v>
+      </c>
+      <c r="H31" s="3">
+        <v>20.999999999999858</v>
+      </c>
+      <c r="I31" s="3">
+        <v>17.999999999999915</v>
+      </c>
+      <c r="J31" s="3">
+        <v>153.79999999999984</v>
+      </c>
+      <c r="K31" s="3">
+        <v>16620.999999999989</v>
+      </c>
+      <c r="L31" s="3">
+        <v>11932.299999999996</v>
+      </c>
+      <c r="M31" s="3">
+        <v>742537.84159999969</v>
+      </c>
+      <c r="N31" s="3">
+        <v>14.999999999999963</v>
+      </c>
+      <c r="O31" s="3">
+        <v>440.99999999999977</v>
+      </c>
+      <c r="P31" s="3">
+        <v>123348.75611999938</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
         <v>4183.9999999999918</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B32" s="3">
         <v>788.99999999999841</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C32" s="3">
         <v>19068.8688</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D32" s="3">
         <v>1820.9999999999964</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E32" s="3">
         <v>79.999999999999787</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F32" s="3">
         <v>57968.611199999868</v>
       </c>
-      <c r="G17" s="2">
+      <c r="G32" s="3">
         <v>35.799999999999997</v>
       </c>
-      <c r="H17" s="2">
+      <c r="H32" s="3">
         <v>12.999999999999892</v>
       </c>
-      <c r="I17" s="2">
+      <c r="I32" s="3">
         <v>1.9999999999999847</v>
       </c>
-      <c r="J17" s="2">
+      <c r="J32" s="3">
         <v>81.399999999999764</v>
       </c>
-      <c r="K17" s="2">
+      <c r="K32" s="3">
         <v>32010.999999999935</v>
       </c>
-      <c r="L17" s="2">
+      <c r="L32" s="3">
         <v>1244.4599999999969</v>
       </c>
-      <c r="M17" s="2">
+      <c r="M32" s="3">
         <v>838591.639199998</v>
       </c>
-      <c r="N17" s="2">
+      <c r="N32" s="3">
         <v>9.9999999999999591</v>
       </c>
-      <c r="O17" s="2">
+      <c r="O32" s="3">
         <v>251.99999999999952</v>
       </c>
-      <c r="P17" s="2">
+      <c r="P32" s="3">
         <v>750105.80711999815</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
         <v>25263.999999999989</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B33" s="3">
         <v>4126.9999999999991</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C33" s="5">
         <v>20441.322639999999</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D33" s="3">
         <v>17070.69999999999</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E33" s="3">
         <v>27.999999999999929</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F33" s="3">
         <v>268457.68935999984</v>
       </c>
-      <c r="G18" s="6">
+      <c r="G33" s="5">
         <v>21.79</v>
       </c>
-      <c r="H18" s="2">
+      <c r="H33" s="3">
         <v>73.999999999999488</v>
       </c>
-      <c r="I18" s="2">
+      <c r="I33" s="3">
         <v>69.999999999999687</v>
       </c>
-      <c r="J18" s="2">
+      <c r="J33" s="3">
         <v>202.59999999999971</v>
       </c>
-      <c r="K18" s="2">
+      <c r="K33" s="3">
         <v>314708.99999999988</v>
       </c>
-      <c r="L18" s="2">
+      <c r="L33" s="3">
         <v>18979.989999999991</v>
       </c>
-      <c r="M18" s="2">
+      <c r="M33" s="3">
         <v>3873762.5743999979</v>
       </c>
-      <c r="N18" s="2">
+      <c r="N33" s="3">
         <v>28.999999999999932</v>
       </c>
-      <c r="O18" s="2">
+      <c r="O33" s="3">
         <v>1107.9999999999998</v>
       </c>
-      <c r="P18" s="2">
+      <c r="P33" s="3">
         <v>3584846.1060399981</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
         <v>17569.999999999989</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B34" s="3">
         <v>1887.9999999999989</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C34" s="3">
         <v>18376.923200000001</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D34" s="3">
         <v>8486.1999999999953</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E34" s="3">
         <v>234.99999999999972</v>
       </c>
-      <c r="F19" s="2">
+      <c r="F34" s="3">
         <v>341592.53969999967</v>
       </c>
-      <c r="G19" s="2">
+      <c r="G34" s="3">
         <v>26.3</v>
       </c>
-      <c r="H19" s="2">
+      <c r="H34" s="3">
         <v>155.99999999999895</v>
       </c>
-      <c r="I19" s="2">
+      <c r="I34" s="3">
         <v>56.999999999999723</v>
       </c>
-      <c r="J19" s="2">
+      <c r="J34" s="3">
         <v>389.39999999999952</v>
       </c>
-      <c r="K19" s="2">
+      <c r="K34" s="3">
         <v>182951.9999999998</v>
       </c>
-      <c r="L19" s="2">
+      <c r="L34" s="3">
         <v>19100.999999999978</v>
       </c>
-      <c r="M19" s="2">
+      <c r="M34" s="3">
         <v>2366184.0724999984</v>
       </c>
-      <c r="N19" s="2">
+      <c r="N34" s="3">
         <v>24.999999999999932</v>
       </c>
-      <c r="O19" s="2">
+      <c r="O34" s="3">
         <v>790.99999999999943</v>
       </c>
-      <c r="P19" s="2">
+      <c r="P34" s="3">
         <v>322435.87408999965</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
         <v>120926</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B35" s="3">
         <v>20037.999999999996</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C35" s="3">
         <v>25152.816680000011</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D35" s="3">
         <v>72911.599999999991</v>
       </c>
-      <c r="E20" s="2">
+      <c r="E35" s="3">
         <v>2549.9999999999977</v>
       </c>
-      <c r="F20" s="2">
+      <c r="F35" s="3">
         <v>4713511.9352799999</v>
       </c>
-      <c r="G20" s="2">
+      <c r="G35" s="3">
         <v>29.9</v>
       </c>
-      <c r="H20" s="2">
+      <c r="H35" s="3">
         <v>195.99999999999872</v>
       </c>
-      <c r="I20" s="2">
+      <c r="I35" s="3">
         <v>248.99999999999895</v>
       </c>
-      <c r="J20" s="2">
+      <c r="J35" s="3">
         <v>1123.1999999999985</v>
       </c>
-      <c r="K20" s="2">
+      <c r="K35" s="3">
         <v>1264806.9999999993</v>
       </c>
-      <c r="L20" s="2">
+      <c r="L35" s="3">
         <v>104307.92999999998</v>
       </c>
-      <c r="M20" s="2">
+      <c r="M35" s="3">
         <v>2214641.3434399972</v>
       </c>
-      <c r="N20" s="2">
+      <c r="N35" s="3">
         <v>34.999999999999915</v>
       </c>
-      <c r="O20" s="2">
+      <c r="O35" s="3">
         <v>6308.9999999999991</v>
       </c>
-      <c r="P20" s="2">
+      <c r="P35" s="3">
         <v>26988496.705479994</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
         <v>50473.999999999993</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B36" s="3">
         <v>8680.9999999999982</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C36" s="3">
         <v>19397.3076</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D36" s="3">
         <v>32935.899999999994</v>
       </c>
-      <c r="E21" s="2">
+      <c r="E36" s="3">
         <v>1673.9999999999982</v>
       </c>
-      <c r="F21" s="2">
+      <c r="F36" s="3">
         <v>1330729.4930399999</v>
       </c>
-      <c r="G21" s="2">
+      <c r="G36" s="3">
         <v>25.1</v>
       </c>
-      <c r="H21" s="2">
+      <c r="H36" s="3">
         <v>158.99999999999895</v>
       </c>
-      <c r="I21" s="2">
+      <c r="I36" s="3">
         <v>184.99999999999918</v>
       </c>
-      <c r="J21" s="2">
+      <c r="J36" s="3">
         <v>386.19999999999953</v>
       </c>
-      <c r="K21" s="2">
+      <c r="K36" s="3">
         <v>810919.99999999977</v>
       </c>
-      <c r="L21" s="2">
+      <c r="L36" s="3">
         <v>182696</v>
       </c>
-      <c r="M21" s="2">
+      <c r="M36" s="3">
         <v>5519372.8535999991</v>
       </c>
-      <c r="N21" s="2">
+      <c r="N36" s="3">
         <v>38.999999999999908</v>
       </c>
-      <c r="O21" s="2">
+      <c r="O36" s="3">
         <v>2499.9999999999995</v>
       </c>
-      <c r="P21" s="2">
+      <c r="P36" s="3">
         <v>3749387.5015199976</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
+        <v>8854.9999999999945</v>
+      </c>
+      <c r="B37" s="3">
+        <v>1278.9999999999998</v>
+      </c>
+      <c r="C37" s="3">
+        <v>19406.97712</v>
+      </c>
+      <c r="D37" s="3">
+        <v>2585.4999999999986</v>
+      </c>
+      <c r="E37" s="3">
+        <v>281.99999999999972</v>
+      </c>
+      <c r="F37" s="3">
+        <v>415783.74875999975</v>
+      </c>
+      <c r="G37" s="3">
+        <v>37.299999999999997</v>
+      </c>
+      <c r="H37" s="3">
+        <v>16.999999999999883</v>
+      </c>
+      <c r="I37" s="3">
+        <v>15.999999999999924</v>
+      </c>
+      <c r="J37" s="3">
+        <v>410.99999999999943</v>
+      </c>
+      <c r="K37" s="3">
+        <v>89147.199999999983</v>
+      </c>
+      <c r="L37" s="3">
+        <v>7671.9999999999945</v>
+      </c>
+      <c r="M37" s="3">
+        <v>2684633.8327999976</v>
+      </c>
+      <c r="N37" s="3">
+        <v>18.999999999999947</v>
+      </c>
+      <c r="O37" s="3">
+        <v>376.99999999999977</v>
+      </c>
+      <c r="P37" s="3">
+        <v>366113.43699999945</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
+        <v>17833.999999999989</v>
+      </c>
+      <c r="B38" s="3">
+        <v>2086.9999999999986</v>
+      </c>
+      <c r="C38" s="3">
+        <v>17100.190320000002</v>
+      </c>
+      <c r="D38" s="3">
+        <v>6433.2999999999956</v>
+      </c>
+      <c r="E38" s="3">
+        <v>210.99999999999983</v>
+      </c>
+      <c r="F38" s="3">
+        <v>267414.72803999996</v>
+      </c>
+      <c r="G38" s="3">
+        <v>32.08</v>
+      </c>
+      <c r="H38" s="3">
+        <v>84.999999999999403</v>
+      </c>
+      <c r="I38" s="3">
+        <v>54.999999999999737</v>
+      </c>
+      <c r="J38" s="3">
+        <v>537.09999999999934</v>
+      </c>
+      <c r="K38" s="3">
+        <v>297093.99999999983</v>
+      </c>
+      <c r="L38" s="3">
+        <v>16965.999999999989</v>
+      </c>
+      <c r="M38" s="3">
+        <v>2513116.4799999981</v>
+      </c>
+      <c r="N38" s="3">
+        <v>39.999999999999886</v>
+      </c>
+      <c r="O38" s="3">
+        <v>810.99999999999943</v>
+      </c>
+      <c r="P38" s="3">
+        <v>1568477.3210399991</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
+        <v>22243.999999999989</v>
+      </c>
+      <c r="B39" s="3">
+        <v>2688.9999999999995</v>
+      </c>
+      <c r="C39" s="3">
+        <v>18039.2</v>
+      </c>
+      <c r="D39" s="3">
+        <v>9015.3999999999905</v>
+      </c>
+      <c r="E39" s="3">
+        <v>204.99999999999977</v>
+      </c>
+      <c r="F39" s="3">
+        <v>229243.99999999988</v>
+      </c>
+      <c r="G39" s="3">
+        <v>21.93</v>
+      </c>
+      <c r="H39" s="3">
+        <v>70.999999999999531</v>
+      </c>
+      <c r="I39" s="3">
+        <v>30.999999999999837</v>
+      </c>
+      <c r="J39" s="3">
+        <v>98.599999999999739</v>
+      </c>
+      <c r="K39" s="3">
+        <v>279415.99999999988</v>
+      </c>
+      <c r="L39" s="3">
+        <v>4925.9999999999973</v>
+      </c>
+      <c r="M39" s="3">
+        <v>3402333.9999999972</v>
+      </c>
+      <c r="N39" s="3">
+        <v>20.999999999999943</v>
+      </c>
+      <c r="O39" s="3">
+        <v>978.9999999999992</v>
+      </c>
+      <c r="P39" s="3">
+        <v>602011.49999999895</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
+        <v>35142.999999999993</v>
+      </c>
+      <c r="B40" s="3">
+        <v>4696.9999999999991</v>
+      </c>
+      <c r="C40" s="3">
+        <v>19598.053680000001</v>
+      </c>
+      <c r="D40" s="3">
+        <v>27639.699999999986</v>
+      </c>
+      <c r="E40" s="3">
+        <v>219.99999999999972</v>
+      </c>
+      <c r="F40" s="3">
+        <v>794230.03655999957</v>
+      </c>
+      <c r="G40" s="3">
+        <v>22.85</v>
+      </c>
+      <c r="H40" s="3">
+        <v>125.9999999999992</v>
+      </c>
+      <c r="I40" s="3">
+        <v>95.999999999999559</v>
+      </c>
+      <c r="J40" s="3">
+        <v>536.7999999999995</v>
+      </c>
+      <c r="K40" s="3">
+        <v>378688.00000000006</v>
+      </c>
+      <c r="L40" s="3">
+        <v>9071.9999999999927</v>
+      </c>
+      <c r="M40" s="3">
+        <v>8906174.1647999976</v>
+      </c>
+      <c r="N40" s="3">
+        <v>18.999999999999954</v>
+      </c>
+      <c r="O40" s="3">
+        <v>1432.9999999999993</v>
+      </c>
+      <c r="P40" s="3">
+        <v>3135363.9667199976</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
+        <v>31885.999999999989</v>
+      </c>
+      <c r="B41" s="3">
+        <v>5471</v>
+      </c>
+      <c r="C41" s="3">
+        <v>24531.17148999999</v>
+      </c>
+      <c r="D41" s="3">
+        <v>9993.7999999999938</v>
+      </c>
+      <c r="E41" s="3">
+        <v>349.99999999999949</v>
+      </c>
+      <c r="F41" s="3">
+        <v>135007.86686999991</v>
+      </c>
+      <c r="G41" s="3">
+        <v>22.88</v>
+      </c>
+      <c r="H41" s="3">
+        <v>126.99999999999916</v>
+      </c>
+      <c r="I41" s="3">
+        <v>24.999999999999879</v>
+      </c>
+      <c r="J41" s="3">
+        <v>357.59999999999962</v>
+      </c>
+      <c r="K41" s="3">
+        <v>532404</v>
+      </c>
+      <c r="L41" s="3">
+        <v>27023.969999999979</v>
+      </c>
+      <c r="M41" s="3">
+        <v>9174521.0092999972</v>
+      </c>
+      <c r="N41" s="3">
+        <v>29.999999999999922</v>
+      </c>
+      <c r="O41" s="3">
+        <v>2096.9999999999995</v>
+      </c>
+      <c r="P41" s="3">
+        <v>17566777.100189991</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A42" s="3">
         <v>47578.999999999993</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B42" s="3">
         <v>11633.999999999998</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C42" s="3">
         <v>24954.799999999999</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D42" s="3">
         <v>37654.999999999985</v>
       </c>
-      <c r="E22" s="2">
+      <c r="E42" s="3">
         <v>898.99999999999943</v>
       </c>
-      <c r="F22" s="2">
+      <c r="F42" s="3">
         <v>1350652</v>
       </c>
-      <c r="G22" s="2">
+      <c r="G42" s="3">
         <v>23.5</v>
       </c>
-      <c r="H22" s="2">
+      <c r="H42" s="3">
         <v>69.999999999999503</v>
       </c>
-      <c r="I22" s="2">
+      <c r="I42" s="3">
         <v>171.99999999999929</v>
       </c>
-      <c r="J22" s="2">
+      <c r="J42" s="3">
         <v>201.0999999999998</v>
       </c>
-      <c r="K22" s="2">
+      <c r="K42" s="3">
         <v>14598.999999999955</v>
       </c>
-      <c r="L22" s="2">
+      <c r="L42" s="3">
         <v>16640.329999999991</v>
       </c>
-      <c r="M22" s="2">
+      <c r="M42" s="3">
         <v>232538.99999999936</v>
       </c>
-      <c r="N22" s="2">
+      <c r="N42" s="3">
         <v>10.999999999999968</v>
       </c>
-      <c r="O22" s="2">
+      <c r="O42" s="3">
         <v>2737.9999999999991</v>
       </c>
-      <c r="P22" s="2">
+      <c r="P42" s="3">
         <v>32418265.199999992</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A43" s="3">
         <v>28553</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B43" s="3">
         <v>6935.9999999999991</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C43" s="3">
         <v>34591.617420000002</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D43" s="3">
         <v>13338.599999999997</v>
       </c>
-      <c r="E23" s="2">
+      <c r="E43" s="3">
         <v>494.99999999999943</v>
       </c>
-      <c r="F23" s="2">
+      <c r="F43" s="3">
         <v>139069.51849999998</v>
       </c>
-      <c r="G23" s="2">
+      <c r="G43" s="3">
         <v>22.9</v>
       </c>
-      <c r="H23" s="2">
+      <c r="H43" s="3">
         <v>76.999999999999531</v>
       </c>
-      <c r="I23" s="2">
+      <c r="I43" s="3">
         <v>124.99999999999952</v>
       </c>
-      <c r="J23" s="2">
+      <c r="J43" s="3">
         <v>169.2999999999999</v>
       </c>
-      <c r="K23" s="2">
+      <c r="K43" s="3">
         <v>19625.999999999978</v>
       </c>
-      <c r="L23" s="2">
+      <c r="L43" s="3">
         <v>10308.619999999997</v>
       </c>
-      <c r="M23" s="2">
+      <c r="M43" s="3">
         <v>429026.07919999963</v>
       </c>
-      <c r="N23" s="2">
+      <c r="N43" s="3">
         <v>11.999999999999972</v>
       </c>
-      <c r="O23" s="2">
+      <c r="O43" s="3">
         <v>2062</v>
       </c>
-      <c r="P23" s="2">
+      <c r="P43" s="3">
         <v>13315114.298400002</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A44" s="3">
         <v>79746</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B44" s="3">
         <v>16843</v>
       </c>
-      <c r="C24" s="2">
+      <c r="C44" s="3">
         <v>35339.908029999999</v>
       </c>
-      <c r="D24" s="2">
+      <c r="D44" s="3">
         <v>73491.599999999991</v>
       </c>
-      <c r="E24" s="2">
+      <c r="E44" s="3">
         <v>2645.9999999999991</v>
       </c>
-      <c r="F24" s="2">
+      <c r="F44" s="3">
         <v>2006637.54357</v>
       </c>
-      <c r="G24" s="2">
+      <c r="G44" s="3">
         <v>24.6</v>
       </c>
-      <c r="H24" s="2">
+      <c r="H44" s="3">
         <v>164.99999999999895</v>
       </c>
-      <c r="I24" s="2">
+      <c r="I44" s="3">
         <v>232.99999999999903</v>
       </c>
-      <c r="J24" s="2">
+      <c r="J44" s="3">
         <v>188.49999999999935</v>
       </c>
-      <c r="K24" s="2">
+      <c r="K44" s="3">
         <v>1592.9999999998829</v>
       </c>
-      <c r="L24" s="2">
+      <c r="L44" s="3">
         <v>23405.999999999971</v>
       </c>
-      <c r="M24" s="2">
+      <c r="M44" s="3">
         <v>313421.54109999974</v>
       </c>
-      <c r="N24" s="2">
+      <c r="N44" s="3">
         <v>7.9999999999999671</v>
       </c>
-      <c r="O24" s="2">
+      <c r="O44" s="3">
         <v>5536</v>
       </c>
-      <c r="P24" s="2">
+      <c r="P44" s="3">
         <v>37484508.028549999</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" s="2">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A45" s="3">
         <v>57687</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B45" s="3">
         <v>11292</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C45" s="3">
         <v>23845.612519999999</v>
       </c>
-      <c r="D25" s="2">
+      <c r="D45" s="3">
         <v>33352.599999999984</v>
       </c>
-      <c r="E25" s="2">
+      <c r="E45" s="3">
         <v>1263.9999999999993</v>
       </c>
-      <c r="F25" s="2">
+      <c r="F45" s="3">
         <v>1716389.6294400003</v>
       </c>
-      <c r="G25" s="2">
+      <c r="G45" s="3">
         <v>29.41</v>
       </c>
-      <c r="H25" s="2">
+      <c r="H45" s="3">
         <v>70.999999999999531</v>
       </c>
-      <c r="I25" s="2">
+      <c r="I45" s="3">
         <v>230.99999999999903</v>
       </c>
-      <c r="J25" s="2">
+      <c r="J45" s="3">
         <v>233.29999999999964</v>
       </c>
-      <c r="K25" s="2">
+      <c r="K45" s="3">
         <v>383.99999999993003</v>
       </c>
-      <c r="L25" s="2">
+      <c r="L45" s="3">
         <v>37867.999999999993</v>
       </c>
-      <c r="M25" s="2">
+      <c r="M45" s="3">
         <v>322803.30879999872</v>
       </c>
-      <c r="N25" s="2">
+      <c r="N45" s="3">
         <v>0.99999999999999423</v>
       </c>
-      <c r="O25" s="2">
+      <c r="O45" s="3">
         <v>2426.9999999999995</v>
       </c>
-      <c r="P25" s="2">
+      <c r="P45" s="3">
         <v>32139963.465120006</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="2">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A46" s="3">
         <v>141368</v>
       </c>
-      <c r="B26" s="2">
+      <c r="B46" s="3">
         <v>33537</v>
       </c>
-      <c r="C26" s="2">
+      <c r="C46" s="3">
         <v>27126.22694</v>
       </c>
-      <c r="D26" s="2">
+      <c r="D46" s="3">
         <v>58200</v>
       </c>
-      <c r="E26" s="2">
+      <c r="E46" s="3">
         <v>2876.9999999999973</v>
       </c>
-      <c r="F26" s="2">
+      <c r="F46" s="3">
         <v>10541809.012150001</v>
       </c>
-      <c r="G26" s="2">
+      <c r="G46" s="3">
         <v>31.4</v>
       </c>
-      <c r="H26" s="2">
+      <c r="H46" s="3">
         <v>306.99999999999795</v>
       </c>
-      <c r="I26" s="2">
+      <c r="I46" s="3">
         <v>198.99999999999918</v>
       </c>
-      <c r="J26" s="2">
+      <c r="J46" s="3">
         <v>474.69999999999879</v>
       </c>
-      <c r="K26" s="2">
+      <c r="K46" s="3">
         <v>595570.99999999977</v>
       </c>
-      <c r="L26" s="2">
+      <c r="L46" s="3">
         <v>59771.349999999991</v>
       </c>
-      <c r="M26" s="2">
+      <c r="M46" s="3">
         <v>1632754.1328999992</v>
       </c>
-      <c r="N26" s="2">
+      <c r="N46" s="3">
         <v>90.999999999999801</v>
       </c>
-      <c r="O26" s="2">
+      <c r="O46" s="3">
         <v>9371</v>
       </c>
-      <c r="P26" s="2">
+      <c r="P46" s="3">
         <v>79424596.731749997</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A47" s="3">
+        <v>59753</v>
+      </c>
+      <c r="B47" s="3">
+        <v>18176.000000000004</v>
+      </c>
+      <c r="C47" s="3">
+        <v>23163.327300000001</v>
+      </c>
+      <c r="D47" s="3">
+        <v>31730.199999999993</v>
+      </c>
+      <c r="E47" s="3">
+        <v>917.9999999999992</v>
+      </c>
+      <c r="F47" s="3">
+        <v>452989.22927999997</v>
+      </c>
+      <c r="G47" s="3">
+        <v>25.9</v>
+      </c>
+      <c r="H47" s="3">
+        <v>95.999999999999417</v>
+      </c>
+      <c r="I47" s="3">
+        <v>288.99999999999881</v>
+      </c>
+      <c r="J47" s="3">
+        <v>587.09999999999934</v>
+      </c>
+      <c r="K47" s="3">
+        <v>126725.99999999991</v>
+      </c>
+      <c r="L47" s="3">
+        <v>185639.8</v>
+      </c>
+      <c r="M47" s="3">
+        <v>14552482.084499996</v>
+      </c>
+      <c r="N47" s="3">
+        <v>24.99999999999995</v>
+      </c>
+      <c r="O47" s="3">
+        <v>2873</v>
+      </c>
+      <c r="P47" s="3">
+        <v>36429440.007749997</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A48" s="3">
+        <v>29720.999999999989</v>
+      </c>
+      <c r="B48" s="3">
+        <v>7325.9999999999973</v>
+      </c>
+      <c r="C48" s="3">
+        <v>26937.748680000001</v>
+      </c>
+      <c r="D48" s="3">
+        <v>34428.699999999997</v>
+      </c>
+      <c r="E48" s="3">
+        <v>295.99999999999977</v>
+      </c>
+      <c r="F48" s="3">
+        <v>874914.97008999961</v>
+      </c>
+      <c r="G48" s="3">
+        <v>27.8</v>
+      </c>
+      <c r="H48" s="3">
+        <v>71.999999999999531</v>
+      </c>
+      <c r="I48" s="3">
+        <v>61.99999999999973</v>
+      </c>
+      <c r="J48" s="3">
+        <v>326.69999999999953</v>
+      </c>
+      <c r="K48" s="3">
+        <v>242107.99999999991</v>
+      </c>
+      <c r="L48" s="3">
+        <v>22680.459999999981</v>
+      </c>
+      <c r="M48" s="3">
+        <v>1912868.0863999992</v>
+      </c>
+      <c r="N48" s="3">
+        <v>33.999999999999929</v>
+      </c>
+      <c r="O48" s="3">
+        <v>2005.9999999999991</v>
+      </c>
+      <c r="P48" s="3">
+        <v>10106972.212469997</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A49" s="3">
+        <v>33916.999999999993</v>
+      </c>
+      <c r="B49" s="3">
+        <v>8685.9999999999982</v>
+      </c>
+      <c r="C49" s="3">
+        <v>42094.553160000003</v>
+      </c>
+      <c r="D49" s="3">
+        <v>24708.299999999988</v>
+      </c>
+      <c r="E49" s="3">
+        <v>784.99999999999943</v>
+      </c>
+      <c r="F49" s="3">
+        <v>235916.11684999964</v>
+      </c>
+      <c r="G49" s="3">
+        <v>24.1</v>
+      </c>
+      <c r="H49" s="3">
+        <v>95.999999999999361</v>
+      </c>
+      <c r="I49" s="3">
+        <v>89.999999999999616</v>
+      </c>
+      <c r="J49" s="3">
+        <v>203.39999999999958</v>
+      </c>
+      <c r="K49" s="3">
+        <v>5408.9999999999827</v>
+      </c>
+      <c r="L49" s="3">
+        <v>10979.999999999987</v>
+      </c>
+      <c r="M49" s="3">
+        <v>284662.70919999992</v>
+      </c>
+      <c r="N49" s="3">
+        <v>22.999999999999936</v>
+      </c>
+      <c r="O49" s="3">
+        <v>2374.9999999999995</v>
+      </c>
+      <c r="P49" s="3">
+        <v>19503601.519479997</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A50" s="3">
+        <v>24095.999999999989</v>
+      </c>
+      <c r="B50" s="3">
+        <v>7612.9999999999955</v>
+      </c>
+      <c r="C50" s="3">
+        <v>46334.301520000001</v>
+      </c>
+      <c r="D50" s="3">
+        <v>16250.099999999991</v>
+      </c>
+      <c r="E50" s="3">
+        <v>234.99999999999969</v>
+      </c>
+      <c r="F50" s="3">
+        <v>32648.816119999738</v>
+      </c>
+      <c r="G50" s="3">
+        <v>30</v>
+      </c>
+      <c r="H50" s="3">
+        <v>79.999999999999446</v>
+      </c>
+      <c r="I50" s="3">
+        <v>107.9999999999995</v>
+      </c>
+      <c r="J50" s="3">
+        <v>427.19999999999948</v>
+      </c>
+      <c r="K50" s="3">
+        <v>4131.9999999999918</v>
+      </c>
+      <c r="L50" s="3">
+        <v>8392.9999999999873</v>
+      </c>
+      <c r="M50" s="3">
+        <v>188124.7558999997</v>
+      </c>
+      <c r="N50" s="3">
+        <v>17.99999999999995</v>
+      </c>
+      <c r="O50" s="3">
+        <v>2056.9999999999991</v>
+      </c>
+      <c r="P50" s="3">
+        <v>14058344.947639994</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A51" s="3">
+        <v>22690.999999999989</v>
+      </c>
+      <c r="B51" s="3">
+        <v>4205.9999999999991</v>
+      </c>
+      <c r="C51" s="3">
+        <v>19389.94642</v>
+      </c>
+      <c r="D51" s="3">
+        <v>11099.749999999991</v>
+      </c>
+      <c r="E51" s="3">
+        <v>433.9999999999996</v>
+      </c>
+      <c r="F51" s="3">
+        <v>788066.8027999996</v>
+      </c>
+      <c r="G51" s="3">
+        <v>24.92</v>
+      </c>
+      <c r="H51" s="3">
+        <v>97.999999999999346</v>
+      </c>
+      <c r="I51" s="3">
+        <v>39.999999999999808</v>
+      </c>
+      <c r="J51" s="3">
+        <v>809.89999999999918</v>
+      </c>
+      <c r="K51" s="3">
+        <v>34895.999999999935</v>
+      </c>
+      <c r="L51" s="3">
+        <v>20614.999999999989</v>
+      </c>
+      <c r="M51" s="3">
+        <v>3207835.7308999989</v>
+      </c>
+      <c r="N51" s="3">
+        <v>23.999999999999936</v>
+      </c>
+      <c r="O51" s="3">
+        <v>862.99999999999943</v>
+      </c>
+      <c r="P51" s="3">
+        <v>14660212.994809996</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A52" s="3">
         <v>23671.999999999989</v>
       </c>
-      <c r="B27" s="2">
+      <c r="B52" s="3">
         <v>2819.9999999999991</v>
       </c>
-      <c r="C27" s="2">
+      <c r="C52" s="3">
         <v>17545.93204</v>
       </c>
-      <c r="D27" s="2">
+      <c r="D52" s="3">
         <v>16399.19999999999</v>
       </c>
-      <c r="E27" s="2">
+      <c r="E52" s="3">
         <v>346.9999999999996</v>
       </c>
-      <c r="F27" s="2">
-        <v>573514.04293999961</v>
-      </c>
-      <c r="G27" s="2">
+      <c r="F52" s="3">
+        <v>573514.04293999996</v>
+      </c>
+      <c r="G52" s="3">
         <v>28</v>
       </c>
-      <c r="H27" s="2">
+      <c r="H52" s="3">
         <v>64.999999999999574</v>
       </c>
-      <c r="I27" s="2">
+      <c r="I52" s="3">
         <v>59.999999999999716</v>
       </c>
-      <c r="J27" s="2">
+      <c r="J52" s="3">
         <v>382.49999999999949</v>
       </c>
-      <c r="K27" s="2">
+      <c r="K52" s="3">
         <v>39639.999999999935</v>
       </c>
-      <c r="L27" s="2">
+      <c r="L52" s="3">
         <v>9314.3999999999924</v>
       </c>
-      <c r="M27" s="2">
+      <c r="M52" s="3">
         <v>3234408.7671999987</v>
       </c>
-      <c r="N27" s="2">
+      <c r="N52" s="3">
         <v>17.99999999999995</v>
       </c>
-      <c r="O27" s="2">
+      <c r="O52" s="3">
         <v>744.99999999999955</v>
       </c>
-      <c r="P27" s="2">
-        <v>828015.21829999832</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A28" s="2">
+      <c r="P52" s="3">
+        <v>828015.21829999797</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A53" s="3">
         <v>116468</v>
       </c>
-      <c r="B28" s="2">
+      <c r="B53" s="3">
         <v>21239.000000000004</v>
       </c>
-      <c r="C28" s="2">
+      <c r="C53" s="3">
         <v>23604.910929999998</v>
       </c>
-      <c r="D28" s="2">
+      <c r="D53" s="3">
         <v>64664.399999999987</v>
       </c>
-      <c r="E28" s="2">
+      <c r="E53" s="3">
         <v>2076.9999999999995</v>
       </c>
-      <c r="F28" s="2">
-        <v>4676977.1911799992</v>
-      </c>
-      <c r="G28" s="2">
+      <c r="F53" s="3">
+        <v>4676977.1911800001</v>
+      </c>
+      <c r="G53" s="3">
         <v>30.2</v>
       </c>
-      <c r="H28" s="2">
+      <c r="H53" s="3">
         <v>300.99999999999807</v>
       </c>
-      <c r="I28" s="2">
+      <c r="I53" s="3">
         <v>303.99999999999869</v>
       </c>
-      <c r="J28" s="2">
+      <c r="J53" s="3">
         <v>783.79999999999882</v>
       </c>
-      <c r="K28" s="2">
+      <c r="K53" s="3">
         <v>202571.00000000003</v>
       </c>
-      <c r="L28" s="2">
+      <c r="L53" s="3">
         <v>87368.909999999974</v>
       </c>
-      <c r="M28" s="2">
+      <c r="M53" s="3">
         <v>8408723.8795999978</v>
       </c>
-      <c r="N28" s="2">
+      <c r="N53" s="3">
         <v>34.999999999999901</v>
       </c>
-      <c r="O28" s="2">
+      <c r="O53" s="3">
         <v>4502</v>
       </c>
-      <c r="P28" s="2">
+      <c r="P53" s="3">
         <v>19397519.885310002</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A29" s="2">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A54" s="3">
         <v>64841.999999999993</v>
       </c>
-      <c r="B29" s="2">
+      <c r="B54" s="3">
         <v>15028.999999999996</v>
       </c>
-      <c r="C29" s="2">
+      <c r="C54" s="3">
         <v>25869.387780000001</v>
       </c>
-      <c r="D29" s="2">
+      <c r="D54" s="3">
         <v>17235.499999999989</v>
       </c>
-      <c r="E29" s="2">
+      <c r="E54" s="3">
         <v>1123.9999999999986</v>
       </c>
-      <c r="F29" s="2">
+      <c r="F54" s="3">
         <v>866008.93850999954</v>
       </c>
-      <c r="G29" s="2">
+      <c r="G54" s="3">
         <v>23.8</v>
       </c>
-      <c r="H29" s="2">
+      <c r="H54" s="3">
         <v>124.99999999999919</v>
       </c>
-      <c r="I29" s="2">
+      <c r="I54" s="3">
         <v>194.99999999999915</v>
       </c>
-      <c r="J29" s="2">
+      <c r="J54" s="3">
         <v>235.39999999999975</v>
       </c>
-      <c r="K29" s="2">
+      <c r="K54" s="3">
         <v>2168.999999999995</v>
       </c>
-      <c r="L29" s="2">
+      <c r="L54" s="3">
         <v>22439.059999999987</v>
       </c>
-      <c r="M29" s="2">
+      <c r="M54" s="3">
         <v>259751.15039999882</v>
       </c>
-      <c r="N29" s="2">
+      <c r="N54" s="3">
         <v>11.999999999999948</v>
       </c>
-      <c r="O29" s="2">
+      <c r="O54" s="3">
         <v>3210.9999999999995</v>
       </c>
-      <c r="P29" s="2">
+      <c r="P54" s="3">
         <v>9430951.7147999946</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A30" s="2">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A55" s="3">
         <v>64100</v>
       </c>
-      <c r="B30" s="2">
+      <c r="B55" s="3">
         <v>9192</v>
       </c>
-      <c r="C30" s="2">
+      <c r="C55" s="3">
         <v>21205.026720000002</v>
       </c>
-      <c r="D30" s="2">
+      <c r="D55" s="3">
         <v>59994</v>
       </c>
-      <c r="E30" s="2">
+      <c r="E55" s="3">
         <v>1042.9999999999993</v>
       </c>
-      <c r="F30" s="2">
+      <c r="F55" s="3">
         <v>1194600.3487199994</v>
       </c>
-      <c r="G30" s="2">
+      <c r="G55" s="3">
         <v>24.81</v>
       </c>
-      <c r="H30" s="2">
+      <c r="H55" s="3">
         <v>140.99999999999912</v>
       </c>
-      <c r="I30" s="2">
+      <c r="I55" s="3">
         <v>92.999999999999559</v>
       </c>
-      <c r="J30" s="2">
+      <c r="J55" s="3">
         <v>563.59999999999923</v>
       </c>
-      <c r="K30" s="2">
+      <c r="K55" s="3">
         <v>35895.999999999993</v>
       </c>
-      <c r="L30" s="2">
+      <c r="L55" s="3">
         <v>57654.419999999991</v>
       </c>
-      <c r="M30" s="2">
+      <c r="M55" s="3">
         <v>8271274.1760000018</v>
       </c>
-      <c r="N30" s="2">
+      <c r="N55" s="3">
         <v>36.999999999999908</v>
       </c>
-      <c r="O30" s="2">
+      <c r="O55" s="3">
         <v>3089.9999999999995</v>
       </c>
-      <c r="P30" s="2">
+      <c r="P55" s="3">
         <v>7029925.2345599988</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A31" s="2">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A56" s="3">
         <v>105038</v>
       </c>
-      <c r="B31" s="2">
+      <c r="B56" s="3">
         <v>11442</v>
       </c>
-      <c r="C31" s="2">
+      <c r="C56" s="3">
         <v>18218.315640000001</v>
       </c>
-      <c r="D31" s="2">
+      <c r="D56" s="3">
         <v>69421.599999999991</v>
       </c>
-      <c r="E31" s="2">
+      <c r="E56" s="3">
         <v>79.999999999999517</v>
       </c>
-      <c r="F31" s="2">
-        <v>3389505.0557000008</v>
-      </c>
-      <c r="G31" s="2">
+      <c r="F56" s="3">
+        <v>3389505.0556999999</v>
+      </c>
+      <c r="G56" s="3">
         <v>21.85</v>
       </c>
-      <c r="H31" s="2">
+      <c r="H56" s="3">
         <v>164.99999999999895</v>
       </c>
-      <c r="I31" s="2">
+      <c r="I56" s="3">
         <v>248.99999999999898</v>
       </c>
-      <c r="J31" s="2">
+      <c r="J56" s="3">
         <v>369.09999999999923</v>
       </c>
-      <c r="K31" s="2">
+      <c r="K56" s="3">
         <v>18256.999999999818</v>
       </c>
-      <c r="L31" s="2">
+      <c r="L56" s="3">
         <v>57789.999999999949</v>
       </c>
-      <c r="M31" s="2">
+      <c r="M56" s="3">
         <v>521260.11459999764</v>
       </c>
-      <c r="N31" s="2">
+      <c r="N56" s="3">
         <v>5.9999999999999627</v>
       </c>
-      <c r="O31" s="2">
+      <c r="O56" s="3">
         <v>3403</v>
       </c>
-      <c r="P31" s="2">
-        <v>5939939.1027599983</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A32" s="2">
+      <c r="P56" s="3">
+        <v>5939939.1027600002</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A57" s="3">
+        <v>22677.999999999989</v>
+      </c>
+      <c r="B57" s="3">
+        <v>2547.9999999999977</v>
+      </c>
+      <c r="C57" s="3">
+        <v>18638.87111</v>
+      </c>
+      <c r="D57" s="3">
+        <v>10254.999999999993</v>
+      </c>
+      <c r="E57" s="3">
+        <v>511.99999999999943</v>
+      </c>
+      <c r="F57" s="3">
+        <v>451466.86220999988</v>
+      </c>
+      <c r="G57" s="3">
+        <v>25</v>
+      </c>
+      <c r="H57" s="3">
+        <v>83.999999999999432</v>
+      </c>
+      <c r="I57" s="3">
+        <v>32.999999999999851</v>
+      </c>
+      <c r="J57" s="3">
+        <v>265.79999999999973</v>
+      </c>
+      <c r="K57" s="3">
+        <v>14455.999999999975</v>
+      </c>
+      <c r="L57" s="3">
+        <v>35901.049999999996</v>
+      </c>
+      <c r="M57" s="3">
+        <v>1395103.6922999984</v>
+      </c>
+      <c r="N57" s="3">
+        <v>25.999999999999936</v>
+      </c>
+      <c r="O57" s="3">
+        <v>919.99999999999955</v>
+      </c>
+      <c r="P57" s="3">
+        <v>932526.86903999816</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A58" s="3">
+        <v>17174.999999999989</v>
+      </c>
+      <c r="B58" s="3">
+        <v>2330.9999999999977</v>
+      </c>
+      <c r="C58" s="3">
+        <v>22823.19152</v>
+      </c>
+      <c r="D58" s="3">
+        <v>6715.4999999999927</v>
+      </c>
+      <c r="E58" s="3">
+        <v>244.99999999999955</v>
+      </c>
+      <c r="F58" s="3">
+        <v>235832.72977999973</v>
+      </c>
+      <c r="G58" s="3">
+        <v>27.3</v>
+      </c>
+      <c r="H58" s="3">
+        <v>76.99999999999946</v>
+      </c>
+      <c r="I58" s="3">
+        <v>7.9999999999999538</v>
+      </c>
+      <c r="J58" s="3">
+        <v>81.299999999999784</v>
+      </c>
+      <c r="K58" s="3">
+        <v>86576.999999999913</v>
+      </c>
+      <c r="L58" s="3">
+        <v>15944.749999999989</v>
+      </c>
+      <c r="M58" s="3">
+        <v>1820784.7858999991</v>
+      </c>
+      <c r="N58" s="3">
+        <v>15.99999999999995</v>
+      </c>
+      <c r="O58" s="3">
+        <v>729.99999999999955</v>
+      </c>
+      <c r="P58" s="3">
+        <v>1460779.4436599989</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A59" s="3">
+        <v>39066.999999999993</v>
+      </c>
+      <c r="B59" s="3">
+        <v>6011.9999999999982</v>
+      </c>
+      <c r="C59" s="3">
+        <v>18611.958289999999</v>
+      </c>
+      <c r="D59" s="3">
+        <v>20455.999999999993</v>
+      </c>
+      <c r="E59" s="3">
+        <v>645.99999999999943</v>
+      </c>
+      <c r="F59" s="3">
+        <v>899043.39099999995</v>
+      </c>
+      <c r="G59" s="3">
+        <v>37.19</v>
+      </c>
+      <c r="H59" s="3">
+        <v>147.99999999999906</v>
+      </c>
+      <c r="I59" s="3">
+        <v>40.999999999999794</v>
+      </c>
+      <c r="J59" s="3">
+        <v>618.49999999999932</v>
+      </c>
+      <c r="K59" s="3">
+        <v>27023.999999999942</v>
+      </c>
+      <c r="L59" s="3">
+        <v>26455.999999999993</v>
+      </c>
+      <c r="M59" s="3">
+        <v>2652645.5177999986</v>
+      </c>
+      <c r="N59" s="3">
+        <v>18.99999999999995</v>
+      </c>
+      <c r="O59" s="3">
+        <v>1149.9999999999995</v>
+      </c>
+      <c r="P59" s="3">
+        <v>6067714.9468499981</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A60" s="3">
+        <v>27626.999999999989</v>
+      </c>
+      <c r="B60" s="3">
+        <v>3520.9999999999991</v>
+      </c>
+      <c r="C60" s="3">
+        <v>19147.145039999999</v>
+      </c>
+      <c r="D60" s="3">
+        <v>11267.999999999993</v>
+      </c>
+      <c r="E60" s="3">
+        <v>1097.9999999999991</v>
+      </c>
+      <c r="F60" s="3">
+        <v>584236.91447999945</v>
+      </c>
+      <c r="G60" s="3">
+        <v>51.2</v>
+      </c>
+      <c r="H60" s="3">
+        <v>122.99999999999919</v>
+      </c>
+      <c r="I60" s="3">
+        <v>36.999999999999829</v>
+      </c>
+      <c r="J60" s="3">
+        <v>408.3999999999993</v>
+      </c>
+      <c r="K60" s="3">
+        <v>38837.999999999964</v>
+      </c>
+      <c r="L60" s="3">
+        <v>26779.999999999989</v>
+      </c>
+      <c r="M60" s="3">
+        <v>2725337.6207999978</v>
+      </c>
+      <c r="N60" s="3">
+        <v>16.999999999999954</v>
+      </c>
+      <c r="O60" s="3">
+        <v>1043.9999999999995</v>
+      </c>
+      <c r="P60" s="3">
+        <v>556306.09055999748</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A61" s="3">
+        <v>31271</v>
+      </c>
+      <c r="B61" s="3">
+        <v>4769.9999999999982</v>
+      </c>
+      <c r="C61" s="3">
+        <v>16996.987359999999</v>
+      </c>
+      <c r="D61" s="3">
+        <v>11655.999999999998</v>
+      </c>
+      <c r="E61" s="3">
+        <v>633.99999999999977</v>
+      </c>
+      <c r="F61" s="3">
+        <v>312410.58597000001</v>
+      </c>
+      <c r="G61" s="3">
+        <v>29.58</v>
+      </c>
+      <c r="H61" s="3">
+        <v>71.999999999999559</v>
+      </c>
+      <c r="I61" s="3">
+        <v>113.99999999999952</v>
+      </c>
+      <c r="J61" s="3">
+        <v>478.49999999999966</v>
+      </c>
+      <c r="K61" s="3">
+        <v>116217.99999999997</v>
+      </c>
+      <c r="L61" s="3">
+        <v>29804.749999999989</v>
+      </c>
+      <c r="M61" s="3">
+        <v>5228156.3358999994</v>
+      </c>
+      <c r="N61" s="3">
+        <v>38.999999999999915</v>
+      </c>
+      <c r="O61" s="3">
+        <v>1186.9999999999998</v>
+      </c>
+      <c r="P61" s="3">
+        <v>2895385.0253199995</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A62" s="3">
         <v>17275</v>
       </c>
-      <c r="B32" s="2">
+      <c r="B62" s="4">
         <v>3074.994130329068</v>
       </c>
-      <c r="C32" s="2">
+      <c r="C62" s="4">
         <v>20815.4167831292</v>
       </c>
-      <c r="D32" s="2">
+      <c r="D62" s="4">
         <v>9990.9274654330093</v>
       </c>
-      <c r="E32" s="2">
+      <c r="E62" s="4">
         <v>881.00766886934832</v>
       </c>
-      <c r="F32" s="2">
+      <c r="F62" s="4">
         <v>1094086.860592877</v>
       </c>
-      <c r="G32" s="2">
+      <c r="G62" s="4">
         <v>39.4</v>
       </c>
-      <c r="H32" s="2">
+      <c r="H62" s="4">
         <v>52.28189156677908</v>
       </c>
-      <c r="I32" s="2">
+      <c r="I62" s="4">
         <v>9.8294841543144535</v>
       </c>
-      <c r="J32" s="2">
+      <c r="J62" s="4">
         <v>338.98346838031421</v>
       </c>
-      <c r="K32" s="2">
+      <c r="K62" s="4">
         <v>35709.008909223878</v>
       </c>
-      <c r="L32" s="2">
+      <c r="L62" s="4">
         <v>73632.724884151248</v>
       </c>
-      <c r="M32" s="2">
+      <c r="M62" s="4">
         <v>744853.96513498458</v>
       </c>
-      <c r="N32" s="2">
+      <c r="N62" s="4">
         <v>35.752251160859089</v>
       </c>
-      <c r="O32" s="2">
+      <c r="O62" s="4">
         <v>1599.139320430128</v>
       </c>
-      <c r="P32" s="2">
+      <c r="P62" s="4">
         <v>356159.95995556231</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A33" s="2">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A63" s="3">
         <v>65842</v>
       </c>
-      <c r="B33" s="2">
+      <c r="B63" s="2">
         <v>10892</v>
       </c>
-      <c r="C33" s="2">
+      <c r="C63" s="2">
         <v>21988.19528</v>
       </c>
-      <c r="D33" s="2">
+      <c r="D63" s="2">
         <v>37427.899999999987</v>
       </c>
-      <c r="E33" s="2">
+      <c r="E63" s="2">
         <v>881.00766886934832</v>
       </c>
-      <c r="F33" s="2">
+      <c r="F63" s="2">
         <v>2824760.72811</v>
       </c>
-      <c r="G33" s="2">
+      <c r="G63" s="2">
         <v>30.831632653061199</v>
       </c>
-      <c r="H33" s="2">
+      <c r="H63" s="2">
         <v>125.6772308691166</v>
       </c>
-      <c r="I33" s="2">
+      <c r="I63" s="2">
         <v>242.99999999999901</v>
       </c>
-      <c r="J33" s="2">
+      <c r="J63" s="2">
         <v>657.77532591485419</v>
       </c>
-      <c r="K33" s="2">
+      <c r="K63" s="2">
         <v>959880.00000000023</v>
       </c>
-      <c r="L33" s="2">
+      <c r="L63" s="2">
         <v>322825.61999999988</v>
       </c>
-      <c r="M33" s="2">
+      <c r="M63" s="2">
         <v>12665201.631200001</v>
       </c>
-      <c r="N33" s="2">
+      <c r="N63" s="2">
         <v>35.752251160859089</v>
       </c>
-      <c r="O33" s="2">
+      <c r="O63" s="2">
         <v>3185</v>
       </c>
-      <c r="P33" s="2">
+      <c r="P63" s="2">
         <v>12405299.012639999</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A34" s="2">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A64" s="3">
         <v>34498.999999999993</v>
       </c>
-      <c r="B34" s="2">
+      <c r="B64" s="2">
         <v>7235.9999999999973</v>
       </c>
-      <c r="C34" s="2">
+      <c r="C64" s="2">
         <v>20815.4167831292</v>
       </c>
-      <c r="D34" s="2">
+      <c r="D64" s="2">
         <v>19721.961700869851</v>
       </c>
-      <c r="E34" s="2">
+      <c r="E64" s="2">
         <v>2286.9999999999991</v>
       </c>
-      <c r="F34" s="2">
+      <c r="F64" s="2">
         <v>1199846.21903</v>
       </c>
-      <c r="G34" s="2">
+      <c r="G64" s="2">
         <v>30.831632653061199</v>
       </c>
-      <c r="H34" s="2">
+      <c r="H64" s="2">
         <v>125.6772308691166</v>
       </c>
-      <c r="I34" s="2">
+      <c r="I64" s="2">
         <v>77.805859831260051</v>
       </c>
-      <c r="J34" s="2">
+      <c r="J64" s="2">
         <v>664.79999999999927</v>
       </c>
-      <c r="K34" s="2">
+      <c r="K64" s="2">
         <v>208310</v>
       </c>
-      <c r="L34" s="2">
+      <c r="L64" s="2">
         <v>73217.653887984008</v>
       </c>
-      <c r="M34" s="2">
+      <c r="M64" s="2">
         <v>2545166.6184198498</v>
       </c>
-      <c r="N34" s="2">
+      <c r="N64" s="2">
         <v>40.999999999999908</v>
       </c>
-      <c r="O34" s="2">
+      <c r="O64" s="2">
         <v>2013.9999999999991</v>
       </c>
-      <c r="P34" s="2">
+      <c r="P64" s="2">
         <v>5013077.512856801</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A35" s="2">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A65" s="3">
         <v>18562</v>
       </c>
-      <c r="B35" s="2">
+      <c r="B65" s="2">
         <v>5648.5582401918809</v>
       </c>
-      <c r="C35" s="2">
+      <c r="C65" s="2">
         <v>21712.38264</v>
       </c>
-      <c r="D35" s="2">
+      <c r="D65" s="2">
         <v>10065.874830010231</v>
       </c>
-      <c r="E35" s="2">
+      <c r="E65" s="2">
         <v>881.00766886934832</v>
       </c>
-      <c r="F35" s="2">
+      <c r="F65" s="2">
         <v>693877.79925142787</v>
       </c>
-      <c r="G35" s="2">
+      <c r="G65" s="2">
         <v>38.200000000000003</v>
       </c>
-      <c r="H35" s="2">
+      <c r="H65" s="2">
         <v>125.6772308691166</v>
       </c>
-      <c r="I35" s="2">
+      <c r="I65" s="2">
         <v>77.805859831260051</v>
       </c>
-      <c r="J35" s="2">
+      <c r="J65" s="2">
         <v>657.77532591485419</v>
       </c>
-      <c r="K35" s="2">
+      <c r="K65" s="2">
         <v>16451.428351689148</v>
       </c>
-      <c r="L35" s="2">
+      <c r="L65" s="2">
         <v>44614.97432854872</v>
       </c>
-      <c r="M35" s="2">
+      <c r="M65" s="2">
         <v>4968189.5378400004</v>
       </c>
-      <c r="N35" s="2">
+      <c r="N65" s="2">
         <v>35.752251160859089</v>
       </c>
-      <c r="O35" s="2">
+      <c r="O65" s="2">
         <v>1599.139320430128</v>
       </c>
-      <c r="P35" s="2">
+      <c r="P65" s="2">
         <v>2603925.131103361</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A36" s="2">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A66" s="3">
         <v>28673</v>
       </c>
-      <c r="B36" s="2">
+      <c r="B66" s="2">
         <v>5648.5582401918809</v>
       </c>
-      <c r="C36" s="2">
+      <c r="C66" s="2">
         <v>20815.4167831292</v>
       </c>
-      <c r="D36" s="2">
+      <c r="D66" s="2">
         <v>19721.961700869851</v>
       </c>
-      <c r="E36" s="2">
+      <c r="E66" s="2">
         <v>1185.9999999999991</v>
       </c>
-      <c r="F36" s="2">
+      <c r="F66" s="2">
         <v>1094086.860592877</v>
       </c>
-      <c r="G36" s="2">
+      <c r="G66" s="2">
         <v>36.5</v>
       </c>
-      <c r="H36" s="2">
+      <c r="H66" s="2">
         <v>125.6772308691166</v>
       </c>
-      <c r="I36" s="2">
+      <c r="I66" s="2">
         <v>91.999999999999645</v>
       </c>
-      <c r="J36" s="2">
+      <c r="J66" s="2">
         <v>873.59999999999934</v>
       </c>
-      <c r="K36" s="2">
+      <c r="K66" s="2">
         <v>127583</v>
       </c>
-      <c r="L36" s="2">
+      <c r="L66" s="2">
         <v>69713.060492630117</v>
       </c>
-      <c r="M36" s="2">
+      <c r="M66" s="2">
         <v>5517088.4192999983</v>
       </c>
-      <c r="N36" s="2">
+      <c r="N66" s="2">
         <v>38.999999999999908</v>
       </c>
-      <c r="O36" s="2">
+      <c r="O66" s="2">
         <v>1599.139320430128</v>
       </c>
-      <c r="P36" s="2">
+      <c r="P66" s="2">
         <v>6142682.3205399979</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A37" s="2">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A67" s="3">
+        <v>30730</v>
+      </c>
+      <c r="B67" s="2">
+        <v>5648.5582401918809</v>
+      </c>
+      <c r="C67" s="2">
+        <v>20815.4167831292</v>
+      </c>
+      <c r="D67" s="2">
+        <v>19721.961700869851</v>
+      </c>
+      <c r="E67" s="2">
+        <v>881.00766886934832</v>
+      </c>
+      <c r="F67" s="2">
+        <v>1094086.860592877</v>
+      </c>
+      <c r="G67" s="2">
+        <v>30.831632653061199</v>
+      </c>
+      <c r="H67" s="2">
+        <v>125.6772308691166</v>
+      </c>
+      <c r="I67" s="2">
+        <v>77.805859831260051</v>
+      </c>
+      <c r="J67" s="2">
+        <v>889.29999999999927</v>
+      </c>
+      <c r="K67" s="2">
+        <v>32318.51938735506</v>
+      </c>
+      <c r="L67" s="2">
+        <v>120574.1931586198</v>
+      </c>
+      <c r="M67" s="2">
+        <v>1210639.5912607191</v>
+      </c>
+      <c r="N67" s="2">
+        <v>35.752251160859089</v>
+      </c>
+      <c r="O67" s="2">
+        <v>1646</v>
+      </c>
+      <c r="P67" s="2">
+        <v>3774322.023712398</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A68" s="3">
+        <v>23798.999999999989</v>
+      </c>
+      <c r="B68" s="2">
+        <v>5648.5582401918809</v>
+      </c>
+      <c r="C68" s="2">
+        <v>22498.426080000001</v>
+      </c>
+      <c r="D68" s="2">
+        <v>7962.0480681034342</v>
+      </c>
+      <c r="E68" s="2">
+        <v>1088.9999999999991</v>
+      </c>
+      <c r="F68" s="2">
+        <v>1094086.860592877</v>
+      </c>
+      <c r="G68" s="2">
+        <v>30.831632653061199</v>
+      </c>
+      <c r="H68" s="2">
+        <v>59.252810442349613</v>
+      </c>
+      <c r="I68" s="2">
+        <v>29.488452462943371</v>
+      </c>
+      <c r="J68" s="2">
+        <v>657.77532591485419</v>
+      </c>
+      <c r="K68" s="2">
+        <v>19293.129595771868</v>
+      </c>
+      <c r="L68" s="2">
+        <v>120574.1931586198</v>
+      </c>
+      <c r="M68" s="2">
+        <v>2966461.9239831269</v>
+      </c>
+      <c r="N68" s="2">
+        <v>35.752251160859089</v>
+      </c>
+      <c r="O68" s="2">
+        <v>1599.139320430128</v>
+      </c>
+      <c r="P68" s="2">
+        <v>2143244.8609537729</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A69" s="3">
+        <v>16244</v>
+      </c>
+      <c r="B69" s="2">
+        <v>2960.3506043433108</v>
+      </c>
+      <c r="C69" s="2">
+        <v>20815.4167831292</v>
+      </c>
+      <c r="D69" s="2">
+        <v>9851.6338437681188</v>
+      </c>
+      <c r="E69" s="2">
+        <v>48.952351412046013</v>
+      </c>
+      <c r="F69" s="2">
+        <v>193740.18554122219</v>
+      </c>
+      <c r="G69" s="2">
+        <v>31.1</v>
+      </c>
+      <c r="H69" s="2">
+        <v>125.6772308691166</v>
+      </c>
+      <c r="I69" s="2">
+        <v>28.259766943654061</v>
+      </c>
+      <c r="J69" s="2">
+        <v>657.77532591485419</v>
+      </c>
+      <c r="K69" s="2">
+        <v>32908.41124060288</v>
+      </c>
+      <c r="L69" s="2">
+        <v>53710.529937918851</v>
+      </c>
+      <c r="M69" s="2">
+        <v>1569438.3364156</v>
+      </c>
+      <c r="N69" s="2">
+        <v>35.752251160859089</v>
+      </c>
+      <c r="O69" s="2">
+        <v>1599.139320430128</v>
+      </c>
+      <c r="P69" s="2">
+        <v>468323.87739203149</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A70" s="3">
+        <v>11710.999999999991</v>
+      </c>
+      <c r="B70" s="2">
+        <v>1993.523535196764</v>
+      </c>
+      <c r="C70" s="2">
+        <v>20815.4167831292</v>
+      </c>
+      <c r="D70" s="2">
+        <v>7315.1339738579973</v>
+      </c>
+      <c r="E70" s="2">
+        <v>316.96647539299829</v>
+      </c>
+      <c r="F70" s="2">
+        <v>148631.81269205641</v>
+      </c>
+      <c r="G70" s="2">
+        <v>30.831632653061199</v>
+      </c>
+      <c r="H70" s="2">
+        <v>55.767351004564333</v>
+      </c>
+      <c r="I70" s="2">
+        <v>25.802395905075439</v>
+      </c>
+      <c r="J70" s="2">
+        <v>352.57020894523748</v>
+      </c>
+      <c r="K70" s="2">
+        <v>36036.726605472657</v>
+      </c>
+      <c r="L70" s="2">
+        <v>42750.756701548082</v>
+      </c>
+      <c r="M70" s="2">
+        <v>1131955.221461995</v>
+      </c>
+      <c r="N70" s="2">
+        <v>16.360449021407231</v>
+      </c>
+      <c r="O70" s="2">
+        <v>609.46719943044934</v>
+      </c>
+      <c r="P70" s="2">
+        <v>589514.29296220769</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A71" s="3">
+        <v>29815.999999999989</v>
+      </c>
+      <c r="B71" s="2">
+        <v>5648.5582401918809</v>
+      </c>
+      <c r="C71" s="2">
+        <v>20815.4167831292</v>
+      </c>
+      <c r="D71" s="2">
+        <v>19721.961700869851</v>
+      </c>
+      <c r="E71" s="2">
+        <v>329.2045632460098</v>
+      </c>
+      <c r="F71" s="2">
+        <v>602993.17033437989</v>
+      </c>
+      <c r="G71" s="2">
+        <v>30.831632653061199</v>
+      </c>
+      <c r="H71" s="2">
+        <v>67.385549130515244</v>
+      </c>
+      <c r="I71" s="2">
+        <v>77.805859831260051</v>
+      </c>
+      <c r="J71" s="2">
+        <v>250.95509043446631</v>
+      </c>
+      <c r="K71" s="2">
+        <v>137192.99999999991</v>
+      </c>
+      <c r="L71" s="2">
+        <v>146352.99999999991</v>
+      </c>
+      <c r="M71" s="2">
+        <v>2452949.0459036939</v>
+      </c>
+      <c r="N71" s="2">
+        <v>35.752251160859089</v>
+      </c>
+      <c r="O71" s="2">
+        <v>1599.139320430128</v>
+      </c>
+      <c r="P71" s="2">
+        <v>341793.85561474512</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A72" s="3">
         <v>28434</v>
       </c>
-      <c r="B37" s="2">
+      <c r="B72" s="2">
         <v>10206.306899606619</v>
       </c>
-      <c r="C37" s="2">
+      <c r="C72" s="2">
         <v>24430.417592114401</v>
       </c>
-      <c r="D37" s="2">
+      <c r="D72" s="2">
         <v>45468.347505469341</v>
       </c>
-      <c r="E37" s="2">
+      <c r="E72" s="2">
         <v>1645.6410443006489</v>
       </c>
-      <c r="F37" s="2">
+      <c r="F72" s="2">
         <v>2362294.7641864121</v>
       </c>
-      <c r="G37" s="2">
+      <c r="G72" s="2">
         <v>27.620294559099399</v>
       </c>
-      <c r="H37" s="2">
+      <c r="H72" s="2">
         <v>122.673448310382</v>
       </c>
-      <c r="I37" s="2">
+      <c r="I72" s="2">
         <v>166.46398701290829</v>
       </c>
-      <c r="J37" s="2">
+      <c r="J72" s="2">
         <v>384.78892776104192</v>
       </c>
-      <c r="K37" s="2">
+      <c r="K72" s="2">
         <v>10711.999999999951</v>
       </c>
-      <c r="L37" s="2">
+      <c r="L72" s="2">
         <v>8164.1690086360904</v>
       </c>
-      <c r="M37" s="2">
+      <c r="M72" s="2">
         <v>54366.531525845538</v>
       </c>
-      <c r="N37" s="2">
+      <c r="N72" s="2">
         <v>1.9999999999999929</v>
       </c>
-      <c r="O37" s="2">
+      <c r="O72" s="2">
         <v>2896.8590066809602</v>
       </c>
-      <c r="P37" s="2">
+      <c r="P72" s="2">
         <v>8379778.1909793671</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A38" s="2">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A73" s="3">
         <v>139565</v>
       </c>
-      <c r="B38" s="2">
+      <c r="B73" s="2">
         <v>24379.999999999989</v>
       </c>
-      <c r="C38" s="2">
+      <c r="C73" s="2">
         <v>24430.417592114401</v>
       </c>
-      <c r="D38" s="2">
+      <c r="D73" s="2">
         <v>207240.7</v>
       </c>
-      <c r="E38" s="2">
+      <c r="E73" s="2">
         <v>1859.999999999998</v>
       </c>
-      <c r="F38" s="2">
+      <c r="F73" s="2">
         <v>5926777.3109299988</v>
       </c>
-      <c r="G38" s="2">
+      <c r="G73" s="2">
         <v>27.620294559099399</v>
       </c>
-      <c r="H38" s="2">
+      <c r="H73" s="2">
         <v>311.9999999999979</v>
       </c>
-      <c r="I38" s="2">
+      <c r="I73" s="2">
         <v>386.99999999999841</v>
       </c>
-      <c r="J38" s="2">
+      <c r="J73" s="2">
         <v>962.79999999999893</v>
       </c>
-      <c r="K38" s="2">
+      <c r="K73" s="2">
         <v>8125.9999999999918</v>
       </c>
-      <c r="L38" s="2">
+      <c r="L73" s="2">
         <v>44861.889999999948</v>
       </c>
-      <c r="M38" s="2">
+      <c r="M73" s="2">
         <v>216908.59262118849</v>
       </c>
-      <c r="N38" s="2">
+      <c r="N73" s="2">
         <v>33.999999999999922</v>
       </c>
-      <c r="O38" s="2">
+      <c r="O73" s="2">
         <v>6249</v>
       </c>
-      <c r="P38" s="2">
+      <c r="P73" s="2">
         <v>15178335.903369989</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A39" s="2">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A74" s="3">
         <v>19887.999999999989</v>
       </c>
-      <c r="B39" s="2">
+      <c r="B74" s="2">
         <v>4564.6278902952727</v>
       </c>
-      <c r="C39" s="2">
+      <c r="C74" s="2">
         <v>37917.462079999998</v>
       </c>
-      <c r="D39" s="2">
+      <c r="D74" s="2">
         <v>16177.06409222068</v>
       </c>
-      <c r="E39" s="2">
+      <c r="E74" s="2">
         <v>737.72200735907359</v>
       </c>
-      <c r="F39" s="2">
+      <c r="F74" s="2">
         <v>2362294.7641864121</v>
       </c>
-      <c r="G39" s="2">
+      <c r="G74" s="2">
         <v>29.1</v>
       </c>
-      <c r="H39" s="2">
+      <c r="H74" s="2">
         <v>122.673448310382</v>
       </c>
-      <c r="I39" s="2">
+      <c r="I74" s="2">
         <v>166.46398701290829</v>
       </c>
-      <c r="J39" s="2">
+      <c r="J74" s="2">
         <v>384.78892776104192</v>
       </c>
-      <c r="K39" s="2">
+      <c r="K74" s="2">
         <v>4886.9999999999818</v>
       </c>
-      <c r="L39" s="2">
+      <c r="L74" s="2">
         <v>9316.2358979556921</v>
       </c>
-      <c r="M39" s="2">
+      <c r="M74" s="2">
         <v>827690.06333850382</v>
       </c>
-      <c r="N39" s="2">
+      <c r="N74" s="2">
         <v>21.095615783084529</v>
       </c>
-      <c r="O39" s="2">
+      <c r="O74" s="2">
         <v>1143.7298814143689</v>
       </c>
-      <c r="P39" s="2">
+      <c r="P74" s="2">
         <v>8379778.1909793671</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A40" s="2">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A75" s="3">
         <v>65776</v>
       </c>
-      <c r="B40" s="2">
+      <c r="B75" s="2">
         <v>14881</v>
       </c>
-      <c r="C40" s="2">
+      <c r="C75" s="2">
         <v>35840.741759999997</v>
       </c>
-      <c r="D40" s="2">
+      <c r="D75" s="2">
         <v>52247.999999999993</v>
       </c>
-      <c r="E40" s="2">
+      <c r="E75" s="2">
         <v>2190.9999999999991</v>
       </c>
-      <c r="F40" s="2">
+      <c r="F75" s="2">
         <v>2740590.23832</v>
       </c>
-      <c r="G40" s="2">
+      <c r="G75" s="2">
         <v>27.620294559099399</v>
       </c>
-      <c r="H40" s="2">
+      <c r="H75" s="2">
         <v>240.99999999999849</v>
       </c>
-      <c r="I40" s="2">
+      <c r="I75" s="2">
         <v>194.9999999999992</v>
       </c>
-      <c r="J40" s="2">
+      <c r="J75" s="2">
         <v>384.78892776104192</v>
       </c>
-      <c r="K40" s="2">
+      <c r="K75" s="2">
         <v>2243.999999999904</v>
       </c>
-      <c r="L40" s="2">
+      <c r="L75" s="2">
         <v>13298.13054705717</v>
       </c>
-      <c r="M40" s="2">
+      <c r="M75" s="2">
         <v>184575.0998610461</v>
       </c>
-      <c r="N40" s="2">
+      <c r="N75" s="2">
         <v>5.9999999999999716</v>
       </c>
-      <c r="O40" s="2">
+      <c r="O75" s="2">
         <v>3302</v>
       </c>
-      <c r="P40" s="2">
+      <c r="P75" s="2">
         <v>8379778.1909793671</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A41" s="2">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A76" s="3">
         <v>86435.999999999985</v>
       </c>
-      <c r="B41" s="2">
+      <c r="B76" s="2">
         <v>13019.999999999991</v>
       </c>
-      <c r="C41" s="2">
+      <c r="C76" s="2">
         <v>24430.417592114401</v>
       </c>
-      <c r="D41" s="2">
+      <c r="D76" s="2">
         <v>56657.999999999993</v>
       </c>
-      <c r="E41" s="2">
+      <c r="E76" s="2">
         <v>1856.999999999998</v>
       </c>
-      <c r="F41" s="2">
+      <c r="F76" s="2">
         <v>3773107.8136800001</v>
       </c>
-      <c r="G41" s="2">
+      <c r="G76" s="2">
         <v>28.1</v>
       </c>
-      <c r="H41" s="2">
+      <c r="H76" s="2">
         <v>122.673448310382</v>
       </c>
-      <c r="I41" s="2">
+      <c r="I76" s="2">
         <v>371.99999999999841</v>
       </c>
-      <c r="J41" s="2">
+      <c r="J76" s="2">
         <v>995.09999999999877</v>
       </c>
-      <c r="K41" s="2">
+      <c r="K76" s="2">
         <v>134789</v>
       </c>
-      <c r="L41" s="2">
+      <c r="L76" s="2">
         <v>68742.999999999971</v>
       </c>
-      <c r="M41" s="2">
+      <c r="M76" s="2">
         <v>5197507.5167999975</v>
       </c>
-      <c r="N41" s="2">
+      <c r="N76" s="2">
         <v>51.999999999999872</v>
       </c>
-      <c r="O41" s="2">
+      <c r="O76" s="2">
         <v>3299</v>
       </c>
-      <c r="P41" s="2">
+      <c r="P76" s="2">
         <v>11634696.470159991</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A42" s="2">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A77" s="3">
+        <v>55511.999999999993</v>
+      </c>
+      <c r="B77" s="2">
+        <v>13205</v>
+      </c>
+      <c r="C77" s="2">
+        <v>24430.417592114401</v>
+      </c>
+      <c r="D77" s="2">
+        <v>83197.2</v>
+      </c>
+      <c r="E77" s="2">
+        <v>1948.999999999998</v>
+      </c>
+      <c r="F77" s="2">
+        <v>3114118.2283199988</v>
+      </c>
+      <c r="G77" s="2">
+        <v>28.4</v>
+      </c>
+      <c r="H77" s="2">
+        <v>180.99999999999881</v>
+      </c>
+      <c r="I77" s="2">
+        <v>201.99999999999909</v>
+      </c>
+      <c r="J77" s="2">
+        <v>187.19999999999979</v>
+      </c>
+      <c r="K77" s="2">
+        <v>770.99999999998715</v>
+      </c>
+      <c r="L77" s="2">
+        <v>9709.2400371419899</v>
+      </c>
+      <c r="M77" s="2">
+        <v>64372.893152834607</v>
+      </c>
+      <c r="N77" s="2">
+        <v>22.99999999999994</v>
+      </c>
+      <c r="O77" s="2">
+        <v>4264.9999999999991</v>
+      </c>
+      <c r="P77" s="2">
+        <v>14759491.671359999</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A78" s="3">
+        <v>36704</v>
+      </c>
+      <c r="B78" s="2">
+        <v>10206.306899606619</v>
+      </c>
+      <c r="C78" s="2">
+        <v>24430.417592114401</v>
+      </c>
+      <c r="D78" s="2">
+        <v>45468.347505469341</v>
+      </c>
+      <c r="E78" s="2">
+        <v>767.95651585739631</v>
+      </c>
+      <c r="F78" s="2">
+        <v>2362294.7641864121</v>
+      </c>
+      <c r="G78" s="2">
+        <v>28.3</v>
+      </c>
+      <c r="H78" s="2">
+        <v>130.99999999999909</v>
+      </c>
+      <c r="I78" s="2">
+        <v>166.46398701290829</v>
+      </c>
+      <c r="J78" s="2">
+        <v>384.78892776104192</v>
+      </c>
+      <c r="K78" s="2">
+        <v>28977.998578687861</v>
+      </c>
+      <c r="L78" s="2">
+        <v>7770.4196171562271</v>
+      </c>
+      <c r="M78" s="2">
+        <v>189725.2971247035</v>
+      </c>
+      <c r="N78" s="2">
+        <v>21.095615783084529</v>
+      </c>
+      <c r="O78" s="2">
+        <v>2896.8590066809602</v>
+      </c>
+      <c r="P78" s="2">
+        <v>4314559.8983013686</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A79" s="3">
+        <v>37377</v>
+      </c>
+      <c r="B79" s="2">
+        <v>10206.306899606619</v>
+      </c>
+      <c r="C79" s="2">
+        <v>24430.417592114401</v>
+      </c>
+      <c r="D79" s="2">
+        <v>45468.347505469341</v>
+      </c>
+      <c r="E79" s="2">
+        <v>599.85264860672214</v>
+      </c>
+      <c r="F79" s="2">
+        <v>2362294.7641864121</v>
+      </c>
+      <c r="G79" s="2">
+        <v>27.620294559099399</v>
+      </c>
+      <c r="H79" s="2">
+        <v>122.673448310382</v>
+      </c>
+      <c r="I79" s="2">
+        <v>166.46398701290829</v>
+      </c>
+      <c r="J79" s="2">
+        <v>384.78892776104192</v>
+      </c>
+      <c r="K79" s="2">
+        <v>28977.998578687861</v>
+      </c>
+      <c r="L79" s="2">
+        <v>12523.731902070311</v>
+      </c>
+      <c r="M79" s="2">
+        <v>296038.86974424857</v>
+      </c>
+      <c r="N79" s="2">
+        <v>21.095615783084529</v>
+      </c>
+      <c r="O79" s="2">
+        <v>2896.8590066809602</v>
+      </c>
+      <c r="P79" s="2">
+        <v>2716676.2904438558</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A80" s="3">
+        <v>36616.999999999993</v>
+      </c>
+      <c r="B80" s="2">
+        <v>5085.048428434694</v>
+      </c>
+      <c r="C80" s="2">
+        <v>24430.417592114401</v>
+      </c>
+      <c r="D80" s="2">
+        <v>45468.347505469341</v>
+      </c>
+      <c r="E80" s="2">
+        <v>1645.6410443006489</v>
+      </c>
+      <c r="F80" s="2">
+        <v>971363.04398169136</v>
+      </c>
+      <c r="G80" s="2">
+        <v>27.620294559099399</v>
+      </c>
+      <c r="H80" s="2">
+        <v>122.673448310382</v>
+      </c>
+      <c r="I80" s="2">
+        <v>166.46398701290829</v>
+      </c>
+      <c r="J80" s="2">
+        <v>384.78892776104192</v>
+      </c>
+      <c r="K80" s="2">
+        <v>28977.998578687861</v>
+      </c>
+      <c r="L80" s="2">
+        <v>24766.251315762191</v>
+      </c>
+      <c r="M80" s="2">
+        <v>827690.06333850382</v>
+      </c>
+      <c r="N80" s="2">
+        <v>26.999999999999929</v>
+      </c>
+      <c r="O80" s="2">
+        <v>2896.8590066809602</v>
+      </c>
+      <c r="P80" s="2">
+        <v>3895479.787952506</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A81" s="3">
+        <v>33061</v>
+      </c>
+      <c r="B81" s="2">
+        <v>10206.306899606619</v>
+      </c>
+      <c r="C81" s="2">
+        <v>24430.417592114401</v>
+      </c>
+      <c r="D81" s="2">
+        <v>23748.805664446019</v>
+      </c>
+      <c r="E81" s="2">
+        <v>633.71529812484368</v>
+      </c>
+      <c r="F81" s="2">
+        <v>1174507.864299525</v>
+      </c>
+      <c r="G81" s="2">
+        <v>27.620294559099399</v>
+      </c>
+      <c r="H81" s="2">
+        <v>50.99999999999968</v>
+      </c>
+      <c r="I81" s="2">
+        <v>166.46398701290829</v>
+      </c>
+      <c r="J81" s="2">
+        <v>113.89999999999991</v>
+      </c>
+      <c r="K81" s="2">
+        <v>7999.9999999999436</v>
+      </c>
+      <c r="L81" s="2">
+        <v>4999.012650449823</v>
+      </c>
+      <c r="M81" s="2">
+        <v>62290.285397478787</v>
+      </c>
+      <c r="N81" s="2">
+        <v>7.9999999999999716</v>
+      </c>
+      <c r="O81" s="2">
+        <v>2896.8590066809602</v>
+      </c>
+      <c r="P81" s="2">
+        <v>3537435.6224589562</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A82" s="3">
         <v>9622.9999999999964</v>
       </c>
-      <c r="B42" s="2">
+      <c r="B82" s="2">
         <v>2088.3249137487501</v>
       </c>
-      <c r="C42" s="2">
+      <c r="C82" s="2">
         <v>19210.228831246099</v>
       </c>
-      <c r="D42" s="2">
+      <c r="D82" s="2">
         <v>3746.5999999999972</v>
       </c>
-      <c r="E42" s="2">
+      <c r="E82" s="2">
         <v>44.99999999999995</v>
       </c>
-      <c r="F42" s="2">
+      <c r="F82" s="2">
         <v>84821.616612874292</v>
       </c>
-      <c r="G42" s="2">
+      <c r="G82" s="2">
         <v>35.438037383177502</v>
       </c>
-      <c r="H42" s="2">
+      <c r="H82" s="2">
         <v>54.072514242661697</v>
       </c>
-      <c r="I42" s="2">
+      <c r="I82" s="2">
         <v>9.9999999999999485</v>
       </c>
-      <c r="J42" s="2">
+      <c r="J82" s="2">
         <v>220.54621652251561</v>
       </c>
-      <c r="K42" s="2">
+      <c r="K82" s="2">
         <v>32749.978346102071</v>
       </c>
-      <c r="L42" s="2">
+      <c r="L82" s="2">
         <v>14259.056285147481</v>
       </c>
-      <c r="M42" s="2">
+      <c r="M82" s="2">
         <v>633508.48902710096</v>
       </c>
-      <c r="N42" s="2">
+      <c r="N82" s="2">
         <v>22.70687713300876</v>
       </c>
-      <c r="O42" s="2">
+      <c r="O82" s="2">
         <v>672.99999999999989</v>
       </c>
-      <c r="P42" s="2">
+      <c r="P82" s="2">
         <v>286032.99613732687</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A43" s="2">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A83" s="3">
         <v>16685</v>
       </c>
-      <c r="B43" s="2">
+      <c r="B83" s="2">
         <v>2386</v>
       </c>
-      <c r="C43" s="2">
+      <c r="C83" s="2">
         <v>19210.228831246099</v>
       </c>
-      <c r="D43" s="2">
+      <c r="D83" s="2">
         <v>10592.2</v>
       </c>
-      <c r="E43" s="2">
+      <c r="E83" s="2">
         <v>377.99999999999972</v>
       </c>
-      <c r="F43" s="2">
+      <c r="F83" s="2">
         <v>398404.10684000002</v>
       </c>
-      <c r="G43" s="2">
+      <c r="G83" s="2">
         <v>35.438037383177502</v>
       </c>
-      <c r="H43" s="2">
+      <c r="H83" s="2">
         <v>54.072514242661697</v>
       </c>
-      <c r="I43" s="2">
+      <c r="I83" s="2">
         <v>28.221234650144272</v>
       </c>
-      <c r="J43" s="2">
+      <c r="J83" s="2">
         <v>800.99999999999955</v>
       </c>
-      <c r="K43" s="2">
+      <c r="K83" s="2">
         <v>112137</v>
       </c>
-      <c r="L43" s="2">
+      <c r="L83" s="2">
         <v>14259.056285147481</v>
       </c>
-      <c r="M43" s="2">
+      <c r="M83" s="2">
         <v>1610842.1836000001</v>
       </c>
-      <c r="N43" s="2">
+      <c r="N83" s="2">
         <v>22.70687713300876</v>
       </c>
-      <c r="O43" s="2">
+      <c r="O83" s="2">
         <v>624.00000000000011</v>
       </c>
-      <c r="P43" s="2">
+      <c r="P83" s="2">
         <v>1492496.0792400001</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A44" s="2">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A84" s="3">
         <v>40956</v>
       </c>
-      <c r="B44" s="2">
+      <c r="B84" s="2">
         <v>6906.9999999999973</v>
       </c>
-      <c r="C44" s="2">
+      <c r="C84" s="2">
         <v>19210.228831246099</v>
       </c>
-      <c r="D44" s="2">
+      <c r="D84" s="2">
         <v>45679.399999999987</v>
       </c>
-      <c r="E44" s="2">
+      <c r="E84" s="2">
         <v>943.99999999999955</v>
       </c>
-      <c r="F44" s="2">
+      <c r="F84" s="2">
         <v>1135992.2059200001</v>
       </c>
-      <c r="G44" s="2">
+      <c r="G84" s="2">
         <v>35.438037383177502</v>
       </c>
-      <c r="H44" s="2">
+      <c r="H84" s="2">
         <v>86.999999999999389</v>
       </c>
-      <c r="I44" s="2">
+      <c r="I84" s="2">
         <v>196.9999999999992</v>
       </c>
-      <c r="J44" s="2">
+      <c r="J84" s="2">
         <v>2450.9999999999991</v>
       </c>
-      <c r="K44" s="2">
+      <c r="K84" s="2">
         <v>49269.999999999927</v>
       </c>
-      <c r="L44" s="2">
+      <c r="L84" s="2">
         <v>14259.056285147481</v>
       </c>
-      <c r="M44" s="2">
+      <c r="M84" s="2">
         <v>1321756.1130112109</v>
       </c>
-      <c r="N44" s="2">
+      <c r="N84" s="2">
         <v>26.99999999999994</v>
       </c>
-      <c r="O44" s="2">
+      <c r="O84" s="2">
         <v>1960</v>
       </c>
-      <c r="P44" s="2">
+      <c r="P84" s="2">
         <v>1961160.027659998</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A45" s="2">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A85" s="3">
         <v>24184.999999999989</v>
       </c>
-      <c r="B45" s="2">
+      <c r="B85" s="2">
         <v>4568.9999999999982</v>
       </c>
-      <c r="C45" s="2">
+      <c r="C85" s="2">
         <v>21418.87329</v>
       </c>
-      <c r="D45" s="2">
+      <c r="D85" s="2">
         <v>7762.6753209116032</v>
       </c>
-      <c r="E45" s="2">
+      <c r="E85" s="2">
         <v>130.9999999999998</v>
       </c>
-      <c r="F45" s="2">
+      <c r="F85" s="2">
         <v>153719.09000888691</v>
       </c>
-      <c r="G45" s="2">
+      <c r="G85" s="2">
         <v>35.438037383177502</v>
       </c>
-      <c r="H45" s="2">
+      <c r="H85" s="2">
         <v>103.9999999999993</v>
       </c>
-      <c r="I45" s="2">
+      <c r="I85" s="2">
         <v>2.999999999999976</v>
       </c>
-      <c r="J45" s="2">
+      <c r="J85" s="2">
         <v>479.14656225630722</v>
       </c>
-      <c r="K45" s="2">
+      <c r="K85" s="2">
         <v>106498</v>
       </c>
-      <c r="L45" s="2">
+      <c r="L85" s="2">
         <v>19137.909999999989</v>
       </c>
-      <c r="M45" s="2">
+      <c r="M85" s="2">
         <v>3427876.6054999982</v>
       </c>
-      <c r="N45" s="2">
+      <c r="N85" s="2">
         <v>50.999999999999893</v>
       </c>
-      <c r="O45" s="2">
+      <c r="O85" s="2">
         <v>1218</v>
       </c>
-      <c r="P45" s="2">
+      <c r="P85" s="2">
         <v>3524494.8488999992</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A46" s="2">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A86" s="3">
         <v>12565.999999999991</v>
       </c>
-      <c r="B46" s="2">
+      <c r="B86" s="2">
         <v>2093.9999999999991</v>
       </c>
-      <c r="C46" s="2">
+      <c r="C86" s="2">
         <v>19210.228831246099</v>
       </c>
-      <c r="D46" s="2">
+      <c r="D86" s="2">
         <v>7762.6753209116032</v>
       </c>
-      <c r="E46" s="2">
+      <c r="E86" s="2">
         <v>449.99999999999937</v>
       </c>
-      <c r="F46" s="2">
+      <c r="F86" s="2">
         <v>374829.37895564421</v>
       </c>
-      <c r="G46" s="2">
+      <c r="G86" s="2">
         <v>35.438037383177502</v>
       </c>
-      <c r="H46" s="2">
+      <c r="H86" s="2">
         <v>59.999999999999581</v>
       </c>
-      <c r="I46" s="2">
+      <c r="I86" s="2">
         <v>28.221234650144272</v>
       </c>
-      <c r="J46" s="2">
+      <c r="J86" s="2">
         <v>647.79999999999916</v>
       </c>
-      <c r="K46" s="2">
+      <c r="K86" s="2">
         <v>32749.978346102071</v>
       </c>
-      <c r="L46" s="2">
+      <c r="L86" s="2">
         <v>20804.14999999998</v>
       </c>
-      <c r="M46" s="2">
+      <c r="M86" s="2">
         <v>1533618.0888999989</v>
       </c>
-      <c r="N46" s="2">
+      <c r="N86" s="2">
         <v>22.70687713300876</v>
       </c>
-      <c r="O46" s="2">
+      <c r="O86" s="2">
         <v>676.99999999999955</v>
       </c>
-      <c r="P46" s="2">
+      <c r="P86" s="2">
         <v>1868542.2159599981</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A47" s="2">
+    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A87" s="3">
+        <v>17499</v>
+      </c>
+      <c r="B87" s="2">
+        <v>2815</v>
+      </c>
+      <c r="C87" s="2">
+        <v>20675.747319999999</v>
+      </c>
+      <c r="D87" s="2">
+        <v>7762.6753209116032</v>
+      </c>
+      <c r="E87" s="2">
+        <v>387.99999999999977</v>
+      </c>
+      <c r="F87" s="2">
+        <v>509272.59584000002</v>
+      </c>
+      <c r="G87" s="2">
+        <v>35.438037383177502</v>
+      </c>
+      <c r="H87" s="2">
+        <v>54.072514242661697</v>
+      </c>
+      <c r="I87" s="2">
+        <v>31.999999999999861</v>
+      </c>
+      <c r="J87" s="2">
+        <v>1231.9999999999991</v>
+      </c>
+      <c r="K87" s="2">
+        <v>47001.999999999993</v>
+      </c>
+      <c r="L87" s="2">
+        <v>14259.056285147481</v>
+      </c>
+      <c r="M87" s="2">
+        <v>2998146.3123999988</v>
+      </c>
+      <c r="N87" s="2">
+        <v>22.70687713300876</v>
+      </c>
+      <c r="O87" s="2">
+        <v>1535</v>
+      </c>
+      <c r="P87" s="2">
+        <v>4597855.1592400009</v>
+      </c>
+    </row>
+    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A88" s="3">
+        <v>22832.999999999989</v>
+      </c>
+      <c r="B88" s="2">
+        <v>2624.9999999999968</v>
+      </c>
+      <c r="C88" s="2">
+        <v>19210.228831246099</v>
+      </c>
+      <c r="D88" s="2">
+        <v>12773.499999999991</v>
+      </c>
+      <c r="E88" s="2">
+        <v>480.99999999999937</v>
+      </c>
+      <c r="F88" s="2">
+        <v>477102.61020999961</v>
+      </c>
+      <c r="G88" s="2">
+        <v>35.438037383177502</v>
+      </c>
+      <c r="H88" s="2">
+        <v>83.999999999999417</v>
+      </c>
+      <c r="I88" s="2">
+        <v>66.999999999999702</v>
+      </c>
+      <c r="J88" s="2">
+        <v>586.09999999999911</v>
+      </c>
+      <c r="K88" s="2">
+        <v>13303.99999999998</v>
+      </c>
+      <c r="L88" s="2">
+        <v>31991.309999999979</v>
+      </c>
+      <c r="M88" s="2">
+        <v>2339528.865499998</v>
+      </c>
+      <c r="N88" s="2">
+        <v>40.999999999999879</v>
+      </c>
+      <c r="O88" s="2">
+        <v>960.99999999999955</v>
+      </c>
+      <c r="P88" s="2">
+        <v>623372.23123661522</v>
+      </c>
+    </row>
+    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A89" s="3">
+        <v>15277.999999999991</v>
+      </c>
+      <c r="B89" s="2">
+        <v>2241.9999999999991</v>
+      </c>
+      <c r="C89" s="2">
+        <v>19210.228831246099</v>
+      </c>
+      <c r="D89" s="2">
+        <v>7762.6753209116032</v>
+      </c>
+      <c r="E89" s="2">
+        <v>281.9402175474014</v>
+      </c>
+      <c r="F89" s="2">
+        <v>374829.37895564421</v>
+      </c>
+      <c r="G89" s="2">
+        <v>35.438037383177502</v>
+      </c>
+      <c r="H89" s="2">
+        <v>54.999999999999609</v>
+      </c>
+      <c r="I89" s="2">
+        <v>34.999999999999837</v>
+      </c>
+      <c r="J89" s="2">
+        <v>982.89999999999884</v>
+      </c>
+      <c r="K89" s="2">
+        <v>32749.978346102071</v>
+      </c>
+      <c r="L89" s="2">
+        <v>14259.056285147481</v>
+      </c>
+      <c r="M89" s="2">
+        <v>1321756.1130112109</v>
+      </c>
+      <c r="N89" s="2">
+        <v>24.999999999999929</v>
+      </c>
+      <c r="O89" s="2">
+        <v>693.99999999999932</v>
+      </c>
+      <c r="P89" s="2">
+        <v>3344506.7167999982</v>
+      </c>
+    </row>
+    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A90" s="3">
+        <v>9624.9999999999891</v>
+      </c>
+      <c r="B90" s="2">
+        <v>2088.3249137487501</v>
+      </c>
+      <c r="C90" s="2">
+        <v>19210.228831246099</v>
+      </c>
+      <c r="D90" s="2">
+        <v>7762.6753209116032</v>
+      </c>
+      <c r="E90" s="2">
+        <v>135.9999999999998</v>
+      </c>
+      <c r="F90" s="2">
+        <v>169429.59635735271</v>
+      </c>
+      <c r="G90" s="2">
+        <v>35.438037383177502</v>
+      </c>
+      <c r="H90" s="2">
+        <v>54.072514242661697</v>
+      </c>
+      <c r="I90" s="2">
+        <v>8.9999999999999467</v>
+      </c>
+      <c r="J90" s="2">
+        <v>175.79319424322901</v>
+      </c>
+      <c r="K90" s="2">
+        <v>61603.99999999992</v>
+      </c>
+      <c r="L90" s="2">
+        <v>14259.056285147481</v>
+      </c>
+      <c r="M90" s="2">
+        <v>631359.22812760074</v>
+      </c>
+      <c r="N90" s="2">
+        <v>31.99999999999989</v>
+      </c>
+      <c r="O90" s="2">
+        <v>609.58223327103974</v>
+      </c>
+      <c r="P90" s="2">
+        <v>105350.83313712729</v>
+      </c>
+    </row>
+    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A91" s="3">
+        <v>7424.9999999999973</v>
+      </c>
+      <c r="B91" s="2">
+        <v>2088.3249137487501</v>
+      </c>
+      <c r="C91" s="2">
+        <v>19210.228831246099</v>
+      </c>
+      <c r="D91" s="2">
+        <v>7762.6753209116032</v>
+      </c>
+      <c r="E91" s="2">
+        <v>119.9999999999999</v>
+      </c>
+      <c r="F91" s="2">
+        <v>374829.37895564421</v>
+      </c>
+      <c r="G91" s="2">
+        <v>35.438037383177502</v>
+      </c>
+      <c r="H91" s="2">
+        <v>20.999999999999861</v>
+      </c>
+      <c r="I91" s="2">
+        <v>28.221234650144272</v>
+      </c>
+      <c r="J91" s="2">
+        <v>159.69871987364829</v>
+      </c>
+      <c r="K91" s="2">
+        <v>32749.978346102071</v>
+      </c>
+      <c r="L91" s="2">
+        <v>14259.056285147481</v>
+      </c>
+      <c r="M91" s="2">
+        <v>1321756.1130112109</v>
+      </c>
+      <c r="N91" s="2">
+        <v>22.70687713300876</v>
+      </c>
+      <c r="O91" s="2">
+        <v>609.58223327103974</v>
+      </c>
+      <c r="P91" s="2">
+        <v>151489.05336028291</v>
+      </c>
+    </row>
+    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A92" s="3">
         <v>4183.9999999999918</v>
       </c>
-      <c r="B47" s="2">
+      <c r="B92" s="2">
         <v>1056.473753859249</v>
       </c>
-      <c r="C47" s="2">
+      <c r="C92" s="2">
         <v>20427.341848341399</v>
       </c>
-      <c r="D47" s="2">
+      <c r="D92" s="2">
         <v>2381.065679515827</v>
       </c>
-      <c r="E47" s="2">
+      <c r="E92" s="2">
         <v>113.4249949517034</v>
       </c>
-      <c r="F47" s="2">
+      <c r="F92" s="2">
         <v>81501.246245260627</v>
       </c>
-      <c r="G47" s="2">
+      <c r="G92" s="2">
         <v>35.799999999999997</v>
       </c>
-      <c r="H47" s="2">
+      <c r="H92" s="2">
         <v>15.982526713303701</v>
       </c>
-      <c r="I47" s="2">
+      <c r="I92" s="2">
         <v>2.5736340998794449</v>
       </c>
-      <c r="J47" s="2">
+      <c r="J92" s="2">
         <v>109.9937054332045</v>
       </c>
-      <c r="K47" s="2">
+      <c r="K92" s="2">
         <v>44335.913688073488</v>
       </c>
-      <c r="L47" s="2">
+      <c r="L92" s="2">
         <v>2003.2628205799081</v>
       </c>
-      <c r="M47" s="2">
+      <c r="M92" s="2">
         <v>1077875.2283725089</v>
       </c>
-      <c r="N47" s="2">
+      <c r="N92" s="2">
         <v>11.577914620948469</v>
       </c>
-      <c r="O47" s="2">
+      <c r="O92" s="2">
         <v>315.84662311287587</v>
       </c>
-      <c r="P47" s="2">
+      <c r="P92" s="2">
         <v>1122077.8321941849</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A48" s="2">
+    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A93" s="3">
         <v>25263.999999999989</v>
       </c>
-      <c r="B48" s="2">
+      <c r="B93" s="2">
         <v>5714.5080545330657</v>
       </c>
-      <c r="C48" s="2">
+      <c r="C93" s="2">
         <v>20441.322639999999</v>
       </c>
-      <c r="D48" s="2">
+      <c r="D93" s="2">
         <v>18620.078602856651</v>
       </c>
-      <c r="E48" s="2">
+      <c r="E93" s="2">
         <v>39.698748233096183</v>
       </c>
-      <c r="F48" s="2">
+      <c r="F93" s="2">
         <v>377439.37268869882</v>
       </c>
-      <c r="G48" s="2">
+      <c r="G93" s="2">
         <v>28.859170731707302</v>
       </c>
-      <c r="H48" s="2">
+      <c r="H93" s="2">
         <v>121.2195445843775</v>
       </c>
-      <c r="I48" s="2">
+      <c r="I93" s="2">
         <v>82.574144705994001</v>
       </c>
-      <c r="J48" s="2">
+      <c r="J93" s="2">
         <v>273.76811696274279</v>
       </c>
-      <c r="K48" s="2">
+      <c r="K93" s="2">
         <v>390629.37411319528</v>
       </c>
-      <c r="L48" s="2">
+      <c r="L93" s="2">
         <v>30552.937259516999</v>
       </c>
-      <c r="M48" s="2">
+      <c r="M93" s="2">
         <v>5170690.3577637998</v>
       </c>
-      <c r="N48" s="2">
+      <c r="N93" s="2">
         <v>37.037791832750607</v>
       </c>
-      <c r="O48" s="2">
+      <c r="O93" s="2">
         <v>1578.0387530220919</v>
       </c>
-      <c r="P48" s="2">
+      <c r="P93" s="2">
         <v>5162046.5029202029</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A49" s="2">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A94" s="3">
         <v>17569.999999999989</v>
       </c>
-      <c r="B49" s="2">
+      <c r="B94" s="2">
         <v>2528.0385897164319</v>
       </c>
-      <c r="C49" s="2">
+      <c r="C94" s="2">
         <v>20427.341848341399</v>
       </c>
-      <c r="D49" s="2">
+      <c r="D94" s="2">
         <v>11096.210636742029</v>
       </c>
-      <c r="E49" s="2">
+      <c r="E94" s="2">
         <v>333.18592267062911</v>
       </c>
-      <c r="F49" s="2">
+      <c r="F94" s="2">
         <v>480263.66540990549</v>
       </c>
-      <c r="G49" s="2">
+      <c r="G94" s="2">
         <v>28.859170731707302</v>
       </c>
-      <c r="H49" s="2">
+      <c r="H94" s="2">
         <v>155.99999999999889</v>
       </c>
-      <c r="I49" s="2">
+      <c r="I94" s="2">
         <v>82.574144705994001</v>
       </c>
-      <c r="J49" s="2">
+      <c r="J94" s="2">
         <v>675.1104937785783</v>
       </c>
-      <c r="K49" s="2">
+      <c r="K94" s="2">
         <v>253392.3988960179</v>
       </c>
-      <c r="L49" s="2">
+      <c r="L94" s="2">
         <v>30747.732458975679</v>
       </c>
-      <c r="M49" s="2">
+      <c r="M94" s="2">
         <v>3041350.614883801</v>
       </c>
-      <c r="N49" s="2">
+      <c r="N94" s="2">
         <v>37.037791832750607</v>
       </c>
-      <c r="O49" s="2">
+      <c r="O94" s="2">
         <v>1578.0387530220919</v>
       </c>
-      <c r="P49" s="2">
+      <c r="P94" s="2">
         <v>482329.48363598721</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A50" s="2">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A95" s="3">
         <v>120926</v>
       </c>
-      <c r="B50" s="2">
+      <c r="B95" s="2">
         <v>20038</v>
       </c>
-      <c r="C50" s="2">
+      <c r="C95" s="2">
         <v>25152.816680000011</v>
       </c>
-      <c r="D50" s="2">
+      <c r="D95" s="2">
         <v>72911.599999999991</v>
       </c>
-      <c r="E50" s="2">
+      <c r="E95" s="2">
         <v>2549.9999999999982</v>
       </c>
-      <c r="F50" s="2">
+      <c r="F95" s="2">
         <v>4713511.9352799999</v>
       </c>
-      <c r="G50" s="2">
+      <c r="G95" s="2">
         <v>29.9</v>
       </c>
-      <c r="H50" s="2">
+      <c r="H95" s="2">
         <v>195.99999999999869</v>
       </c>
-      <c r="I50" s="2">
+      <c r="I95" s="2">
         <v>248.99999999999889</v>
       </c>
-      <c r="J50" s="2">
+      <c r="J95" s="2">
         <v>1123.199999999998</v>
       </c>
-      <c r="K50" s="2">
+      <c r="K95" s="2">
         <v>1264806.9999999991</v>
       </c>
-      <c r="L50" s="2">
+      <c r="L95" s="2">
         <v>104307.93</v>
       </c>
-      <c r="M50" s="2">
+      <c r="M95" s="2">
         <v>2846566.7104680962</v>
       </c>
-      <c r="N50" s="2">
+      <c r="N95" s="2">
         <v>37.037791832750607</v>
       </c>
-      <c r="O50" s="2">
+      <c r="O95" s="2">
         <v>6308.9999999999991</v>
       </c>
-      <c r="P50" s="2">
+      <c r="P95" s="2">
         <v>26988496.705479991</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A51" s="2">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A96" s="3">
         <v>50473.999999999993</v>
       </c>
-      <c r="B51" s="2">
+      <c r="B96" s="2">
         <v>8680.9999999999982</v>
       </c>
-      <c r="C51" s="2">
+      <c r="C96" s="2">
         <v>20427.341848341399</v>
       </c>
-      <c r="D51" s="2">
+      <c r="D96" s="2">
         <v>32935.899999999987</v>
       </c>
-      <c r="E51" s="2">
+      <c r="E96" s="2">
         <v>1673.999999999998</v>
       </c>
-      <c r="F51" s="2">
+      <c r="F96" s="2">
         <v>1330729.4930400001</v>
       </c>
-      <c r="G51" s="2">
+      <c r="G96" s="2">
         <v>28.859170731707302</v>
       </c>
-      <c r="H51" s="2">
+      <c r="H96" s="2">
         <v>158.99999999999889</v>
       </c>
-      <c r="I51" s="2">
+      <c r="I96" s="2">
         <v>184.9999999999992</v>
       </c>
-      <c r="J51" s="2">
+      <c r="J96" s="2">
         <v>675.1104937785783</v>
       </c>
-      <c r="K51" s="2">
+      <c r="K96" s="2">
         <v>810919.99999999977</v>
       </c>
-      <c r="L51" s="2">
+      <c r="L96" s="2">
         <v>182696</v>
       </c>
-      <c r="M51" s="2">
+      <c r="M96" s="2">
         <v>5519372.8535999991</v>
       </c>
-      <c r="N51" s="2">
+      <c r="N96" s="2">
         <v>38.999999999999908</v>
       </c>
-      <c r="O51" s="2">
+      <c r="O96" s="2">
         <v>2500</v>
       </c>
-      <c r="P51" s="2">
+      <c r="P96" s="2">
         <v>5162046.5029202029</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A52" s="2">
+    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A97" s="3">
+        <v>8854.9999999999945</v>
+      </c>
+      <c r="B97" s="2">
+        <v>1712.585464114045</v>
+      </c>
+      <c r="C97" s="2">
+        <v>20427.341848341399</v>
+      </c>
+      <c r="D97" s="2">
+        <v>3380.6948459023511</v>
+      </c>
+      <c r="E97" s="2">
+        <v>399.82310720475499</v>
+      </c>
+      <c r="F97" s="2">
+        <v>795019.6038440204</v>
+      </c>
+      <c r="G97" s="2">
+        <v>37.299999999999997</v>
+      </c>
+      <c r="H97" s="2">
+        <v>20.900227240474099</v>
+      </c>
+      <c r="I97" s="2">
+        <v>20.58907279903562</v>
+      </c>
+      <c r="J97" s="2">
+        <v>675.1104937785783</v>
+      </c>
+      <c r="K97" s="2">
+        <v>123470.76207345699</v>
+      </c>
+      <c r="L97" s="2">
+        <v>12349.96091436373</v>
+      </c>
+      <c r="M97" s="2">
+        <v>5170690.3577637998</v>
+      </c>
+      <c r="N97" s="2">
+        <v>37.037791832750607</v>
+      </c>
+      <c r="O97" s="2">
+        <v>472.51657505378728</v>
+      </c>
+      <c r="P97" s="2">
+        <v>547666.4329575079</v>
+      </c>
+    </row>
+    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A98" s="3">
+        <v>17833.999999999989</v>
+      </c>
+      <c r="B98" s="2">
+        <v>2794.5002842892968</v>
+      </c>
+      <c r="C98" s="2">
+        <v>20427.341848341399</v>
+      </c>
+      <c r="D98" s="2">
+        <v>8411.9219308232787</v>
+      </c>
+      <c r="E98" s="2">
+        <v>299.15842418511818</v>
+      </c>
+      <c r="F98" s="2">
+        <v>375973.016231196</v>
+      </c>
+      <c r="G98" s="2">
+        <v>32.08</v>
+      </c>
+      <c r="H98" s="2">
+        <v>121.2195445843775</v>
+      </c>
+      <c r="I98" s="2">
+        <v>82.574144705994001</v>
+      </c>
+      <c r="J98" s="2">
+        <v>675.1104937785783</v>
+      </c>
+      <c r="K98" s="2">
+        <v>390629.37411319528</v>
+      </c>
+      <c r="L98" s="2">
+        <v>27310.927642478491</v>
+      </c>
+      <c r="M98" s="2">
+        <v>3230208.689405594</v>
+      </c>
+      <c r="N98" s="2">
+        <v>39.999999999999893</v>
+      </c>
+      <c r="O98" s="2">
+        <v>1578.0387530220919</v>
+      </c>
+      <c r="P98" s="2">
+        <v>2346273.839680803</v>
+      </c>
+    </row>
+    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A99" s="3">
+        <v>22243.999999999989</v>
+      </c>
+      <c r="B99" s="2">
+        <v>3600.5803854594751</v>
+      </c>
+      <c r="C99" s="2">
+        <v>20427.341848341399</v>
+      </c>
+      <c r="D99" s="2">
+        <v>11788.171074743001</v>
+      </c>
+      <c r="E99" s="2">
+        <v>290.65154956374028</v>
+      </c>
+      <c r="F99" s="2">
+        <v>322306.69853012729</v>
+      </c>
+      <c r="G99" s="2">
+        <v>28.859170731707302</v>
+      </c>
+      <c r="H99" s="2">
+        <v>121.2195445843775</v>
+      </c>
+      <c r="I99" s="2">
+        <v>39.891328548131497</v>
+      </c>
+      <c r="J99" s="2">
+        <v>133.23561862056471</v>
+      </c>
+      <c r="K99" s="2">
+        <v>390629.37411319528</v>
+      </c>
+      <c r="L99" s="2">
+        <v>7929.602119936877</v>
+      </c>
+      <c r="M99" s="2">
+        <v>5170690.3577637998</v>
+      </c>
+      <c r="N99" s="2">
+        <v>37.037791832750607</v>
+      </c>
+      <c r="O99" s="2">
+        <v>1578.0387530220919</v>
+      </c>
+      <c r="P99" s="2">
+        <v>900544.63312254427</v>
+      </c>
+    </row>
+    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A100" s="3">
+        <v>35142.999999999993</v>
+      </c>
+      <c r="B100" s="2">
+        <v>5714.5080545330657</v>
+      </c>
+      <c r="C100" s="2">
+        <v>20427.341848341399</v>
+      </c>
+      <c r="D100" s="2">
+        <v>27639.69999999999</v>
+      </c>
+      <c r="E100" s="2">
+        <v>311.91873611718472</v>
+      </c>
+      <c r="F100" s="2">
+        <v>795019.6038440204</v>
+      </c>
+      <c r="G100" s="2">
+        <v>28.859170731707302</v>
+      </c>
+      <c r="H100" s="2">
+        <v>125.9999999999992</v>
+      </c>
+      <c r="I100" s="2">
+        <v>95.999999999999559</v>
+      </c>
+      <c r="J100" s="2">
+        <v>675.1104937785783</v>
+      </c>
+      <c r="K100" s="2">
+        <v>390629.37411319528</v>
+      </c>
+      <c r="L100" s="2">
+        <v>14603.603416984841</v>
+      </c>
+      <c r="M100" s="2">
+        <v>8906174.1647999976</v>
+      </c>
+      <c r="N100" s="2">
+        <v>37.037791832750607</v>
+      </c>
+      <c r="O100" s="2">
+        <v>1578.0387530220919</v>
+      </c>
+      <c r="P100" s="2">
+        <v>5162046.5029202029</v>
+      </c>
+    </row>
+    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A101" s="3">
+        <v>31885.999999999989</v>
+      </c>
+      <c r="B101" s="2">
+        <v>5714.5080545330657</v>
+      </c>
+      <c r="C101" s="2">
+        <v>24531.17148999999</v>
+      </c>
+      <c r="D101" s="2">
+        <v>18620.078602856651</v>
+      </c>
+      <c r="E101" s="2">
+        <v>496.23435291370282</v>
+      </c>
+      <c r="F101" s="2">
+        <v>189814.95631931321</v>
+      </c>
+      <c r="G101" s="2">
+        <v>28.859170731707302</v>
+      </c>
+      <c r="H101" s="2">
+        <v>126.9999999999992</v>
+      </c>
+      <c r="I101" s="2">
+        <v>32.170426248493158</v>
+      </c>
+      <c r="J101" s="2">
+        <v>675.1104937785783</v>
+      </c>
+      <c r="K101" s="2">
+        <v>532404</v>
+      </c>
+      <c r="L101" s="2">
+        <v>50169.914191199998</v>
+      </c>
+      <c r="M101" s="2">
+        <v>9174521.0092999972</v>
+      </c>
+      <c r="N101" s="2">
+        <v>37.037791832750607</v>
+      </c>
+      <c r="O101" s="2">
+        <v>2097</v>
+      </c>
+      <c r="P101" s="2">
+        <v>17566777.100189991</v>
+      </c>
+    </row>
+    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A102" s="3">
         <v>47578.999999999993</v>
       </c>
-      <c r="B52" s="2">
+      <c r="B102" s="2">
         <v>11634</v>
       </c>
-      <c r="C52" s="2">
+      <c r="C102" s="2">
         <v>29031.0083701363</v>
       </c>
-      <c r="D52" s="2">
+      <c r="D102" s="2">
         <v>38299.681634895933</v>
       </c>
-      <c r="E52" s="2">
+      <c r="E102" s="2">
         <v>1288.588016602401</v>
       </c>
-      <c r="F52" s="2">
+      <c r="F102" s="2">
         <v>2114276.5499864169</v>
       </c>
-      <c r="G52" s="2">
+      <c r="G102" s="2">
         <v>27.965422727272699</v>
       </c>
-      <c r="H52" s="2">
+      <c r="H102" s="2">
         <v>123.30669105307349</v>
       </c>
-      <c r="I52" s="2">
+      <c r="I102" s="2">
         <v>171.99999999999929</v>
       </c>
-      <c r="J52" s="2">
+      <c r="J102" s="2">
         <v>201.0999999999998</v>
       </c>
-      <c r="K52" s="2">
+      <c r="K102" s="2">
         <v>14598.999999999951</v>
       </c>
-      <c r="L52" s="2">
+      <c r="L102" s="2">
         <v>23998.867850818729</v>
       </c>
-      <c r="M52" s="2">
+      <c r="M102" s="2">
         <v>286065.10401343711</v>
       </c>
-      <c r="N52" s="2">
+      <c r="N102" s="2">
         <v>10.99999999999997</v>
       </c>
-      <c r="O52" s="2">
+      <c r="O102" s="2">
         <v>2915.7617682164901</v>
       </c>
-      <c r="P52" s="2">
+      <c r="P102" s="2">
         <v>32418265.199999992</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A53" s="2">
+    <row r="103" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A103" s="3">
         <v>28553</v>
       </c>
-      <c r="B53" s="2">
+      <c r="B103" s="2">
         <v>11428.022546365821</v>
       </c>
-      <c r="C53" s="2">
+      <c r="C103" s="2">
         <v>34591.617420000002</v>
       </c>
-      <c r="D53" s="2">
+      <c r="D103" s="2">
         <v>16196.06113338833</v>
       </c>
-      <c r="E53" s="2">
+      <c r="E103" s="2">
         <v>593.70486697514832</v>
       </c>
-      <c r="F53" s="2">
+      <c r="F103" s="2">
         <v>198628.86628169011</v>
       </c>
-      <c r="G53" s="2">
+      <c r="G103" s="2">
         <v>27.965422727272699</v>
       </c>
-      <c r="H53" s="2">
+      <c r="H103" s="2">
         <v>123.30669105307349</v>
       </c>
-      <c r="I53" s="2">
+      <c r="I103" s="2">
         <v>132.03295622095121</v>
       </c>
-      <c r="J53" s="2">
+      <c r="J103" s="2">
         <v>169.2999999999999</v>
       </c>
-      <c r="K53" s="2">
+      <c r="K103" s="2">
         <v>19625.999999999982</v>
       </c>
-      <c r="L53" s="2">
+      <c r="L103" s="2">
         <v>14867.205704713009</v>
       </c>
-      <c r="M53" s="2">
+      <c r="M103" s="2">
         <v>527779.81315317133</v>
       </c>
-      <c r="N53" s="2">
+      <c r="N103" s="2">
         <v>11.99999999999997</v>
       </c>
-      <c r="O53" s="2">
+      <c r="O103" s="2">
         <v>2915.7617682164901</v>
       </c>
-      <c r="P53" s="2">
+      <c r="P103" s="2">
         <v>25333054.934995431</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A54" s="2">
+    <row r="104" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A104" s="3">
         <v>79746</v>
       </c>
-      <c r="B54" s="2">
+      <c r="B104" s="2">
         <v>16843</v>
       </c>
-      <c r="C54" s="2">
+      <c r="C104" s="2">
         <v>35339.908029999999</v>
       </c>
-      <c r="D54" s="2">
+      <c r="D104" s="2">
         <v>73491.599999999991</v>
       </c>
-      <c r="E54" s="2">
+      <c r="E104" s="2">
         <v>2645.9999999999991</v>
       </c>
-      <c r="F54" s="2">
+      <c r="F104" s="2">
         <v>2114276.5499864169</v>
       </c>
-      <c r="G54" s="2">
+      <c r="G104" s="2">
         <v>27.965422727272699</v>
       </c>
-      <c r="H54" s="2">
+      <c r="H104" s="2">
         <v>164.99999999999889</v>
       </c>
-      <c r="I54" s="2">
+      <c r="I104" s="2">
         <v>232.99999999999901</v>
       </c>
-      <c r="J54" s="2">
+      <c r="J104" s="2">
         <v>188.49999999999929</v>
       </c>
-      <c r="K54" s="2">
+      <c r="K104" s="2">
         <v>1592.9999999998829</v>
       </c>
-      <c r="L54" s="2">
+      <c r="L104" s="2">
         <v>37819.7689054316</v>
       </c>
-      <c r="M54" s="2">
+      <c r="M104" s="2">
         <v>385565.28476867708</v>
       </c>
-      <c r="N54" s="2">
+      <c r="N104" s="2">
         <v>7.9999999999999671</v>
       </c>
-      <c r="O54" s="2">
+      <c r="O104" s="2">
         <v>5536</v>
       </c>
-      <c r="P54" s="2">
+      <c r="P104" s="2">
         <v>37484508.028549999</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A55" s="2">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A105" s="3">
         <v>57687</v>
       </c>
-      <c r="B55" s="2">
+      <c r="B105" s="2">
         <v>11428.022546365821</v>
       </c>
-      <c r="C55" s="2">
+      <c r="C105" s="2">
         <v>29031.0083701363</v>
       </c>
-      <c r="D55" s="2">
+      <c r="D105" s="2">
         <v>38299.681634895933</v>
       </c>
-      <c r="E55" s="2">
+      <c r="E105" s="2">
         <v>1288.588016602401</v>
       </c>
-      <c r="F55" s="2">
+      <c r="F105" s="2">
         <v>2114276.5499864169</v>
       </c>
-      <c r="G55" s="2">
+      <c r="G105" s="2">
         <v>29.41</v>
       </c>
-      <c r="H55" s="2">
+      <c r="H105" s="2">
         <v>123.30669105307349</v>
       </c>
-      <c r="I55" s="2">
+      <c r="I105" s="2">
         <v>230.99999999999901</v>
       </c>
-      <c r="J55" s="2">
+      <c r="J105" s="2">
         <v>233.29999999999961</v>
       </c>
-      <c r="K55" s="2">
+      <c r="K105" s="2">
         <v>383.99999999993003</v>
       </c>
-      <c r="L55" s="2">
+      <c r="L105" s="2">
         <v>37867.999999999993</v>
       </c>
-      <c r="M55" s="2">
+      <c r="M105" s="2">
         <v>397106.55893314042</v>
       </c>
-      <c r="N55" s="2">
+      <c r="N105" s="2">
         <v>0.99999999999999423</v>
       </c>
-      <c r="O55" s="2">
+      <c r="O105" s="2">
         <v>2915.7617682164901</v>
       </c>
-      <c r="P55" s="2">
+      <c r="P105" s="2">
         <v>32139963.46512001</v>
       </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A56" s="2">
+    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A106" s="3">
         <v>141368</v>
       </c>
-      <c r="B56" s="2">
+      <c r="B106" s="2">
         <v>33537</v>
       </c>
-      <c r="C56" s="2">
+      <c r="C106" s="2">
         <v>29031.0083701363</v>
       </c>
-      <c r="D56" s="2">
+      <c r="D106" s="2">
         <v>58200</v>
       </c>
-      <c r="E56" s="2">
+      <c r="E106" s="2">
         <v>2876.9999999999968</v>
       </c>
-      <c r="F56" s="2">
+      <c r="F106" s="2">
         <v>10541809.012150001</v>
       </c>
-      <c r="G56" s="2">
+      <c r="G106" s="2">
         <v>31.4</v>
       </c>
-      <c r="H56" s="2">
+      <c r="H106" s="2">
         <v>306.99999999999801</v>
       </c>
-      <c r="I56" s="2">
+      <c r="I106" s="2">
         <v>198.9999999999992</v>
       </c>
-      <c r="J56" s="2">
+      <c r="J106" s="2">
         <v>515.09434074171179</v>
       </c>
-      <c r="K56" s="2">
+      <c r="K106" s="2">
         <v>595570.99999999977</v>
       </c>
-      <c r="L56" s="2">
+      <c r="L106" s="2">
         <v>59771.349999999991</v>
       </c>
-      <c r="M56" s="2">
+      <c r="M106" s="2">
         <v>1725327.0647264121</v>
       </c>
-      <c r="N56" s="2">
+      <c r="N106" s="2">
         <v>90.999999999999801</v>
       </c>
-      <c r="O56" s="2">
+      <c r="O106" s="2">
         <v>9371</v>
       </c>
-      <c r="P56" s="2">
+      <c r="P106" s="2">
         <v>79424596.731749997</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A57" s="2">
+    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A107" s="3">
+        <v>59753</v>
+      </c>
+      <c r="B107" s="2">
+        <v>18176</v>
+      </c>
+      <c r="C107" s="2">
+        <v>29031.0083701363</v>
+      </c>
+      <c r="D107" s="2">
+        <v>38299.681634895933</v>
+      </c>
+      <c r="E107" s="2">
+        <v>1288.588016602401</v>
+      </c>
+      <c r="F107" s="2">
+        <v>646991.0733868184</v>
+      </c>
+      <c r="G107" s="2">
+        <v>27.965422727272699</v>
+      </c>
+      <c r="H107" s="2">
+        <v>123.30669105307349</v>
+      </c>
+      <c r="I107" s="2">
+        <v>288.99999999999881</v>
+      </c>
+      <c r="J107" s="2">
+        <v>587.09999999999934</v>
+      </c>
+      <c r="K107" s="2">
+        <v>126725.9999999999</v>
+      </c>
+      <c r="L107" s="2">
+        <v>185639.8</v>
+      </c>
+      <c r="M107" s="2">
+        <v>14552482.0845</v>
+      </c>
+      <c r="N107" s="2">
+        <v>25.90492510159179</v>
+      </c>
+      <c r="O107" s="2">
+        <v>2915.7617682164901</v>
+      </c>
+      <c r="P107" s="2">
+        <v>36429440.007749997</v>
+      </c>
+    </row>
+    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A108" s="3">
+        <v>29720.999999999989</v>
+      </c>
+      <c r="B108" s="2">
+        <v>11428.022546365821</v>
+      </c>
+      <c r="C108" s="2">
+        <v>29031.0083701363</v>
+      </c>
+      <c r="D108" s="2">
+        <v>38299.681634895933</v>
+      </c>
+      <c r="E108" s="2">
+        <v>355.02351641342221</v>
+      </c>
+      <c r="F108" s="2">
+        <v>1249615.0880241629</v>
+      </c>
+      <c r="G108" s="2">
+        <v>27.965422727272699</v>
+      </c>
+      <c r="H108" s="2">
+        <v>123.30669105307349</v>
+      </c>
+      <c r="I108" s="2">
+        <v>71.089949644104749</v>
+      </c>
+      <c r="J108" s="2">
+        <v>515.09434074171179</v>
+      </c>
+      <c r="K108" s="2">
+        <v>242107.99999999991</v>
+      </c>
+      <c r="L108" s="2">
+        <v>37819.7689054316</v>
+      </c>
+      <c r="M108" s="2">
+        <v>1912868.086399999</v>
+      </c>
+      <c r="N108" s="2">
+        <v>33.999999999999929</v>
+      </c>
+      <c r="O108" s="2">
+        <v>2915.7617682164901</v>
+      </c>
+      <c r="P108" s="2">
+        <v>11441482.03710763</v>
+      </c>
+    </row>
+    <row r="109" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A109" s="3">
+        <v>33916.999999999993</v>
+      </c>
+      <c r="B109" s="2">
+        <v>11428.022546365821</v>
+      </c>
+      <c r="C109" s="2">
+        <v>42094.553160000003</v>
+      </c>
+      <c r="D109" s="2">
+        <v>38299.681634895933</v>
+      </c>
+      <c r="E109" s="2">
+        <v>1288.588016602401</v>
+      </c>
+      <c r="F109" s="2">
+        <v>336951.98870983481</v>
+      </c>
+      <c r="G109" s="2">
+        <v>27.965422727272699</v>
+      </c>
+      <c r="H109" s="2">
+        <v>123.30669105307349</v>
+      </c>
+      <c r="I109" s="2">
+        <v>132.03295622095121</v>
+      </c>
+      <c r="J109" s="2">
+        <v>203.39999999999961</v>
+      </c>
+      <c r="K109" s="2">
+        <v>5408.9999999999827</v>
+      </c>
+      <c r="L109" s="2">
+        <v>15835.477361445921</v>
+      </c>
+      <c r="M109" s="2">
+        <v>350186.71068528277</v>
+      </c>
+      <c r="N109" s="2">
+        <v>25.90492510159179</v>
+      </c>
+      <c r="O109" s="2">
+        <v>2915.7617682164901</v>
+      </c>
+      <c r="P109" s="2">
+        <v>25333054.934995431</v>
+      </c>
+    </row>
+    <row r="110" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A110" s="3">
+        <v>24095.999999999989</v>
+      </c>
+      <c r="B110" s="2">
+        <v>11428.022546365821</v>
+      </c>
+      <c r="C110" s="2">
+        <v>46334.301520000001</v>
+      </c>
+      <c r="D110" s="2">
+        <v>19731.277122312211</v>
+      </c>
+      <c r="E110" s="2">
+        <v>281.85988634173702</v>
+      </c>
+      <c r="F110" s="2">
+        <v>46631.335186185453</v>
+      </c>
+      <c r="G110" s="2">
+        <v>30</v>
+      </c>
+      <c r="H110" s="2">
+        <v>123.30669105307349</v>
+      </c>
+      <c r="I110" s="2">
+        <v>132.03295622095121</v>
+      </c>
+      <c r="J110" s="2">
+        <v>515.09434074171179</v>
+      </c>
+      <c r="K110" s="2">
+        <v>4131.9999999999918</v>
+      </c>
+      <c r="L110" s="2">
+        <v>12104.477367451331</v>
+      </c>
+      <c r="M110" s="2">
+        <v>231427.53630159251</v>
+      </c>
+      <c r="N110" s="2">
+        <v>25.90492510159179</v>
+      </c>
+      <c r="O110" s="2">
+        <v>2915.7617682164901</v>
+      </c>
+      <c r="P110" s="2">
+        <v>25333054.934995431</v>
+      </c>
+    </row>
+    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A111" s="3">
+        <v>22690.999999999989</v>
+      </c>
+      <c r="B111" s="2">
+        <v>4345.7091628412782</v>
+      </c>
+      <c r="C111" s="2">
+        <v>29031.0083701363</v>
+      </c>
+      <c r="D111" s="2">
+        <v>13477.59356794019</v>
+      </c>
+      <c r="E111" s="2">
+        <v>520.54123690346353</v>
+      </c>
+      <c r="F111" s="2">
+        <v>1125572.4279681039</v>
+      </c>
+      <c r="G111" s="2">
+        <v>27.965422727272699</v>
+      </c>
+      <c r="H111" s="2">
+        <v>123.30669105307349</v>
+      </c>
+      <c r="I111" s="2">
+        <v>45.864483641357879</v>
+      </c>
+      <c r="J111" s="2">
+        <v>809.89999999999918</v>
+      </c>
+      <c r="K111" s="2">
+        <v>49395.306275683972</v>
+      </c>
+      <c r="L111" s="2">
+        <v>37819.7689054316</v>
+      </c>
+      <c r="M111" s="2">
+        <v>3207835.7308999989</v>
+      </c>
+      <c r="N111" s="2">
+        <v>25.90492510159179</v>
+      </c>
+      <c r="O111" s="2">
+        <v>905.66841688992122</v>
+      </c>
+      <c r="P111" s="2">
+        <v>25333054.934995431</v>
+      </c>
+    </row>
+    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A112" s="3">
         <v>23671.999999999989</v>
       </c>
-      <c r="B57" s="2">
+      <c r="B112" s="2">
         <v>5316.1026797151171</v>
       </c>
-      <c r="C57" s="2">
+      <c r="C112" s="2">
         <v>20804.770158470299</v>
       </c>
-      <c r="D57" s="2">
+      <c r="D112" s="2">
         <v>18102.33886557139</v>
       </c>
-      <c r="E57" s="2">
+      <c r="E112" s="2">
         <v>692.21862862467367</v>
       </c>
-      <c r="F57" s="2">
+      <c r="F112" s="2">
         <v>786293.0504705467</v>
       </c>
-      <c r="G57" s="2">
+      <c r="G112" s="2">
         <v>28</v>
       </c>
-      <c r="H57" s="2">
+      <c r="H112" s="2">
         <v>90.463582676213051</v>
       </c>
-      <c r="I57" s="2">
+      <c r="I112" s="2">
         <v>70.480699544079414</v>
       </c>
-      <c r="J57" s="2">
+      <c r="J112" s="2">
         <v>497.85288158683818</v>
       </c>
-      <c r="K57" s="2">
+      <c r="K112" s="2">
         <v>61373.672326328422</v>
       </c>
-      <c r="L57" s="2">
+      <c r="L112" s="2">
         <v>12579.47779916077</v>
       </c>
-      <c r="M57" s="2">
+      <c r="M112" s="2">
         <v>3234408.7671999992</v>
       </c>
-      <c r="N57" s="2">
+      <c r="N112" s="2">
         <v>28.514194264827129</v>
       </c>
-      <c r="O57" s="2">
+      <c r="O112" s="2">
         <v>801.10415672385136</v>
       </c>
-      <c r="P57" s="2">
+      <c r="P112" s="2">
         <v>1155335.2855618461</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A58" s="2">
+    <row r="113" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A113" s="3">
         <v>116468</v>
       </c>
-      <c r="B58" s="2">
+      <c r="B113" s="2">
         <v>21239</v>
       </c>
-      <c r="C58" s="2">
+      <c r="C113" s="2">
         <v>23604.910929999998</v>
       </c>
-      <c r="D58" s="2">
+      <c r="D113" s="2">
         <v>64664.399999999987</v>
       </c>
-      <c r="E58" s="2">
+      <c r="E113" s="2">
         <v>2077</v>
       </c>
-      <c r="F58" s="2">
-        <v>4676977.1911799992</v>
-      </c>
-      <c r="G58" s="2">
+      <c r="F113" s="2">
+        <v>4676977.1911800001</v>
+      </c>
+      <c r="G113" s="2">
         <v>30.2</v>
       </c>
-      <c r="H58" s="2">
+      <c r="H113" s="2">
         <v>300.99999999999812</v>
       </c>
-      <c r="I58" s="2">
+      <c r="I113" s="2">
         <v>303.99999999999869</v>
       </c>
-      <c r="J58" s="2">
+      <c r="J113" s="2">
         <v>783.79999999999882</v>
       </c>
-      <c r="K58" s="2">
+      <c r="K113" s="2">
         <v>202571</v>
       </c>
-      <c r="L58" s="2">
+      <c r="L113" s="2">
         <v>87368.909999999974</v>
       </c>
-      <c r="M58" s="2">
+      <c r="M113" s="2">
         <v>8408723.8795999978</v>
       </c>
-      <c r="N58" s="2">
+      <c r="N113" s="2">
         <v>34.999999999999901</v>
       </c>
-      <c r="O58" s="2">
+      <c r="O113" s="2">
         <v>4502</v>
       </c>
-      <c r="P58" s="2">
+      <c r="P113" s="2">
         <v>19397519.885310002</v>
       </c>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A59" s="2">
+    <row r="114" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A114" s="3">
         <v>64841.999999999993</v>
       </c>
-      <c r="B59" s="2">
+      <c r="B114" s="2">
         <v>15029</v>
       </c>
-      <c r="C59" s="2">
+      <c r="C114" s="2">
         <v>25869.387780000001</v>
       </c>
-      <c r="D59" s="2">
+      <c r="D114" s="2">
         <v>18102.33886557139</v>
       </c>
-      <c r="E59" s="2">
+      <c r="E114" s="2">
         <v>1123.9999999999991</v>
       </c>
-      <c r="F59" s="2">
+      <c r="F114" s="2">
         <v>866008.93850999954</v>
       </c>
-      <c r="G59" s="2">
+      <c r="G114" s="2">
         <v>26.112401315789398</v>
       </c>
-      <c r="H59" s="2">
+      <c r="H114" s="2">
         <v>124.9999999999992</v>
       </c>
-      <c r="I59" s="2">
+      <c r="I114" s="2">
         <v>194.99999999999909</v>
       </c>
-      <c r="J59" s="2">
+      <c r="J114" s="2">
         <v>257.87557539933027</v>
       </c>
-      <c r="K59" s="2">
+      <c r="K114" s="2">
         <v>2327.949027416018</v>
       </c>
-      <c r="L59" s="2">
+      <c r="L114" s="2">
         <v>29602.9087374105</v>
       </c>
-      <c r="M59" s="2">
+      <c r="M114" s="2">
         <v>352889.09448255628</v>
       </c>
-      <c r="N59" s="2">
+      <c r="N114" s="2">
         <v>11.99999999999995</v>
       </c>
-      <c r="O59" s="2">
+      <c r="O114" s="2">
         <v>3211</v>
       </c>
-      <c r="P59" s="2">
+      <c r="P114" s="2">
         <v>9430951.7147999946</v>
       </c>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A60" s="2">
+    <row r="115" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A115" s="3">
         <v>64100</v>
       </c>
-      <c r="B60" s="2">
+      <c r="B115" s="2">
         <v>9192</v>
       </c>
-      <c r="C60" s="2">
+      <c r="C115" s="2">
         <v>21205.026720000002</v>
       </c>
-      <c r="D60" s="2">
+      <c r="D115" s="2">
         <v>59994</v>
       </c>
-      <c r="E60" s="2">
+      <c r="E115" s="2">
         <v>1042.9999999999991</v>
       </c>
-      <c r="F60" s="2">
+      <c r="F115" s="2">
         <v>1194600.348719999</v>
       </c>
-      <c r="G60" s="2">
+      <c r="G115" s="2">
         <v>26.112401315789398</v>
       </c>
-      <c r="H60" s="2">
+      <c r="H115" s="2">
         <v>140.99999999999909</v>
       </c>
-      <c r="I60" s="2">
+      <c r="I115" s="2">
         <v>92.999999999999559</v>
       </c>
-      <c r="J60" s="2">
+      <c r="J115" s="2">
         <v>563.59999999999923</v>
       </c>
-      <c r="K60" s="2">
+      <c r="K115" s="2">
         <v>61373.672326328422</v>
       </c>
-      <c r="L60" s="2">
+      <c r="L115" s="2">
         <v>57654.419999999991</v>
       </c>
-      <c r="M60" s="2">
+      <c r="M115" s="2">
         <v>8271274.1760000018</v>
       </c>
-      <c r="N60" s="2">
+      <c r="N115" s="2">
         <v>36.999999999999908</v>
       </c>
-      <c r="O60" s="2">
+      <c r="O115" s="2">
         <v>3090</v>
       </c>
-      <c r="P60" s="2">
+      <c r="P115" s="2">
         <v>7029925.2345599988</v>
       </c>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A61" s="2">
+    <row r="116" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A116" s="3">
         <v>105038</v>
       </c>
-      <c r="B61" s="2">
+      <c r="B116" s="2">
         <v>11442</v>
       </c>
-      <c r="C61" s="2">
+      <c r="C116" s="2">
         <v>20804.770158470299</v>
       </c>
-      <c r="D61" s="2">
+      <c r="D116" s="2">
         <v>69421.599999999991</v>
       </c>
-      <c r="E61" s="2">
+      <c r="E116" s="2">
         <v>104.0508328856842</v>
       </c>
-      <c r="F61" s="2">
-        <v>3389505.0557000008</v>
-      </c>
-      <c r="G61" s="2">
+      <c r="F116" s="2">
+        <v>3389505.0556999999</v>
+      </c>
+      <c r="G116" s="2">
         <v>26.112401315789398</v>
       </c>
-      <c r="H61" s="2">
+      <c r="H116" s="2">
         <v>164.99999999999889</v>
       </c>
-      <c r="I61" s="2">
+      <c r="I116" s="2">
         <v>248.99999999999901</v>
       </c>
-      <c r="J61" s="2">
+      <c r="J116" s="2">
         <v>497.85288158683818</v>
       </c>
-      <c r="K61" s="2">
+      <c r="K116" s="2">
         <v>19594.912583464229</v>
       </c>
-      <c r="L61" s="2">
+      <c r="L116" s="2">
         <v>57789.999999999949</v>
       </c>
-      <c r="M61" s="2">
+      <c r="M116" s="2">
         <v>708166.29511669534</v>
       </c>
-      <c r="N61" s="2">
+      <c r="N116" s="2">
         <v>5.9999999999999627</v>
       </c>
-      <c r="O61" s="2">
+      <c r="O116" s="2">
         <v>3403</v>
       </c>
-      <c r="P61" s="2">
-        <v>5939939.1027599983</v>
-      </c>
-    </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A62" s="4"/>
-      <c r="B62" s="5"/>
-      <c r="C62" s="5"/>
-      <c r="D62" s="5"/>
-      <c r="E62" s="5"/>
-      <c r="F62" s="5"/>
-      <c r="G62" s="5"/>
-      <c r="H62" s="5"/>
-      <c r="I62" s="5"/>
-      <c r="J62" s="5"/>
-      <c r="K62" s="5"/>
-      <c r="L62" s="5"/>
-      <c r="M62" s="5"/>
-      <c r="N62" s="5"/>
-      <c r="O62" s="5"/>
-      <c r="P62" s="5"/>
-    </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A63" s="3"/>
-      <c r="B63" s="2"/>
-      <c r="C63" s="2"/>
-      <c r="D63" s="2"/>
-      <c r="E63" s="2"/>
-      <c r="F63" s="2"/>
-      <c r="G63" s="2"/>
-      <c r="H63" s="2"/>
-      <c r="I63" s="2"/>
-      <c r="J63" s="2"/>
-      <c r="K63" s="2"/>
-      <c r="L63" s="2"/>
-      <c r="M63" s="2"/>
-      <c r="N63" s="2"/>
-      <c r="O63" s="2"/>
-      <c r="P63" s="2"/>
-    </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A64" s="3"/>
-      <c r="B64" s="2"/>
-      <c r="C64" s="2"/>
-      <c r="D64" s="2"/>
-      <c r="E64" s="2"/>
-      <c r="F64" s="2"/>
-      <c r="G64" s="2"/>
-      <c r="H64" s="2"/>
-      <c r="I64" s="2"/>
-      <c r="J64" s="2"/>
-      <c r="K64" s="2"/>
-      <c r="L64" s="2"/>
-      <c r="M64" s="2"/>
-      <c r="N64" s="2"/>
-      <c r="O64" s="2"/>
-      <c r="P64" s="2"/>
-    </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A65" s="3"/>
-      <c r="B65" s="2"/>
-      <c r="C65" s="2"/>
-      <c r="D65" s="2"/>
-      <c r="E65" s="2"/>
-      <c r="F65" s="2"/>
-      <c r="G65" s="2"/>
-      <c r="H65" s="2"/>
-      <c r="I65" s="2"/>
-      <c r="J65" s="2"/>
-      <c r="K65" s="2"/>
-      <c r="L65" s="2"/>
-      <c r="M65" s="2"/>
-      <c r="N65" s="2"/>
-      <c r="O65" s="2"/>
-      <c r="P65" s="2"/>
-    </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A66" s="3"/>
-      <c r="B66" s="2"/>
-      <c r="C66" s="2"/>
-      <c r="D66" s="2"/>
-      <c r="E66" s="2"/>
-      <c r="F66" s="2"/>
-      <c r="G66" s="2"/>
-      <c r="H66" s="2"/>
-      <c r="I66" s="2"/>
-      <c r="J66" s="2"/>
-      <c r="K66" s="2"/>
-      <c r="L66" s="2"/>
-      <c r="M66" s="2"/>
-      <c r="N66" s="2"/>
-      <c r="O66" s="2"/>
-      <c r="P66" s="2"/>
-    </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A67" s="3"/>
-      <c r="B67" s="2"/>
-      <c r="C67" s="2"/>
-      <c r="D67" s="2"/>
-      <c r="E67" s="2"/>
-      <c r="F67" s="2"/>
-      <c r="G67" s="2"/>
-      <c r="H67" s="2"/>
-      <c r="I67" s="2"/>
-      <c r="J67" s="2"/>
-      <c r="K67" s="2"/>
-      <c r="L67" s="2"/>
-      <c r="M67" s="2"/>
-      <c r="N67" s="2"/>
-      <c r="O67" s="2"/>
-      <c r="P67" s="2"/>
-    </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A68" s="3"/>
-      <c r="B68" s="2"/>
-      <c r="C68" s="2"/>
-      <c r="D68" s="2"/>
-      <c r="E68" s="2"/>
-      <c r="F68" s="2"/>
-      <c r="G68" s="2"/>
-      <c r="H68" s="2"/>
-      <c r="I68" s="2"/>
-      <c r="J68" s="2"/>
-      <c r="K68" s="2"/>
-      <c r="L68" s="2"/>
-      <c r="M68" s="2"/>
-      <c r="N68" s="2"/>
-      <c r="O68" s="2"/>
-      <c r="P68" s="2"/>
-    </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A69" s="3"/>
-      <c r="B69" s="2"/>
-      <c r="C69" s="2"/>
-      <c r="D69" s="2"/>
-      <c r="E69" s="2"/>
-      <c r="F69" s="2"/>
-      <c r="G69" s="2"/>
-      <c r="H69" s="2"/>
-      <c r="I69" s="2"/>
-      <c r="J69" s="2"/>
-      <c r="K69" s="2"/>
-      <c r="L69" s="2"/>
-      <c r="M69" s="2"/>
-      <c r="N69" s="2"/>
-      <c r="O69" s="2"/>
-      <c r="P69" s="2"/>
-    </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A70" s="3"/>
-      <c r="B70" s="2"/>
-      <c r="C70" s="2"/>
-      <c r="D70" s="2"/>
-      <c r="E70" s="2"/>
-      <c r="F70" s="2"/>
-      <c r="G70" s="2"/>
-      <c r="H70" s="2"/>
-      <c r="I70" s="2"/>
-      <c r="J70" s="2"/>
-      <c r="K70" s="2"/>
-      <c r="L70" s="2"/>
-      <c r="M70" s="2"/>
-      <c r="N70" s="2"/>
-      <c r="O70" s="2"/>
-      <c r="P70" s="2"/>
-    </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A71" s="3"/>
-      <c r="B71" s="2"/>
-      <c r="C71" s="2"/>
-      <c r="D71" s="2"/>
-      <c r="E71" s="2"/>
-      <c r="F71" s="2"/>
-      <c r="G71" s="2"/>
-      <c r="H71" s="2"/>
-      <c r="I71" s="2"/>
-      <c r="J71" s="2"/>
-      <c r="K71" s="2"/>
-      <c r="L71" s="2"/>
-      <c r="M71" s="2"/>
-      <c r="N71" s="2"/>
-      <c r="O71" s="2"/>
-      <c r="P71" s="2"/>
-    </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A72" s="3"/>
-      <c r="B72" s="2"/>
-      <c r="C72" s="2"/>
-      <c r="D72" s="2"/>
-      <c r="E72" s="2"/>
-      <c r="F72" s="2"/>
-      <c r="G72" s="2"/>
-      <c r="H72" s="2"/>
-      <c r="I72" s="2"/>
-      <c r="J72" s="2"/>
-      <c r="K72" s="2"/>
-      <c r="L72" s="2"/>
-      <c r="M72" s="2"/>
-      <c r="N72" s="2"/>
-      <c r="O72" s="2"/>
-      <c r="P72" s="2"/>
-    </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A73" s="3"/>
-      <c r="B73" s="2"/>
-      <c r="C73" s="2"/>
-      <c r="D73" s="2"/>
-      <c r="E73" s="2"/>
-      <c r="F73" s="2"/>
-      <c r="G73" s="2"/>
-      <c r="H73" s="2"/>
-      <c r="I73" s="2"/>
-      <c r="J73" s="2"/>
-      <c r="K73" s="2"/>
-      <c r="L73" s="2"/>
-      <c r="M73" s="2"/>
-      <c r="N73" s="2"/>
-      <c r="O73" s="2"/>
-      <c r="P73" s="2"/>
-    </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A74" s="3"/>
-      <c r="B74" s="2"/>
-      <c r="C74" s="2"/>
-      <c r="D74" s="2"/>
-      <c r="E74" s="2"/>
-      <c r="F74" s="2"/>
-      <c r="G74" s="2"/>
-      <c r="H74" s="2"/>
-      <c r="I74" s="2"/>
-      <c r="J74" s="2"/>
-      <c r="K74" s="2"/>
-      <c r="L74" s="2"/>
-      <c r="M74" s="2"/>
-      <c r="N74" s="2"/>
-      <c r="O74" s="2"/>
-      <c r="P74" s="2"/>
-    </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A75" s="3"/>
-      <c r="B75" s="2"/>
-      <c r="C75" s="2"/>
-      <c r="D75" s="2"/>
-      <c r="E75" s="2"/>
-      <c r="F75" s="2"/>
-      <c r="G75" s="2"/>
-      <c r="H75" s="2"/>
-      <c r="I75" s="2"/>
-      <c r="J75" s="2"/>
-      <c r="K75" s="2"/>
-      <c r="L75" s="2"/>
-      <c r="M75" s="2"/>
-      <c r="N75" s="2"/>
-      <c r="O75" s="2"/>
-      <c r="P75" s="2"/>
-    </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A76" s="3"/>
-      <c r="B76" s="2"/>
-      <c r="C76" s="2"/>
-      <c r="D76" s="2"/>
-      <c r="E76" s="2"/>
-      <c r="F76" s="2"/>
-      <c r="G76" s="2"/>
-      <c r="H76" s="2"/>
-      <c r="I76" s="2"/>
-      <c r="J76" s="2"/>
-      <c r="K76" s="2"/>
-      <c r="L76" s="2"/>
-      <c r="M76" s="2"/>
-      <c r="N76" s="2"/>
-      <c r="O76" s="2"/>
-      <c r="P76" s="2"/>
-    </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A77" s="3"/>
-      <c r="B77" s="2"/>
-      <c r="C77" s="2"/>
-      <c r="D77" s="2"/>
-      <c r="E77" s="2"/>
-      <c r="F77" s="2"/>
-      <c r="G77" s="2"/>
-      <c r="H77" s="2"/>
-      <c r="I77" s="2"/>
-      <c r="J77" s="2"/>
-      <c r="K77" s="2"/>
-      <c r="L77" s="2"/>
-      <c r="M77" s="2"/>
-      <c r="N77" s="2"/>
-      <c r="O77" s="2"/>
-      <c r="P77" s="2"/>
-    </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A78" s="3"/>
-      <c r="B78" s="2"/>
-      <c r="C78" s="2"/>
-      <c r="D78" s="2"/>
-      <c r="E78" s="2"/>
-      <c r="F78" s="2"/>
-      <c r="G78" s="2"/>
-      <c r="H78" s="2"/>
-      <c r="I78" s="2"/>
-      <c r="J78" s="2"/>
-      <c r="K78" s="2"/>
-      <c r="L78" s="2"/>
-      <c r="M78" s="2"/>
-      <c r="N78" s="2"/>
-      <c r="O78" s="2"/>
-      <c r="P78" s="2"/>
-    </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A79" s="3"/>
-      <c r="B79" s="2"/>
-      <c r="C79" s="2"/>
-      <c r="D79" s="2"/>
-      <c r="E79" s="2"/>
-      <c r="F79" s="2"/>
-      <c r="G79" s="2"/>
-      <c r="H79" s="2"/>
-      <c r="I79" s="2"/>
-      <c r="J79" s="2"/>
-      <c r="K79" s="2"/>
-      <c r="L79" s="2"/>
-      <c r="M79" s="2"/>
-      <c r="N79" s="2"/>
-      <c r="O79" s="2"/>
-      <c r="P79" s="2"/>
-    </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A80" s="3"/>
-      <c r="B80" s="2"/>
-      <c r="C80" s="2"/>
-      <c r="D80" s="2"/>
-      <c r="E80" s="2"/>
-      <c r="F80" s="2"/>
-      <c r="G80" s="2"/>
-      <c r="H80" s="2"/>
-      <c r="I80" s="2"/>
-      <c r="J80" s="2"/>
-      <c r="K80" s="2"/>
-      <c r="L80" s="2"/>
-      <c r="M80" s="2"/>
-      <c r="N80" s="2"/>
-      <c r="O80" s="2"/>
-      <c r="P80" s="2"/>
-    </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A81" s="3"/>
-      <c r="B81" s="2"/>
-      <c r="C81" s="2"/>
-      <c r="D81" s="2"/>
-      <c r="E81" s="2"/>
-      <c r="F81" s="2"/>
-      <c r="G81" s="2"/>
-      <c r="H81" s="2"/>
-      <c r="I81" s="2"/>
-      <c r="J81" s="2"/>
-      <c r="K81" s="2"/>
-      <c r="L81" s="2"/>
-      <c r="M81" s="2"/>
-      <c r="N81" s="2"/>
-      <c r="O81" s="2"/>
-      <c r="P81" s="2"/>
-    </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A82" s="3"/>
-      <c r="B82" s="2"/>
-      <c r="C82" s="2"/>
-      <c r="D82" s="2"/>
-      <c r="E82" s="2"/>
-      <c r="F82" s="2"/>
-      <c r="G82" s="2"/>
-      <c r="H82" s="2"/>
-      <c r="I82" s="2"/>
-      <c r="J82" s="2"/>
-      <c r="K82" s="2"/>
-      <c r="L82" s="2"/>
-      <c r="M82" s="2"/>
-      <c r="N82" s="2"/>
-      <c r="O82" s="2"/>
-      <c r="P82" s="2"/>
-    </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A83" s="3"/>
-      <c r="B83" s="2"/>
-      <c r="C83" s="2"/>
-      <c r="D83" s="2"/>
-      <c r="E83" s="2"/>
-      <c r="F83" s="2"/>
-      <c r="G83" s="2"/>
-      <c r="H83" s="2"/>
-      <c r="I83" s="2"/>
-      <c r="J83" s="2"/>
-      <c r="K83" s="2"/>
-      <c r="L83" s="2"/>
-      <c r="M83" s="2"/>
-      <c r="N83" s="2"/>
-      <c r="O83" s="2"/>
-      <c r="P83" s="2"/>
-    </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A84" s="3"/>
-      <c r="B84" s="2"/>
-      <c r="C84" s="2"/>
-      <c r="D84" s="2"/>
-      <c r="E84" s="2"/>
-      <c r="F84" s="2"/>
-      <c r="G84" s="2"/>
-      <c r="H84" s="2"/>
-      <c r="I84" s="2"/>
-      <c r="J84" s="2"/>
-      <c r="K84" s="2"/>
-      <c r="L84" s="2"/>
-      <c r="M84" s="2"/>
-      <c r="N84" s="2"/>
-      <c r="O84" s="2"/>
-      <c r="P84" s="2"/>
-    </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A85" s="3"/>
-      <c r="B85" s="2"/>
-      <c r="C85" s="2"/>
-      <c r="D85" s="2"/>
-      <c r="E85" s="2"/>
-      <c r="F85" s="2"/>
-      <c r="G85" s="2"/>
-      <c r="H85" s="2"/>
-      <c r="I85" s="2"/>
-      <c r="J85" s="2"/>
-      <c r="K85" s="2"/>
-      <c r="L85" s="2"/>
-      <c r="M85" s="2"/>
-      <c r="N85" s="2"/>
-      <c r="O85" s="2"/>
-      <c r="P85" s="2"/>
-    </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A86" s="3"/>
-      <c r="B86" s="2"/>
-      <c r="C86" s="2"/>
-      <c r="D86" s="2"/>
-      <c r="E86" s="2"/>
-      <c r="F86" s="2"/>
-      <c r="G86" s="2"/>
-      <c r="H86" s="2"/>
-      <c r="I86" s="2"/>
-      <c r="J86" s="2"/>
-      <c r="K86" s="2"/>
-      <c r="L86" s="2"/>
-      <c r="M86" s="2"/>
-      <c r="N86" s="2"/>
-      <c r="O86" s="2"/>
-      <c r="P86" s="2"/>
-    </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A87" s="3"/>
-      <c r="B87" s="2"/>
-      <c r="C87" s="2"/>
-      <c r="D87" s="2"/>
-      <c r="E87" s="2"/>
-      <c r="F87" s="2"/>
-      <c r="G87" s="2"/>
-      <c r="H87" s="2"/>
-      <c r="I87" s="2"/>
-      <c r="J87" s="2"/>
-      <c r="K87" s="2"/>
-      <c r="L87" s="2"/>
-      <c r="M87" s="2"/>
-      <c r="N87" s="2"/>
-      <c r="O87" s="2"/>
-      <c r="P87" s="2"/>
-    </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A88" s="3"/>
-      <c r="B88" s="2"/>
-      <c r="C88" s="2"/>
-      <c r="D88" s="2"/>
-      <c r="E88" s="2"/>
-      <c r="F88" s="2"/>
-      <c r="G88" s="2"/>
-      <c r="H88" s="2"/>
-      <c r="I88" s="2"/>
-      <c r="J88" s="2"/>
-      <c r="K88" s="2"/>
-      <c r="L88" s="2"/>
-      <c r="M88" s="2"/>
-      <c r="N88" s="2"/>
-      <c r="O88" s="2"/>
-      <c r="P88" s="2"/>
-    </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A89" s="3"/>
-      <c r="B89" s="2"/>
-      <c r="C89" s="2"/>
-      <c r="D89" s="2"/>
-      <c r="E89" s="2"/>
-      <c r="F89" s="2"/>
-      <c r="G89" s="2"/>
-      <c r="H89" s="2"/>
-      <c r="I89" s="2"/>
-      <c r="J89" s="2"/>
-      <c r="K89" s="2"/>
-      <c r="L89" s="2"/>
-      <c r="M89" s="2"/>
-      <c r="N89" s="2"/>
-      <c r="O89" s="2"/>
-      <c r="P89" s="2"/>
-    </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A90" s="3"/>
-      <c r="B90" s="2"/>
-      <c r="C90" s="2"/>
-      <c r="D90" s="2"/>
-      <c r="E90" s="2"/>
-      <c r="F90" s="2"/>
-      <c r="G90" s="2"/>
-      <c r="H90" s="2"/>
-      <c r="I90" s="2"/>
-      <c r="J90" s="2"/>
-      <c r="K90" s="2"/>
-      <c r="L90" s="2"/>
-      <c r="M90" s="2"/>
-      <c r="N90" s="2"/>
-      <c r="O90" s="2"/>
-      <c r="P90" s="2"/>
-    </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A91" s="3"/>
-      <c r="B91" s="2"/>
-      <c r="C91" s="2"/>
-      <c r="D91" s="2"/>
-      <c r="E91" s="2"/>
-      <c r="F91" s="2"/>
-      <c r="G91" s="2"/>
-      <c r="H91" s="2"/>
-      <c r="I91" s="2"/>
-      <c r="J91" s="2"/>
-      <c r="K91" s="2"/>
-      <c r="L91" s="2"/>
-      <c r="M91" s="2"/>
-      <c r="N91" s="2"/>
-      <c r="O91" s="2"/>
-      <c r="P91" s="2"/>
+      <c r="P116" s="2">
+        <v>5939939.1027600002</v>
+      </c>
+    </row>
+    <row r="117" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A117" s="3">
+        <v>22677.999999999989</v>
+      </c>
+      <c r="B117" s="2">
+        <v>2850.946154295078</v>
+      </c>
+      <c r="C117" s="2">
+        <v>20804.770158470299</v>
+      </c>
+      <c r="D117" s="2">
+        <v>18102.33886557139</v>
+      </c>
+      <c r="E117" s="2">
+        <v>692.21862862467367</v>
+      </c>
+      <c r="F117" s="2">
+        <v>786293.0504705467</v>
+      </c>
+      <c r="G117" s="2">
+        <v>26.112401315789398</v>
+      </c>
+      <c r="H117" s="2">
+        <v>90.463582676213051</v>
+      </c>
+      <c r="I117" s="2">
+        <v>38.934050597635931</v>
+      </c>
+      <c r="J117" s="2">
+        <v>497.85288158683818</v>
+      </c>
+      <c r="K117" s="2">
+        <v>15515.367054092199</v>
+      </c>
+      <c r="L117" s="2">
+        <v>35901.050000000003</v>
+      </c>
+      <c r="M117" s="2">
+        <v>2185490.0203954638</v>
+      </c>
+      <c r="N117" s="2">
+        <v>28.514194264827129</v>
+      </c>
+      <c r="O117" s="2">
+        <v>1635.6427628317319</v>
+      </c>
+      <c r="P117" s="2">
+        <v>1301161.1051647051</v>
+      </c>
+    </row>
+    <row r="118" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A118" s="3">
+        <v>17174.999999999989</v>
+      </c>
+      <c r="B118" s="2">
+        <v>2608.1457950007161</v>
+      </c>
+      <c r="C118" s="2">
+        <v>22823.19152</v>
+      </c>
+      <c r="D118" s="2">
+        <v>7865.8328546353896</v>
+      </c>
+      <c r="E118" s="2">
+        <v>318.65567571240911</v>
+      </c>
+      <c r="F118" s="2">
+        <v>310464.05231932248</v>
+      </c>
+      <c r="G118" s="2">
+        <v>27.3</v>
+      </c>
+      <c r="H118" s="2">
+        <v>90.463582676213051</v>
+      </c>
+      <c r="I118" s="2">
+        <v>9.4385577206390021</v>
+      </c>
+      <c r="J118" s="2">
+        <v>89.062380118800007</v>
+      </c>
+      <c r="K118" s="2">
+        <v>86576.999999999913</v>
+      </c>
+      <c r="L118" s="2">
+        <v>29602.9087374105</v>
+      </c>
+      <c r="M118" s="2">
+        <v>2185490.0203954638</v>
+      </c>
+      <c r="N118" s="2">
+        <v>28.514194264827129</v>
+      </c>
+      <c r="O118" s="2">
+        <v>784.97454283008244</v>
+      </c>
+      <c r="P118" s="2">
+        <v>2038235.528024235</v>
+      </c>
+    </row>
+    <row r="119" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A119" s="3">
+        <v>39066.999999999993</v>
+      </c>
+      <c r="B119" s="2">
+        <v>6011.9999999999982</v>
+      </c>
+      <c r="C119" s="2">
+        <v>20804.770158470299</v>
+      </c>
+      <c r="D119" s="2">
+        <v>20455.999999999989</v>
+      </c>
+      <c r="E119" s="2">
+        <v>692.21862862467367</v>
+      </c>
+      <c r="F119" s="2">
+        <v>899043.39099999995</v>
+      </c>
+      <c r="G119" s="2">
+        <v>37.19</v>
+      </c>
+      <c r="H119" s="2">
+        <v>147.99999999999909</v>
+      </c>
+      <c r="I119" s="2">
+        <v>70.480699544079414</v>
+      </c>
+      <c r="J119" s="2">
+        <v>618.49999999999932</v>
+      </c>
+      <c r="K119" s="2">
+        <v>29004.37737062724</v>
+      </c>
+      <c r="L119" s="2">
+        <v>29602.9087374105</v>
+      </c>
+      <c r="M119" s="2">
+        <v>2652645.5177999991</v>
+      </c>
+      <c r="N119" s="2">
+        <v>28.514194264827129</v>
+      </c>
+      <c r="O119" s="2">
+        <v>1635.6427628317319</v>
+      </c>
+      <c r="P119" s="2">
+        <v>6067714.9468499981</v>
+      </c>
+    </row>
+    <row r="120" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A120" s="3">
+        <v>27626.999999999989</v>
+      </c>
+      <c r="B120" s="2">
+        <v>5316.1026797151171</v>
+      </c>
+      <c r="C120" s="2">
+        <v>20804.770158470299</v>
+      </c>
+      <c r="D120" s="2">
+        <v>18102.33886557139</v>
+      </c>
+      <c r="E120" s="2">
+        <v>1097.9999999999991</v>
+      </c>
+      <c r="F120" s="2">
+        <v>786293.0504705467</v>
+      </c>
+      <c r="G120" s="2">
+        <v>51.2</v>
+      </c>
+      <c r="H120" s="2">
+        <v>122.9999999999992</v>
+      </c>
+      <c r="I120" s="2">
+        <v>70.480699544079414</v>
+      </c>
+      <c r="J120" s="2">
+        <v>497.85288158683818</v>
+      </c>
+      <c r="K120" s="2">
+        <v>61373.672326328422</v>
+      </c>
+      <c r="L120" s="2">
+        <v>29602.9087374105</v>
+      </c>
+      <c r="M120" s="2">
+        <v>2725337.6207999978</v>
+      </c>
+      <c r="N120" s="2">
+        <v>28.514194264827129</v>
+      </c>
+      <c r="O120" s="2">
+        <v>1635.6427628317319</v>
+      </c>
+      <c r="P120" s="2">
+        <v>776217.68512479798</v>
+      </c>
+    </row>
+    <row r="121" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A121" s="3">
+        <v>31271</v>
+      </c>
+      <c r="B121" s="2">
+        <v>5316.1026797151171</v>
+      </c>
+      <c r="C121" s="2">
+        <v>20804.770158470299</v>
+      </c>
+      <c r="D121" s="2">
+        <v>18102.33886557139</v>
+      </c>
+      <c r="E121" s="2">
+        <v>692.21862862467367</v>
+      </c>
+      <c r="F121" s="2">
+        <v>411275.63845010422</v>
+      </c>
+      <c r="G121" s="2">
+        <v>29.58</v>
+      </c>
+      <c r="H121" s="2">
+        <v>90.463582676213051</v>
+      </c>
+      <c r="I121" s="2">
+        <v>113.9999999999995</v>
+      </c>
+      <c r="J121" s="2">
+        <v>497.85288158683818</v>
+      </c>
+      <c r="K121" s="2">
+        <v>116218</v>
+      </c>
+      <c r="L121" s="2">
+        <v>29804.749999999989</v>
+      </c>
+      <c r="M121" s="2">
+        <v>5228156.3358999994</v>
+      </c>
+      <c r="N121" s="2">
+        <v>38.999999999999908</v>
+      </c>
+      <c r="O121" s="2">
+        <v>1635.6427628317319</v>
+      </c>
+      <c r="P121" s="2">
+        <v>3002048.203665785</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
